--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit\Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22A9DC6-6877-4C1D-B2DA-2D1B2916865D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633ACE76-105D-4CF7-9985-795B2ACFA4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="170">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -647,6 +647,18 @@
   </si>
   <si>
     <t>Library OK-Placing Parts+Keys=Delayed</t>
+  </si>
+  <si>
+    <t>SPI Theory = Delayed Result</t>
+  </si>
+  <si>
+    <t>PCB Change all elements = Delayed Results</t>
+  </si>
+  <si>
+    <t>PCB Bad Routing+GIT Problems=No Results</t>
+  </si>
+  <si>
+    <t>PCB Aligned-Final Routing=Results!</t>
   </si>
 </sst>
 </file>
@@ -7029,6 +7041,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CE840A-BD0A-4D27-AF95-2193919D69FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5294164-5D5E-42FD-87C8-7E1A44422969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7929,6 +8049,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8906287-F7E2-4AE8-B456-052B901F25CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA3A69E-CAEC-424B-8124-C73781CE8F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8894,7 +9122,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-6.7881944444444402</v>
+        <v>-5.6631944444444304</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8939,7 +9167,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-6.7881944444444402</v>
+        <v>-5.6631944444444304</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8984,7 +9212,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.7881944444444402</v>
+        <v>-5.6631944444444304</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9029,7 +9257,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.7881944444444402</v>
+        <v>-5.6631944444444304</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9074,7 +9302,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.1215277777777697</v>
+        <v>-5.9965277777777599</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9119,7 +9347,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.2881944444444402</v>
+        <v>-6.1631944444444304</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9164,7 +9392,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6215277777777697</v>
+        <v>-6.4965277777777599</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9209,7 +9437,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6215277777777697</v>
+        <v>-6.4965277777777599</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9254,7 +9482,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6215277777777697</v>
+        <v>-6.4965277777777599</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9299,7 +9527,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6215277777777697</v>
+        <v>-6.4965277777777599</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9344,7 +9572,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6215277777777697</v>
+        <v>-6.4965277777777599</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9389,7 +9617,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.9548611111111001</v>
+        <v>-6.8298611111110903</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9434,7 +9662,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1215277777777697</v>
+        <v>-6.9965277777777599</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9479,7 +9707,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4548611111111001</v>
+        <v>-7.3298611111110903</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9524,7 +9752,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4548611111111001</v>
+        <v>-7.3298611111110903</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9569,7 +9797,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4548611111111001</v>
+        <v>-7.3298611111110903</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9614,7 +9842,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4548611111111001</v>
+        <v>-7.3298611111110903</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9659,7 +9887,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4548611111111001</v>
+        <v>-7.3298611111110903</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9704,7 +9932,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.7881944444444304</v>
+        <v>-7.6631944444444198</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9749,7 +9977,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.9548611111111001</v>
+        <v>-7.8298611111110903</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9794,7 +10022,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.2881944444444304</v>
+        <v>-8.1631944444444198</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9839,7 +10067,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.2881944444444304</v>
+        <v>-8.1631944444444198</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9884,7 +10112,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.2881944444444304</v>
+        <v>-8.1631944444444198</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9929,7 +10157,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.2881944444444304</v>
+        <v>-8.1631944444444198</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9974,7 +10202,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.2881944444444304</v>
+        <v>-8.1631944444444198</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10019,7 +10247,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.6215277777777608</v>
+        <v>-8.4965277777777501</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10064,7 +10292,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7881944444444304</v>
+        <v>-8.6631944444444198</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10109,7 +10337,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1215277777778</v>
+        <v>-8.9965277777777501</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10154,7 +10382,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1215277777778</v>
+        <v>-8.9965277777777501</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10199,7 +10427,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1215277777778</v>
+        <v>-8.9965277777777501</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10244,7 +10472,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1215277777778</v>
+        <v>-8.9965277777777501</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -10275,7 +10503,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-6.7881944444444402</v>
+        <v>-5.6631944444444304</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -10396,7 +10624,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-10.1215277777778</v>
+        <v>-8.9965277777777608</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -10845,7 +11073,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-10.1215277777778</v>
+        <v>-8.9965277777777608</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10890,7 +11118,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-10.4548611111111</v>
+        <v>-9.3298611111110894</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10935,7 +11163,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.6215277777778</v>
+        <v>-9.4965277777777608</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10980,7 +11208,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9548611111111</v>
+        <v>-9.8298611111110894</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11025,7 +11253,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9548611111111</v>
+        <v>-9.8298611111110894</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11070,7 +11298,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9548611111111</v>
+        <v>-9.8298611111110894</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11115,7 +11343,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9548611111111</v>
+        <v>-9.8298611111110894</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11160,7 +11388,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9548611111111</v>
+        <v>-9.8298611111110894</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11205,7 +11433,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.2881944444444</v>
+        <v>-10.1631944444444</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11250,7 +11478,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.4548611111111</v>
+        <v>-10.3298611111111</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11295,7 +11523,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.7881944444444</v>
+        <v>-10.6631944444444</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11340,7 +11568,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.7881944444444</v>
+        <v>-10.6631944444444</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11385,7 +11613,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.7881944444444</v>
+        <v>-10.6631944444444</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11430,7 +11658,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.7881944444444</v>
+        <v>-10.6631944444444</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11475,7 +11703,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.7881944444444</v>
+        <v>-10.6631944444444</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11520,7 +11748,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.1215277777777</v>
+        <v>-10.9965277777777</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11565,7 +11793,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.2881944444444</v>
+        <v>-11.1631944444444</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11610,7 +11838,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6215277777777</v>
+        <v>-11.4965277777777</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11655,7 +11883,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6215277777777</v>
+        <v>-11.4965277777777</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11700,7 +11928,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6215277777777</v>
+        <v>-11.4965277777777</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11745,7 +11973,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6215277777777</v>
+        <v>-11.4965277777777</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11790,7 +12018,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6215277777777</v>
+        <v>-11.4965277777777</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11835,7 +12063,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.954861111111001</v>
+        <v>-11.829861111111001</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11880,7 +12108,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.1215277777777</v>
+        <v>-11.9965277777777</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11925,7 +12153,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.454861111111001</v>
+        <v>-12.329861111111001</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11970,7 +12198,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.454861111111001</v>
+        <v>-12.329861111111001</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12015,7 +12243,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.454861111111001</v>
+        <v>-12.329861111111001</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12060,7 +12288,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.454861111111001</v>
+        <v>-12.329861111111001</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12105,7 +12333,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.454861111111001</v>
+        <v>-12.329861111111001</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12150,7 +12378,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.788194444444301</v>
+        <v>-12.663194444444301</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12226,7 +12454,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-10.1215277777778</v>
+        <v>-8.9965277777777608</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -12347,7 +12575,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-13.7881944444445</v>
+        <v>-12.6631944444444</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -12796,7 +13024,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-13.9548611111112</v>
+        <v>-12.8298611111111</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12841,7 +13069,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-14.2881944444445</v>
+        <v>-13.1631944444444</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12886,7 +13114,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.2881944444445</v>
+        <v>-13.1631944444444</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12931,7 +13159,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.2881944444445</v>
+        <v>-13.1631944444444</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12976,7 +13204,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.2881944444445</v>
+        <v>-13.1631944444444</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13021,7 +13249,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.2881944444445</v>
+        <v>-13.1631944444444</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13066,7 +13294,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.6215277777778</v>
+        <v>-13.4965277777777</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13111,7 +13339,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.7881944444445</v>
+        <v>-13.6631944444444</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13156,7 +13384,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1215277777778</v>
+        <v>-13.9965277777777</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13201,7 +13429,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1215277777778</v>
+        <v>-13.9965277777777</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13246,7 +13474,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1215277777778</v>
+        <v>-13.9965277777777</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13291,7 +13519,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1215277777778</v>
+        <v>-13.9965277777777</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13336,7 +13564,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1215277777778</v>
+        <v>-13.9965277777777</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13381,7 +13609,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.4548611111111</v>
+        <v>-14.329861111111001</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13426,7 +13654,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.6215277777778</v>
+        <v>-14.4965277777777</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13471,7 +13699,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9548611111111</v>
+        <v>-14.829861111111001</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13516,7 +13744,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9548611111111</v>
+        <v>-14.829861111111001</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13561,7 +13789,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9548611111111</v>
+        <v>-14.829861111111001</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13606,7 +13834,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9548611111111</v>
+        <v>-14.829861111111001</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13651,7 +13879,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9548611111111</v>
+        <v>-14.829861111111001</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13696,7 +13924,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.2881944444444</v>
+        <v>-15.163194444444301</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13741,7 +13969,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.4548611111111</v>
+        <v>-15.329861111111001</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13786,7 +14014,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.7881944444444</v>
+        <v>-15.663194444444301</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13831,7 +14059,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.7881944444444</v>
+        <v>-15.663194444444301</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13876,7 +14104,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.7881944444444</v>
+        <v>-15.663194444444301</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13921,7 +14149,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.7881944444444</v>
+        <v>-15.663194444444301</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13966,7 +14194,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.7881944444444</v>
+        <v>-15.663194444444301</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14011,7 +14239,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.1215277777777</v>
+        <v>-15.996527777777599</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14056,7 +14284,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.2881944444444</v>
+        <v>-16.163194444444301</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14101,7 +14329,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6215277777777</v>
+        <v>-16.496527777777601</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14146,7 +14374,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6215277777777</v>
+        <v>-16.496527777777601</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -14177,7 +14405,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-13.7881944444445</v>
+        <v>-12.6631944444444</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -14298,7 +14526,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-17.6215277777778</v>
+        <v>-16.4965277777777</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -14747,7 +14975,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-17.6215277777778</v>
+        <v>-16.4965277777777</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14792,7 +15020,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-17.6215277777778</v>
+        <v>-16.4965277777777</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14837,7 +15065,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6215277777778</v>
+        <v>-16.4965277777777</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14882,7 +15110,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.9548611111111</v>
+        <v>-16.829861111111001</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14927,7 +15155,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.1215277777778</v>
+        <v>-16.9965277777777</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14972,7 +15200,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4548611111111</v>
+        <v>-17.329861111111001</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15017,7 +15245,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4548611111111</v>
+        <v>-17.329861111111001</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15062,7 +15290,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4548611111111</v>
+        <v>-17.329861111111001</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15107,7 +15335,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4548611111111</v>
+        <v>-17.329861111111001</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15152,7 +15380,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4548611111111</v>
+        <v>-17.329861111111001</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15197,7 +15425,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.7881944444444</v>
+        <v>-17.663194444444301</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15242,7 +15470,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.9548611111111</v>
+        <v>-17.829861111111001</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15287,7 +15515,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.2881944444444</v>
+        <v>-18.163194444444301</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15332,7 +15560,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.2881944444444</v>
+        <v>-18.163194444444301</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15377,7 +15605,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.2881944444444</v>
+        <v>-18.163194444444301</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15422,7 +15650,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.2881944444444</v>
+        <v>-18.163194444444301</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15467,7 +15695,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.2881944444444</v>
+        <v>-18.163194444444301</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15512,7 +15740,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.6215277777777</v>
+        <v>-18.496527777777601</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15557,7 +15785,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.7881944444444</v>
+        <v>-18.663194444444301</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15602,7 +15830,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.1215277777777</v>
+        <v>-18.996527777777601</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15647,7 +15875,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.1215277777777</v>
+        <v>-18.996527777777601</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15692,7 +15920,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.1215277777777</v>
+        <v>-18.996527777777601</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15737,7 +15965,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.1215277777777</v>
+        <v>-18.996527777777601</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15782,7 +16010,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.1215277777777</v>
+        <v>-18.996527777777601</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15827,7 +16055,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.454861111111001</v>
+        <v>-19.329861111110901</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15872,7 +16100,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.6215277777777</v>
+        <v>-19.496527777777601</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15917,7 +16145,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.954861111111001</v>
+        <v>-19.829861111110901</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15962,7 +16190,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.954861111111001</v>
+        <v>-19.829861111110901</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16235,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.954861111111001</v>
+        <v>-19.829861111110901</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16052,7 +16280,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.954861111111001</v>
+        <v>-19.829861111110901</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16128,7 +16356,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-17.6215277777778</v>
+        <v>-16.4965277777777</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -16249,7 +16477,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-20.9548611111111</v>
+        <v>-19.829861111111001</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -16698,7 +16926,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-20.9548611111111</v>
+        <v>-19.829861111111001</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16743,7 +16971,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-21.2881944444444</v>
+        <v>-20.163194444444301</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16788,7 +17016,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.4548611111111</v>
+        <v>-20.329861111111001</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16833,7 +17061,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.7881944444444</v>
+        <v>-20.663194444444301</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16878,7 +17106,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.7881944444444</v>
+        <v>-20.663194444444301</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16923,7 +17151,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.7881944444444</v>
+        <v>-20.663194444444301</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16968,7 +17196,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.7881944444444</v>
+        <v>-20.663194444444301</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17013,7 +17241,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.7881944444444</v>
+        <v>-20.663194444444301</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17058,7 +17286,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.1215277777777</v>
+        <v>-20.996527777777601</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17103,7 +17331,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.2881944444444</v>
+        <v>-21.163194444444301</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17148,7 +17376,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.6215277777777</v>
+        <v>-21.496527777777601</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17193,7 +17421,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.6215277777777</v>
+        <v>-21.496527777777601</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17238,7 +17466,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.6215277777777</v>
+        <v>-21.496527777777601</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17283,7 +17511,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.6215277777777</v>
+        <v>-21.496527777777601</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17328,7 +17556,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.6215277777777</v>
+        <v>-21.496527777777601</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17373,7 +17601,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.954861111111001</v>
+        <v>-21.829861111110901</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17418,7 +17646,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.1215277777777</v>
+        <v>-21.996527777777601</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17463,7 +17691,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.454861111111001</v>
+        <v>-22.329861111110901</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17508,7 +17736,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.454861111111001</v>
+        <v>-22.329861111110901</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17553,7 +17781,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.454861111111001</v>
+        <v>-22.329861111110901</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17598,7 +17826,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.454861111111001</v>
+        <v>-22.329861111110901</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17643,7 +17871,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.454861111111001</v>
+        <v>-22.329861111110901</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17688,7 +17916,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.788194444444301</v>
+        <v>-22.663194444444201</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17733,7 +17961,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.871527777777601</v>
+        <v>-22.746527777777501</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17778,7 +18006,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.871527777777601</v>
+        <v>-22.746527777777501</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17823,7 +18051,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.871527777777601</v>
+        <v>-22.746527777777501</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17868,7 +18096,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.871527777777601</v>
+        <v>-22.746527777777501</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17913,7 +18141,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.871527777777601</v>
+        <v>-22.746527777777501</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17958,7 +18186,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.871527777777601</v>
+        <v>-22.746527777777501</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18003,7 +18231,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.204861111110901</v>
+        <v>-23.079861111110802</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18048,7 +18276,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.288194444444201</v>
+        <v>-23.163194444444098</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18079,7 +18307,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-20.9548611111111</v>
+        <v>-19.829861111111001</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -18200,7 +18428,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-24.2881944444444</v>
+        <v>-23.163194444444301</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -21627,9 +21855,9 @@
         <f>Mai!A23</f>
         <v>42509</v>
       </c>
-      <c r="O23" s="294" t="str">
+      <c r="O23" s="294">
         <f>IF(Mai!K23&gt;0,Mai!K23,"")</f>
-        <v/>
+        <v>0.35416666666666663</v>
       </c>
       <c r="P23" s="295" t="str">
         <f>IF(OR(Mai!C23="",Mai!J23&lt;&gt;""),UPPER(Mai!J23),"F")</f>
@@ -21931,9 +22159,9 @@
         <f>Mai!A25</f>
         <v>42511</v>
       </c>
-      <c r="O25" s="294" t="str">
+      <c r="O25" s="294">
         <f>IF(Mai!K25&gt;0,Mai!K25,"")</f>
-        <v/>
+        <v>0.35416666666666663</v>
       </c>
       <c r="P25" s="295" t="str">
         <f>IF(OR(Mai!C25="",Mai!J25&lt;&gt;""),UPPER(Mai!J25),"F")</f>
@@ -22387,9 +22615,9 @@
         <f>Mai!A28</f>
         <v>42514</v>
       </c>
-      <c r="O28" s="294" t="str">
+      <c r="O28" s="294">
         <f>IF(Mai!K28&gt;0,Mai!K28,"")</f>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="P28" s="295" t="str">
         <f>IF(OR(Mai!C28="",Mai!J28&lt;&gt;""),UPPER(Mai!J28),"F")</f>
@@ -22539,9 +22767,9 @@
         <f>Mai!A29</f>
         <v>42515</v>
       </c>
-      <c r="O29" s="294" t="str">
+      <c r="O29" s="294">
         <f>IF(Mai!K29&gt;0,Mai!K29,"")</f>
-        <v/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P29" s="295" t="str">
         <f>IF(OR(Mai!C29="",Mai!J29&lt;&gt;""),UPPER(Mai!J29),"F")</f>
@@ -23506,7 +23734,7 @@
       <c r="M36" s="317"/>
       <c r="N36" s="399">
         <f>Mai!F38</f>
-        <v>2.4826388888888888</v>
+        <v>3.6076388888888888</v>
       </c>
       <c r="O36" s="399"/>
       <c r="P36" s="318"/>
@@ -23554,7 +23782,7 @@
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>7.378472222222225</v>
+        <v>8.503472222222225</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23587,7 +23815,7 @@
       <c r="M37" s="322"/>
       <c r="N37" s="394">
         <f ca="1">ROUND(N36-N35,10)</f>
-        <v>-0.68402777780000001</v>
+        <v>0.44097222219999999</v>
       </c>
       <c r="O37" s="394"/>
       <c r="P37" s="323"/>
@@ -23635,7 +23863,7 @@
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.288194444400002</v>
+        <v>-23.163194444400002</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
@@ -23668,7 +23896,7 @@
       <c r="M38" s="395"/>
       <c r="N38" s="395">
         <f>Mai!J40</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O38" s="395"/>
       <c r="P38" s="395"/>
@@ -23716,7 +23944,7 @@
       <c r="AK38" s="395"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -28493,7 +28721,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28514,7 +28742,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28541,7 +28769,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>4.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -34922,7 +35150,7 @@
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -37036,8 +37264,8 @@
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -38094,11 +38322,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
+      <c r="D23" s="200">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E23" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
-      <c r="H23" s="201"/>
+      <c r="H23" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I23" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38106,7 +38340,7 @@
       <c r="J23" s="203"/>
       <c r="K23" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="L23" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -38114,16 +38348,18 @@
       </c>
       <c r="M23" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="N23" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O23" s="208"/>
+      <c r="O23" s="208" t="s">
+        <v>168</v>
+      </c>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8784722222222201</v>
+        <v>2.23263888888888</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38168,7 +38404,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8784722222222201</v>
+        <v>2.23263888888888</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38184,11 +38420,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
+      <c r="D25" s="200">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E25" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F25" s="200"/>
       <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
+      <c r="H25" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I25" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38196,7 +38438,7 @@
       <c r="J25" s="203"/>
       <c r="K25" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="L25" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -38204,16 +38446,18 @@
       </c>
       <c r="M25" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="N25" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O25" s="208"/>
+      <c r="O25" s="208" t="s">
+        <v>167</v>
+      </c>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5451388888888899</v>
+        <v>2.2534722222222099</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38258,7 +38502,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5451388888888899</v>
+        <v>2.2534722222222099</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38280,12 +38524,12 @@
       <c r="G27" s="200"/>
       <c r="H27" s="201"/>
       <c r="I27" s="202" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A27="","",IF(G27=0,IF(K27=0,"",IF(PauseGTime&lt;IF(E27&gt;D27,E27-D27,1-D27+E27),IF(H27&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(E27&gt;D27,E27-D27,1-D27+E27),IF(H27&lt;PauseKWert,"!",""),""))),IF(PauseGTime&lt;IF(G27&gt;D27,G27-D27,1-D27+G27),IF(IF(F27&gt;E27,F27-E27,1-E27+F27)+H27+0.0000001&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(G27&gt;D27,G27-D27,1-D27+G27),IF(IF(F27&gt;E27,F27-E27,1-E27+F27)+H27+0.0000001&lt;PauseKWert,"!",""),""))))</f>
         <v/>
       </c>
       <c r="J27" s="203"/>
       <c r="K27" s="204">
-        <f t="shared" si="3"/>
+        <f>IF(A27="","",IF(IF(D27&lt;E27,E27-D27,IF(E27="",0,E27-D27+1))+IF(F27&lt;G27,G27-F27,IF(G27="",0,G27-F27+1))-H27&gt;0,IF(D27&lt;E27,E27-D27,IF(E27="",0,E27-D27+1))+IF(F27&lt;G27,G27-F27,IF(G27="",0,G27-F27+1))-H27,0))</f>
         <v>0</v>
       </c>
       <c r="L27" s="205">
@@ -38303,7 +38547,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5451388888888899</v>
+        <v>2.2534722222222099</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38319,19 +38563,23 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="200"/>
+      <c r="D28" s="200">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="200">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F28" s="200"/>
       <c r="G28" s="200"/>
       <c r="H28" s="201"/>
       <c r="I28" s="202" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A28="","",IF(G28=0,IF(K28=0,"",IF(PauseGTime&lt;IF(E28&gt;D28,E28-D28,1-D28+E28),IF(H28&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(E28&gt;D28,E28-D28,1-D28+E28),IF(H28&lt;PauseKWert,"!",""),""))),IF(PauseGTime&lt;IF(G28&gt;D28,G28-D28,1-D28+G28),IF(IF(F28&gt;E28,F28-E28,1-E28+F28)+H28+0.0000001&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(G28&gt;D28,G28-D28,1-D28+G28),IF(IF(F28&gt;E28,F28-E28,1-E28+F28)+H28+0.0000001&lt;PauseKWert,"!",""),""))))</f>
         <v/>
       </c>
       <c r="J28" s="203"/>
       <c r="K28" s="204">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(A28="","",IF(IF(D28&lt;E28,E28-D28,IF(E28="",0,E28-D28+1))+IF(F28&lt;G28,G28-F28,IF(G28="",0,G28-F28+1))-H28&gt;0,IF(D28&lt;E28,E28-D28,IF(E28="",0,E28-D28+1))+IF(F28&lt;G28,G28-F28,IF(G28="",0,G28-F28+1))-H28,0))</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="L28" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -38339,16 +38587,18 @@
       </c>
       <c r="M28" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="N28" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O28" s="208"/>
+      <c r="O28" s="208" t="s">
+        <v>166</v>
+      </c>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5451388888888899</v>
+        <v>2.3368055555555398</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38364,19 +38614,27 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
+      <c r="D29" s="200">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E29" s="200">
+        <v>0.625</v>
+      </c>
+      <c r="F29" s="200">
+        <v>0.75</v>
+      </c>
+      <c r="G29" s="200">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="H29" s="201"/>
       <c r="I29" s="202" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A29="","",IF(G29=0,IF(K29=0,"",IF(PauseGTime&lt;IF(E29&gt;D29,E29-D29,1-D29+E29),IF(H29&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(E29&gt;D29,E29-D29,1-D29+E29),IF(H29&lt;PauseKWert,"!",""),""))),IF(PauseGTime&lt;IF(G29&gt;D29,G29-D29,1-D29+G29),IF(IF(F29&gt;E29,F29-E29,1-E29+F29)+H29+0.0000001&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(G29&gt;D29,G29-D29,1-D29+G29),IF(IF(F29&gt;E29,F29-E29,1-E29+F29)+H29+0.0000001&lt;PauseKWert,"!",""),""))))</f>
         <v/>
       </c>
       <c r="J29" s="203"/>
       <c r="K29" s="204">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(A29="","",IF(IF(D29&lt;E29,E29-D29,IF(E29="",0,E29-D29+1))+IF(F29&lt;G29,G29-F29,IF(G29="",0,G29-F29+1))-H29&gt;0,IF(D29&lt;E29,E29-D29,IF(E29="",0,E29-D29+1))+IF(F29&lt;G29,G29-F29,IF(G29="",0,G29-F29+1))-H29,0))</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L29" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -38384,16 +38642,18 @@
       </c>
       <c r="M29" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.33333333333332998</v>
       </c>
       <c r="N29" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O29" s="208"/>
+      <c r="O29" s="208" t="s">
+        <v>169</v>
+      </c>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5451388888888899</v>
+        <v>2.6701388888888702</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38438,7 +38698,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.21180555555556</v>
+        <v>2.3368055555555398</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38483,7 +38743,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0451388888888899</v>
+        <v>2.1701388888888702</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38528,7 +38788,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71180555555556002</v>
+        <v>1.83680555555554</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38573,7 +38833,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71180555555556002</v>
+        <v>1.83680555555554</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38618,7 +38878,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71180555555556002</v>
+        <v>1.83680555555554</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -38714,7 +38974,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>2.4826388888888888</v>
+        <v>3.6076388888888888</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -38770,14 +39030,14 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>0.71180555555556002</v>
+        <v>1.83680555555556</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K40" s="382" t="s">
         <v>112</v>
@@ -39000,7 +39260,7 @@
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:M34 O4:P13 O16:P34 P14:P15">
+  <conditionalFormatting sqref="A4:M34 O4:P13 P14:P15 O16:P34">
     <cfRule type="expression" dxfId="104" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
@@ -39227,7 +39487,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>0.71180555555556002</v>
+        <v>1.83680555555556</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39272,7 +39532,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>0.71180555555556002</v>
+        <v>1.83680555555556</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39317,7 +39577,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37847222222222998</v>
+        <v>1.5034722222222301</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39362,7 +39622,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21180555555555999</v>
+        <v>1.33680555555556</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39407,7 +39667,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12152777777777</v>
+        <v>1.0034722222222301</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39452,7 +39712,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12152777777777</v>
+        <v>1.0034722222222301</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39497,7 +39757,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12152777777777</v>
+        <v>1.0034722222222301</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39542,7 +39802,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12152777777777</v>
+        <v>1.0034722222222301</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39587,7 +39847,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12152777777777</v>
+        <v>1.0034722222222301</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39632,7 +39892,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.4548611111111</v>
+        <v>0.67013888888890005</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39677,7 +39937,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.62152777777777002</v>
+        <v>0.50347222222222998</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39722,7 +39982,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.95486111111109995</v>
+        <v>0.1701388888889</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39767,7 +40027,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.95486111111109995</v>
+        <v>0.1701388888889</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39812,7 +40072,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.95486111111109995</v>
+        <v>0.1701388888889</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39857,7 +40117,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.95486111111109995</v>
+        <v>0.1701388888889</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39902,7 +40162,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.95486111111109995</v>
+        <v>0.1701388888889</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39947,7 +40207,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.28819444444443</v>
+        <v>-0.16319444444442999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39992,7 +40252,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4548611111111001</v>
+        <v>-0.3298611111111</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40037,7 +40297,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.78819444444443</v>
+        <v>-0.66319444444442999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40082,7 +40342,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.78819444444443</v>
+        <v>-0.66319444444442999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40127,7 +40387,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.78819444444443</v>
+        <v>-0.66319444444442999</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40172,7 +40432,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.78819444444443</v>
+        <v>-0.66319444444442999</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40217,7 +40477,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.78819444444443</v>
+        <v>-0.66319444444442999</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40262,7 +40522,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.1215277777777599</v>
+        <v>-0.99652777777776003</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40307,7 +40567,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.28819444444443</v>
+        <v>-1.16319444444443</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40352,7 +40612,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.6215277777777599</v>
+        <v>-1.4965277777777599</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40397,7 +40657,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.6215277777777599</v>
+        <v>-1.4965277777777599</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40442,7 +40702,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.6215277777777599</v>
+        <v>-1.4965277777777599</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40487,7 +40747,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.6215277777777599</v>
+        <v>-1.4965277777777599</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40532,7 +40792,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.6215277777777599</v>
+        <v>-1.4965277777777599</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40608,7 +40868,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Mai!F40</f>
-        <v>0.71180555555556002</v>
+        <v>1.83680555555556</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -40729,7 +40989,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.6215277777777701</v>
+        <v>-1.4965277777777699</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -41178,7 +41438,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.9548611111111001</v>
+        <v>-1.8298611111111001</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41223,7 +41483,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-3.1215277777777701</v>
+        <v>-1.9965277777777699</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41268,7 +41528,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4548611111111001</v>
+        <v>-2.3298611111111001</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41313,7 +41573,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4548611111111001</v>
+        <v>-2.3298611111111001</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41358,7 +41618,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4548611111111001</v>
+        <v>-2.3298611111111001</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41403,7 +41663,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4548611111111001</v>
+        <v>-2.3298611111111001</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41448,7 +41708,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4548611111111001</v>
+        <v>-2.3298611111111001</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41493,7 +41753,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.78819444444443</v>
+        <v>-2.66319444444443</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41538,7 +41798,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9548611111111001</v>
+        <v>-2.8298611111111001</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41583,7 +41843,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.2881944444444304</v>
+        <v>-3.16319444444443</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41628,7 +41888,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.2881944444444304</v>
+        <v>-3.16319444444443</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41673,7 +41933,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.2881944444444304</v>
+        <v>-3.16319444444443</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41718,7 +41978,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.2881944444444304</v>
+        <v>-3.16319444444443</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41763,7 +42023,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.2881944444444304</v>
+        <v>-3.16319444444443</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41808,7 +42068,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.6215277777777599</v>
+        <v>-3.4965277777777599</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41853,7 +42113,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7881944444444304</v>
+        <v>-3.66319444444443</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41898,7 +42158,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1215277777777599</v>
+        <v>-3.9965277777777599</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41943,7 +42203,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1215277777777599</v>
+        <v>-3.9965277777777599</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41988,7 +42248,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1215277777777599</v>
+        <v>-3.9965277777777599</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42033,7 +42293,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1215277777777599</v>
+        <v>-3.9965277777777599</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42078,7 +42338,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1215277777777599</v>
+        <v>-3.9965277777777599</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42123,7 +42383,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.4548611111110903</v>
+        <v>-4.3298611111110903</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42168,7 +42428,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.6215277777777599</v>
+        <v>-4.4965277777777599</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42213,7 +42473,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9548611111110903</v>
+        <v>-4.8298611111110903</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42258,7 +42518,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9548611111110903</v>
+        <v>-4.8298611111110903</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42303,7 +42563,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9548611111110903</v>
+        <v>-4.8298611111110903</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42348,7 +42608,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9548611111110903</v>
+        <v>-4.8298611111110903</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42393,7 +42653,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9548611111110903</v>
+        <v>-4.8298611111110903</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42438,7 +42698,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2881944444444198</v>
+        <v>-5.1631944444444198</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42483,7 +42743,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4548611111110903</v>
+        <v>-5.3298611111110903</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42528,7 +42788,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.7881944444444198</v>
+        <v>-5.6631944444444198</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -42559,7 +42819,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juni!F40</f>
-        <v>-2.6215277777777701</v>
+        <v>-1.4965277777777699</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -42680,7 +42940,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-6.7881944444444402</v>
+        <v>-5.6631944444444304</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>

--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633ACE76-105D-4CF7-9985-795B2ACFA4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3922E64-4734-42A9-90A3-8C2A3334847F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="177">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -659,6 +659,27 @@
   </si>
   <si>
     <t>PCB Aligned-Final Routing=Results!</t>
+  </si>
+  <si>
+    <t>Results=PCB design sent to manufacture</t>
+  </si>
+  <si>
+    <t>No Results=SPI communication started and mofifiaction of pcb</t>
+  </si>
+  <si>
+    <t>Results=SPI communication with DMA</t>
+  </si>
+  <si>
+    <t>No Results: SMs started</t>
+  </si>
+  <si>
+    <t>Results: New PCB design started and SMs</t>
+  </si>
+  <si>
+    <t>Results: SM with functions defined</t>
+  </si>
+  <si>
+    <t>Results:osEvents os Timers ECAT Test SM working</t>
   </si>
 </sst>
 </file>
@@ -7149,6 +7170,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BC5FC8-5059-490F-869F-CF1AE30E10C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997D372B-4AFE-47BC-9878-90E1FF02BEDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8157,6 +8286,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A49221-4714-4B40-B30E-3B08A9DFBC35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96610FCB-FE52-4F47-AAA0-6E4B885216A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9122,7 +9359,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-5.6631944444444304</v>
+        <v>-3.48263888888888</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9167,7 +9404,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-5.6631944444444304</v>
+        <v>-3.48263888888888</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9212,7 +9449,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.6631944444444304</v>
+        <v>-3.48263888888888</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9257,7 +9494,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.6631944444444304</v>
+        <v>-3.48263888888888</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9302,7 +9539,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9965277777777599</v>
+        <v>-3.8159722222222099</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9347,7 +9584,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1631944444444304</v>
+        <v>-3.98263888888888</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9392,7 +9629,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4965277777777599</v>
+        <v>-4.3159722222222099</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9437,7 +9674,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4965277777777599</v>
+        <v>-4.3159722222222099</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9482,7 +9719,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4965277777777599</v>
+        <v>-4.3159722222222099</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9527,7 +9764,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4965277777777599</v>
+        <v>-4.3159722222222099</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9572,7 +9809,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4965277777777599</v>
+        <v>-4.3159722222222099</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9617,7 +9854,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8298611111110903</v>
+        <v>-4.6493055555555403</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9662,7 +9899,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.9965277777777599</v>
+        <v>-4.8159722222222099</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9707,7 +9944,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3298611111110903</v>
+        <v>-5.1493055555555403</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9752,7 +9989,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3298611111110903</v>
+        <v>-5.1493055555555403</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9797,7 +10034,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3298611111110903</v>
+        <v>-5.1493055555555403</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9842,7 +10079,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3298611111110903</v>
+        <v>-5.1493055555555403</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9887,7 +10124,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3298611111110903</v>
+        <v>-5.1493055555555403</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9932,7 +10169,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6631944444444198</v>
+        <v>-5.4826388888888697</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9977,7 +10214,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8298611111110903</v>
+        <v>-5.6493055555555403</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10022,7 +10259,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1631944444444198</v>
+        <v>-5.9826388888888697</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10067,7 +10304,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1631944444444198</v>
+        <v>-5.9826388888888697</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10112,7 +10349,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1631944444444198</v>
+        <v>-5.9826388888888697</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10157,7 +10394,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1631944444444198</v>
+        <v>-5.9826388888888697</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10202,7 +10439,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1631944444444198</v>
+        <v>-5.9826388888888697</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10247,7 +10484,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4965277777777501</v>
+        <v>-6.3159722222222001</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10292,7 +10529,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6631944444444198</v>
+        <v>-6.4826388888888697</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10337,7 +10574,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.9965277777777501</v>
+        <v>-6.8159722222222001</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10382,7 +10619,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.9965277777777501</v>
+        <v>-6.8159722222222001</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10427,7 +10664,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.9965277777777501</v>
+        <v>-6.8159722222222001</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10472,7 +10709,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.9965277777777501</v>
+        <v>-6.8159722222222001</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -10503,7 +10740,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-5.6631944444444304</v>
+        <v>-3.48263888888888</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -10624,7 +10861,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-8.9965277777777608</v>
+        <v>-6.8159722222222099</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -11073,7 +11310,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-8.9965277777777608</v>
+        <v>-6.8159722222222099</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11118,7 +11355,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-9.3298611111110894</v>
+        <v>-7.1493055555555403</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11163,7 +11400,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.4965277777777608</v>
+        <v>-7.3159722222222099</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11208,7 +11445,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8298611111110894</v>
+        <v>-7.6493055555555403</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11253,7 +11490,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8298611111110894</v>
+        <v>-7.6493055555555403</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11298,7 +11535,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8298611111110894</v>
+        <v>-7.6493055555555403</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11343,7 +11580,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8298611111110894</v>
+        <v>-7.6493055555555403</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11388,7 +11625,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8298611111110894</v>
+        <v>-7.6493055555555403</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11433,7 +11670,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1631944444444</v>
+        <v>-7.9826388888888697</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11478,7 +11715,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.3298611111111</v>
+        <v>-8.1493055555555394</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11523,7 +11760,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.6631944444444</v>
+        <v>-8.4826388888888697</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11568,7 +11805,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.6631944444444</v>
+        <v>-8.4826388888888697</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11613,7 +11850,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.6631944444444</v>
+        <v>-8.4826388888888697</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11658,7 +11895,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.6631944444444</v>
+        <v>-8.4826388888888697</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11703,7 +11940,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.6631944444444</v>
+        <v>-8.4826388888888697</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11748,7 +11985,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9965277777777</v>
+        <v>-8.8159722222222001</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11793,7 +12030,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.1631944444444</v>
+        <v>-8.9826388888888697</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11838,7 +12075,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.4965277777777</v>
+        <v>-9.3159722222222001</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11883,7 +12120,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.4965277777777</v>
+        <v>-9.3159722222222001</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11928,7 +12165,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.4965277777777</v>
+        <v>-9.3159722222222001</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11973,7 +12210,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.4965277777777</v>
+        <v>-9.3159722222222001</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12018,7 +12255,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.4965277777777</v>
+        <v>-9.3159722222222001</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12063,7 +12300,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.829861111111001</v>
+        <v>-9.6493055555555305</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12108,7 +12345,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.9965277777777</v>
+        <v>-9.8159722222222001</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12153,7 +12390,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.329861111111001</v>
+        <v>-10.1493055555555</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12198,7 +12435,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.329861111111001</v>
+        <v>-10.1493055555555</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12243,7 +12480,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.329861111111001</v>
+        <v>-10.1493055555555</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12288,7 +12525,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.329861111111001</v>
+        <v>-10.1493055555555</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12333,7 +12570,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.329861111111001</v>
+        <v>-10.1493055555555</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12378,7 +12615,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.663194444444301</v>
+        <v>-10.4826388888888</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12454,7 +12691,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-8.9965277777777608</v>
+        <v>-6.8159722222222099</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -12575,7 +12812,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-12.6631944444444</v>
+        <v>-10.4826388888889</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -13024,7 +13261,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-12.8298611111111</v>
+        <v>-10.6493055555556</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13069,7 +13306,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-13.1631944444444</v>
+        <v>-10.9826388888889</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13114,7 +13351,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.1631944444444</v>
+        <v>-10.9826388888889</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13159,7 +13396,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.1631944444444</v>
+        <v>-10.9826388888889</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13204,7 +13441,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.1631944444444</v>
+        <v>-10.9826388888889</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13249,7 +13486,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.1631944444444</v>
+        <v>-10.9826388888889</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13294,7 +13531,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.4965277777777</v>
+        <v>-11.3159722222222</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13339,7 +13576,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.6631944444444</v>
+        <v>-11.4826388888889</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13384,7 +13621,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.9965277777777</v>
+        <v>-11.8159722222222</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13429,7 +13666,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.9965277777777</v>
+        <v>-11.8159722222222</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13474,7 +13711,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.9965277777777</v>
+        <v>-11.8159722222222</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13519,7 +13756,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.9965277777777</v>
+        <v>-11.8159722222222</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13564,7 +13801,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.9965277777777</v>
+        <v>-11.8159722222222</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13609,7 +13846,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.329861111111001</v>
+        <v>-12.1493055555555</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13654,7 +13891,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.4965277777777</v>
+        <v>-12.3159722222222</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13699,7 +13936,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.829861111111001</v>
+        <v>-12.6493055555555</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13744,7 +13981,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.829861111111001</v>
+        <v>-12.6493055555555</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13789,7 +14026,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.829861111111001</v>
+        <v>-12.6493055555555</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13834,7 +14071,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.829861111111001</v>
+        <v>-12.6493055555555</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13879,7 +14116,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.829861111111001</v>
+        <v>-12.6493055555555</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13924,7 +14161,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.163194444444301</v>
+        <v>-12.9826388888888</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13969,7 +14206,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.329861111111001</v>
+        <v>-13.1493055555555</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14014,7 +14251,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.663194444444301</v>
+        <v>-13.4826388888888</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14059,7 +14296,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.663194444444301</v>
+        <v>-13.4826388888888</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14104,7 +14341,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.663194444444301</v>
+        <v>-13.4826388888888</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14149,7 +14386,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.663194444444301</v>
+        <v>-13.4826388888888</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14194,7 +14431,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.663194444444301</v>
+        <v>-13.4826388888888</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14239,7 +14476,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.996527777777599</v>
+        <v>-13.815972222222101</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14284,7 +14521,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.163194444444301</v>
+        <v>-13.9826388888888</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14329,7 +14566,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.496527777777601</v>
+        <v>-14.315972222222101</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14374,7 +14611,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.496527777777601</v>
+        <v>-14.315972222222101</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -14405,7 +14642,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-12.6631944444444</v>
+        <v>-10.4826388888889</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -14526,7 +14763,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-16.4965277777777</v>
+        <v>-14.3159722222222</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -14975,7 +15212,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-16.4965277777777</v>
+        <v>-14.3159722222222</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15020,7 +15257,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-16.4965277777777</v>
+        <v>-14.3159722222222</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15065,7 +15302,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.4965277777777</v>
+        <v>-14.3159722222222</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15110,7 +15347,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.829861111111001</v>
+        <v>-14.6493055555555</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15155,7 +15392,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.9965277777777</v>
+        <v>-14.8159722222222</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15200,7 +15437,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.329861111111001</v>
+        <v>-15.1493055555555</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15245,7 +15482,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.329861111111001</v>
+        <v>-15.1493055555555</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15290,7 +15527,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.329861111111001</v>
+        <v>-15.1493055555555</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15335,7 +15572,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.329861111111001</v>
+        <v>-15.1493055555555</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15380,7 +15617,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.329861111111001</v>
+        <v>-15.1493055555555</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15425,7 +15662,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.663194444444301</v>
+        <v>-15.4826388888888</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15470,7 +15707,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.829861111111001</v>
+        <v>-15.6493055555555</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15515,7 +15752,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.163194444444301</v>
+        <v>-15.9826388888888</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15560,7 +15797,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.163194444444301</v>
+        <v>-15.9826388888888</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15605,7 +15842,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.163194444444301</v>
+        <v>-15.9826388888888</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15650,7 +15887,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.163194444444301</v>
+        <v>-15.9826388888888</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15695,7 +15932,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.163194444444301</v>
+        <v>-15.9826388888888</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15740,7 +15977,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.496527777777601</v>
+        <v>-16.315972222222101</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15785,7 +16022,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.663194444444301</v>
+        <v>-16.4826388888888</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15830,7 +16067,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.996527777777601</v>
+        <v>-16.815972222222101</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15875,7 +16112,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.996527777777601</v>
+        <v>-16.815972222222101</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15920,7 +16157,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.996527777777601</v>
+        <v>-16.815972222222101</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15965,7 +16202,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.996527777777601</v>
+        <v>-16.815972222222101</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16010,7 +16247,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.996527777777601</v>
+        <v>-16.815972222222101</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16055,7 +16292,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.329861111110901</v>
+        <v>-17.149305555555401</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16100,7 +16337,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.496527777777601</v>
+        <v>-17.315972222222101</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16145,7 +16382,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.829861111110901</v>
+        <v>-17.649305555555401</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16190,7 +16427,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.829861111110901</v>
+        <v>-17.649305555555401</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16235,7 +16472,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.829861111110901</v>
+        <v>-17.649305555555401</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16280,7 +16517,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.829861111110901</v>
+        <v>-17.649305555555401</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16356,7 +16593,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-16.4965277777777</v>
+        <v>-14.3159722222222</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -16477,7 +16714,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-19.829861111111001</v>
+        <v>-17.6493055555555</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -16926,7 +17163,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-19.829861111111001</v>
+        <v>-17.6493055555555</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16971,7 +17208,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-20.163194444444301</v>
+        <v>-17.9826388888888</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17016,7 +17253,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.329861111111001</v>
+        <v>-18.1493055555555</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17061,7 +17298,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.663194444444301</v>
+        <v>-18.4826388888888</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17106,7 +17343,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.663194444444301</v>
+        <v>-18.4826388888888</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17151,7 +17388,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.663194444444301</v>
+        <v>-18.4826388888888</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17196,7 +17433,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.663194444444301</v>
+        <v>-18.4826388888888</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17241,7 +17478,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.663194444444301</v>
+        <v>-18.4826388888888</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17286,7 +17523,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.996527777777601</v>
+        <v>-18.815972222222101</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17331,7 +17568,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.163194444444301</v>
+        <v>-18.9826388888888</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17376,7 +17613,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.496527777777601</v>
+        <v>-19.315972222222101</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17421,7 +17658,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.496527777777601</v>
+        <v>-19.315972222222101</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17466,7 +17703,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.496527777777601</v>
+        <v>-19.315972222222101</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17511,7 +17748,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.496527777777601</v>
+        <v>-19.315972222222101</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17556,7 +17793,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.496527777777601</v>
+        <v>-19.315972222222101</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17601,7 +17838,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.829861111110901</v>
+        <v>-19.649305555555401</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17646,7 +17883,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.996527777777601</v>
+        <v>-19.815972222222101</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17691,7 +17928,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.329861111110901</v>
+        <v>-20.149305555555401</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17736,7 +17973,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.329861111110901</v>
+        <v>-20.149305555555401</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17781,7 +18018,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.329861111110901</v>
+        <v>-20.149305555555401</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17826,7 +18063,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.329861111110901</v>
+        <v>-20.149305555555401</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17871,7 +18108,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.329861111110901</v>
+        <v>-20.149305555555401</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17916,7 +18153,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.663194444444201</v>
+        <v>-20.482638888888701</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17961,7 +18198,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.746527777777501</v>
+        <v>-20.565972222222001</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18006,7 +18243,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.746527777777501</v>
+        <v>-20.565972222222001</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18051,7 +18288,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.746527777777501</v>
+        <v>-20.565972222222001</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18096,7 +18333,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.746527777777501</v>
+        <v>-20.565972222222001</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18141,7 +18378,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.746527777777501</v>
+        <v>-20.565972222222001</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18186,7 +18423,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.746527777777501</v>
+        <v>-20.565972222222001</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18231,7 +18468,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.079861111110802</v>
+        <v>-20.899305555555301</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18276,7 +18513,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.163194444444098</v>
+        <v>-20.982638888888602</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18307,7 +18544,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-19.829861111111001</v>
+        <v>-17.6493055555555</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -18428,7 +18665,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-23.163194444444301</v>
+        <v>-20.9826388888888</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -18979,9 +19216,9 @@
         <f>Juni!A4</f>
         <v>42521</v>
       </c>
-      <c r="R4" s="285" t="str">
+      <c r="R4" s="285">
         <f>IF(Juni!K4&gt;0,Juni!K4,"")</f>
-        <v/>
+        <v>0.29166666666666657</v>
       </c>
       <c r="S4" s="290" t="str">
         <f>IF(OR(Juni!C4="",Juni!J4&lt;&gt;""),UPPER(Juni!J4),"F")</f>
@@ -19283,9 +19520,9 @@
         <f>Juni!A6</f>
         <v>42523</v>
       </c>
-      <c r="R6" s="294" t="str">
+      <c r="R6" s="294">
         <f>IF(Juni!K6&gt;0,Juni!K6,"")</f>
-        <v/>
+        <v>0.35416666666666663</v>
       </c>
       <c r="S6" s="299" t="str">
         <f>IF(OR(Juni!C6="",Juni!J6&lt;&gt;""),UPPER(Juni!J6),"F")</f>
@@ -19435,9 +19672,9 @@
         <f>Juni!A7</f>
         <v>42524</v>
       </c>
-      <c r="R7" s="294" t="str">
+      <c r="R7" s="294">
         <f>IF(Juni!K7&gt;0,Juni!K7,"")</f>
-        <v/>
+        <v>0.25694444444444436</v>
       </c>
       <c r="S7" s="299" t="str">
         <f>IF(OR(Juni!C7="",Juni!J7&lt;&gt;""),UPPER(Juni!J7),"F")</f>
@@ -19587,9 +19824,9 @@
         <f>Juni!A8</f>
         <v>42525</v>
       </c>
-      <c r="R8" s="294" t="str">
+      <c r="R8" s="294">
         <f>IF(Juni!K8&gt;0,Juni!K8,"")</f>
-        <v/>
+        <v>0.36111111111111105</v>
       </c>
       <c r="S8" s="299" t="str">
         <f>IF(OR(Juni!C8="",Juni!J8&lt;&gt;""),UPPER(Juni!J8),"F")</f>
@@ -22919,9 +23156,9 @@
         <f>Mai!A30</f>
         <v>42516</v>
       </c>
-      <c r="O30" s="294" t="str">
+      <c r="O30" s="294">
         <f>IF(Mai!K30&gt;0,Mai!K30,"")</f>
-        <v/>
+        <v>0.35416666666666674</v>
       </c>
       <c r="P30" s="295" t="str">
         <f>IF(OR(Mai!C30="",Mai!J30&lt;&gt;""),UPPER(Mai!J30),"F")</f>
@@ -23071,9 +23308,9 @@
         <f>Mai!A31</f>
         <v>42517</v>
       </c>
-      <c r="O31" s="294" t="str">
+      <c r="O31" s="294">
         <f>IF(Mai!K31&gt;0,Mai!K31,"")</f>
-        <v/>
+        <v>0.22916666666666666</v>
       </c>
       <c r="P31" s="295" t="str">
         <f>IF(OR(Mai!C31="",Mai!J31&lt;&gt;""),UPPER(Mai!J31),"F")</f>
@@ -23223,9 +23460,9 @@
         <f>Mai!A32</f>
         <v>42518</v>
       </c>
-      <c r="O32" s="294" t="str">
+      <c r="O32" s="294">
         <f>IF(Mai!K32&gt;0,Mai!K32,"")</f>
-        <v/>
+        <v>0.33333333333333337</v>
       </c>
       <c r="P32" s="295" t="str">
         <f>IF(OR(Mai!C32="",Mai!J32&lt;&gt;""),UPPER(Mai!J32),"F")</f>
@@ -23734,13 +23971,13 @@
       <c r="M36" s="317"/>
       <c r="N36" s="399">
         <f>Mai!F38</f>
-        <v>3.6076388888888888</v>
+        <v>4.5243055555555554</v>
       </c>
       <c r="O36" s="399"/>
       <c r="P36" s="318"/>
       <c r="Q36" s="398">
         <f>Juni!F38</f>
-        <v>0</v>
+        <v>1.2638888888888888</v>
       </c>
       <c r="R36" s="398"/>
       <c r="S36" s="317"/>
@@ -23782,7 +24019,7 @@
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>8.503472222222225</v>
+        <v>10.684027777777782</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23815,13 +24052,13 @@
       <c r="M37" s="322"/>
       <c r="N37" s="394">
         <f ca="1">ROUND(N36-N35,10)</f>
-        <v>0.44097222219999999</v>
+        <v>1.3576388889</v>
       </c>
       <c r="O37" s="394"/>
       <c r="P37" s="323"/>
       <c r="Q37" s="393">
         <f ca="1">ROUND(Q36-Q35,10)</f>
-        <v>-3.3333333333000001</v>
+        <v>-2.0694444444000002</v>
       </c>
       <c r="R37" s="393"/>
       <c r="S37" s="322"/>
@@ -23863,7 +24100,7 @@
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.163194444400002</v>
+        <v>-20.9826388888</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
@@ -23896,13 +24133,13 @@
       <c r="M38" s="395"/>
       <c r="N38" s="395">
         <f>Mai!J40</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O38" s="395"/>
       <c r="P38" s="395"/>
       <c r="Q38" s="395">
         <f>Juni!J40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R38" s="395"/>
       <c r="S38" s="395"/>
@@ -23944,7 +24181,7 @@
       <c r="AK38" s="395"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -28721,7 +28958,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28742,7 +28979,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28769,7 +29006,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -37263,9 +37500,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -38669,11 +38906,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="D30" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="200">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F30" s="200"/>
       <c r="G30" s="200"/>
-      <c r="H30" s="201"/>
+      <c r="H30" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I30" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38681,7 +38924,7 @@
       <c r="J30" s="203"/>
       <c r="K30" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666674</v>
       </c>
       <c r="L30" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -38689,16 +38932,18 @@
       </c>
       <c r="M30" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="N30" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O30" s="208"/>
+      <c r="O30" s="208" t="s">
+        <v>170</v>
+      </c>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3368055555555398</v>
+        <v>2.6909722222222001</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38714,11 +38959,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
+      <c r="D31" s="200">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E31" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F31" s="200"/>
       <c r="G31" s="200"/>
-      <c r="H31" s="201"/>
+      <c r="H31" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I31" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38726,7 +38977,7 @@
       <c r="J31" s="203"/>
       <c r="K31" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="L31" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -38734,16 +38985,18 @@
       </c>
       <c r="M31" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16666666666666999</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N31" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.16666666666666699</v>
       </c>
-      <c r="O31" s="208"/>
+      <c r="O31" s="208" t="s">
+        <v>171</v>
+      </c>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1701388888888702</v>
+        <v>2.7534722222222001</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38759,11 +39012,17 @@
         <f>IF(ISERROR(VLOOKUP(A32,Feiertage,2,0)),"",(VLOOKUP(A32,Feiertage,2,0)))</f>
         <v/>
       </c>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
+      <c r="D32" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E32" s="200">
+        <v>0.75</v>
+      </c>
       <c r="F32" s="200"/>
       <c r="G32" s="200"/>
-      <c r="H32" s="201"/>
+      <c r="H32" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I32" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -38771,7 +39030,7 @@
       <c r="J32" s="203"/>
       <c r="K32" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="L32" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -38779,16 +39038,18 @@
       </c>
       <c r="M32" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>0</v>
       </c>
       <c r="N32" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O32" s="208"/>
+      <c r="O32" s="208" t="s">
+        <v>172</v>
+      </c>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.83680555555554</v>
+        <v>2.7534722222222001</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38833,7 +39094,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.83680555555554</v>
+        <v>2.7534722222222001</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38878,7 +39139,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>1.83680555555554</v>
+        <v>2.7534722222222001</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -38974,7 +39235,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>3.6076388888888888</v>
+        <v>4.5243055555555554</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -39030,14 +39291,14 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>1.83680555555556</v>
+        <v>2.7534722222222299</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K40" s="382" t="s">
         <v>112</v>
@@ -39260,7 +39521,7 @@
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:M34 O4:P13 P14:P15 O16:P34">
+  <conditionalFormatting sqref="O4:P13 P14:P15 O16:P34 A4:M34">
     <cfRule type="expression" dxfId="104" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
@@ -39328,9 +39589,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39458,10 +39719,18 @@
         <f t="shared" ref="C4:C31" si="1">IF(ISERROR(VLOOKUP(B4,Feiertage,2,0)),"",(VLOOKUP(B4,Feiertage,2,0)))</f>
         <v>Pfingstmontag</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
+      <c r="D4" s="187">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="187">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G4" s="187">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H4" s="188"/>
       <c r="I4" s="189" t="str">
         <f t="shared" ref="I4:I34" si="2">IF(A4="","",IF(G4=0,IF(K4=0,"",IF(PauseGTime&lt;IF(E4&gt;D4,E4-D4,1-D4+E4),IF(H4&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(E4&gt;D4,E4-D4,1-D4+E4),IF(H4&lt;PauseKWert,"!",""),""))),IF(PauseGTime&lt;IF(G4&gt;D4,G4-D4,1-D4+G4),IF(IF(F4&gt;E4,F4-E4,1-E4+F4)+H4+0.0000001&lt;PauseGWert,"!",""),IF(PauseKTime&lt;IF(G4&gt;D4,G4-D4,1-D4+G4),IF(IF(F4&gt;E4,F4-E4,1-E4+F4)+H4+0.0000001&lt;PauseKWert,"!",""),""))))</f>
@@ -39470,7 +39739,7 @@
       <c r="J4" s="190"/>
       <c r="K4" s="191">
         <f t="shared" ref="K4:K34" si="3">IF(A4="","",IF(IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4&gt;0,IF(D4&lt;E4,E4-D4,IF(E4="",0,E4-D4+1))+IF(F4&lt;G4,G4-F4,IF(G4="",0,G4-F4+1))-H4,0))</f>
-        <v>0</v>
+        <v>0.29166666666666657</v>
       </c>
       <c r="L4" s="192">
         <f t="shared" ref="L4:L34" ca="1" si="4">IF(AND(C4&lt;&gt;"",J4=""),IF(ISERROR(VLOOKUP(B4,Feiertage,2,0)),0,VLOOKUP(B4,Feiertage,3,0)*N4),IF(A4="",0,IF(J4&lt;&gt;"",IF(UPPER(J4)=VLOOKUP(UPPER(J4),Code,1,0),IF(OR(VLOOKUP(J4,Code,2,0)="NONE",VLOOKUP(J4,Code,2,0)="XTRA"),K4,IF(ISERROR(VLOOKUP(B4,Feiertage,2,0)),VLOOKUP(J4,Code,2,0)*N4,IF(VLOOKUP(B4,Feiertage,3,0)=0.5,IF(UPPER(J4)="G",VLOOKUP(B4,Feiertage,3,0)*VLOOKUP(J4,Code,2,0)*N4,0),VLOOKUP(B4,Feiertage,3,0)*VLOOKUP(J4,Code,2,0)*N4))),N4),N4)))</f>
@@ -39478,16 +39747,18 @@
       </c>
       <c r="M4" s="193">
         <f t="shared" ref="M4:M34" ca="1" si="5">IF(A4="","",ROUND(K4-L4,14))</f>
-        <v>0</v>
+        <v>0.29166666666667002</v>
       </c>
       <c r="N4" s="194">
         <f t="shared" ref="N4:N34" ca="1" si="6">IF(A4="","",INDIRECT(ADDRESS(MATCH(A4,SOLL_AZ_Ab,1)+11,WEEKDAY(A4,2)+3,,,"Voreinstellungen"),1))</f>
         <v>0</v>
       </c>
-      <c r="O4" s="195"/>
+      <c r="O4" s="195" t="s">
+        <v>174</v>
+      </c>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.83680555555556</v>
+        <v>3.0451388888888999</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39532,7 +39803,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.83680555555556</v>
+        <v>3.0451388888888999</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39548,11 +39819,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
+      <c r="D6" s="200">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F6" s="200"/>
       <c r="G6" s="200"/>
-      <c r="H6" s="201"/>
+      <c r="H6" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I6" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -39560,7 +39837,7 @@
       <c r="J6" s="203"/>
       <c r="K6" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="L6" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -39568,16 +39845,18 @@
       </c>
       <c r="M6" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="N6" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O6" s="208"/>
+      <c r="O6" s="208" t="s">
+        <v>173</v>
+      </c>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5034722222222301</v>
+        <v>3.0659722222222299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39593,19 +39872,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
+      <c r="D7" s="200">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E7" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F7" s="200"/>
       <c r="G7" s="200"/>
-      <c r="H7" s="201"/>
+      <c r="H7" s="201">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I7" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J7" s="203"/>
       <c r="K7" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25694444444444436</v>
       </c>
       <c r="L7" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -39613,16 +39898,18 @@
       </c>
       <c r="M7" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16666666666666999</v>
+        <v>9.0277777777779997E-2</v>
       </c>
       <c r="N7" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.16666666666666699</v>
       </c>
-      <c r="O7" s="208"/>
+      <c r="O7" s="208" t="s">
+        <v>175</v>
+      </c>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.33680555555556</v>
+        <v>3.1562500000000102</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39638,19 +39925,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
+      <c r="D8" s="200">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E8" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F8" s="200"/>
       <c r="G8" s="200"/>
-      <c r="H8" s="201"/>
+      <c r="H8" s="201">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I8" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J8" s="203"/>
       <c r="K8" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.36111111111111105</v>
       </c>
       <c r="L8" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -39658,16 +39951,18 @@
       </c>
       <c r="M8" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.777777777778E-2</v>
       </c>
       <c r="N8" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O8" s="208"/>
+      <c r="O8" s="208" t="s">
+        <v>176</v>
+      </c>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0034722222222301</v>
+        <v>3.1840277777777901</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39712,7 +40007,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0034722222222301</v>
+        <v>3.1840277777777901</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39757,7 +40052,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0034722222222301</v>
+        <v>3.1840277777777901</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39802,7 +40097,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0034722222222301</v>
+        <v>3.1840277777777901</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39847,7 +40142,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0034722222222301</v>
+        <v>3.1840277777777901</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39892,7 +40187,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.67013888888890005</v>
+        <v>2.8506944444444602</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39937,7 +40232,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.50347222222222998</v>
+        <v>2.6840277777777901</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39982,7 +40277,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1701388888889</v>
+        <v>2.3506944444444602</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40027,7 +40322,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1701388888889</v>
+        <v>2.3506944444444602</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40072,7 +40367,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1701388888889</v>
+        <v>2.3506944444444602</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40117,7 +40412,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1701388888889</v>
+        <v>2.3506944444444602</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40162,7 +40457,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1701388888889</v>
+        <v>2.3506944444444602</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40207,7 +40502,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.16319444444442999</v>
+        <v>2.0173611111111298</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40252,7 +40547,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.3298611111111</v>
+        <v>1.85069444444446</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40297,7 +40592,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66319444444442999</v>
+        <v>1.51736111111113</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40342,7 +40637,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66319444444442999</v>
+        <v>1.51736111111113</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40387,7 +40682,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66319444444442999</v>
+        <v>1.51736111111113</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40432,7 +40727,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66319444444442999</v>
+        <v>1.51736111111113</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40477,7 +40772,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.66319444444442999</v>
+        <v>1.51736111111113</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40522,7 +40817,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.99652777777776003</v>
+        <v>1.1840277777778001</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40567,7 +40862,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.16319444444443</v>
+        <v>1.01736111111113</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40612,7 +40907,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4965277777777599</v>
+        <v>0.68402777777779999</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40657,7 +40952,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4965277777777599</v>
+        <v>0.68402777777779999</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40702,7 +40997,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4965277777777599</v>
+        <v>0.68402777777779999</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40747,7 +41042,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4965277777777599</v>
+        <v>0.68402777777779999</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40792,7 +41087,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.4965277777777599</v>
+        <v>0.68402777777779999</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40868,7 +41163,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Mai!F40</f>
-        <v>1.83680555555556</v>
+        <v>2.7534722222222299</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -40933,7 +41228,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>0</v>
+        <v>1.2638888888888888</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -40989,14 +41284,14 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.4965277777777699</v>
+        <v>0.68402777777779</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K40" s="382" t="s">
         <v>112</v>
@@ -41438,7 +41733,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8298611111111001</v>
+        <v>0.35069444444446002</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41483,7 +41778,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.9965277777777699</v>
+        <v>0.18402777777779</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41528,7 +41823,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3298611111111001</v>
+        <v>-0.14930555555554001</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41573,7 +41868,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3298611111111001</v>
+        <v>-0.14930555555554001</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41618,7 +41913,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3298611111111001</v>
+        <v>-0.14930555555554001</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41663,7 +41958,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3298611111111001</v>
+        <v>-0.14930555555554001</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41708,7 +42003,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3298611111111001</v>
+        <v>-0.14930555555554001</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41753,7 +42048,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.66319444444443</v>
+        <v>-0.48263888888887002</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41798,7 +42093,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8298611111111001</v>
+        <v>-0.64930555555554004</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41843,7 +42138,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.16319444444443</v>
+        <v>-0.98263888888886997</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41888,7 +42183,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.16319444444443</v>
+        <v>-0.98263888888886997</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41933,7 +42228,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.16319444444443</v>
+        <v>-0.98263888888886997</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41978,7 +42273,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.16319444444443</v>
+        <v>-0.98263888888886997</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42023,7 +42318,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.16319444444443</v>
+        <v>-0.98263888888886997</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42068,7 +42363,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.4965277777777599</v>
+        <v>-1.3159722222221999</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42113,7 +42408,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.66319444444443</v>
+        <v>-1.48263888888887</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42158,7 +42453,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9965277777777599</v>
+        <v>-1.8159722222221999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42203,7 +42498,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9965277777777599</v>
+        <v>-1.8159722222221999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42248,7 +42543,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9965277777777599</v>
+        <v>-1.8159722222221999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42293,7 +42588,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9965277777777599</v>
+        <v>-1.8159722222221999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42338,7 +42633,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9965277777777599</v>
+        <v>-1.8159722222221999</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42383,7 +42678,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3298611111110903</v>
+        <v>-2.14930555555553</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42428,7 +42723,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.4965277777777599</v>
+        <v>-2.3159722222222001</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42473,7 +42768,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8298611111110903</v>
+        <v>-2.64930555555553</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42518,7 +42813,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8298611111110903</v>
+        <v>-2.64930555555553</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42563,7 +42858,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8298611111110903</v>
+        <v>-2.64930555555553</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42608,7 +42903,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8298611111110903</v>
+        <v>-2.64930555555553</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42653,7 +42948,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8298611111110903</v>
+        <v>-2.64930555555553</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42698,7 +42993,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1631944444444198</v>
+        <v>-2.98263888888886</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42743,7 +43038,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3298611111110903</v>
+        <v>-3.14930555555553</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42788,7 +43083,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.6631944444444198</v>
+        <v>-3.48263888888886</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -42819,7 +43114,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juni!F40</f>
-        <v>-1.4965277777777699</v>
+        <v>0.68402777777779</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -42940,7 +43235,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-5.6631944444444304</v>
+        <v>-3.48263888888888</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>

--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3922E64-4734-42A9-90A3-8C2A3334847F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC294A4-BAAD-4FD0-A9A2-06A7C406D906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="181">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -680,6 +680,18 @@
   </si>
   <si>
     <t>Results:osEvents os Timers ECAT Test SM working</t>
+  </si>
+  <si>
+    <t>Results: Led multichannel with basic event handler</t>
+  </si>
+  <si>
+    <t>Partial results: components bought and pcb design 2</t>
+  </si>
+  <si>
+    <t>No results: Porting multi channel</t>
+  </si>
+  <si>
+    <t>No results: Porting and debugging</t>
   </si>
 </sst>
 </file>
@@ -5057,23 +5069,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="174" fontId="12" fillId="2" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -5094,31 +5089,44 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="173" fontId="2" fillId="3" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -5138,23 +5146,27 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -7278,6 +7290,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D5DFBD-77E7-4B9D-B005-B5F85F091D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8394,6 +8460,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19063566-700E-42FC-984B-A80E7FF5C171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9224,16 +9344,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,8,1)</f>
         <v>42582</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -9244,20 +9364,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -9265,11 +9385,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -9359,7 +9479,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-3.48263888888888</v>
+        <v>-2.04374999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9404,7 +9524,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-3.48263888888888</v>
+        <v>-2.04374999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9449,7 +9569,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48263888888888</v>
+        <v>-2.04374999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9494,7 +9614,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48263888888888</v>
+        <v>-2.04374999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9539,7 +9659,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8159722222222099</v>
+        <v>-2.3770833333333199</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9584,7 +9704,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.98263888888888</v>
+        <v>-2.54374999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9629,7 +9749,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3159722222222099</v>
+        <v>-2.8770833333333199</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9674,7 +9794,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3159722222222099</v>
+        <v>-2.8770833333333199</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9719,7 +9839,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3159722222222099</v>
+        <v>-2.8770833333333199</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9764,7 +9884,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3159722222222099</v>
+        <v>-2.8770833333333199</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9809,7 +9929,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3159722222222099</v>
+        <v>-2.8770833333333199</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9854,7 +9974,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.6493055555555403</v>
+        <v>-3.2104166666666498</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9899,7 +10019,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8159722222222099</v>
+        <v>-3.3770833333333199</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9944,7 +10064,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1493055555555403</v>
+        <v>-3.7104166666666498</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9989,7 +10109,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1493055555555403</v>
+        <v>-3.7104166666666498</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10034,7 +10154,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1493055555555403</v>
+        <v>-3.7104166666666498</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10079,7 +10199,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1493055555555403</v>
+        <v>-3.7104166666666498</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10124,7 +10244,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1493055555555403</v>
+        <v>-3.7104166666666498</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10169,7 +10289,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.4826388888888697</v>
+        <v>-4.0437499999999797</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10214,7 +10334,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.6493055555555403</v>
+        <v>-4.2104166666666503</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10259,7 +10379,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9826388888888697</v>
+        <v>-4.5437499999999797</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10304,7 +10424,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9826388888888697</v>
+        <v>-4.5437499999999797</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10349,7 +10469,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9826388888888697</v>
+        <v>-4.5437499999999797</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10394,7 +10514,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9826388888888697</v>
+        <v>-4.5437499999999797</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10439,7 +10559,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9826388888888697</v>
+        <v>-4.5437499999999797</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10484,7 +10604,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3159722222222001</v>
+        <v>-4.8770833333333101</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10529,7 +10649,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4826388888888697</v>
+        <v>-5.0437499999999797</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10574,7 +10694,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8159722222222001</v>
+        <v>-5.3770833333333101</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10619,7 +10739,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8159722222222001</v>
+        <v>-5.3770833333333101</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10664,7 +10784,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8159722222222001</v>
+        <v>-5.3770833333333101</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10709,7 +10829,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8159722222222001</v>
+        <v>-5.3770833333333101</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -10740,7 +10860,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-3.48263888888888</v>
+        <v>-2.04374999999999</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -10749,13 +10869,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10781,14 +10901,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10814,13 +10934,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10839,13 +10959,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10861,7 +10981,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-6.8159722222222099</v>
+        <v>-5.3770833333333199</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -10870,13 +10990,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10911,14 +11031,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -10938,14 +11058,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -10969,14 +11089,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -10996,14 +11116,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -11023,14 +11143,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -11054,14 +11174,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -11070,21 +11190,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HkAoB08lQnZcu3f192wHDHZ/7j0BngIzul3D/9PsKIWyl+xayA7p7vUaZD7hH7rwZOkGohOgh1523AysAnGDfg==" saltValue="sE8nUvkPIzP17sbT/37lEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="73" priority="2">
@@ -11175,16 +11295,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,9,1)</f>
         <v>42613</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -11195,20 +11315,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -11216,11 +11336,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -11310,7 +11430,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-6.8159722222222099</v>
+        <v>-5.3770833333333199</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11355,7 +11475,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-7.1493055555555403</v>
+        <v>-5.7104166666666503</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11400,7 +11520,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3159722222222099</v>
+        <v>-5.8770833333333199</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11445,7 +11565,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6493055555555403</v>
+        <v>-6.2104166666666503</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11490,7 +11610,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6493055555555403</v>
+        <v>-6.2104166666666503</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11535,7 +11655,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6493055555555403</v>
+        <v>-6.2104166666666503</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11580,7 +11700,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6493055555555403</v>
+        <v>-6.2104166666666503</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11625,7 +11745,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6493055555555403</v>
+        <v>-6.2104166666666503</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11670,7 +11790,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.9826388888888697</v>
+        <v>-6.5437499999999797</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11715,7 +11835,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1493055555555394</v>
+        <v>-6.7104166666666503</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11760,7 +11880,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4826388888888697</v>
+        <v>-7.0437499999999797</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11805,7 +11925,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4826388888888697</v>
+        <v>-7.0437499999999797</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11850,7 +11970,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4826388888888697</v>
+        <v>-7.0437499999999797</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11895,7 +12015,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4826388888888697</v>
+        <v>-7.0437499999999797</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11940,7 +12060,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4826388888888697</v>
+        <v>-7.0437499999999797</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11985,7 +12105,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.8159722222222001</v>
+        <v>-7.3770833333333101</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12030,7 +12150,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.9826388888888697</v>
+        <v>-7.5437499999999797</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12075,7 +12195,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3159722222222001</v>
+        <v>-7.8770833333333101</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12120,7 +12240,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3159722222222001</v>
+        <v>-7.8770833333333101</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12165,7 +12285,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3159722222222001</v>
+        <v>-7.8770833333333101</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12210,7 +12330,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3159722222222001</v>
+        <v>-7.8770833333333101</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12255,7 +12375,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3159722222222001</v>
+        <v>-7.8770833333333101</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12300,7 +12420,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.6493055555555305</v>
+        <v>-8.2104166666666405</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12345,7 +12465,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8159722222222001</v>
+        <v>-8.3770833333333101</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12390,7 +12510,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1493055555555</v>
+        <v>-8.7104166666666405</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12435,7 +12555,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1493055555555</v>
+        <v>-8.7104166666666405</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12480,7 +12600,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1493055555555</v>
+        <v>-8.7104166666666405</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12525,7 +12645,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1493055555555</v>
+        <v>-8.7104166666666405</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12570,7 +12690,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.1493055555555</v>
+        <v>-8.7104166666666405</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12615,7 +12735,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.4826388888888</v>
+        <v>-9.0437499999999709</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12691,7 +12811,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-6.8159722222222099</v>
+        <v>-5.3770833333333199</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -12700,13 +12820,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12732,14 +12852,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12765,13 +12885,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12790,13 +12910,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12812,7 +12932,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-10.4826388888889</v>
+        <v>-9.0437499999999904</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -12821,13 +12941,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12862,14 +12982,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -12889,14 +13009,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -12920,14 +13040,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -12947,14 +13067,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -12974,14 +13094,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -13005,14 +13125,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -13021,21 +13141,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WrJf3Le3I/KufBKgvBL84XO3UYX2zuYgLjnZ1rGaHSyWTCjiP7zkaZ7RngoDe7hgFgAEe/NFD80xutKnXk714A==" saltValue="LvVU6YLRvHqT2nS3BnwoDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="63" priority="2">
@@ -13126,16 +13246,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,10,1)</f>
         <v>42643</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -13146,20 +13266,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -13167,11 +13287,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -13261,7 +13381,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-10.6493055555556</v>
+        <v>-9.21041666666666</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13306,7 +13426,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-10.9826388888889</v>
+        <v>-9.5437499999999904</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13351,7 +13471,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9826388888889</v>
+        <v>-9.5437499999999904</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13396,7 +13516,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9826388888889</v>
+        <v>-9.5437499999999904</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13441,7 +13561,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9826388888889</v>
+        <v>-9.5437499999999904</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13486,7 +13606,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.9826388888889</v>
+        <v>-9.5437499999999904</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13531,7 +13651,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.3159722222222</v>
+        <v>-9.8770833333333208</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13576,7 +13696,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.4826388888889</v>
+        <v>-10.043749999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13621,7 +13741,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.8159722222222</v>
+        <v>-10.377083333333299</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13666,7 +13786,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.8159722222222</v>
+        <v>-10.377083333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13711,7 +13831,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.8159722222222</v>
+        <v>-10.377083333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13756,7 +13876,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.8159722222222</v>
+        <v>-10.377083333333299</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13801,7 +13921,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.8159722222222</v>
+        <v>-10.377083333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13846,7 +13966,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.1493055555555</v>
+        <v>-10.7104166666666</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13891,7 +14011,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.3159722222222</v>
+        <v>-10.877083333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13936,7 +14056,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6493055555555</v>
+        <v>-11.2104166666666</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13981,7 +14101,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6493055555555</v>
+        <v>-11.2104166666666</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14026,7 +14146,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6493055555555</v>
+        <v>-11.2104166666666</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14071,7 +14191,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6493055555555</v>
+        <v>-11.2104166666666</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14116,7 +14236,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6493055555555</v>
+        <v>-11.2104166666666</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14161,7 +14281,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.9826388888888</v>
+        <v>-11.5437499999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14206,7 +14326,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.1493055555555</v>
+        <v>-11.7104166666666</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14251,7 +14371,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.4826388888888</v>
+        <v>-12.0437499999999</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14296,7 +14416,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.4826388888888</v>
+        <v>-12.0437499999999</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14341,7 +14461,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.4826388888888</v>
+        <v>-12.0437499999999</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14386,7 +14506,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.4826388888888</v>
+        <v>-12.0437499999999</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14431,7 +14551,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.4826388888888</v>
+        <v>-12.0437499999999</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14476,7 +14596,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.815972222222101</v>
+        <v>-12.3770833333332</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14521,7 +14641,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.9826388888888</v>
+        <v>-12.5437499999999</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14566,7 +14686,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.315972222222101</v>
+        <v>-12.8770833333332</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14611,7 +14731,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.315972222222101</v>
+        <v>-12.8770833333332</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -14642,7 +14762,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-10.4826388888889</v>
+        <v>-9.0437499999999904</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -14651,13 +14771,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -14683,14 +14803,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14716,13 +14836,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14741,13 +14861,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14763,7 +14883,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-14.3159722222222</v>
+        <v>-12.877083333333299</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -14772,13 +14892,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14813,14 +14933,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -14840,14 +14960,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -14871,14 +14991,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -14898,14 +15018,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -14925,14 +15045,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -14956,14 +15076,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -14972,21 +15092,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RthWpkefgasVF7mUvUEwcv1PAQ5dnb7jdJEdiAtCsTcYrr2DXtkCOKlt8KBAcaZdDCRYzq33+CroGdjHatAXYA==" saltValue="gix2Bx2zL9EvbIvQixmH2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="53" priority="2">
@@ -15077,16 +15197,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,11,1)</f>
         <v>42674</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -15097,20 +15217,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -15118,11 +15238,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -15212,7 +15332,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-14.3159722222222</v>
+        <v>-12.877083333333299</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15257,7 +15377,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-14.3159722222222</v>
+        <v>-12.877083333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15302,7 +15422,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.3159722222222</v>
+        <v>-12.877083333333299</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15347,7 +15467,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.6493055555555</v>
+        <v>-13.2104166666666</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15392,7 +15512,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.8159722222222</v>
+        <v>-13.377083333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15437,7 +15557,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1493055555555</v>
+        <v>-13.7104166666666</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15482,7 +15602,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1493055555555</v>
+        <v>-13.7104166666666</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15527,7 +15647,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1493055555555</v>
+        <v>-13.7104166666666</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15572,7 +15692,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1493055555555</v>
+        <v>-13.7104166666666</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15617,7 +15737,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1493055555555</v>
+        <v>-13.7104166666666</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15662,7 +15782,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.4826388888888</v>
+        <v>-14.0437499999999</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15707,7 +15827,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.6493055555555</v>
+        <v>-14.2104166666666</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15752,7 +15872,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9826388888888</v>
+        <v>-14.5437499999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15797,7 +15917,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9826388888888</v>
+        <v>-14.5437499999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15842,7 +15962,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9826388888888</v>
+        <v>-14.5437499999999</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15887,7 +16007,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9826388888888</v>
+        <v>-14.5437499999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15932,7 +16052,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9826388888888</v>
+        <v>-14.5437499999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15977,7 +16097,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.315972222222101</v>
+        <v>-14.8770833333332</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16022,7 +16142,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.4826388888888</v>
+        <v>-15.0437499999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16067,7 +16187,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.815972222222101</v>
+        <v>-15.3770833333332</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16112,7 +16232,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.815972222222101</v>
+        <v>-15.3770833333332</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16157,7 +16277,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.815972222222101</v>
+        <v>-15.3770833333332</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16202,7 +16322,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.815972222222101</v>
+        <v>-15.3770833333332</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16247,7 +16367,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.815972222222101</v>
+        <v>-15.3770833333332</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16292,7 +16412,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.149305555555401</v>
+        <v>-15.7104166666665</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16337,7 +16457,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.315972222222101</v>
+        <v>-15.8770833333332</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16382,7 +16502,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.649305555555401</v>
+        <v>-16.2104166666665</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16427,7 +16547,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.649305555555401</v>
+        <v>-16.2104166666665</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16472,7 +16592,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.649305555555401</v>
+        <v>-16.2104166666665</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16517,7 +16637,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.649305555555401</v>
+        <v>-16.2104166666665</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16593,7 +16713,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-14.3159722222222</v>
+        <v>-12.877083333333299</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -16602,13 +16722,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -16634,14 +16754,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -16667,13 +16787,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16692,13 +16812,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -16714,7 +16834,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-17.6493055555555</v>
+        <v>-16.2104166666666</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -16723,13 +16843,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16764,14 +16884,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -16791,14 +16911,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -16822,14 +16942,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -16849,14 +16969,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -16876,14 +16996,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -16907,14 +17027,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -16923,21 +17043,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BSHenHTjOeCLEK/Vhdt9DN47er8vHXKxixVq0zifYQ0YqDCLyIRjWwdu26DK6EbWV62R2jSYCaEOOJZMW8350Q==" saltValue="mrWUpOtdd6VsTAymx1hVrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="43" priority="2">
@@ -17028,16 +17148,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,12,1)</f>
         <v>42704</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -17048,20 +17168,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -17069,11 +17189,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -17163,7 +17283,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-17.6493055555555</v>
+        <v>-16.2104166666666</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17208,7 +17328,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-17.9826388888888</v>
+        <v>-16.5437499999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17253,7 +17373,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.1493055555555</v>
+        <v>-16.7104166666666</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17298,7 +17418,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4826388888888</v>
+        <v>-17.0437499999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17343,7 +17463,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4826388888888</v>
+        <v>-17.0437499999999</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17388,7 +17508,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4826388888888</v>
+        <v>-17.0437499999999</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17433,7 +17553,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4826388888888</v>
+        <v>-17.0437499999999</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17478,7 +17598,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4826388888888</v>
+        <v>-17.0437499999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17523,7 +17643,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.815972222222101</v>
+        <v>-17.3770833333332</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17568,7 +17688,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.9826388888888</v>
+        <v>-17.5437499999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17613,7 +17733,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.315972222222101</v>
+        <v>-17.8770833333332</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17658,7 +17778,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.315972222222101</v>
+        <v>-17.8770833333332</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17703,7 +17823,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.315972222222101</v>
+        <v>-17.8770833333332</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17748,7 +17868,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.315972222222101</v>
+        <v>-17.8770833333332</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17793,7 +17913,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.315972222222101</v>
+        <v>-17.8770833333332</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17838,7 +17958,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.649305555555401</v>
+        <v>-18.2104166666665</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17883,7 +18003,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.815972222222101</v>
+        <v>-18.3770833333332</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17928,7 +18048,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.149305555555401</v>
+        <v>-18.7104166666665</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17973,7 +18093,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.149305555555401</v>
+        <v>-18.7104166666665</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18018,7 +18138,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.149305555555401</v>
+        <v>-18.7104166666665</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18063,7 +18183,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.149305555555401</v>
+        <v>-18.7104166666665</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18108,7 +18228,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.149305555555401</v>
+        <v>-18.7104166666665</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18153,7 +18273,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.482638888888701</v>
+        <v>-19.0437499999998</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18198,7 +18318,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.565972222222001</v>
+        <v>-19.127083333333101</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18243,7 +18363,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.565972222222001</v>
+        <v>-19.127083333333101</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18288,7 +18408,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.565972222222001</v>
+        <v>-19.127083333333101</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18333,7 +18453,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.565972222222001</v>
+        <v>-19.127083333333101</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18378,7 +18498,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.565972222222001</v>
+        <v>-19.127083333333101</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18423,7 +18543,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.565972222222001</v>
+        <v>-19.127083333333101</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18468,7 +18588,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.899305555555301</v>
+        <v>-19.460416666666401</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18513,7 +18633,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.982638888888602</v>
+        <v>-19.543749999999701</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18544,7 +18664,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-17.6493055555555</v>
+        <v>-16.2104166666666</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -18553,13 +18673,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -18585,14 +18705,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -18618,13 +18738,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18643,13 +18763,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -18665,7 +18785,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-20.9826388888888</v>
+        <v>-19.5437499999999</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -18674,13 +18794,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18715,14 +18835,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -18742,14 +18862,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -18773,14 +18893,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -18800,14 +18920,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -18827,14 +18947,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -18858,14 +18978,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -18874,21 +18994,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cxvY2DkTl/qvreVavAHZQiMD66UcFjhxoXVYD73h1/l0udHUCuS5sptsDftLSlvMcY2XaWQ5B33HtmQ912mInw==" saltValue="5c5gNlRNtYb15QfXriDQfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="33" priority="2">
@@ -18992,158 +19112,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="401" t="str">
+      <c r="A1" s="390"/>
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="391" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2020</v>
       </c>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
-      <c r="N1" s="401"/>
-      <c r="O1" s="401"/>
-      <c r="P1" s="401"/>
-      <c r="Q1" s="401"/>
-      <c r="R1" s="401"/>
-      <c r="S1" s="401"/>
-      <c r="T1" s="401"/>
-      <c r="U1" s="401"/>
-      <c r="V1" s="401"/>
-      <c r="W1" s="401"/>
-      <c r="X1" s="401"/>
-      <c r="Y1" s="401"/>
-      <c r="Z1" s="401"/>
-      <c r="AA1" s="401"/>
-      <c r="AB1" s="401"/>
-      <c r="AC1" s="401"/>
-      <c r="AD1" s="401"/>
-      <c r="AE1" s="401"/>
-      <c r="AF1" s="401"/>
-      <c r="AG1" s="401"/>
-      <c r="AH1" s="401"/>
-      <c r="AI1" s="402" t="str">
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
+      <c r="N1" s="391"/>
+      <c r="O1" s="391"/>
+      <c r="P1" s="391"/>
+      <c r="Q1" s="391"/>
+      <c r="R1" s="391"/>
+      <c r="S1" s="391"/>
+      <c r="T1" s="391"/>
+      <c r="U1" s="391"/>
+      <c r="V1" s="391"/>
+      <c r="W1" s="391"/>
+      <c r="X1" s="391"/>
+      <c r="Y1" s="391"/>
+      <c r="Z1" s="391"/>
+      <c r="AA1" s="391"/>
+      <c r="AB1" s="391"/>
+      <c r="AC1" s="391"/>
+      <c r="AD1" s="391"/>
+      <c r="AE1" s="391"/>
+      <c r="AF1" s="391"/>
+      <c r="AG1" s="391"/>
+      <c r="AH1" s="391"/>
+      <c r="AI1" s="392" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
+      <c r="AJ1" s="392"/>
+      <c r="AK1" s="392"/>
+      <c r="AL1" s="392"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="400"/>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="401"/>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="401"/>
-      <c r="S2" s="401"/>
-      <c r="T2" s="401"/>
-      <c r="U2" s="401"/>
-      <c r="V2" s="401"/>
-      <c r="W2" s="401"/>
-      <c r="X2" s="401"/>
-      <c r="Y2" s="401"/>
-      <c r="Z2" s="401"/>
-      <c r="AA2" s="401"/>
-      <c r="AB2" s="401"/>
-      <c r="AC2" s="401"/>
-      <c r="AD2" s="401"/>
-      <c r="AE2" s="401"/>
-      <c r="AF2" s="401"/>
-      <c r="AG2" s="401"/>
-      <c r="AH2" s="401"/>
-      <c r="AI2" s="403" t="str">
+      <c r="A2" s="390"/>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
+      <c r="I2" s="391"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="391"/>
+      <c r="O2" s="391"/>
+      <c r="P2" s="391"/>
+      <c r="Q2" s="391"/>
+      <c r="R2" s="391"/>
+      <c r="S2" s="391"/>
+      <c r="T2" s="391"/>
+      <c r="U2" s="391"/>
+      <c r="V2" s="391"/>
+      <c r="W2" s="391"/>
+      <c r="X2" s="391"/>
+      <c r="Y2" s="391"/>
+      <c r="Z2" s="391"/>
+      <c r="AA2" s="391"/>
+      <c r="AB2" s="391"/>
+      <c r="AC2" s="391"/>
+      <c r="AD2" s="391"/>
+      <c r="AE2" s="391"/>
+      <c r="AF2" s="391"/>
+      <c r="AG2" s="391"/>
+      <c r="AH2" s="391"/>
+      <c r="AI2" s="393" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="AJ2" s="403"/>
-      <c r="AK2" s="403"/>
-      <c r="AL2" s="403"/>
+      <c r="AJ2" s="393"/>
+      <c r="AK2" s="393"/>
+      <c r="AL2" s="393"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="404" t="s">
+      <c r="B3" s="394" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="404"/>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404" t="s">
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="404"/>
-      <c r="G3" s="404"/>
-      <c r="H3" s="404" t="s">
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="404"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404" t="s">
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="394" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
-      <c r="N3" s="404" t="s">
+      <c r="L3" s="394"/>
+      <c r="M3" s="394"/>
+      <c r="N3" s="394" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="404"/>
-      <c r="P3" s="404"/>
-      <c r="Q3" s="404" t="s">
+      <c r="O3" s="394"/>
+      <c r="P3" s="394"/>
+      <c r="Q3" s="394" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="404"/>
-      <c r="S3" s="404"/>
-      <c r="T3" s="404" t="s">
+      <c r="R3" s="394"/>
+      <c r="S3" s="394"/>
+      <c r="T3" s="394" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="404"/>
-      <c r="V3" s="404"/>
-      <c r="W3" s="404" t="s">
+      <c r="U3" s="394"/>
+      <c r="V3" s="394"/>
+      <c r="W3" s="394" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="404"/>
-      <c r="Y3" s="404"/>
-      <c r="Z3" s="404" t="s">
+      <c r="X3" s="394"/>
+      <c r="Y3" s="394"/>
+      <c r="Z3" s="394" t="s">
         <v>137</v>
       </c>
-      <c r="AA3" s="404"/>
-      <c r="AB3" s="404"/>
-      <c r="AC3" s="404" t="s">
+      <c r="AA3" s="394"/>
+      <c r="AB3" s="394"/>
+      <c r="AC3" s="394" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" s="404"/>
-      <c r="AE3" s="404"/>
-      <c r="AF3" s="404" t="s">
+      <c r="AD3" s="394"/>
+      <c r="AE3" s="394"/>
+      <c r="AF3" s="394" t="s">
         <v>139</v>
       </c>
-      <c r="AG3" s="404"/>
-      <c r="AH3" s="404"/>
-      <c r="AI3" s="404" t="s">
+      <c r="AG3" s="394"/>
+      <c r="AH3" s="394"/>
+      <c r="AI3" s="394" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="404"/>
-      <c r="AK3" s="404"/>
+      <c r="AJ3" s="394"/>
+      <c r="AK3" s="394"/>
       <c r="AL3" s="282" t="s">
         <v>95</v>
       </c>
@@ -20584,9 +20704,9 @@
         <f>Juni!A13</f>
         <v>42530</v>
       </c>
-      <c r="R13" s="294" t="str">
+      <c r="R13" s="294">
         <f>IF(Juni!K13&gt;0,Juni!K13,"")</f>
-        <v/>
+        <v>0.375</v>
       </c>
       <c r="S13" s="299" t="str">
         <f>IF(OR(Juni!C13="",Juni!J13&lt;&gt;""),UPPER(Juni!J13),"F")</f>
@@ -20736,9 +20856,9 @@
         <f>Juni!A14</f>
         <v>42531</v>
       </c>
-      <c r="R14" s="294" t="str">
+      <c r="R14" s="294">
         <f>IF(Juni!K14&gt;0,Juni!K14,"")</f>
-        <v/>
+        <v>0.27083333333333331</v>
       </c>
       <c r="S14" s="299" t="str">
         <f>IF(OR(Juni!C14="",Juni!J14&lt;&gt;""),UPPER(Juni!J14),"F")</f>
@@ -20888,9 +21008,9 @@
         <f>Juni!A15</f>
         <v>42532</v>
       </c>
-      <c r="R15" s="294" t="str">
+      <c r="R15" s="294">
         <f>IF(Juni!K15&gt;0,Juni!K15,"")</f>
-        <v/>
+        <v>0.35416666666666674</v>
       </c>
       <c r="S15" s="299" t="str">
         <f>IF(OR(Juni!C15="",Juni!J15&lt;&gt;""),UPPER(Juni!J15),"F")</f>
@@ -21648,9 +21768,9 @@
         <f>Juni!A20</f>
         <v>42537</v>
       </c>
-      <c r="R20" s="294" t="str">
+      <c r="R20" s="294">
         <f>IF(Juni!K20&gt;0,Juni!K20,"")</f>
-        <v/>
+        <v>0.43888888888888888</v>
       </c>
       <c r="S20" s="299" t="str">
         <f>IF(OR(Juni!C20="",Juni!J20&lt;&gt;""),UPPER(Juni!J20),"F")</f>
@@ -23864,77 +23984,77 @@
       <c r="A35" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="396">
+      <c r="B35" s="395">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="396"/>
+      <c r="C35" s="395"/>
       <c r="D35" s="311"/>
-      <c r="E35" s="396">
+      <c r="E35" s="395">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="396"/>
+      <c r="F35" s="395"/>
       <c r="G35" s="312"/>
-      <c r="H35" s="397">
+      <c r="H35" s="396">
         <f ca="1">März!F37</f>
         <v>0</v>
       </c>
-      <c r="I35" s="397"/>
+      <c r="I35" s="396"/>
       <c r="J35" s="313"/>
-      <c r="K35" s="396">
+      <c r="K35" s="395">
         <f ca="1">April!F37</f>
         <v>3.4999999999999991</v>
       </c>
-      <c r="L35" s="396"/>
+      <c r="L35" s="395"/>
       <c r="M35" s="312"/>
-      <c r="N35" s="397">
+      <c r="N35" s="396">
         <f ca="1">Mai!F37</f>
         <v>3.1666666666666652</v>
       </c>
-      <c r="O35" s="397"/>
+      <c r="O35" s="396"/>
       <c r="P35" s="313"/>
-      <c r="Q35" s="396">
+      <c r="Q35" s="395">
         <f ca="1">Juni!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="R35" s="396"/>
+      <c r="R35" s="395"/>
       <c r="S35" s="312"/>
-      <c r="T35" s="397">
+      <c r="T35" s="396">
         <f ca="1">Juli!F37</f>
         <v>4.1666666666666652</v>
       </c>
-      <c r="U35" s="397"/>
+      <c r="U35" s="396"/>
       <c r="V35" s="313"/>
-      <c r="W35" s="396">
+      <c r="W35" s="395">
         <f ca="1">August!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="X35" s="396"/>
+      <c r="X35" s="395"/>
       <c r="Y35" s="312"/>
-      <c r="Z35" s="397">
+      <c r="Z35" s="396">
         <f ca="1">September!F37</f>
         <v>3.6666666666666652</v>
       </c>
-      <c r="AA35" s="397"/>
+      <c r="AA35" s="396"/>
       <c r="AB35" s="313"/>
-      <c r="AC35" s="396">
+      <c r="AC35" s="395">
         <f ca="1">Oktober!F37</f>
         <v>3.8333333333333321</v>
       </c>
-      <c r="AD35" s="396"/>
+      <c r="AD35" s="395"/>
       <c r="AE35" s="312"/>
-      <c r="AF35" s="397">
+      <c r="AF35" s="396">
         <f ca="1">November!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AG35" s="397"/>
+      <c r="AG35" s="396"/>
       <c r="AH35" s="313"/>
-      <c r="AI35" s="396">
+      <c r="AI35" s="395">
         <f ca="1">Dezember!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AJ35" s="396"/>
+      <c r="AJ35" s="395"/>
       <c r="AK35" s="312"/>
       <c r="AL35" s="314">
         <f t="shared" ref="AL35:AL49" ca="1" si="0">SUM(B35:AK35)</f>
@@ -23945,243 +24065,243 @@
       <c r="A36" s="315" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="398">
+      <c r="B36" s="397">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="398"/>
+      <c r="C36" s="397"/>
       <c r="D36" s="316"/>
-      <c r="E36" s="398">
+      <c r="E36" s="397">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="398"/>
+      <c r="F36" s="397"/>
       <c r="G36" s="317"/>
-      <c r="H36" s="399">
+      <c r="H36" s="398">
         <f>März!F38</f>
         <v>0.33333333333333498</v>
       </c>
-      <c r="I36" s="399"/>
+      <c r="I36" s="398"/>
       <c r="J36" s="318"/>
-      <c r="K36" s="398">
+      <c r="K36" s="397">
         <f>April!F38</f>
         <v>4.5625000000000018</v>
       </c>
-      <c r="L36" s="398"/>
+      <c r="L36" s="397"/>
       <c r="M36" s="317"/>
-      <c r="N36" s="399">
+      <c r="N36" s="398">
         <f>Mai!F38</f>
         <v>4.5243055555555554</v>
       </c>
-      <c r="O36" s="399"/>
+      <c r="O36" s="398"/>
       <c r="P36" s="318"/>
-      <c r="Q36" s="398">
+      <c r="Q36" s="397">
         <f>Juni!F38</f>
-        <v>1.2638888888888888</v>
-      </c>
-      <c r="R36" s="398"/>
+        <v>2.7027777777777775</v>
+      </c>
+      <c r="R36" s="397"/>
       <c r="S36" s="317"/>
-      <c r="T36" s="399">
+      <c r="T36" s="398">
         <f>Juli!F38</f>
         <v>0</v>
       </c>
-      <c r="U36" s="399"/>
+      <c r="U36" s="398"/>
       <c r="V36" s="318"/>
-      <c r="W36" s="398">
+      <c r="W36" s="397">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="398"/>
+      <c r="X36" s="397"/>
       <c r="Y36" s="317"/>
-      <c r="Z36" s="399">
+      <c r="Z36" s="398">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="399"/>
+      <c r="AA36" s="398"/>
       <c r="AB36" s="318"/>
-      <c r="AC36" s="398">
+      <c r="AC36" s="397">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="398"/>
+      <c r="AD36" s="397"/>
       <c r="AE36" s="317"/>
-      <c r="AF36" s="399">
+      <c r="AF36" s="398">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="399"/>
+      <c r="AG36" s="398"/>
       <c r="AH36" s="318"/>
-      <c r="AI36" s="398">
+      <c r="AI36" s="397">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="398"/>
+      <c r="AJ36" s="397"/>
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>10.684027777777782</v>
+        <v>12.12291666666667</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="320" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="393">
+      <c r="B37" s="399">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="393"/>
+      <c r="C37" s="399"/>
       <c r="D37" s="321"/>
-      <c r="E37" s="393">
+      <c r="E37" s="399">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="393"/>
+      <c r="F37" s="399"/>
       <c r="G37" s="322"/>
-      <c r="H37" s="394">
+      <c r="H37" s="400">
         <f ca="1">ROUND(H36-H35,10)</f>
         <v>0.33333333329999998</v>
       </c>
-      <c r="I37" s="394"/>
+      <c r="I37" s="400"/>
       <c r="J37" s="323"/>
-      <c r="K37" s="393">
+      <c r="K37" s="399">
         <f ca="1">ROUND(K36-K35,10)</f>
         <v>1.0625</v>
       </c>
-      <c r="L37" s="393"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="322"/>
-      <c r="N37" s="394">
+      <c r="N37" s="400">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>1.3576388889</v>
       </c>
-      <c r="O37" s="394"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="323"/>
-      <c r="Q37" s="393">
+      <c r="Q37" s="399">
         <f ca="1">ROUND(Q36-Q35,10)</f>
-        <v>-2.0694444444000002</v>
-      </c>
-      <c r="R37" s="393"/>
+        <v>-0.63055555559999998</v>
+      </c>
+      <c r="R37" s="399"/>
       <c r="S37" s="322"/>
-      <c r="T37" s="394">
+      <c r="T37" s="400">
         <f ca="1">ROUND(T36-T35,10)</f>
         <v>-4.1666666667000003</v>
       </c>
-      <c r="U37" s="394"/>
+      <c r="U37" s="400"/>
       <c r="V37" s="323"/>
-      <c r="W37" s="393">
+      <c r="W37" s="399">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="X37" s="393"/>
+      <c r="X37" s="399"/>
       <c r="Y37" s="322"/>
-      <c r="Z37" s="394">
+      <c r="Z37" s="400">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>-3.6666666666999999</v>
       </c>
-      <c r="AA37" s="394"/>
+      <c r="AA37" s="400"/>
       <c r="AB37" s="323"/>
-      <c r="AC37" s="393">
+      <c r="AC37" s="399">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>-3.8333333333000001</v>
       </c>
-      <c r="AD37" s="393"/>
+      <c r="AD37" s="399"/>
       <c r="AE37" s="322"/>
-      <c r="AF37" s="394">
+      <c r="AF37" s="400">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AG37" s="394"/>
+      <c r="AG37" s="400"/>
       <c r="AH37" s="323"/>
-      <c r="AI37" s="393">
+      <c r="AI37" s="399">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AJ37" s="393"/>
+      <c r="AJ37" s="399"/>
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.9826388888</v>
+        <v>-19.543749999999999</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="401">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="395"/>
-      <c r="D38" s="395"/>
-      <c r="E38" s="395">
+      <c r="C38" s="401"/>
+      <c r="D38" s="401"/>
+      <c r="E38" s="401">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="395"/>
-      <c r="G38" s="395"/>
-      <c r="H38" s="395">
+      <c r="F38" s="401"/>
+      <c r="G38" s="401"/>
+      <c r="H38" s="401">
         <f>März!J40</f>
         <v>0</v>
       </c>
-      <c r="I38" s="395"/>
-      <c r="J38" s="395"/>
-      <c r="K38" s="395">
+      <c r="I38" s="401"/>
+      <c r="J38" s="401"/>
+      <c r="K38" s="401">
         <f>April!J40</f>
         <v>6</v>
       </c>
-      <c r="L38" s="395"/>
-      <c r="M38" s="395"/>
-      <c r="N38" s="395">
+      <c r="L38" s="401"/>
+      <c r="M38" s="401"/>
+      <c r="N38" s="401">
         <f>Mai!J40</f>
         <v>17</v>
       </c>
-      <c r="O38" s="395"/>
-      <c r="P38" s="395"/>
-      <c r="Q38" s="395">
+      <c r="O38" s="401"/>
+      <c r="P38" s="401"/>
+      <c r="Q38" s="401">
         <f>Juni!J40</f>
-        <v>4</v>
-      </c>
-      <c r="R38" s="395"/>
-      <c r="S38" s="395"/>
-      <c r="T38" s="395">
+        <v>8</v>
+      </c>
+      <c r="R38" s="401"/>
+      <c r="S38" s="401"/>
+      <c r="T38" s="401">
         <f>Juli!J40</f>
         <v>0</v>
       </c>
-      <c r="U38" s="395"/>
-      <c r="V38" s="395"/>
-      <c r="W38" s="395">
+      <c r="U38" s="401"/>
+      <c r="V38" s="401"/>
+      <c r="W38" s="401">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="395"/>
-      <c r="Y38" s="395"/>
-      <c r="Z38" s="395">
+      <c r="X38" s="401"/>
+      <c r="Y38" s="401"/>
+      <c r="Z38" s="401">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="395"/>
-      <c r="AB38" s="395"/>
-      <c r="AC38" s="395">
+      <c r="AA38" s="401"/>
+      <c r="AB38" s="401"/>
+      <c r="AC38" s="401">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="395"/>
-      <c r="AE38" s="395"/>
-      <c r="AF38" s="395">
+      <c r="AD38" s="401"/>
+      <c r="AE38" s="401"/>
+      <c r="AF38" s="401">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="395"/>
-      <c r="AH38" s="395"/>
-      <c r="AI38" s="395">
+      <c r="AG38" s="401"/>
+      <c r="AH38" s="401"/>
+      <c r="AI38" s="401">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="395"/>
-      <c r="AK38" s="395"/>
+      <c r="AJ38" s="401"/>
+      <c r="AK38" s="401"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -24189,78 +24309,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B39" s="391">
+      <c r="B39" s="402">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="391"/>
-      <c r="D39" s="391"/>
-      <c r="E39" s="391">
+      <c r="C39" s="402"/>
+      <c r="D39" s="402"/>
+      <c r="E39" s="402">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F39" s="391"/>
-      <c r="G39" s="391"/>
-      <c r="H39" s="391">
+      <c r="F39" s="402"/>
+      <c r="G39" s="402"/>
+      <c r="H39" s="402">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I39" s="391"/>
-      <c r="J39" s="391"/>
-      <c r="K39" s="391">
+      <c r="I39" s="402"/>
+      <c r="J39" s="402"/>
+      <c r="K39" s="402">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L39" s="391"/>
-      <c r="M39" s="391"/>
-      <c r="N39" s="391">
+      <c r="L39" s="402"/>
+      <c r="M39" s="402"/>
+      <c r="N39" s="402">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O39" s="391"/>
-      <c r="P39" s="391"/>
-      <c r="Q39" s="391">
+      <c r="O39" s="402"/>
+      <c r="P39" s="402"/>
+      <c r="Q39" s="402">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R39" s="391"/>
-      <c r="S39" s="391"/>
-      <c r="T39" s="391">
+      <c r="R39" s="402"/>
+      <c r="S39" s="402"/>
+      <c r="T39" s="402">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U39" s="391"/>
-      <c r="V39" s="391"/>
-      <c r="W39" s="391">
+      <c r="U39" s="402"/>
+      <c r="V39" s="402"/>
+      <c r="W39" s="402">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X39" s="391"/>
-      <c r="Y39" s="391"/>
-      <c r="Z39" s="391">
+      <c r="X39" s="402"/>
+      <c r="Y39" s="402"/>
+      <c r="Z39" s="402">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="391"/>
-      <c r="AB39" s="391"/>
-      <c r="AC39" s="391">
+      <c r="AA39" s="402"/>
+      <c r="AB39" s="402"/>
+      <c r="AC39" s="402">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="391"/>
-      <c r="AE39" s="391"/>
-      <c r="AF39" s="391">
+      <c r="AD39" s="402"/>
+      <c r="AE39" s="402"/>
+      <c r="AF39" s="402">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="391"/>
-      <c r="AH39" s="391"/>
-      <c r="AI39" s="391">
+      <c r="AG39" s="402"/>
+      <c r="AH39" s="402"/>
+      <c r="AI39" s="402">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="391"/>
-      <c r="AK39" s="391"/>
+      <c r="AJ39" s="402"/>
+      <c r="AK39" s="402"/>
       <c r="AL39" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24271,78 +24391,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B40" s="391">
+      <c r="B40" s="402">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="391"/>
-      <c r="D40" s="391"/>
-      <c r="E40" s="391">
+      <c r="C40" s="402"/>
+      <c r="D40" s="402"/>
+      <c r="E40" s="402">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F40" s="391"/>
-      <c r="G40" s="391"/>
-      <c r="H40" s="391">
+      <c r="F40" s="402"/>
+      <c r="G40" s="402"/>
+      <c r="H40" s="402">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I40" s="391"/>
-      <c r="J40" s="391"/>
-      <c r="K40" s="391">
+      <c r="I40" s="402"/>
+      <c r="J40" s="402"/>
+      <c r="K40" s="402">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L40" s="391"/>
-      <c r="M40" s="391"/>
-      <c r="N40" s="391">
+      <c r="L40" s="402"/>
+      <c r="M40" s="402"/>
+      <c r="N40" s="402">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O40" s="391"/>
-      <c r="P40" s="391"/>
-      <c r="Q40" s="391">
+      <c r="O40" s="402"/>
+      <c r="P40" s="402"/>
+      <c r="Q40" s="402">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R40" s="391"/>
-      <c r="S40" s="391"/>
-      <c r="T40" s="391">
+      <c r="R40" s="402"/>
+      <c r="S40" s="402"/>
+      <c r="T40" s="402">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U40" s="391"/>
-      <c r="V40" s="391"/>
-      <c r="W40" s="391">
+      <c r="U40" s="402"/>
+      <c r="V40" s="402"/>
+      <c r="W40" s="402">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X40" s="391"/>
-      <c r="Y40" s="391"/>
-      <c r="Z40" s="391">
+      <c r="X40" s="402"/>
+      <c r="Y40" s="402"/>
+      <c r="Z40" s="402">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="391"/>
-      <c r="AB40" s="391"/>
-      <c r="AC40" s="391">
+      <c r="AA40" s="402"/>
+      <c r="AB40" s="402"/>
+      <c r="AC40" s="402">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="391"/>
-      <c r="AE40" s="391"/>
-      <c r="AF40" s="391">
+      <c r="AD40" s="402"/>
+      <c r="AE40" s="402"/>
+      <c r="AF40" s="402">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="391"/>
-      <c r="AH40" s="391"/>
-      <c r="AI40" s="391">
+      <c r="AG40" s="402"/>
+      <c r="AH40" s="402"/>
+      <c r="AI40" s="402">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="391"/>
-      <c r="AK40" s="391"/>
+      <c r="AJ40" s="402"/>
+      <c r="AK40" s="402"/>
       <c r="AL40" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24353,78 +24473,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B41" s="391">
+      <c r="B41" s="402">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C41" s="391"/>
-      <c r="D41" s="391"/>
-      <c r="E41" s="391">
+      <c r="C41" s="402"/>
+      <c r="D41" s="402"/>
+      <c r="E41" s="402">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F41" s="391"/>
-      <c r="G41" s="391"/>
-      <c r="H41" s="391">
+      <c r="F41" s="402"/>
+      <c r="G41" s="402"/>
+      <c r="H41" s="402">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I41" s="391"/>
-      <c r="J41" s="391"/>
-      <c r="K41" s="391">
+      <c r="I41" s="402"/>
+      <c r="J41" s="402"/>
+      <c r="K41" s="402">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L41" s="391"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="391">
+      <c r="L41" s="402"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="402">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O41" s="391"/>
-      <c r="P41" s="391"/>
-      <c r="Q41" s="391">
+      <c r="O41" s="402"/>
+      <c r="P41" s="402"/>
+      <c r="Q41" s="402">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R41" s="391"/>
-      <c r="S41" s="391"/>
-      <c r="T41" s="391">
+      <c r="R41" s="402"/>
+      <c r="S41" s="402"/>
+      <c r="T41" s="402">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U41" s="391"/>
-      <c r="V41" s="391"/>
-      <c r="W41" s="391">
+      <c r="U41" s="402"/>
+      <c r="V41" s="402"/>
+      <c r="W41" s="402">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X41" s="391"/>
-      <c r="Y41" s="391"/>
-      <c r="Z41" s="391">
+      <c r="X41" s="402"/>
+      <c r="Y41" s="402"/>
+      <c r="Z41" s="402">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="391"/>
-      <c r="AB41" s="391"/>
-      <c r="AC41" s="391">
+      <c r="AA41" s="402"/>
+      <c r="AB41" s="402"/>
+      <c r="AC41" s="402">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="391"/>
-      <c r="AE41" s="391"/>
-      <c r="AF41" s="391">
+      <c r="AD41" s="402"/>
+      <c r="AE41" s="402"/>
+      <c r="AF41" s="402">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="391"/>
-      <c r="AH41" s="391"/>
-      <c r="AI41" s="391">
+      <c r="AG41" s="402"/>
+      <c r="AH41" s="402"/>
+      <c r="AI41" s="402">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="391"/>
-      <c r="AK41" s="391"/>
+      <c r="AJ41" s="402"/>
+      <c r="AK41" s="402"/>
       <c r="AL41" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24435,78 +24555,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B42" s="391">
+      <c r="B42" s="402">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C42" s="391"/>
-      <c r="D42" s="391"/>
-      <c r="E42" s="391">
+      <c r="C42" s="402"/>
+      <c r="D42" s="402"/>
+      <c r="E42" s="402">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F42" s="391"/>
-      <c r="G42" s="391"/>
-      <c r="H42" s="391">
+      <c r="F42" s="402"/>
+      <c r="G42" s="402"/>
+      <c r="H42" s="402">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I42" s="391"/>
-      <c r="J42" s="391"/>
-      <c r="K42" s="391">
+      <c r="I42" s="402"/>
+      <c r="J42" s="402"/>
+      <c r="K42" s="402">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L42" s="391"/>
-      <c r="M42" s="391"/>
-      <c r="N42" s="391">
+      <c r="L42" s="402"/>
+      <c r="M42" s="402"/>
+      <c r="N42" s="402">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O42" s="391"/>
-      <c r="P42" s="391"/>
-      <c r="Q42" s="391">
+      <c r="O42" s="402"/>
+      <c r="P42" s="402"/>
+      <c r="Q42" s="402">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R42" s="391"/>
-      <c r="S42" s="391"/>
-      <c r="T42" s="391">
+      <c r="R42" s="402"/>
+      <c r="S42" s="402"/>
+      <c r="T42" s="402">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U42" s="391"/>
-      <c r="V42" s="391"/>
-      <c r="W42" s="391">
+      <c r="U42" s="402"/>
+      <c r="V42" s="402"/>
+      <c r="W42" s="402">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X42" s="391"/>
-      <c r="Y42" s="391"/>
-      <c r="Z42" s="391">
+      <c r="X42" s="402"/>
+      <c r="Y42" s="402"/>
+      <c r="Z42" s="402">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="391"/>
-      <c r="AB42" s="391"/>
-      <c r="AC42" s="391">
+      <c r="AA42" s="402"/>
+      <c r="AB42" s="402"/>
+      <c r="AC42" s="402">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="391"/>
-      <c r="AE42" s="391"/>
-      <c r="AF42" s="391">
+      <c r="AD42" s="402"/>
+      <c r="AE42" s="402"/>
+      <c r="AF42" s="402">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="391"/>
-      <c r="AH42" s="391"/>
-      <c r="AI42" s="391">
+      <c r="AG42" s="402"/>
+      <c r="AH42" s="402"/>
+      <c r="AI42" s="402">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="391"/>
-      <c r="AK42" s="391"/>
+      <c r="AJ42" s="402"/>
+      <c r="AK42" s="402"/>
       <c r="AL42" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24517,78 +24637,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B43" s="391">
+      <c r="B43" s="402">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C43" s="391"/>
-      <c r="D43" s="391"/>
-      <c r="E43" s="391">
+      <c r="C43" s="402"/>
+      <c r="D43" s="402"/>
+      <c r="E43" s="402">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F43" s="391"/>
-      <c r="G43" s="391"/>
-      <c r="H43" s="391">
+      <c r="F43" s="402"/>
+      <c r="G43" s="402"/>
+      <c r="H43" s="402">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I43" s="391"/>
-      <c r="J43" s="391"/>
-      <c r="K43" s="391">
+      <c r="I43" s="402"/>
+      <c r="J43" s="402"/>
+      <c r="K43" s="402">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L43" s="391"/>
-      <c r="M43" s="391"/>
-      <c r="N43" s="391">
+      <c r="L43" s="402"/>
+      <c r="M43" s="402"/>
+      <c r="N43" s="402">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O43" s="391"/>
-      <c r="P43" s="391"/>
-      <c r="Q43" s="391">
+      <c r="O43" s="402"/>
+      <c r="P43" s="402"/>
+      <c r="Q43" s="402">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R43" s="391"/>
-      <c r="S43" s="391"/>
-      <c r="T43" s="391">
+      <c r="R43" s="402"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="402">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U43" s="391"/>
-      <c r="V43" s="391"/>
-      <c r="W43" s="391">
+      <c r="U43" s="402"/>
+      <c r="V43" s="402"/>
+      <c r="W43" s="402">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X43" s="391"/>
-      <c r="Y43" s="391"/>
-      <c r="Z43" s="391">
+      <c r="X43" s="402"/>
+      <c r="Y43" s="402"/>
+      <c r="Z43" s="402">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="391"/>
-      <c r="AB43" s="391"/>
-      <c r="AC43" s="391">
+      <c r="AA43" s="402"/>
+      <c r="AB43" s="402"/>
+      <c r="AC43" s="402">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="391"/>
-      <c r="AE43" s="391"/>
-      <c r="AF43" s="391">
+      <c r="AD43" s="402"/>
+      <c r="AE43" s="402"/>
+      <c r="AF43" s="402">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="391"/>
-      <c r="AH43" s="391"/>
-      <c r="AI43" s="391">
+      <c r="AG43" s="402"/>
+      <c r="AH43" s="402"/>
+      <c r="AI43" s="402">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="391"/>
-      <c r="AK43" s="391"/>
+      <c r="AJ43" s="402"/>
+      <c r="AK43" s="402"/>
       <c r="AL43" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24599,78 +24719,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B44" s="391" t="str">
+      <c r="B44" s="402" t="str">
         <f>Januar!J43</f>
         <v/>
       </c>
-      <c r="C44" s="391"/>
-      <c r="D44" s="391"/>
-      <c r="E44" s="391" t="str">
+      <c r="C44" s="402"/>
+      <c r="D44" s="402"/>
+      <c r="E44" s="402" t="str">
         <f>Februar!J43</f>
         <v/>
       </c>
-      <c r="F44" s="391"/>
-      <c r="G44" s="391"/>
-      <c r="H44" s="391" t="str">
+      <c r="F44" s="402"/>
+      <c r="G44" s="402"/>
+      <c r="H44" s="402" t="str">
         <f>März!J43</f>
         <v/>
       </c>
-      <c r="I44" s="391"/>
-      <c r="J44" s="391"/>
-      <c r="K44" s="391" t="str">
+      <c r="I44" s="402"/>
+      <c r="J44" s="402"/>
+      <c r="K44" s="402" t="str">
         <f>April!J43</f>
         <v/>
       </c>
-      <c r="L44" s="391"/>
-      <c r="M44" s="391"/>
-      <c r="N44" s="391" t="str">
+      <c r="L44" s="402"/>
+      <c r="M44" s="402"/>
+      <c r="N44" s="402" t="str">
         <f>Mai!J43</f>
         <v/>
       </c>
-      <c r="O44" s="391"/>
-      <c r="P44" s="391"/>
-      <c r="Q44" s="391" t="str">
+      <c r="O44" s="402"/>
+      <c r="P44" s="402"/>
+      <c r="Q44" s="402" t="str">
         <f>Juni!J43</f>
         <v/>
       </c>
-      <c r="R44" s="391"/>
-      <c r="S44" s="391"/>
-      <c r="T44" s="391" t="str">
+      <c r="R44" s="402"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="402" t="str">
         <f>Juli!J43</f>
         <v/>
       </c>
-      <c r="U44" s="391"/>
-      <c r="V44" s="391"/>
-      <c r="W44" s="391" t="str">
+      <c r="U44" s="402"/>
+      <c r="V44" s="402"/>
+      <c r="W44" s="402" t="str">
         <f>August!J43</f>
         <v/>
       </c>
-      <c r="X44" s="391"/>
-      <c r="Y44" s="391"/>
-      <c r="Z44" s="391" t="str">
+      <c r="X44" s="402"/>
+      <c r="Y44" s="402"/>
+      <c r="Z44" s="402" t="str">
         <f>September!J43</f>
         <v/>
       </c>
-      <c r="AA44" s="391"/>
-      <c r="AB44" s="391"/>
-      <c r="AC44" s="391" t="str">
+      <c r="AA44" s="402"/>
+      <c r="AB44" s="402"/>
+      <c r="AC44" s="402" t="str">
         <f>Oktober!J43</f>
         <v/>
       </c>
-      <c r="AD44" s="391"/>
-      <c r="AE44" s="391"/>
-      <c r="AF44" s="391" t="str">
+      <c r="AD44" s="402"/>
+      <c r="AE44" s="402"/>
+      <c r="AF44" s="402" t="str">
         <f>November!J43</f>
         <v/>
       </c>
-      <c r="AG44" s="391"/>
-      <c r="AH44" s="391"/>
-      <c r="AI44" s="391" t="str">
+      <c r="AG44" s="402"/>
+      <c r="AH44" s="402"/>
+      <c r="AI44" s="402" t="str">
         <f>Dezember!J43</f>
         <v/>
       </c>
-      <c r="AJ44" s="391"/>
-      <c r="AK44" s="391"/>
+      <c r="AJ44" s="402"/>
+      <c r="AK44" s="402"/>
       <c r="AL44" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24681,78 +24801,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B45" s="391" t="str">
+      <c r="B45" s="402" t="str">
         <f>Januar!J44</f>
         <v/>
       </c>
-      <c r="C45" s="391"/>
-      <c r="D45" s="391"/>
-      <c r="E45" s="391" t="str">
+      <c r="C45" s="402"/>
+      <c r="D45" s="402"/>
+      <c r="E45" s="402" t="str">
         <f>Februar!J44</f>
         <v/>
       </c>
-      <c r="F45" s="391"/>
-      <c r="G45" s="391"/>
-      <c r="H45" s="391" t="str">
+      <c r="F45" s="402"/>
+      <c r="G45" s="402"/>
+      <c r="H45" s="402" t="str">
         <f>März!J44</f>
         <v/>
       </c>
-      <c r="I45" s="391"/>
-      <c r="J45" s="391"/>
-      <c r="K45" s="391" t="str">
+      <c r="I45" s="402"/>
+      <c r="J45" s="402"/>
+      <c r="K45" s="402" t="str">
         <f>April!J44</f>
         <v/>
       </c>
-      <c r="L45" s="391"/>
-      <c r="M45" s="391"/>
-      <c r="N45" s="391" t="str">
+      <c r="L45" s="402"/>
+      <c r="M45" s="402"/>
+      <c r="N45" s="402" t="str">
         <f>Mai!J44</f>
         <v/>
       </c>
-      <c r="O45" s="391"/>
-      <c r="P45" s="391"/>
-      <c r="Q45" s="391" t="str">
+      <c r="O45" s="402"/>
+      <c r="P45" s="402"/>
+      <c r="Q45" s="402" t="str">
         <f>Juni!J44</f>
         <v/>
       </c>
-      <c r="R45" s="391"/>
-      <c r="S45" s="391"/>
-      <c r="T45" s="391" t="str">
+      <c r="R45" s="402"/>
+      <c r="S45" s="402"/>
+      <c r="T45" s="402" t="str">
         <f>Juli!J44</f>
         <v/>
       </c>
-      <c r="U45" s="391"/>
-      <c r="V45" s="391"/>
-      <c r="W45" s="391" t="str">
+      <c r="U45" s="402"/>
+      <c r="V45" s="402"/>
+      <c r="W45" s="402" t="str">
         <f>August!J44</f>
         <v/>
       </c>
-      <c r="X45" s="391"/>
-      <c r="Y45" s="391"/>
-      <c r="Z45" s="391" t="str">
+      <c r="X45" s="402"/>
+      <c r="Y45" s="402"/>
+      <c r="Z45" s="402" t="str">
         <f>September!J44</f>
         <v/>
       </c>
-      <c r="AA45" s="391"/>
-      <c r="AB45" s="391"/>
-      <c r="AC45" s="391" t="str">
+      <c r="AA45" s="402"/>
+      <c r="AB45" s="402"/>
+      <c r="AC45" s="402" t="str">
         <f>Oktober!J44</f>
         <v/>
       </c>
-      <c r="AD45" s="391"/>
-      <c r="AE45" s="391"/>
-      <c r="AF45" s="391" t="str">
+      <c r="AD45" s="402"/>
+      <c r="AE45" s="402"/>
+      <c r="AF45" s="402" t="str">
         <f>November!J44</f>
         <v/>
       </c>
-      <c r="AG45" s="391"/>
-      <c r="AH45" s="391"/>
-      <c r="AI45" s="391" t="str">
+      <c r="AG45" s="402"/>
+      <c r="AH45" s="402"/>
+      <c r="AI45" s="402" t="str">
         <f>Dezember!J44</f>
         <v/>
       </c>
-      <c r="AJ45" s="391"/>
-      <c r="AK45" s="391"/>
+      <c r="AJ45" s="402"/>
+      <c r="AK45" s="402"/>
       <c r="AL45" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24763,78 +24883,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B46" s="391" t="str">
+      <c r="B46" s="402" t="str">
         <f>Januar!J45</f>
         <v/>
       </c>
-      <c r="C46" s="391"/>
-      <c r="D46" s="391"/>
-      <c r="E46" s="391" t="str">
+      <c r="C46" s="402"/>
+      <c r="D46" s="402"/>
+      <c r="E46" s="402" t="str">
         <f>Februar!J45</f>
         <v/>
       </c>
-      <c r="F46" s="391"/>
-      <c r="G46" s="391"/>
-      <c r="H46" s="391" t="str">
+      <c r="F46" s="402"/>
+      <c r="G46" s="402"/>
+      <c r="H46" s="402" t="str">
         <f>März!J45</f>
         <v/>
       </c>
-      <c r="I46" s="391"/>
-      <c r="J46" s="391"/>
-      <c r="K46" s="391" t="str">
+      <c r="I46" s="402"/>
+      <c r="J46" s="402"/>
+      <c r="K46" s="402" t="str">
         <f>April!J45</f>
         <v/>
       </c>
-      <c r="L46" s="391"/>
-      <c r="M46" s="391"/>
-      <c r="N46" s="391" t="str">
+      <c r="L46" s="402"/>
+      <c r="M46" s="402"/>
+      <c r="N46" s="402" t="str">
         <f>Mai!J45</f>
         <v/>
       </c>
-      <c r="O46" s="391"/>
-      <c r="P46" s="391"/>
-      <c r="Q46" s="391" t="str">
+      <c r="O46" s="402"/>
+      <c r="P46" s="402"/>
+      <c r="Q46" s="402" t="str">
         <f>Juni!J45</f>
         <v/>
       </c>
-      <c r="R46" s="391"/>
-      <c r="S46" s="391"/>
-      <c r="T46" s="391" t="str">
+      <c r="R46" s="402"/>
+      <c r="S46" s="402"/>
+      <c r="T46" s="402" t="str">
         <f>Juli!J45</f>
         <v/>
       </c>
-      <c r="U46" s="391"/>
-      <c r="V46" s="391"/>
-      <c r="W46" s="391" t="str">
+      <c r="U46" s="402"/>
+      <c r="V46" s="402"/>
+      <c r="W46" s="402" t="str">
         <f>August!J45</f>
         <v/>
       </c>
-      <c r="X46" s="391"/>
-      <c r="Y46" s="391"/>
-      <c r="Z46" s="391" t="str">
+      <c r="X46" s="402"/>
+      <c r="Y46" s="402"/>
+      <c r="Z46" s="402" t="str">
         <f>September!J45</f>
         <v/>
       </c>
-      <c r="AA46" s="391"/>
-      <c r="AB46" s="391"/>
-      <c r="AC46" s="391" t="str">
+      <c r="AA46" s="402"/>
+      <c r="AB46" s="402"/>
+      <c r="AC46" s="402" t="str">
         <f>Oktober!J45</f>
         <v/>
       </c>
-      <c r="AD46" s="391"/>
-      <c r="AE46" s="391"/>
-      <c r="AF46" s="391" t="str">
+      <c r="AD46" s="402"/>
+      <c r="AE46" s="402"/>
+      <c r="AF46" s="402" t="str">
         <f>November!J45</f>
         <v/>
       </c>
-      <c r="AG46" s="391"/>
-      <c r="AH46" s="391"/>
-      <c r="AI46" s="391" t="str">
+      <c r="AG46" s="402"/>
+      <c r="AH46" s="402"/>
+      <c r="AI46" s="402" t="str">
         <f>Dezember!J45</f>
         <v/>
       </c>
-      <c r="AJ46" s="391"/>
-      <c r="AK46" s="391"/>
+      <c r="AJ46" s="402"/>
+      <c r="AK46" s="402"/>
       <c r="AL46" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24845,78 +24965,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B47" s="391" t="str">
+      <c r="B47" s="402" t="str">
         <f>Januar!J46</f>
         <v/>
       </c>
-      <c r="C47" s="391"/>
-      <c r="D47" s="391"/>
-      <c r="E47" s="391" t="str">
+      <c r="C47" s="402"/>
+      <c r="D47" s="402"/>
+      <c r="E47" s="402" t="str">
         <f>Februar!J46</f>
         <v/>
       </c>
-      <c r="F47" s="391"/>
-      <c r="G47" s="391"/>
-      <c r="H47" s="391" t="str">
+      <c r="F47" s="402"/>
+      <c r="G47" s="402"/>
+      <c r="H47" s="402" t="str">
         <f>März!J46</f>
         <v/>
       </c>
-      <c r="I47" s="391"/>
-      <c r="J47" s="391"/>
-      <c r="K47" s="391" t="str">
+      <c r="I47" s="402"/>
+      <c r="J47" s="402"/>
+      <c r="K47" s="402" t="str">
         <f>April!J46</f>
         <v/>
       </c>
-      <c r="L47" s="391"/>
-      <c r="M47" s="391"/>
-      <c r="N47" s="391" t="str">
+      <c r="L47" s="402"/>
+      <c r="M47" s="402"/>
+      <c r="N47" s="402" t="str">
         <f>Mai!J46</f>
         <v/>
       </c>
-      <c r="O47" s="391"/>
-      <c r="P47" s="391"/>
-      <c r="Q47" s="391" t="str">
+      <c r="O47" s="402"/>
+      <c r="P47" s="402"/>
+      <c r="Q47" s="402" t="str">
         <f>Juni!J46</f>
         <v/>
       </c>
-      <c r="R47" s="391"/>
-      <c r="S47" s="391"/>
-      <c r="T47" s="391" t="str">
+      <c r="R47" s="402"/>
+      <c r="S47" s="402"/>
+      <c r="T47" s="402" t="str">
         <f>Juli!J46</f>
         <v/>
       </c>
-      <c r="U47" s="391"/>
-      <c r="V47" s="391"/>
-      <c r="W47" s="391" t="str">
+      <c r="U47" s="402"/>
+      <c r="V47" s="402"/>
+      <c r="W47" s="402" t="str">
         <f>August!J46</f>
         <v/>
       </c>
-      <c r="X47" s="391"/>
-      <c r="Y47" s="391"/>
-      <c r="Z47" s="391" t="str">
+      <c r="X47" s="402"/>
+      <c r="Y47" s="402"/>
+      <c r="Z47" s="402" t="str">
         <f>September!J46</f>
         <v/>
       </c>
-      <c r="AA47" s="391"/>
-      <c r="AB47" s="391"/>
-      <c r="AC47" s="391" t="str">
+      <c r="AA47" s="402"/>
+      <c r="AB47" s="402"/>
+      <c r="AC47" s="402" t="str">
         <f>Oktober!J46</f>
         <v/>
       </c>
-      <c r="AD47" s="391"/>
-      <c r="AE47" s="391"/>
-      <c r="AF47" s="391" t="str">
+      <c r="AD47" s="402"/>
+      <c r="AE47" s="402"/>
+      <c r="AF47" s="402" t="str">
         <f>November!J46</f>
         <v/>
       </c>
-      <c r="AG47" s="391"/>
-      <c r="AH47" s="391"/>
-      <c r="AI47" s="391" t="str">
+      <c r="AG47" s="402"/>
+      <c r="AH47" s="402"/>
+      <c r="AI47" s="402" t="str">
         <f>Dezember!J46</f>
         <v/>
       </c>
-      <c r="AJ47" s="391"/>
-      <c r="AK47" s="391"/>
+      <c r="AJ47" s="402"/>
+      <c r="AK47" s="402"/>
       <c r="AL47" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24927,78 +25047,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B48" s="392" t="str">
+      <c r="B48" s="403" t="str">
         <f>Januar!J47</f>
         <v/>
       </c>
-      <c r="C48" s="392"/>
-      <c r="D48" s="392"/>
-      <c r="E48" s="392" t="str">
+      <c r="C48" s="403"/>
+      <c r="D48" s="403"/>
+      <c r="E48" s="403" t="str">
         <f>Februar!J47</f>
         <v/>
       </c>
-      <c r="F48" s="392"/>
-      <c r="G48" s="392"/>
-      <c r="H48" s="392" t="str">
+      <c r="F48" s="403"/>
+      <c r="G48" s="403"/>
+      <c r="H48" s="403" t="str">
         <f>März!J47</f>
         <v/>
       </c>
-      <c r="I48" s="392"/>
-      <c r="J48" s="392"/>
-      <c r="K48" s="392" t="str">
+      <c r="I48" s="403"/>
+      <c r="J48" s="403"/>
+      <c r="K48" s="403" t="str">
         <f>April!J47</f>
         <v/>
       </c>
-      <c r="L48" s="392"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="392" t="str">
+      <c r="L48" s="403"/>
+      <c r="M48" s="403"/>
+      <c r="N48" s="403" t="str">
         <f>Mai!J47</f>
         <v/>
       </c>
-      <c r="O48" s="392"/>
-      <c r="P48" s="392"/>
-      <c r="Q48" s="392" t="str">
+      <c r="O48" s="403"/>
+      <c r="P48" s="403"/>
+      <c r="Q48" s="403" t="str">
         <f>Juni!J47</f>
         <v/>
       </c>
-      <c r="R48" s="392"/>
-      <c r="S48" s="392"/>
-      <c r="T48" s="392" t="str">
+      <c r="R48" s="403"/>
+      <c r="S48" s="403"/>
+      <c r="T48" s="403" t="str">
         <f>Juli!J47</f>
         <v/>
       </c>
-      <c r="U48" s="392"/>
-      <c r="V48" s="392"/>
-      <c r="W48" s="392" t="str">
+      <c r="U48" s="403"/>
+      <c r="V48" s="403"/>
+      <c r="W48" s="403" t="str">
         <f>August!J47</f>
         <v/>
       </c>
-      <c r="X48" s="392"/>
-      <c r="Y48" s="392"/>
-      <c r="Z48" s="392" t="str">
+      <c r="X48" s="403"/>
+      <c r="Y48" s="403"/>
+      <c r="Z48" s="403" t="str">
         <f>September!J47</f>
         <v/>
       </c>
-      <c r="AA48" s="392"/>
-      <c r="AB48" s="392"/>
-      <c r="AC48" s="392" t="str">
+      <c r="AA48" s="403"/>
+      <c r="AB48" s="403"/>
+      <c r="AC48" s="403" t="str">
         <f>Oktober!J47</f>
         <v/>
       </c>
-      <c r="AD48" s="392"/>
-      <c r="AE48" s="392"/>
-      <c r="AF48" s="392" t="str">
+      <c r="AD48" s="403"/>
+      <c r="AE48" s="403"/>
+      <c r="AF48" s="403" t="str">
         <f>November!J47</f>
         <v/>
       </c>
-      <c r="AG48" s="392"/>
-      <c r="AH48" s="392"/>
-      <c r="AI48" s="392" t="str">
+      <c r="AG48" s="403"/>
+      <c r="AH48" s="403"/>
+      <c r="AI48" s="403" t="str">
         <f>Dezember!J47</f>
         <v/>
       </c>
-      <c r="AJ48" s="392"/>
-      <c r="AK48" s="392"/>
+      <c r="AJ48" s="403"/>
+      <c r="AK48" s="403"/>
       <c r="AL48" s="330">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25008,78 +25128,78 @@
       <c r="A49" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="390">
+      <c r="B49" s="404">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="390"/>
-      <c r="D49" s="390"/>
-      <c r="E49" s="390">
+      <c r="C49" s="404"/>
+      <c r="D49" s="404"/>
+      <c r="E49" s="404">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F49" s="390"/>
-      <c r="G49" s="390"/>
-      <c r="H49" s="390">
+      <c r="F49" s="404"/>
+      <c r="G49" s="404"/>
+      <c r="H49" s="404">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I49" s="390"/>
-      <c r="J49" s="390"/>
-      <c r="K49" s="390">
+      <c r="I49" s="404"/>
+      <c r="J49" s="404"/>
+      <c r="K49" s="404">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L49" s="390"/>
-      <c r="M49" s="390"/>
-      <c r="N49" s="390">
+      <c r="L49" s="404"/>
+      <c r="M49" s="404"/>
+      <c r="N49" s="404">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O49" s="390"/>
-      <c r="P49" s="390"/>
-      <c r="Q49" s="390">
+      <c r="O49" s="404"/>
+      <c r="P49" s="404"/>
+      <c r="Q49" s="404">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R49" s="390"/>
-      <c r="S49" s="390"/>
-      <c r="T49" s="390">
+      <c r="R49" s="404"/>
+      <c r="S49" s="404"/>
+      <c r="T49" s="404">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U49" s="390"/>
-      <c r="V49" s="390"/>
-      <c r="W49" s="390">
+      <c r="U49" s="404"/>
+      <c r="V49" s="404"/>
+      <c r="W49" s="404">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X49" s="390"/>
-      <c r="Y49" s="390"/>
-      <c r="Z49" s="390">
+      <c r="X49" s="404"/>
+      <c r="Y49" s="404"/>
+      <c r="Z49" s="404">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="390"/>
-      <c r="AB49" s="390"/>
-      <c r="AC49" s="390">
+      <c r="AA49" s="404"/>
+      <c r="AB49" s="404"/>
+      <c r="AC49" s="404">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="390"/>
-      <c r="AE49" s="390"/>
-      <c r="AF49" s="390">
+      <c r="AD49" s="404"/>
+      <c r="AE49" s="404"/>
+      <c r="AF49" s="404">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="390"/>
-      <c r="AH49" s="390"/>
-      <c r="AI49" s="390">
+      <c r="AG49" s="404"/>
+      <c r="AH49" s="404"/>
+      <c r="AI49" s="404">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="390"/>
-      <c r="AK49" s="390"/>
+      <c r="AJ49" s="404"/>
+      <c r="AK49" s="404"/>
       <c r="AL49" s="332">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25088,22 +25208,162 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NAjAwljj5JLvGzE8LseGj02m9hGGtNOxZYyQ4RYzLUwmhLc0GdS/WayRdfnZYrqGRN4HeHSkhJxjaDM3q7ar7w==" saltValue="QdbqNTRdSMrA/zOfFCB8ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="196">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AI48:AK48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AF35:AG35"/>
     <mergeCell ref="AI35:AJ35"/>
@@ -25128,162 +25388,22 @@
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="W35:X35"/>
     <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="AI48:AK48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="23" priority="2">
@@ -28903,11 +29023,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="Q1:S1"/>
@@ -28915,6 +29030,11 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -28958,7 +29078,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28979,7 +29099,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29006,7 +29126,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>8.1</v>
+        <v>9.2999999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29589,16 +29709,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,1,1)</f>
         <v>42369</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -29609,20 +29729,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -29630,11 +29750,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
@@ -29656,10 +29776,10 @@
       <c r="G3" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="382" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="382"/>
       <c r="J3" s="178" t="s">
         <v>25</v>
       </c>
@@ -31113,13 +31233,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -31144,14 +31264,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -31176,13 +31296,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31200,13 +31320,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -31230,13 +31350,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31251,14 +31371,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -31275,14 +31395,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -31303,14 +31423,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -31327,14 +31447,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -31351,14 +31471,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -31379,14 +31499,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -31395,21 +31515,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lp/gUAhG/NxZFg3ZxNZpc/OMzuBWhvAjWYsACyturmzwEz4MrdPY4Z7bq2mhYT4TO4KC+V+re4wY95aL7XG1tQ==" saltValue="hjUq3gkEjcUTitg1OCiokA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="144" priority="2">
@@ -31492,16 +31612,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,2,1)</f>
         <v>42400</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -31512,20 +31632,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -31533,11 +31653,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -33017,13 +33137,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -33049,14 +33169,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -33082,13 +33202,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33107,13 +33227,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -33138,13 +33258,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33179,14 +33299,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -33206,14 +33326,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -33237,14 +33357,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -33264,14 +33384,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -33291,14 +33411,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -33322,14 +33442,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -33338,21 +33458,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="okIzBtHKggQ01MGGC2bszYk91StqozcmrYdftDgOilTYlvdE0Pl7X/6VKmLBwp+KgXmMJxumD3QyyxK99J0gUQ==" saltValue="ZOtWP+MiiqCmy7p7S++Ahg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="136" priority="2">
@@ -33443,16 +33563,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,3,1)</f>
         <v>42429</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -33463,20 +33583,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -33484,11 +33604,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -34984,13 +35104,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -35016,14 +35136,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -35049,13 +35169,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35074,13 +35194,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -35105,13 +35225,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35146,14 +35266,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -35173,14 +35293,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -35204,14 +35324,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -35231,14 +35351,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -35258,14 +35378,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -35289,14 +35409,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -35305,21 +35425,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8bs5maBzQkpyWCWnfl5Y0EE0IEYlqNMuKPAycQ9E2wZgEzT6ibfX2pN8bX4JzzAJkR75IpPZSDHXpEZi94/j+w==" saltValue="YxFepfb/JmJZGcAKQ4IRSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="126" priority="2">
@@ -35410,16 +35530,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,4,1)</f>
         <v>42460</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -35430,20 +35550,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -35451,11 +35571,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -37093,13 +37213,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -37125,14 +37245,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -37158,13 +37278,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37183,13 +37303,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -37214,13 +37334,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>6</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37255,14 +37375,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -37282,14 +37402,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -37313,14 +37433,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -37340,14 +37460,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -37367,14 +37487,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -37398,14 +37518,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -37414,21 +37534,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oi4D8G4bpKsjvNQAOV1IVD5oC246U1tsOknZR5CKhoaFKJim1Y4VsiD+22BHLJMb/nIlWvWONK0BmT35EEtHBw==" saltValue="4I5lsQG8NfttgzRFKQim+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="116" priority="2">
@@ -37524,16 +37644,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,5,1)</f>
         <v>42490</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -37544,20 +37664,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -37565,11 +37685,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -39179,13 +39299,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -39211,14 +39331,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -39244,13 +39364,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39269,13 +39389,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -39300,13 +39420,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>17</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39341,14 +39461,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -39368,14 +39488,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -39399,14 +39519,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -39426,14 +39546,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -39453,14 +39573,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -39484,14 +39604,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -39500,21 +39620,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QE1OXV5P+vCQbWDCwyrZigSC30Vre5KDIK3YefI6iJ2kBvo5eJZ3P2WpMdeyjVmOLwE7gtGXH8QYo5l1KTRF3g==" saltValue="r1rnDj8jh4CoB2lzDE4Hjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="105" priority="2">
@@ -39590,8 +39710,8 @@
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39613,16 +39733,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,6,1)</f>
         <v>42521</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -39633,20 +39753,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -39654,11 +39774,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -40158,19 +40278,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
+      <c r="D13" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F13" s="200"/>
       <c r="G13" s="200"/>
-      <c r="H13" s="201"/>
+      <c r="H13" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I13" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J13" s="203"/>
       <c r="K13" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="L13" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40178,16 +40304,18 @@
       </c>
       <c r="M13" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="N13" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O13" s="208"/>
+      <c r="O13" s="208" t="s">
+        <v>180</v>
+      </c>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8506944444444602</v>
+        <v>3.2256944444444602</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40203,11 +40331,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
+      <c r="D14" s="200">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E14" s="200">
+        <v>0.8125</v>
+      </c>
       <c r="F14" s="200"/>
       <c r="G14" s="200"/>
-      <c r="H14" s="201"/>
+      <c r="H14" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I14" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40215,7 +40349,7 @@
       <c r="J14" s="203"/>
       <c r="K14" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="L14" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40223,16 +40357,18 @@
       </c>
       <c r="M14" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16666666666666999</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="N14" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.16666666666666699</v>
       </c>
-      <c r="O14" s="208"/>
+      <c r="O14" s="208" t="s">
+        <v>179</v>
+      </c>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6840277777777901</v>
+        <v>3.3298611111111298</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40248,11 +40384,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
+      <c r="D15" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E15" s="200">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F15" s="200"/>
       <c r="G15" s="200"/>
-      <c r="H15" s="201"/>
+      <c r="H15" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I15" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40260,7 +40402,7 @@
       <c r="J15" s="203"/>
       <c r="K15" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666674</v>
       </c>
       <c r="L15" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40268,16 +40410,18 @@
       </c>
       <c r="M15" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="N15" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O15" s="208"/>
+      <c r="O15" s="208" t="s">
+        <v>178</v>
+      </c>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3506944444444602</v>
+        <v>3.3506944444444602</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40322,7 +40466,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3506944444444602</v>
+        <v>3.3506944444444602</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40367,7 +40511,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3506944444444602</v>
+        <v>3.3506944444444602</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40412,7 +40556,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3506944444444602</v>
+        <v>3.3506944444444602</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40457,7 +40601,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3506944444444602</v>
+        <v>3.3506944444444602</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40473,19 +40617,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
+      <c r="D20" s="200">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E20" s="200">
+        <v>0.84861111111111109</v>
+      </c>
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
-      <c r="H20" s="201"/>
+      <c r="H20" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I20" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J20" s="203"/>
       <c r="K20" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="L20" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40493,16 +40643,18 @@
       </c>
       <c r="M20" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>0.10555555555556</v>
       </c>
       <c r="N20" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O20" s="208"/>
+      <c r="O20" s="208" t="s">
+        <v>177</v>
+      </c>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0173611111111298</v>
+        <v>3.4562500000000198</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40547,7 +40699,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.85069444444446</v>
+        <v>3.2895833333333502</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40592,7 +40744,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51736111111113</v>
+        <v>2.9562500000000198</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40637,7 +40789,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51736111111113</v>
+        <v>2.9562500000000198</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40682,7 +40834,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51736111111113</v>
+        <v>2.9562500000000198</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40727,7 +40879,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51736111111113</v>
+        <v>2.9562500000000198</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40772,7 +40924,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51736111111113</v>
+        <v>2.9562500000000198</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40817,7 +40969,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1840277777778001</v>
+        <v>2.6229166666666899</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40862,7 +41014,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.01736111111113</v>
+        <v>2.4562500000000198</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40907,7 +41059,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68402777777779999</v>
+        <v>2.1229166666666899</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40952,7 +41104,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68402777777779999</v>
+        <v>2.1229166666666899</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40997,7 +41149,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68402777777779999</v>
+        <v>2.1229166666666899</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41042,7 +41194,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68402777777779999</v>
+        <v>2.1229166666666899</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41087,7 +41239,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68402777777779999</v>
+        <v>2.1229166666666899</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41172,13 +41324,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -41204,14 +41356,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -41228,7 +41380,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>1.2638888888888888</v>
+        <v>2.7027777777777775</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -41237,13 +41389,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41262,13 +41414,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -41284,22 +41436,22 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>0.68402777777779</v>
+        <v>2.1229166666666801</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>4</v>
-      </c>
-      <c r="K40" s="382" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41334,14 +41486,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -41361,14 +41513,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -41392,14 +41544,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -41419,14 +41571,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -41446,14 +41598,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -41477,14 +41629,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -41493,21 +41645,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FLGQGPkIrZFJRYfIzM5dNAg+vmhj9bs+eX+BsfoXkS85xz/DWFzyxzWRzBLXdkZU/6+8Lk0XkXSRD1REULPCKQ==" saltValue="/ZQvF5XqnLB5M3rbo0of0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="93" priority="2">
@@ -41598,16 +41750,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,7,1)</f>
         <v>42551</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -41618,20 +41770,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -41639,11 +41791,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -41733,7 +41885,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>0.35069444444446002</v>
+        <v>1.78958333333335</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41778,7 +41930,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>0.18402777777779</v>
+        <v>1.6229166666666801</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41823,7 +41975,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14930555555554001</v>
+        <v>1.28958333333335</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41868,7 +42020,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14930555555554001</v>
+        <v>1.28958333333335</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41913,7 +42065,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14930555555554001</v>
+        <v>1.28958333333335</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41958,7 +42110,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14930555555554001</v>
+        <v>1.28958333333335</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42003,7 +42155,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14930555555554001</v>
+        <v>1.28958333333335</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42048,7 +42200,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48263888888887002</v>
+        <v>0.95625000000002003</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42093,7 +42245,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.64930555555554004</v>
+        <v>0.78958333333334996</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42138,7 +42290,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98263888888886997</v>
+        <v>0.45625000000001997</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42183,7 +42335,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98263888888886997</v>
+        <v>0.45625000000001997</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42228,7 +42380,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98263888888886997</v>
+        <v>0.45625000000001997</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42273,7 +42425,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98263888888886997</v>
+        <v>0.45625000000001997</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42318,7 +42470,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98263888888886997</v>
+        <v>0.45625000000001997</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42363,7 +42515,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.3159722222221999</v>
+        <v>0.12291666666669</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42408,7 +42560,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.48263888888887</v>
+        <v>-4.3749999999979999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42453,7 +42605,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8159722222221999</v>
+        <v>-0.37708333333331001</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42498,7 +42650,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8159722222221999</v>
+        <v>-0.37708333333331001</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42543,7 +42695,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8159722222221999</v>
+        <v>-0.37708333333331001</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42588,7 +42740,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8159722222221999</v>
+        <v>-0.37708333333331001</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42633,7 +42785,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8159722222221999</v>
+        <v>-0.37708333333331001</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42678,7 +42830,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.14930555555553</v>
+        <v>-0.71041666666664005</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42723,7 +42875,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3159722222222001</v>
+        <v>-0.87708333333331001</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42768,7 +42920,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64930555555553</v>
+        <v>-1.2104166666666401</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42813,7 +42965,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64930555555553</v>
+        <v>-1.2104166666666401</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42858,7 +43010,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64930555555553</v>
+        <v>-1.2104166666666401</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42903,7 +43055,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64930555555553</v>
+        <v>-1.2104166666666401</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42948,7 +43100,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64930555555553</v>
+        <v>-1.2104166666666401</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42993,7 +43145,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.98263888888886</v>
+        <v>-1.54374999999997</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43038,7 +43190,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.14930555555553</v>
+        <v>-1.7104166666666401</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43083,7 +43235,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48263888888886</v>
+        <v>-2.04374999999997</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -43114,7 +43266,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juni!F40</f>
-        <v>0.68402777777779</v>
+        <v>2.1229166666666801</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -43123,13 +43275,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -43155,14 +43307,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -43188,13 +43340,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43213,13 +43365,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -43235,7 +43387,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-3.48263888888888</v>
+        <v>-2.04374999999999</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -43244,13 +43396,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43285,14 +43437,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -43312,14 +43464,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -43343,14 +43495,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -43370,14 +43522,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -43397,14 +43549,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -43428,14 +43580,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -43444,21 +43596,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nomVLiSrDW6BfAYDAAIKepzv9c2fIXYLpRACXJd2H6GVs9wfhFNHh71b99zQzqGFAVmbKlb4Q6ZmMw43Z1PLzg==" saltValue="Qh9BryrLdDjvbd7vasrV7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="83" priority="2">

--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC294A4-BAAD-4FD0-A9A2-06A7C406D906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A327E-6971-4951-B45A-D8FB2897102F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="182">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>No results: Porting and debugging</t>
+  </si>
+  <si>
+    <t>Results: Leds multichannel diff timers and matching the physical board</t>
   </si>
 </sst>
 </file>
@@ -5069,6 +5072,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="174" fontId="12" fillId="2" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -5089,25 +5109,48 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="173" fontId="2" fillId="3" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5127,46 +5170,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -7344,6 +7347,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE5B3E1-2B9F-497A-BB4F-C193A5D077D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8514,6 +8571,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F6CBF-1688-4F44-93CF-81506238A574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9344,16 +9455,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,8,1)</f>
         <v>42582</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -9364,20 +9475,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -9385,11 +9496,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -9479,7 +9590,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-2.04374999999999</v>
+        <v>-1.8145833333333301</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9524,7 +9635,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-2.04374999999999</v>
+        <v>-1.8145833333333301</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9569,7 +9680,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.04374999999999</v>
+        <v>-1.8145833333333301</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9614,7 +9725,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.04374999999999</v>
+        <v>-1.8145833333333301</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9659,7 +9770,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3770833333333199</v>
+        <v>-2.14791666666666</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9704,7 +9815,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.54374999999999</v>
+        <v>-2.3145833333333301</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9749,7 +9860,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8770833333333199</v>
+        <v>-2.64791666666666</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9794,7 +9905,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8770833333333199</v>
+        <v>-2.64791666666666</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9839,7 +9950,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8770833333333199</v>
+        <v>-2.64791666666666</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9884,7 +9995,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8770833333333199</v>
+        <v>-2.64791666666666</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9929,7 +10040,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8770833333333199</v>
+        <v>-2.64791666666666</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9974,7 +10085,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.2104166666666498</v>
+        <v>-2.98124999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10019,7 +10130,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3770833333333199</v>
+        <v>-3.14791666666666</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10064,7 +10175,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.7104166666666498</v>
+        <v>-3.48124999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10109,7 +10220,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.7104166666666498</v>
+        <v>-3.48124999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10154,7 +10265,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.7104166666666498</v>
+        <v>-3.48124999999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10199,7 +10310,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.7104166666666498</v>
+        <v>-3.48124999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10244,7 +10355,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.7104166666666498</v>
+        <v>-3.48124999999999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10289,7 +10400,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.0437499999999797</v>
+        <v>-3.8145833333333199</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10334,7 +10445,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.2104166666666503</v>
+        <v>-3.98124999999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10379,7 +10490,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5437499999999797</v>
+        <v>-4.3145833333333199</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10424,7 +10535,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5437499999999797</v>
+        <v>-4.3145833333333199</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10469,7 +10580,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5437499999999797</v>
+        <v>-4.3145833333333199</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10514,7 +10625,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5437499999999797</v>
+        <v>-4.3145833333333199</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10559,7 +10670,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5437499999999797</v>
+        <v>-4.3145833333333199</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10604,7 +10715,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8770833333333101</v>
+        <v>-4.6479166666666503</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10649,7 +10760,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0437499999999797</v>
+        <v>-4.8145833333333199</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10694,7 +10805,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3770833333333101</v>
+        <v>-5.1479166666666503</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10739,7 +10850,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3770833333333101</v>
+        <v>-5.1479166666666503</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10784,7 +10895,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3770833333333101</v>
+        <v>-5.1479166666666503</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10829,7 +10940,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3770833333333101</v>
+        <v>-5.1479166666666503</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -10860,7 +10971,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-2.04374999999999</v>
+        <v>-1.8145833333333301</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -10869,13 +10980,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10901,14 +11012,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10934,13 +11045,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10959,13 +11070,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10981,7 +11092,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-5.3770833333333199</v>
+        <v>-5.14791666666666</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -10990,13 +11101,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11031,14 +11142,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -11058,14 +11169,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -11089,14 +11200,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -11116,14 +11227,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -11143,14 +11254,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -11174,14 +11285,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -11190,21 +11301,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HkAoB08lQnZcu3f192wHDHZ/7j0BngIzul3D/9PsKIWyl+xayA7p7vUaZD7hH7rwZOkGohOgh1523AysAnGDfg==" saltValue="sE8nUvkPIzP17sbT/37lEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="73" priority="2">
@@ -11295,16 +11406,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,9,1)</f>
         <v>42613</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -11315,20 +11426,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -11336,11 +11447,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -11430,7 +11541,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-5.3770833333333199</v>
+        <v>-5.14791666666666</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11475,7 +11586,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-5.7104166666666503</v>
+        <v>-5.4812499999999904</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11520,7 +11631,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8770833333333199</v>
+        <v>-5.64791666666666</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11565,7 +11676,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2104166666666503</v>
+        <v>-5.9812499999999904</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11610,7 +11721,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2104166666666503</v>
+        <v>-5.9812499999999904</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11655,7 +11766,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2104166666666503</v>
+        <v>-5.9812499999999904</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11700,7 +11811,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2104166666666503</v>
+        <v>-5.9812499999999904</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11745,7 +11856,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.2104166666666503</v>
+        <v>-5.9812499999999904</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11790,7 +11901,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.5437499999999797</v>
+        <v>-6.3145833333333199</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11835,7 +11946,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.7104166666666503</v>
+        <v>-6.4812499999999904</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11880,7 +11991,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0437499999999797</v>
+        <v>-6.8145833333333199</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11925,7 +12036,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0437499999999797</v>
+        <v>-6.8145833333333199</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11970,7 +12081,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0437499999999797</v>
+        <v>-6.8145833333333199</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12015,7 +12126,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0437499999999797</v>
+        <v>-6.8145833333333199</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12060,7 +12171,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0437499999999797</v>
+        <v>-6.8145833333333199</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12105,7 +12216,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3770833333333101</v>
+        <v>-7.1479166666666503</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12150,7 +12261,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5437499999999797</v>
+        <v>-7.3145833333333199</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12195,7 +12306,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8770833333333101</v>
+        <v>-7.6479166666666503</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12240,7 +12351,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8770833333333101</v>
+        <v>-7.6479166666666503</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12285,7 +12396,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8770833333333101</v>
+        <v>-7.6479166666666503</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12330,7 +12441,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8770833333333101</v>
+        <v>-7.6479166666666503</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12375,7 +12486,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8770833333333101</v>
+        <v>-7.6479166666666503</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12420,7 +12531,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.2104166666666405</v>
+        <v>-7.9812499999999797</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12465,7 +12576,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.3770833333333101</v>
+        <v>-8.1479166666666494</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12510,7 +12621,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.7104166666666405</v>
+        <v>-8.4812499999999797</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12555,7 +12666,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.7104166666666405</v>
+        <v>-8.4812499999999797</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12600,7 +12711,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.7104166666666405</v>
+        <v>-8.4812499999999797</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12645,7 +12756,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.7104166666666405</v>
+        <v>-8.4812499999999797</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12690,7 +12801,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.7104166666666405</v>
+        <v>-8.4812499999999797</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12735,7 +12846,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.0437499999999709</v>
+        <v>-8.8145833333333101</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12811,7 +12922,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-5.3770833333333199</v>
+        <v>-5.14791666666666</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -12820,13 +12931,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12852,14 +12963,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12885,13 +12996,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12910,13 +13021,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12932,7 +13043,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-9.0437499999999904</v>
+        <v>-8.8145833333333208</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -12941,13 +13052,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12982,14 +13093,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -13009,14 +13120,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -13040,14 +13151,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -13067,14 +13178,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -13094,14 +13205,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -13125,14 +13236,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -13141,21 +13252,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WrJf3Le3I/KufBKgvBL84XO3UYX2zuYgLjnZ1rGaHSyWTCjiP7zkaZ7RngoDe7hgFgAEe/NFD80xutKnXk714A==" saltValue="LvVU6YLRvHqT2nS3BnwoDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="63" priority="2">
@@ -13246,16 +13357,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,10,1)</f>
         <v>42643</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -13266,20 +13377,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -13287,11 +13398,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -13381,7 +13492,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-9.21041666666666</v>
+        <v>-8.9812499999999904</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13426,7 +13537,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-9.5437499999999904</v>
+        <v>-9.3145833333333208</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13471,7 +13582,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5437499999999904</v>
+        <v>-9.3145833333333208</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13516,7 +13627,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5437499999999904</v>
+        <v>-9.3145833333333208</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13561,7 +13672,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5437499999999904</v>
+        <v>-9.3145833333333208</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13606,7 +13717,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5437499999999904</v>
+        <v>-9.3145833333333208</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13651,7 +13762,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8770833333333208</v>
+        <v>-9.6479166666666494</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13696,7 +13807,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.043749999999999</v>
+        <v>-9.8145833333333208</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13741,7 +13852,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.377083333333299</v>
+        <v>-10.147916666666699</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13786,7 +13897,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.377083333333299</v>
+        <v>-10.147916666666699</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13831,7 +13942,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.377083333333299</v>
+        <v>-10.147916666666699</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13876,7 +13987,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.377083333333299</v>
+        <v>-10.147916666666699</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13921,7 +14032,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.377083333333299</v>
+        <v>-10.147916666666699</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13966,7 +14077,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.7104166666666</v>
+        <v>-10.481249999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14011,7 +14122,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.877083333333299</v>
+        <v>-10.647916666666699</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14056,7 +14167,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.2104166666666</v>
+        <v>-10.981249999999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14101,7 +14212,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.2104166666666</v>
+        <v>-10.981249999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14146,7 +14257,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.2104166666666</v>
+        <v>-10.981249999999999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14191,7 +14302,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.2104166666666</v>
+        <v>-10.981249999999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14236,7 +14347,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.2104166666666</v>
+        <v>-10.981249999999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14281,7 +14392,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.5437499999999</v>
+        <v>-11.314583333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14326,7 +14437,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.7104166666666</v>
+        <v>-11.481249999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14371,7 +14482,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.0437499999999</v>
+        <v>-11.814583333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14416,7 +14527,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.0437499999999</v>
+        <v>-11.814583333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14461,7 +14572,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.0437499999999</v>
+        <v>-11.814583333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14506,7 +14617,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.0437499999999</v>
+        <v>-11.814583333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14551,7 +14662,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.0437499999999</v>
+        <v>-11.814583333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14596,7 +14707,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.3770833333332</v>
+        <v>-12.1479166666666</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14641,7 +14752,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.5437499999999</v>
+        <v>-12.314583333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14686,7 +14797,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8770833333332</v>
+        <v>-12.6479166666666</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14731,7 +14842,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8770833333332</v>
+        <v>-12.6479166666666</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -14762,7 +14873,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-9.0437499999999904</v>
+        <v>-8.8145833333333208</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -14771,13 +14882,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -14803,14 +14914,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14836,13 +14947,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14861,13 +14972,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14883,7 +14994,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-12.877083333333299</v>
+        <v>-12.647916666666699</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -14892,13 +15003,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14933,14 +15044,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -14960,14 +15071,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -14991,14 +15102,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -15018,14 +15129,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -15045,14 +15156,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -15076,14 +15187,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -15092,21 +15203,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RthWpkefgasVF7mUvUEwcv1PAQ5dnb7jdJEdiAtCsTcYrr2DXtkCOKlt8KBAcaZdDCRYzq33+CroGdjHatAXYA==" saltValue="gix2Bx2zL9EvbIvQixmH2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="53" priority="2">
@@ -15197,16 +15308,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,11,1)</f>
         <v>42674</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -15217,20 +15328,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -15238,11 +15349,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -15332,7 +15443,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-12.877083333333299</v>
+        <v>-12.647916666666699</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15377,7 +15488,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-12.877083333333299</v>
+        <v>-12.647916666666699</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15422,7 +15533,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.877083333333299</v>
+        <v>-12.647916666666699</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15467,7 +15578,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.2104166666666</v>
+        <v>-12.981249999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15512,7 +15623,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.377083333333299</v>
+        <v>-13.147916666666699</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15557,7 +15668,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.7104166666666</v>
+        <v>-13.481249999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15602,7 +15713,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.7104166666666</v>
+        <v>-13.481249999999999</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15647,7 +15758,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.7104166666666</v>
+        <v>-13.481249999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15692,7 +15803,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.7104166666666</v>
+        <v>-13.481249999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15737,7 +15848,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.7104166666666</v>
+        <v>-13.481249999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15782,7 +15893,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.0437499999999</v>
+        <v>-13.814583333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15827,7 +15938,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.2104166666666</v>
+        <v>-13.981249999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15872,7 +15983,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.5437499999999</v>
+        <v>-14.314583333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15917,7 +16028,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.5437499999999</v>
+        <v>-14.314583333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15962,7 +16073,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.5437499999999</v>
+        <v>-14.314583333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16007,7 +16118,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.5437499999999</v>
+        <v>-14.314583333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16052,7 +16163,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.5437499999999</v>
+        <v>-14.314583333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16097,7 +16208,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.8770833333332</v>
+        <v>-14.6479166666666</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16142,7 +16253,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.0437499999999</v>
+        <v>-14.814583333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16187,7 +16298,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3770833333332</v>
+        <v>-15.1479166666666</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16232,7 +16343,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3770833333332</v>
+        <v>-15.1479166666666</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16277,7 +16388,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3770833333332</v>
+        <v>-15.1479166666666</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16322,7 +16433,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3770833333332</v>
+        <v>-15.1479166666666</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16367,7 +16478,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3770833333332</v>
+        <v>-15.1479166666666</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16412,7 +16523,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.7104166666665</v>
+        <v>-15.4812499999999</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16457,7 +16568,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8770833333332</v>
+        <v>-15.6479166666666</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16502,7 +16613,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.2104166666665</v>
+        <v>-15.9812499999999</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16547,7 +16658,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.2104166666665</v>
+        <v>-15.9812499999999</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16592,7 +16703,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.2104166666665</v>
+        <v>-15.9812499999999</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16637,7 +16748,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.2104166666665</v>
+        <v>-15.9812499999999</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16713,7 +16824,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-12.877083333333299</v>
+        <v>-12.647916666666699</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -16722,13 +16833,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -16754,14 +16865,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -16787,13 +16898,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16812,13 +16923,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -16834,7 +16945,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-16.2104166666666</v>
+        <v>-15.981249999999999</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -16843,13 +16954,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16884,14 +16995,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -16911,14 +17022,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -16942,14 +17053,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -16969,14 +17080,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -16996,14 +17107,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -17027,14 +17138,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -17043,21 +17154,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BSHenHTjOeCLEK/Vhdt9DN47er8vHXKxixVq0zifYQ0YqDCLyIRjWwdu26DK6EbWV62R2jSYCaEOOJZMW8350Q==" saltValue="mrWUpOtdd6VsTAymx1hVrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="43" priority="2">
@@ -17148,16 +17259,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,12,1)</f>
         <v>42704</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -17168,20 +17279,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -17189,11 +17300,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -17283,7 +17394,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-16.2104166666666</v>
+        <v>-15.981249999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17328,7 +17439,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-16.5437499999999</v>
+        <v>-16.314583333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17373,7 +17484,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.7104166666666</v>
+        <v>-16.481249999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17418,7 +17529,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0437499999999</v>
+        <v>-16.814583333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17463,7 +17574,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0437499999999</v>
+        <v>-16.814583333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17508,7 +17619,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0437499999999</v>
+        <v>-16.814583333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17553,7 +17664,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0437499999999</v>
+        <v>-16.814583333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17598,7 +17709,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0437499999999</v>
+        <v>-16.814583333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17643,7 +17754,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.3770833333332</v>
+        <v>-17.1479166666666</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17688,7 +17799,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.5437499999999</v>
+        <v>-17.314583333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17733,7 +17844,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8770833333332</v>
+        <v>-17.6479166666666</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17778,7 +17889,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8770833333332</v>
+        <v>-17.6479166666666</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17823,7 +17934,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8770833333332</v>
+        <v>-17.6479166666666</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17868,7 +17979,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8770833333332</v>
+        <v>-17.6479166666666</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17913,7 +18024,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8770833333332</v>
+        <v>-17.6479166666666</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17958,7 +18069,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.2104166666665</v>
+        <v>-17.9812499999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18003,7 +18114,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.3770833333332</v>
+        <v>-18.1479166666666</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18048,7 +18159,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.7104166666665</v>
+        <v>-18.4812499999999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18093,7 +18204,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.7104166666665</v>
+        <v>-18.4812499999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18138,7 +18249,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.7104166666665</v>
+        <v>-18.4812499999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18183,7 +18294,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.7104166666665</v>
+        <v>-18.4812499999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18228,7 +18339,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.7104166666665</v>
+        <v>-18.4812499999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18273,7 +18384,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.0437499999998</v>
+        <v>-18.8145833333332</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18318,7 +18429,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.127083333333101</v>
+        <v>-18.8979166666665</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18363,7 +18474,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.127083333333101</v>
+        <v>-18.8979166666665</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18408,7 +18519,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.127083333333101</v>
+        <v>-18.8979166666665</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18453,7 +18564,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.127083333333101</v>
+        <v>-18.8979166666665</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18498,7 +18609,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.127083333333101</v>
+        <v>-18.8979166666665</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18543,7 +18654,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.127083333333101</v>
+        <v>-18.8979166666665</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18588,7 +18699,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.460416666666401</v>
+        <v>-19.2312499999998</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18633,7 +18744,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.543749999999701</v>
+        <v>-19.314583333333101</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18664,7 +18775,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-16.2104166666666</v>
+        <v>-15.981249999999999</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -18673,13 +18784,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -18705,14 +18816,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -18738,13 +18849,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18763,13 +18874,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -18785,7 +18896,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-19.5437499999999</v>
+        <v>-19.314583333333299</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -18794,13 +18905,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18835,14 +18946,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -18862,14 +18973,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -18893,14 +19004,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -18920,14 +19031,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -18947,14 +19058,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -18978,14 +19089,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -18994,21 +19105,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cxvY2DkTl/qvreVavAHZQiMD66UcFjhxoXVYD73h1/l0udHUCuS5sptsDftLSlvMcY2XaWQ5B33HtmQ912mInw==" saltValue="5c5gNlRNtYb15QfXriDQfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="33" priority="2">
@@ -19112,158 +19223,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="390"/>
-      <c r="B1" s="390"/>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="391" t="str">
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="401" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2020</v>
       </c>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
-      <c r="T1" s="391"/>
-      <c r="U1" s="391"/>
-      <c r="V1" s="391"/>
-      <c r="W1" s="391"/>
-      <c r="X1" s="391"/>
-      <c r="Y1" s="391"/>
-      <c r="Z1" s="391"/>
-      <c r="AA1" s="391"/>
-      <c r="AB1" s="391"/>
-      <c r="AC1" s="391"/>
-      <c r="AD1" s="391"/>
-      <c r="AE1" s="391"/>
-      <c r="AF1" s="391"/>
-      <c r="AG1" s="391"/>
-      <c r="AH1" s="391"/>
-      <c r="AI1" s="392" t="str">
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
+      <c r="N1" s="401"/>
+      <c r="O1" s="401"/>
+      <c r="P1" s="401"/>
+      <c r="Q1" s="401"/>
+      <c r="R1" s="401"/>
+      <c r="S1" s="401"/>
+      <c r="T1" s="401"/>
+      <c r="U1" s="401"/>
+      <c r="V1" s="401"/>
+      <c r="W1" s="401"/>
+      <c r="X1" s="401"/>
+      <c r="Y1" s="401"/>
+      <c r="Z1" s="401"/>
+      <c r="AA1" s="401"/>
+      <c r="AB1" s="401"/>
+      <c r="AC1" s="401"/>
+      <c r="AD1" s="401"/>
+      <c r="AE1" s="401"/>
+      <c r="AF1" s="401"/>
+      <c r="AG1" s="401"/>
+      <c r="AH1" s="401"/>
+      <c r="AI1" s="402" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="AJ1" s="392"/>
-      <c r="AK1" s="392"/>
-      <c r="AL1" s="392"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="390"/>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="391"/>
-      <c r="F2" s="391"/>
-      <c r="G2" s="391"/>
-      <c r="H2" s="391"/>
-      <c r="I2" s="391"/>
-      <c r="J2" s="391"/>
-      <c r="K2" s="391"/>
-      <c r="L2" s="391"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="391"/>
-      <c r="O2" s="391"/>
-      <c r="P2" s="391"/>
-      <c r="Q2" s="391"/>
-      <c r="R2" s="391"/>
-      <c r="S2" s="391"/>
-      <c r="T2" s="391"/>
-      <c r="U2" s="391"/>
-      <c r="V2" s="391"/>
-      <c r="W2" s="391"/>
-      <c r="X2" s="391"/>
-      <c r="Y2" s="391"/>
-      <c r="Z2" s="391"/>
-      <c r="AA2" s="391"/>
-      <c r="AB2" s="391"/>
-      <c r="AC2" s="391"/>
-      <c r="AD2" s="391"/>
-      <c r="AE2" s="391"/>
-      <c r="AF2" s="391"/>
-      <c r="AG2" s="391"/>
-      <c r="AH2" s="391"/>
-      <c r="AI2" s="393" t="str">
+      <c r="A2" s="400"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="401"/>
+      <c r="Q2" s="401"/>
+      <c r="R2" s="401"/>
+      <c r="S2" s="401"/>
+      <c r="T2" s="401"/>
+      <c r="U2" s="401"/>
+      <c r="V2" s="401"/>
+      <c r="W2" s="401"/>
+      <c r="X2" s="401"/>
+      <c r="Y2" s="401"/>
+      <c r="Z2" s="401"/>
+      <c r="AA2" s="401"/>
+      <c r="AB2" s="401"/>
+      <c r="AC2" s="401"/>
+      <c r="AD2" s="401"/>
+      <c r="AE2" s="401"/>
+      <c r="AF2" s="401"/>
+      <c r="AG2" s="401"/>
+      <c r="AH2" s="401"/>
+      <c r="AI2" s="403" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="AJ2" s="393"/>
-      <c r="AK2" s="393"/>
-      <c r="AL2" s="393"/>
+      <c r="AJ2" s="403"/>
+      <c r="AK2" s="403"/>
+      <c r="AL2" s="403"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="394" t="s">
+      <c r="B3" s="404" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394" t="s">
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394" t="s">
+      <c r="F3" s="404"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="404" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394" t="s">
+      <c r="I3" s="404"/>
+      <c r="J3" s="404"/>
+      <c r="K3" s="404" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394" t="s">
+      <c r="L3" s="404"/>
+      <c r="M3" s="404"/>
+      <c r="N3" s="404" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="394" t="s">
+      <c r="O3" s="404"/>
+      <c r="P3" s="404"/>
+      <c r="Q3" s="404" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="394"/>
-      <c r="S3" s="394"/>
-      <c r="T3" s="394" t="s">
+      <c r="R3" s="404"/>
+      <c r="S3" s="404"/>
+      <c r="T3" s="404" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="394"/>
-      <c r="V3" s="394"/>
-      <c r="W3" s="394" t="s">
+      <c r="U3" s="404"/>
+      <c r="V3" s="404"/>
+      <c r="W3" s="404" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="394"/>
-      <c r="Y3" s="394"/>
-      <c r="Z3" s="394" t="s">
+      <c r="X3" s="404"/>
+      <c r="Y3" s="404"/>
+      <c r="Z3" s="404" t="s">
         <v>137</v>
       </c>
-      <c r="AA3" s="394"/>
-      <c r="AB3" s="394"/>
-      <c r="AC3" s="394" t="s">
+      <c r="AA3" s="404"/>
+      <c r="AB3" s="404"/>
+      <c r="AC3" s="404" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" s="394"/>
-      <c r="AE3" s="394"/>
-      <c r="AF3" s="394" t="s">
+      <c r="AD3" s="404"/>
+      <c r="AE3" s="404"/>
+      <c r="AF3" s="404" t="s">
         <v>139</v>
       </c>
-      <c r="AG3" s="394"/>
-      <c r="AH3" s="394"/>
-      <c r="AI3" s="394" t="s">
+      <c r="AG3" s="404"/>
+      <c r="AH3" s="404"/>
+      <c r="AI3" s="404" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="394"/>
-      <c r="AK3" s="394"/>
+      <c r="AJ3" s="404"/>
+      <c r="AK3" s="404"/>
       <c r="AL3" s="282" t="s">
         <v>95</v>
       </c>
@@ -21920,9 +22031,9 @@
         <f>Juni!A21</f>
         <v>42538</v>
       </c>
-      <c r="R21" s="294" t="str">
+      <c r="R21" s="294">
         <f>IF(Juni!K21&gt;0,Juni!K21,"")</f>
-        <v/>
+        <v>0.22916666666666666</v>
       </c>
       <c r="S21" s="299" t="str">
         <f>IF(OR(Juni!C21="",Juni!J21&lt;&gt;""),UPPER(Juni!J21),"F")</f>
@@ -23984,77 +24095,77 @@
       <c r="A35" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="395">
+      <c r="B35" s="396">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="395"/>
+      <c r="C35" s="396"/>
       <c r="D35" s="311"/>
-      <c r="E35" s="395">
+      <c r="E35" s="396">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="395"/>
+      <c r="F35" s="396"/>
       <c r="G35" s="312"/>
-      <c r="H35" s="396">
+      <c r="H35" s="397">
         <f ca="1">März!F37</f>
         <v>0</v>
       </c>
-      <c r="I35" s="396"/>
+      <c r="I35" s="397"/>
       <c r="J35" s="313"/>
-      <c r="K35" s="395">
+      <c r="K35" s="396">
         <f ca="1">April!F37</f>
         <v>3.4999999999999991</v>
       </c>
-      <c r="L35" s="395"/>
+      <c r="L35" s="396"/>
       <c r="M35" s="312"/>
-      <c r="N35" s="396">
+      <c r="N35" s="397">
         <f ca="1">Mai!F37</f>
         <v>3.1666666666666652</v>
       </c>
-      <c r="O35" s="396"/>
+      <c r="O35" s="397"/>
       <c r="P35" s="313"/>
-      <c r="Q35" s="395">
+      <c r="Q35" s="396">
         <f ca="1">Juni!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="R35" s="395"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="312"/>
-      <c r="T35" s="396">
+      <c r="T35" s="397">
         <f ca="1">Juli!F37</f>
         <v>4.1666666666666652</v>
       </c>
-      <c r="U35" s="396"/>
+      <c r="U35" s="397"/>
       <c r="V35" s="313"/>
-      <c r="W35" s="395">
+      <c r="W35" s="396">
         <f ca="1">August!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="X35" s="395"/>
+      <c r="X35" s="396"/>
       <c r="Y35" s="312"/>
-      <c r="Z35" s="396">
+      <c r="Z35" s="397">
         <f ca="1">September!F37</f>
         <v>3.6666666666666652</v>
       </c>
-      <c r="AA35" s="396"/>
+      <c r="AA35" s="397"/>
       <c r="AB35" s="313"/>
-      <c r="AC35" s="395">
+      <c r="AC35" s="396">
         <f ca="1">Oktober!F37</f>
         <v>3.8333333333333321</v>
       </c>
-      <c r="AD35" s="395"/>
+      <c r="AD35" s="396"/>
       <c r="AE35" s="312"/>
-      <c r="AF35" s="396">
+      <c r="AF35" s="397">
         <f ca="1">November!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AG35" s="396"/>
+      <c r="AG35" s="397"/>
       <c r="AH35" s="313"/>
-      <c r="AI35" s="395">
+      <c r="AI35" s="396">
         <f ca="1">Dezember!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AJ35" s="395"/>
+      <c r="AJ35" s="396"/>
       <c r="AK35" s="312"/>
       <c r="AL35" s="314">
         <f t="shared" ref="AL35:AL49" ca="1" si="0">SUM(B35:AK35)</f>
@@ -24065,243 +24176,243 @@
       <c r="A36" s="315" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="397">
+      <c r="B36" s="398">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="397"/>
+      <c r="C36" s="398"/>
       <c r="D36" s="316"/>
-      <c r="E36" s="397">
+      <c r="E36" s="398">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="397"/>
+      <c r="F36" s="398"/>
       <c r="G36" s="317"/>
-      <c r="H36" s="398">
+      <c r="H36" s="399">
         <f>März!F38</f>
         <v>0.33333333333333498</v>
       </c>
-      <c r="I36" s="398"/>
+      <c r="I36" s="399"/>
       <c r="J36" s="318"/>
-      <c r="K36" s="397">
+      <c r="K36" s="398">
         <f>April!F38</f>
         <v>4.5625000000000018</v>
       </c>
-      <c r="L36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="317"/>
-      <c r="N36" s="398">
+      <c r="N36" s="399">
         <f>Mai!F38</f>
         <v>4.5243055555555554</v>
       </c>
-      <c r="O36" s="398"/>
+      <c r="O36" s="399"/>
       <c r="P36" s="318"/>
-      <c r="Q36" s="397">
+      <c r="Q36" s="398">
         <f>Juni!F38</f>
-        <v>2.7027777777777775</v>
-      </c>
-      <c r="R36" s="397"/>
+        <v>2.931944444444444</v>
+      </c>
+      <c r="R36" s="398"/>
       <c r="S36" s="317"/>
-      <c r="T36" s="398">
+      <c r="T36" s="399">
         <f>Juli!F38</f>
         <v>0</v>
       </c>
-      <c r="U36" s="398"/>
+      <c r="U36" s="399"/>
       <c r="V36" s="318"/>
-      <c r="W36" s="397">
+      <c r="W36" s="398">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="397"/>
+      <c r="X36" s="398"/>
       <c r="Y36" s="317"/>
-      <c r="Z36" s="398">
+      <c r="Z36" s="399">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="398"/>
+      <c r="AA36" s="399"/>
       <c r="AB36" s="318"/>
-      <c r="AC36" s="397">
+      <c r="AC36" s="398">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="397"/>
+      <c r="AD36" s="398"/>
       <c r="AE36" s="317"/>
-      <c r="AF36" s="398">
+      <c r="AF36" s="399">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="398"/>
+      <c r="AG36" s="399"/>
       <c r="AH36" s="318"/>
-      <c r="AI36" s="397">
+      <c r="AI36" s="398">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="397"/>
+      <c r="AJ36" s="398"/>
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>12.12291666666667</v>
+        <v>12.352083333333336</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="320" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="399">
+      <c r="B37" s="393">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="399"/>
+      <c r="C37" s="393"/>
       <c r="D37" s="321"/>
-      <c r="E37" s="399">
+      <c r="E37" s="393">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="399"/>
+      <c r="F37" s="393"/>
       <c r="G37" s="322"/>
-      <c r="H37" s="400">
+      <c r="H37" s="394">
         <f ca="1">ROUND(H36-H35,10)</f>
         <v>0.33333333329999998</v>
       </c>
-      <c r="I37" s="400"/>
+      <c r="I37" s="394"/>
       <c r="J37" s="323"/>
-      <c r="K37" s="399">
+      <c r="K37" s="393">
         <f ca="1">ROUND(K36-K35,10)</f>
         <v>1.0625</v>
       </c>
-      <c r="L37" s="399"/>
+      <c r="L37" s="393"/>
       <c r="M37" s="322"/>
-      <c r="N37" s="400">
+      <c r="N37" s="394">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>1.3576388889</v>
       </c>
-      <c r="O37" s="400"/>
+      <c r="O37" s="394"/>
       <c r="P37" s="323"/>
-      <c r="Q37" s="399">
+      <c r="Q37" s="393">
         <f ca="1">ROUND(Q36-Q35,10)</f>
-        <v>-0.63055555559999998</v>
-      </c>
-      <c r="R37" s="399"/>
+        <v>-0.40138888890000002</v>
+      </c>
+      <c r="R37" s="393"/>
       <c r="S37" s="322"/>
-      <c r="T37" s="400">
+      <c r="T37" s="394">
         <f ca="1">ROUND(T36-T35,10)</f>
         <v>-4.1666666667000003</v>
       </c>
-      <c r="U37" s="400"/>
+      <c r="U37" s="394"/>
       <c r="V37" s="323"/>
-      <c r="W37" s="399">
+      <c r="W37" s="393">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="X37" s="399"/>
+      <c r="X37" s="393"/>
       <c r="Y37" s="322"/>
-      <c r="Z37" s="400">
+      <c r="Z37" s="394">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>-3.6666666666999999</v>
       </c>
-      <c r="AA37" s="400"/>
+      <c r="AA37" s="394"/>
       <c r="AB37" s="323"/>
-      <c r="AC37" s="399">
+      <c r="AC37" s="393">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>-3.8333333333000001</v>
       </c>
-      <c r="AD37" s="399"/>
+      <c r="AD37" s="393"/>
       <c r="AE37" s="322"/>
-      <c r="AF37" s="400">
+      <c r="AF37" s="394">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AG37" s="400"/>
+      <c r="AG37" s="394"/>
       <c r="AH37" s="323"/>
-      <c r="AI37" s="399">
+      <c r="AI37" s="393">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AJ37" s="399"/>
+      <c r="AJ37" s="393"/>
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.543749999999999</v>
+        <v>-19.3145833333</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="401">
+      <c r="B38" s="395">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="401"/>
-      <c r="D38" s="401"/>
-      <c r="E38" s="401">
+      <c r="C38" s="395"/>
+      <c r="D38" s="395"/>
+      <c r="E38" s="395">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="401"/>
-      <c r="G38" s="401"/>
-      <c r="H38" s="401">
+      <c r="F38" s="395"/>
+      <c r="G38" s="395"/>
+      <c r="H38" s="395">
         <f>März!J40</f>
         <v>0</v>
       </c>
-      <c r="I38" s="401"/>
-      <c r="J38" s="401"/>
-      <c r="K38" s="401">
+      <c r="I38" s="395"/>
+      <c r="J38" s="395"/>
+      <c r="K38" s="395">
         <f>April!J40</f>
         <v>6</v>
       </c>
-      <c r="L38" s="401"/>
-      <c r="M38" s="401"/>
-      <c r="N38" s="401">
+      <c r="L38" s="395"/>
+      <c r="M38" s="395"/>
+      <c r="N38" s="395">
         <f>Mai!J40</f>
         <v>17</v>
       </c>
-      <c r="O38" s="401"/>
-      <c r="P38" s="401"/>
-      <c r="Q38" s="401">
+      <c r="O38" s="395"/>
+      <c r="P38" s="395"/>
+      <c r="Q38" s="395">
         <f>Juni!J40</f>
-        <v>8</v>
-      </c>
-      <c r="R38" s="401"/>
-      <c r="S38" s="401"/>
-      <c r="T38" s="401">
+        <v>9</v>
+      </c>
+      <c r="R38" s="395"/>
+      <c r="S38" s="395"/>
+      <c r="T38" s="395">
         <f>Juli!J40</f>
         <v>0</v>
       </c>
-      <c r="U38" s="401"/>
-      <c r="V38" s="401"/>
-      <c r="W38" s="401">
+      <c r="U38" s="395"/>
+      <c r="V38" s="395"/>
+      <c r="W38" s="395">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="401"/>
-      <c r="Y38" s="401"/>
-      <c r="Z38" s="401">
+      <c r="X38" s="395"/>
+      <c r="Y38" s="395"/>
+      <c r="Z38" s="395">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="401"/>
-      <c r="AB38" s="401"/>
-      <c r="AC38" s="401">
+      <c r="AA38" s="395"/>
+      <c r="AB38" s="395"/>
+      <c r="AC38" s="395">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="401"/>
-      <c r="AE38" s="401"/>
-      <c r="AF38" s="401">
+      <c r="AD38" s="395"/>
+      <c r="AE38" s="395"/>
+      <c r="AF38" s="395">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="401"/>
-      <c r="AH38" s="401"/>
-      <c r="AI38" s="401">
+      <c r="AG38" s="395"/>
+      <c r="AH38" s="395"/>
+      <c r="AI38" s="395">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="401"/>
-      <c r="AK38" s="401"/>
+      <c r="AJ38" s="395"/>
+      <c r="AK38" s="395"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -24309,78 +24420,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B39" s="402">
+      <c r="B39" s="391">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="402"/>
-      <c r="D39" s="402"/>
-      <c r="E39" s="402">
+      <c r="C39" s="391"/>
+      <c r="D39" s="391"/>
+      <c r="E39" s="391">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F39" s="402"/>
-      <c r="G39" s="402"/>
-      <c r="H39" s="402">
+      <c r="F39" s="391"/>
+      <c r="G39" s="391"/>
+      <c r="H39" s="391">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I39" s="402"/>
-      <c r="J39" s="402"/>
-      <c r="K39" s="402">
+      <c r="I39" s="391"/>
+      <c r="J39" s="391"/>
+      <c r="K39" s="391">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L39" s="402"/>
-      <c r="M39" s="402"/>
-      <c r="N39" s="402">
+      <c r="L39" s="391"/>
+      <c r="M39" s="391"/>
+      <c r="N39" s="391">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O39" s="402"/>
-      <c r="P39" s="402"/>
-      <c r="Q39" s="402">
+      <c r="O39" s="391"/>
+      <c r="P39" s="391"/>
+      <c r="Q39" s="391">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R39" s="402"/>
-      <c r="S39" s="402"/>
-      <c r="T39" s="402">
+      <c r="R39" s="391"/>
+      <c r="S39" s="391"/>
+      <c r="T39" s="391">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U39" s="402"/>
-      <c r="V39" s="402"/>
-      <c r="W39" s="402">
+      <c r="U39" s="391"/>
+      <c r="V39" s="391"/>
+      <c r="W39" s="391">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X39" s="402"/>
-      <c r="Y39" s="402"/>
-      <c r="Z39" s="402">
+      <c r="X39" s="391"/>
+      <c r="Y39" s="391"/>
+      <c r="Z39" s="391">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="402"/>
-      <c r="AB39" s="402"/>
-      <c r="AC39" s="402">
+      <c r="AA39" s="391"/>
+      <c r="AB39" s="391"/>
+      <c r="AC39" s="391">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="402"/>
-      <c r="AE39" s="402"/>
-      <c r="AF39" s="402">
+      <c r="AD39" s="391"/>
+      <c r="AE39" s="391"/>
+      <c r="AF39" s="391">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="402"/>
-      <c r="AH39" s="402"/>
-      <c r="AI39" s="402">
+      <c r="AG39" s="391"/>
+      <c r="AH39" s="391"/>
+      <c r="AI39" s="391">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="402"/>
-      <c r="AK39" s="402"/>
+      <c r="AJ39" s="391"/>
+      <c r="AK39" s="391"/>
       <c r="AL39" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24391,78 +24502,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B40" s="402">
+      <c r="B40" s="391">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="402"/>
-      <c r="D40" s="402"/>
-      <c r="E40" s="402">
+      <c r="C40" s="391"/>
+      <c r="D40" s="391"/>
+      <c r="E40" s="391">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F40" s="402"/>
-      <c r="G40" s="402"/>
-      <c r="H40" s="402">
+      <c r="F40" s="391"/>
+      <c r="G40" s="391"/>
+      <c r="H40" s="391">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I40" s="402"/>
-      <c r="J40" s="402"/>
-      <c r="K40" s="402">
+      <c r="I40" s="391"/>
+      <c r="J40" s="391"/>
+      <c r="K40" s="391">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L40" s="402"/>
-      <c r="M40" s="402"/>
-      <c r="N40" s="402">
+      <c r="L40" s="391"/>
+      <c r="M40" s="391"/>
+      <c r="N40" s="391">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O40" s="402"/>
-      <c r="P40" s="402"/>
-      <c r="Q40" s="402">
+      <c r="O40" s="391"/>
+      <c r="P40" s="391"/>
+      <c r="Q40" s="391">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R40" s="402"/>
-      <c r="S40" s="402"/>
-      <c r="T40" s="402">
+      <c r="R40" s="391"/>
+      <c r="S40" s="391"/>
+      <c r="T40" s="391">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U40" s="402"/>
-      <c r="V40" s="402"/>
-      <c r="W40" s="402">
+      <c r="U40" s="391"/>
+      <c r="V40" s="391"/>
+      <c r="W40" s="391">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X40" s="402"/>
-      <c r="Y40" s="402"/>
-      <c r="Z40" s="402">
+      <c r="X40" s="391"/>
+      <c r="Y40" s="391"/>
+      <c r="Z40" s="391">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="402"/>
-      <c r="AB40" s="402"/>
-      <c r="AC40" s="402">
+      <c r="AA40" s="391"/>
+      <c r="AB40" s="391"/>
+      <c r="AC40" s="391">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="402"/>
-      <c r="AE40" s="402"/>
-      <c r="AF40" s="402">
+      <c r="AD40" s="391"/>
+      <c r="AE40" s="391"/>
+      <c r="AF40" s="391">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="402"/>
-      <c r="AH40" s="402"/>
-      <c r="AI40" s="402">
+      <c r="AG40" s="391"/>
+      <c r="AH40" s="391"/>
+      <c r="AI40" s="391">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="402"/>
-      <c r="AK40" s="402"/>
+      <c r="AJ40" s="391"/>
+      <c r="AK40" s="391"/>
       <c r="AL40" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24473,78 +24584,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B41" s="402">
+      <c r="B41" s="391">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C41" s="402"/>
-      <c r="D41" s="402"/>
-      <c r="E41" s="402">
+      <c r="C41" s="391"/>
+      <c r="D41" s="391"/>
+      <c r="E41" s="391">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F41" s="402"/>
-      <c r="G41" s="402"/>
-      <c r="H41" s="402">
+      <c r="F41" s="391"/>
+      <c r="G41" s="391"/>
+      <c r="H41" s="391">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="402"/>
-      <c r="K41" s="402">
+      <c r="I41" s="391"/>
+      <c r="J41" s="391"/>
+      <c r="K41" s="391">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L41" s="402"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="402">
+      <c r="L41" s="391"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="391">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O41" s="402"/>
-      <c r="P41" s="402"/>
-      <c r="Q41" s="402">
+      <c r="O41" s="391"/>
+      <c r="P41" s="391"/>
+      <c r="Q41" s="391">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R41" s="402"/>
-      <c r="S41" s="402"/>
-      <c r="T41" s="402">
+      <c r="R41" s="391"/>
+      <c r="S41" s="391"/>
+      <c r="T41" s="391">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U41" s="402"/>
-      <c r="V41" s="402"/>
-      <c r="W41" s="402">
+      <c r="U41" s="391"/>
+      <c r="V41" s="391"/>
+      <c r="W41" s="391">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X41" s="402"/>
-      <c r="Y41" s="402"/>
-      <c r="Z41" s="402">
+      <c r="X41" s="391"/>
+      <c r="Y41" s="391"/>
+      <c r="Z41" s="391">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="402"/>
-      <c r="AB41" s="402"/>
-      <c r="AC41" s="402">
+      <c r="AA41" s="391"/>
+      <c r="AB41" s="391"/>
+      <c r="AC41" s="391">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="402"/>
-      <c r="AE41" s="402"/>
-      <c r="AF41" s="402">
+      <c r="AD41" s="391"/>
+      <c r="AE41" s="391"/>
+      <c r="AF41" s="391">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="402"/>
-      <c r="AH41" s="402"/>
-      <c r="AI41" s="402">
+      <c r="AG41" s="391"/>
+      <c r="AH41" s="391"/>
+      <c r="AI41" s="391">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="402"/>
-      <c r="AK41" s="402"/>
+      <c r="AJ41" s="391"/>
+      <c r="AK41" s="391"/>
       <c r="AL41" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24555,78 +24666,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B42" s="402">
+      <c r="B42" s="391">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C42" s="402"/>
-      <c r="D42" s="402"/>
-      <c r="E42" s="402">
+      <c r="C42" s="391"/>
+      <c r="D42" s="391"/>
+      <c r="E42" s="391">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F42" s="402"/>
-      <c r="G42" s="402"/>
-      <c r="H42" s="402">
+      <c r="F42" s="391"/>
+      <c r="G42" s="391"/>
+      <c r="H42" s="391">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I42" s="402"/>
-      <c r="J42" s="402"/>
-      <c r="K42" s="402">
+      <c r="I42" s="391"/>
+      <c r="J42" s="391"/>
+      <c r="K42" s="391">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L42" s="402"/>
-      <c r="M42" s="402"/>
-      <c r="N42" s="402">
+      <c r="L42" s="391"/>
+      <c r="M42" s="391"/>
+      <c r="N42" s="391">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O42" s="402"/>
-      <c r="P42" s="402"/>
-      <c r="Q42" s="402">
+      <c r="O42" s="391"/>
+      <c r="P42" s="391"/>
+      <c r="Q42" s="391">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R42" s="402"/>
-      <c r="S42" s="402"/>
-      <c r="T42" s="402">
+      <c r="R42" s="391"/>
+      <c r="S42" s="391"/>
+      <c r="T42" s="391">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U42" s="402"/>
-      <c r="V42" s="402"/>
-      <c r="W42" s="402">
+      <c r="U42" s="391"/>
+      <c r="V42" s="391"/>
+      <c r="W42" s="391">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X42" s="402"/>
-      <c r="Y42" s="402"/>
-      <c r="Z42" s="402">
+      <c r="X42" s="391"/>
+      <c r="Y42" s="391"/>
+      <c r="Z42" s="391">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="402"/>
-      <c r="AB42" s="402"/>
-      <c r="AC42" s="402">
+      <c r="AA42" s="391"/>
+      <c r="AB42" s="391"/>
+      <c r="AC42" s="391">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="402"/>
-      <c r="AE42" s="402"/>
-      <c r="AF42" s="402">
+      <c r="AD42" s="391"/>
+      <c r="AE42" s="391"/>
+      <c r="AF42" s="391">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="402"/>
-      <c r="AH42" s="402"/>
-      <c r="AI42" s="402">
+      <c r="AG42" s="391"/>
+      <c r="AH42" s="391"/>
+      <c r="AI42" s="391">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="402"/>
-      <c r="AK42" s="402"/>
+      <c r="AJ42" s="391"/>
+      <c r="AK42" s="391"/>
       <c r="AL42" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24637,78 +24748,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B43" s="402">
+      <c r="B43" s="391">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C43" s="402"/>
-      <c r="D43" s="402"/>
-      <c r="E43" s="402">
+      <c r="C43" s="391"/>
+      <c r="D43" s="391"/>
+      <c r="E43" s="391">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F43" s="402"/>
-      <c r="G43" s="402"/>
-      <c r="H43" s="402">
+      <c r="F43" s="391"/>
+      <c r="G43" s="391"/>
+      <c r="H43" s="391">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I43" s="402"/>
-      <c r="J43" s="402"/>
-      <c r="K43" s="402">
+      <c r="I43" s="391"/>
+      <c r="J43" s="391"/>
+      <c r="K43" s="391">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L43" s="402"/>
-      <c r="M43" s="402"/>
-      <c r="N43" s="402">
+      <c r="L43" s="391"/>
+      <c r="M43" s="391"/>
+      <c r="N43" s="391">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O43" s="402"/>
-      <c r="P43" s="402"/>
-      <c r="Q43" s="402">
+      <c r="O43" s="391"/>
+      <c r="P43" s="391"/>
+      <c r="Q43" s="391">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R43" s="402"/>
-      <c r="S43" s="402"/>
-      <c r="T43" s="402">
+      <c r="R43" s="391"/>
+      <c r="S43" s="391"/>
+      <c r="T43" s="391">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U43" s="402"/>
-      <c r="V43" s="402"/>
-      <c r="W43" s="402">
+      <c r="U43" s="391"/>
+      <c r="V43" s="391"/>
+      <c r="W43" s="391">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X43" s="402"/>
-      <c r="Y43" s="402"/>
-      <c r="Z43" s="402">
+      <c r="X43" s="391"/>
+      <c r="Y43" s="391"/>
+      <c r="Z43" s="391">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="402"/>
-      <c r="AB43" s="402"/>
-      <c r="AC43" s="402">
+      <c r="AA43" s="391"/>
+      <c r="AB43" s="391"/>
+      <c r="AC43" s="391">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="402"/>
-      <c r="AE43" s="402"/>
-      <c r="AF43" s="402">
+      <c r="AD43" s="391"/>
+      <c r="AE43" s="391"/>
+      <c r="AF43" s="391">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="402"/>
-      <c r="AH43" s="402"/>
-      <c r="AI43" s="402">
+      <c r="AG43" s="391"/>
+      <c r="AH43" s="391"/>
+      <c r="AI43" s="391">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="402"/>
-      <c r="AK43" s="402"/>
+      <c r="AJ43" s="391"/>
+      <c r="AK43" s="391"/>
       <c r="AL43" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24719,78 +24830,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B44" s="402" t="str">
+      <c r="B44" s="391" t="str">
         <f>Januar!J43</f>
         <v/>
       </c>
-      <c r="C44" s="402"/>
-      <c r="D44" s="402"/>
-      <c r="E44" s="402" t="str">
+      <c r="C44" s="391"/>
+      <c r="D44" s="391"/>
+      <c r="E44" s="391" t="str">
         <f>Februar!J43</f>
         <v/>
       </c>
-      <c r="F44" s="402"/>
-      <c r="G44" s="402"/>
-      <c r="H44" s="402" t="str">
+      <c r="F44" s="391"/>
+      <c r="G44" s="391"/>
+      <c r="H44" s="391" t="str">
         <f>März!J43</f>
         <v/>
       </c>
-      <c r="I44" s="402"/>
-      <c r="J44" s="402"/>
-      <c r="K44" s="402" t="str">
+      <c r="I44" s="391"/>
+      <c r="J44" s="391"/>
+      <c r="K44" s="391" t="str">
         <f>April!J43</f>
         <v/>
       </c>
-      <c r="L44" s="402"/>
-      <c r="M44" s="402"/>
-      <c r="N44" s="402" t="str">
+      <c r="L44" s="391"/>
+      <c r="M44" s="391"/>
+      <c r="N44" s="391" t="str">
         <f>Mai!J43</f>
         <v/>
       </c>
-      <c r="O44" s="402"/>
-      <c r="P44" s="402"/>
-      <c r="Q44" s="402" t="str">
+      <c r="O44" s="391"/>
+      <c r="P44" s="391"/>
+      <c r="Q44" s="391" t="str">
         <f>Juni!J43</f>
         <v/>
       </c>
-      <c r="R44" s="402"/>
-      <c r="S44" s="402"/>
-      <c r="T44" s="402" t="str">
+      <c r="R44" s="391"/>
+      <c r="S44" s="391"/>
+      <c r="T44" s="391" t="str">
         <f>Juli!J43</f>
         <v/>
       </c>
-      <c r="U44" s="402"/>
-      <c r="V44" s="402"/>
-      <c r="W44" s="402" t="str">
+      <c r="U44" s="391"/>
+      <c r="V44" s="391"/>
+      <c r="W44" s="391" t="str">
         <f>August!J43</f>
         <v/>
       </c>
-      <c r="X44" s="402"/>
-      <c r="Y44" s="402"/>
-      <c r="Z44" s="402" t="str">
+      <c r="X44" s="391"/>
+      <c r="Y44" s="391"/>
+      <c r="Z44" s="391" t="str">
         <f>September!J43</f>
         <v/>
       </c>
-      <c r="AA44" s="402"/>
-      <c r="AB44" s="402"/>
-      <c r="AC44" s="402" t="str">
+      <c r="AA44" s="391"/>
+      <c r="AB44" s="391"/>
+      <c r="AC44" s="391" t="str">
         <f>Oktober!J43</f>
         <v/>
       </c>
-      <c r="AD44" s="402"/>
-      <c r="AE44" s="402"/>
-      <c r="AF44" s="402" t="str">
+      <c r="AD44" s="391"/>
+      <c r="AE44" s="391"/>
+      <c r="AF44" s="391" t="str">
         <f>November!J43</f>
         <v/>
       </c>
-      <c r="AG44" s="402"/>
-      <c r="AH44" s="402"/>
-      <c r="AI44" s="402" t="str">
+      <c r="AG44" s="391"/>
+      <c r="AH44" s="391"/>
+      <c r="AI44" s="391" t="str">
         <f>Dezember!J43</f>
         <v/>
       </c>
-      <c r="AJ44" s="402"/>
-      <c r="AK44" s="402"/>
+      <c r="AJ44" s="391"/>
+      <c r="AK44" s="391"/>
       <c r="AL44" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24801,78 +24912,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B45" s="402" t="str">
+      <c r="B45" s="391" t="str">
         <f>Januar!J44</f>
         <v/>
       </c>
-      <c r="C45" s="402"/>
-      <c r="D45" s="402"/>
-      <c r="E45" s="402" t="str">
+      <c r="C45" s="391"/>
+      <c r="D45" s="391"/>
+      <c r="E45" s="391" t="str">
         <f>Februar!J44</f>
         <v/>
       </c>
-      <c r="F45" s="402"/>
-      <c r="G45" s="402"/>
-      <c r="H45" s="402" t="str">
+      <c r="F45" s="391"/>
+      <c r="G45" s="391"/>
+      <c r="H45" s="391" t="str">
         <f>März!J44</f>
         <v/>
       </c>
-      <c r="I45" s="402"/>
-      <c r="J45" s="402"/>
-      <c r="K45" s="402" t="str">
+      <c r="I45" s="391"/>
+      <c r="J45" s="391"/>
+      <c r="K45" s="391" t="str">
         <f>April!J44</f>
         <v/>
       </c>
-      <c r="L45" s="402"/>
-      <c r="M45" s="402"/>
-      <c r="N45" s="402" t="str">
+      <c r="L45" s="391"/>
+      <c r="M45" s="391"/>
+      <c r="N45" s="391" t="str">
         <f>Mai!J44</f>
         <v/>
       </c>
-      <c r="O45" s="402"/>
-      <c r="P45" s="402"/>
-      <c r="Q45" s="402" t="str">
+      <c r="O45" s="391"/>
+      <c r="P45" s="391"/>
+      <c r="Q45" s="391" t="str">
         <f>Juni!J44</f>
         <v/>
       </c>
-      <c r="R45" s="402"/>
-      <c r="S45" s="402"/>
-      <c r="T45" s="402" t="str">
+      <c r="R45" s="391"/>
+      <c r="S45" s="391"/>
+      <c r="T45" s="391" t="str">
         <f>Juli!J44</f>
         <v/>
       </c>
-      <c r="U45" s="402"/>
-      <c r="V45" s="402"/>
-      <c r="W45" s="402" t="str">
+      <c r="U45" s="391"/>
+      <c r="V45" s="391"/>
+      <c r="W45" s="391" t="str">
         <f>August!J44</f>
         <v/>
       </c>
-      <c r="X45" s="402"/>
-      <c r="Y45" s="402"/>
-      <c r="Z45" s="402" t="str">
+      <c r="X45" s="391"/>
+      <c r="Y45" s="391"/>
+      <c r="Z45" s="391" t="str">
         <f>September!J44</f>
         <v/>
       </c>
-      <c r="AA45" s="402"/>
-      <c r="AB45" s="402"/>
-      <c r="AC45" s="402" t="str">
+      <c r="AA45" s="391"/>
+      <c r="AB45" s="391"/>
+      <c r="AC45" s="391" t="str">
         <f>Oktober!J44</f>
         <v/>
       </c>
-      <c r="AD45" s="402"/>
-      <c r="AE45" s="402"/>
-      <c r="AF45" s="402" t="str">
+      <c r="AD45" s="391"/>
+      <c r="AE45" s="391"/>
+      <c r="AF45" s="391" t="str">
         <f>November!J44</f>
         <v/>
       </c>
-      <c r="AG45" s="402"/>
-      <c r="AH45" s="402"/>
-      <c r="AI45" s="402" t="str">
+      <c r="AG45" s="391"/>
+      <c r="AH45" s="391"/>
+      <c r="AI45" s="391" t="str">
         <f>Dezember!J44</f>
         <v/>
       </c>
-      <c r="AJ45" s="402"/>
-      <c r="AK45" s="402"/>
+      <c r="AJ45" s="391"/>
+      <c r="AK45" s="391"/>
       <c r="AL45" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24883,78 +24994,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B46" s="402" t="str">
+      <c r="B46" s="391" t="str">
         <f>Januar!J45</f>
         <v/>
       </c>
-      <c r="C46" s="402"/>
-      <c r="D46" s="402"/>
-      <c r="E46" s="402" t="str">
+      <c r="C46" s="391"/>
+      <c r="D46" s="391"/>
+      <c r="E46" s="391" t="str">
         <f>Februar!J45</f>
         <v/>
       </c>
-      <c r="F46" s="402"/>
-      <c r="G46" s="402"/>
-      <c r="H46" s="402" t="str">
+      <c r="F46" s="391"/>
+      <c r="G46" s="391"/>
+      <c r="H46" s="391" t="str">
         <f>März!J45</f>
         <v/>
       </c>
-      <c r="I46" s="402"/>
-      <c r="J46" s="402"/>
-      <c r="K46" s="402" t="str">
+      <c r="I46" s="391"/>
+      <c r="J46" s="391"/>
+      <c r="K46" s="391" t="str">
         <f>April!J45</f>
         <v/>
       </c>
-      <c r="L46" s="402"/>
-      <c r="M46" s="402"/>
-      <c r="N46" s="402" t="str">
+      <c r="L46" s="391"/>
+      <c r="M46" s="391"/>
+      <c r="N46" s="391" t="str">
         <f>Mai!J45</f>
         <v/>
       </c>
-      <c r="O46" s="402"/>
-      <c r="P46" s="402"/>
-      <c r="Q46" s="402" t="str">
+      <c r="O46" s="391"/>
+      <c r="P46" s="391"/>
+      <c r="Q46" s="391" t="str">
         <f>Juni!J45</f>
         <v/>
       </c>
-      <c r="R46" s="402"/>
-      <c r="S46" s="402"/>
-      <c r="T46" s="402" t="str">
+      <c r="R46" s="391"/>
+      <c r="S46" s="391"/>
+      <c r="T46" s="391" t="str">
         <f>Juli!J45</f>
         <v/>
       </c>
-      <c r="U46" s="402"/>
-      <c r="V46" s="402"/>
-      <c r="W46" s="402" t="str">
+      <c r="U46" s="391"/>
+      <c r="V46" s="391"/>
+      <c r="W46" s="391" t="str">
         <f>August!J45</f>
         <v/>
       </c>
-      <c r="X46" s="402"/>
-      <c r="Y46" s="402"/>
-      <c r="Z46" s="402" t="str">
+      <c r="X46" s="391"/>
+      <c r="Y46" s="391"/>
+      <c r="Z46" s="391" t="str">
         <f>September!J45</f>
         <v/>
       </c>
-      <c r="AA46" s="402"/>
-      <c r="AB46" s="402"/>
-      <c r="AC46" s="402" t="str">
+      <c r="AA46" s="391"/>
+      <c r="AB46" s="391"/>
+      <c r="AC46" s="391" t="str">
         <f>Oktober!J45</f>
         <v/>
       </c>
-      <c r="AD46" s="402"/>
-      <c r="AE46" s="402"/>
-      <c r="AF46" s="402" t="str">
+      <c r="AD46" s="391"/>
+      <c r="AE46" s="391"/>
+      <c r="AF46" s="391" t="str">
         <f>November!J45</f>
         <v/>
       </c>
-      <c r="AG46" s="402"/>
-      <c r="AH46" s="402"/>
-      <c r="AI46" s="402" t="str">
+      <c r="AG46" s="391"/>
+      <c r="AH46" s="391"/>
+      <c r="AI46" s="391" t="str">
         <f>Dezember!J45</f>
         <v/>
       </c>
-      <c r="AJ46" s="402"/>
-      <c r="AK46" s="402"/>
+      <c r="AJ46" s="391"/>
+      <c r="AK46" s="391"/>
       <c r="AL46" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24965,78 +25076,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B47" s="402" t="str">
+      <c r="B47" s="391" t="str">
         <f>Januar!J46</f>
         <v/>
       </c>
-      <c r="C47" s="402"/>
-      <c r="D47" s="402"/>
-      <c r="E47" s="402" t="str">
+      <c r="C47" s="391"/>
+      <c r="D47" s="391"/>
+      <c r="E47" s="391" t="str">
         <f>Februar!J46</f>
         <v/>
       </c>
-      <c r="F47" s="402"/>
-      <c r="G47" s="402"/>
-      <c r="H47" s="402" t="str">
+      <c r="F47" s="391"/>
+      <c r="G47" s="391"/>
+      <c r="H47" s="391" t="str">
         <f>März!J46</f>
         <v/>
       </c>
-      <c r="I47" s="402"/>
-      <c r="J47" s="402"/>
-      <c r="K47" s="402" t="str">
+      <c r="I47" s="391"/>
+      <c r="J47" s="391"/>
+      <c r="K47" s="391" t="str">
         <f>April!J46</f>
         <v/>
       </c>
-      <c r="L47" s="402"/>
-      <c r="M47" s="402"/>
-      <c r="N47" s="402" t="str">
+      <c r="L47" s="391"/>
+      <c r="M47" s="391"/>
+      <c r="N47" s="391" t="str">
         <f>Mai!J46</f>
         <v/>
       </c>
-      <c r="O47" s="402"/>
-      <c r="P47" s="402"/>
-      <c r="Q47" s="402" t="str">
+      <c r="O47" s="391"/>
+      <c r="P47" s="391"/>
+      <c r="Q47" s="391" t="str">
         <f>Juni!J46</f>
         <v/>
       </c>
-      <c r="R47" s="402"/>
-      <c r="S47" s="402"/>
-      <c r="T47" s="402" t="str">
+      <c r="R47" s="391"/>
+      <c r="S47" s="391"/>
+      <c r="T47" s="391" t="str">
         <f>Juli!J46</f>
         <v/>
       </c>
-      <c r="U47" s="402"/>
-      <c r="V47" s="402"/>
-      <c r="W47" s="402" t="str">
+      <c r="U47" s="391"/>
+      <c r="V47" s="391"/>
+      <c r="W47" s="391" t="str">
         <f>August!J46</f>
         <v/>
       </c>
-      <c r="X47" s="402"/>
-      <c r="Y47" s="402"/>
-      <c r="Z47" s="402" t="str">
+      <c r="X47" s="391"/>
+      <c r="Y47" s="391"/>
+      <c r="Z47" s="391" t="str">
         <f>September!J46</f>
         <v/>
       </c>
-      <c r="AA47" s="402"/>
-      <c r="AB47" s="402"/>
-      <c r="AC47" s="402" t="str">
+      <c r="AA47" s="391"/>
+      <c r="AB47" s="391"/>
+      <c r="AC47" s="391" t="str">
         <f>Oktober!J46</f>
         <v/>
       </c>
-      <c r="AD47" s="402"/>
-      <c r="AE47" s="402"/>
-      <c r="AF47" s="402" t="str">
+      <c r="AD47" s="391"/>
+      <c r="AE47" s="391"/>
+      <c r="AF47" s="391" t="str">
         <f>November!J46</f>
         <v/>
       </c>
-      <c r="AG47" s="402"/>
-      <c r="AH47" s="402"/>
-      <c r="AI47" s="402" t="str">
+      <c r="AG47" s="391"/>
+      <c r="AH47" s="391"/>
+      <c r="AI47" s="391" t="str">
         <f>Dezember!J46</f>
         <v/>
       </c>
-      <c r="AJ47" s="402"/>
-      <c r="AK47" s="402"/>
+      <c r="AJ47" s="391"/>
+      <c r="AK47" s="391"/>
       <c r="AL47" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25047,78 +25158,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B48" s="403" t="str">
+      <c r="B48" s="392" t="str">
         <f>Januar!J47</f>
         <v/>
       </c>
-      <c r="C48" s="403"/>
-      <c r="D48" s="403"/>
-      <c r="E48" s="403" t="str">
+      <c r="C48" s="392"/>
+      <c r="D48" s="392"/>
+      <c r="E48" s="392" t="str">
         <f>Februar!J47</f>
         <v/>
       </c>
-      <c r="F48" s="403"/>
-      <c r="G48" s="403"/>
-      <c r="H48" s="403" t="str">
+      <c r="F48" s="392"/>
+      <c r="G48" s="392"/>
+      <c r="H48" s="392" t="str">
         <f>März!J47</f>
         <v/>
       </c>
-      <c r="I48" s="403"/>
-      <c r="J48" s="403"/>
-      <c r="K48" s="403" t="str">
+      <c r="I48" s="392"/>
+      <c r="J48" s="392"/>
+      <c r="K48" s="392" t="str">
         <f>April!J47</f>
         <v/>
       </c>
-      <c r="L48" s="403"/>
-      <c r="M48" s="403"/>
-      <c r="N48" s="403" t="str">
+      <c r="L48" s="392"/>
+      <c r="M48" s="392"/>
+      <c r="N48" s="392" t="str">
         <f>Mai!J47</f>
         <v/>
       </c>
-      <c r="O48" s="403"/>
-      <c r="P48" s="403"/>
-      <c r="Q48" s="403" t="str">
+      <c r="O48" s="392"/>
+      <c r="P48" s="392"/>
+      <c r="Q48" s="392" t="str">
         <f>Juni!J47</f>
         <v/>
       </c>
-      <c r="R48" s="403"/>
-      <c r="S48" s="403"/>
-      <c r="T48" s="403" t="str">
+      <c r="R48" s="392"/>
+      <c r="S48" s="392"/>
+      <c r="T48" s="392" t="str">
         <f>Juli!J47</f>
         <v/>
       </c>
-      <c r="U48" s="403"/>
-      <c r="V48" s="403"/>
-      <c r="W48" s="403" t="str">
+      <c r="U48" s="392"/>
+      <c r="V48" s="392"/>
+      <c r="W48" s="392" t="str">
         <f>August!J47</f>
         <v/>
       </c>
-      <c r="X48" s="403"/>
-      <c r="Y48" s="403"/>
-      <c r="Z48" s="403" t="str">
+      <c r="X48" s="392"/>
+      <c r="Y48" s="392"/>
+      <c r="Z48" s="392" t="str">
         <f>September!J47</f>
         <v/>
       </c>
-      <c r="AA48" s="403"/>
-      <c r="AB48" s="403"/>
-      <c r="AC48" s="403" t="str">
+      <c r="AA48" s="392"/>
+      <c r="AB48" s="392"/>
+      <c r="AC48" s="392" t="str">
         <f>Oktober!J47</f>
         <v/>
       </c>
-      <c r="AD48" s="403"/>
-      <c r="AE48" s="403"/>
-      <c r="AF48" s="403" t="str">
+      <c r="AD48" s="392"/>
+      <c r="AE48" s="392"/>
+      <c r="AF48" s="392" t="str">
         <f>November!J47</f>
         <v/>
       </c>
-      <c r="AG48" s="403"/>
-      <c r="AH48" s="403"/>
-      <c r="AI48" s="403" t="str">
+      <c r="AG48" s="392"/>
+      <c r="AH48" s="392"/>
+      <c r="AI48" s="392" t="str">
         <f>Dezember!J47</f>
         <v/>
       </c>
-      <c r="AJ48" s="403"/>
-      <c r="AK48" s="403"/>
+      <c r="AJ48" s="392"/>
+      <c r="AK48" s="392"/>
       <c r="AL48" s="330">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25128,78 +25239,78 @@
       <c r="A49" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="404">
+      <c r="B49" s="390">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="404"/>
-      <c r="D49" s="404"/>
-      <c r="E49" s="404">
+      <c r="C49" s="390"/>
+      <c r="D49" s="390"/>
+      <c r="E49" s="390">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F49" s="404"/>
-      <c r="G49" s="404"/>
-      <c r="H49" s="404">
+      <c r="F49" s="390"/>
+      <c r="G49" s="390"/>
+      <c r="H49" s="390">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I49" s="404"/>
-      <c r="J49" s="404"/>
-      <c r="K49" s="404">
+      <c r="I49" s="390"/>
+      <c r="J49" s="390"/>
+      <c r="K49" s="390">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L49" s="404"/>
-      <c r="M49" s="404"/>
-      <c r="N49" s="404">
+      <c r="L49" s="390"/>
+      <c r="M49" s="390"/>
+      <c r="N49" s="390">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O49" s="404"/>
-      <c r="P49" s="404"/>
-      <c r="Q49" s="404">
+      <c r="O49" s="390"/>
+      <c r="P49" s="390"/>
+      <c r="Q49" s="390">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R49" s="404"/>
-      <c r="S49" s="404"/>
-      <c r="T49" s="404">
+      <c r="R49" s="390"/>
+      <c r="S49" s="390"/>
+      <c r="T49" s="390">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U49" s="404"/>
-      <c r="V49" s="404"/>
-      <c r="W49" s="404">
+      <c r="U49" s="390"/>
+      <c r="V49" s="390"/>
+      <c r="W49" s="390">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X49" s="404"/>
-      <c r="Y49" s="404"/>
-      <c r="Z49" s="404">
+      <c r="X49" s="390"/>
+      <c r="Y49" s="390"/>
+      <c r="Z49" s="390">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="404"/>
-      <c r="AB49" s="404"/>
-      <c r="AC49" s="404">
+      <c r="AA49" s="390"/>
+      <c r="AB49" s="390"/>
+      <c r="AC49" s="390">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="404"/>
-      <c r="AE49" s="404"/>
-      <c r="AF49" s="404">
+      <c r="AD49" s="390"/>
+      <c r="AE49" s="390"/>
+      <c r="AF49" s="390">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="404"/>
-      <c r="AH49" s="404"/>
-      <c r="AI49" s="404">
+      <c r="AG49" s="390"/>
+      <c r="AH49" s="390"/>
+      <c r="AI49" s="390">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="404"/>
-      <c r="AK49" s="404"/>
+      <c r="AJ49" s="390"/>
+      <c r="AK49" s="390"/>
       <c r="AL49" s="332">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25208,18 +25319,166 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NAjAwljj5JLvGzE8LseGj02m9hGGtNOxZYyQ4RYzLUwmhLc0GdS/WayRdfnZYrqGRN4HeHSkhJxjaDM3q7ar7w==" saltValue="QdbqNTRdSMrA/zOfFCB8ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="196">
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="AC47:AE47"/>
     <mergeCell ref="AF47:AH47"/>
     <mergeCell ref="AI47:AK47"/>
@@ -25244,166 +25503,18 @@
     <mergeCell ref="T47:V47"/>
     <mergeCell ref="W47:Y47"/>
     <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="23" priority="2">
@@ -29023,6 +29134,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="Q1:S1"/>
@@ -29030,11 +29146,6 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -29078,7 +29189,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29099,7 +29210,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29126,7 +29237,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>9.2999999999999989</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29709,16 +29820,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,1,1)</f>
         <v>42369</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -29729,20 +29840,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -29750,11 +29861,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
@@ -29776,10 +29887,10 @@
       <c r="G3" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="J3" s="178" t="s">
         <v>25</v>
       </c>
@@ -31233,13 +31344,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -31264,14 +31375,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -31296,13 +31407,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31320,13 +31431,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -31350,13 +31461,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31371,14 +31482,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -31395,14 +31506,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -31423,14 +31534,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -31447,14 +31558,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -31471,14 +31582,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -31499,14 +31610,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -31515,21 +31626,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lp/gUAhG/NxZFg3ZxNZpc/OMzuBWhvAjWYsACyturmzwEz4MrdPY4Z7bq2mhYT4TO4KC+V+re4wY95aL7XG1tQ==" saltValue="hjUq3gkEjcUTitg1OCiokA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="144" priority="2">
@@ -31612,16 +31723,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,2,1)</f>
         <v>42400</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -31632,20 +31743,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -31653,11 +31764,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -33137,13 +33248,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -33169,14 +33280,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -33202,13 +33313,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33227,13 +33338,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -33258,13 +33369,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33299,14 +33410,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -33326,14 +33437,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -33357,14 +33468,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -33384,14 +33495,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -33411,14 +33522,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -33442,14 +33553,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -33458,21 +33569,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="okIzBtHKggQ01MGGC2bszYk91StqozcmrYdftDgOilTYlvdE0Pl7X/6VKmLBwp+KgXmMJxumD3QyyxK99J0gUQ==" saltValue="ZOtWP+MiiqCmy7p7S++Ahg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="136" priority="2">
@@ -33563,16 +33674,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,3,1)</f>
         <v>42429</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -33583,20 +33694,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -33604,11 +33715,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -35104,13 +35215,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -35136,14 +35247,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -35169,13 +35280,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35194,13 +35305,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -35225,13 +35336,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35266,14 +35377,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -35293,14 +35404,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -35324,14 +35435,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -35351,14 +35462,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -35378,14 +35489,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -35409,14 +35520,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -35425,21 +35536,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8bs5maBzQkpyWCWnfl5Y0EE0IEYlqNMuKPAycQ9E2wZgEzT6ibfX2pN8bX4JzzAJkR75IpPZSDHXpEZi94/j+w==" saltValue="YxFepfb/JmJZGcAKQ4IRSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="126" priority="2">
@@ -35530,16 +35641,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,4,1)</f>
         <v>42460</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -35550,20 +35661,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -35571,11 +35682,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -37213,13 +37324,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -37245,14 +37356,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -37278,13 +37389,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37303,13 +37414,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -37334,13 +37445,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>6</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37375,14 +37486,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -37402,14 +37513,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -37433,14 +37544,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -37460,14 +37571,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -37487,14 +37598,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -37518,14 +37629,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -37534,21 +37645,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oi4D8G4bpKsjvNQAOV1IVD5oC246U1tsOknZR5CKhoaFKJim1Y4VsiD+22BHLJMb/nIlWvWONK0BmT35EEtHBw==" saltValue="4I5lsQG8NfttgzRFKQim+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="116" priority="2">
@@ -37644,16 +37755,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,5,1)</f>
         <v>42490</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -37664,20 +37775,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -37685,11 +37796,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -39299,13 +39410,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -39331,14 +39442,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -39364,13 +39475,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39389,13 +39500,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -39420,13 +39531,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>17</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39461,14 +39572,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -39488,14 +39599,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -39519,14 +39630,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -39546,14 +39657,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -39573,14 +39684,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -39604,14 +39715,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -39620,21 +39731,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QE1OXV5P+vCQbWDCwyrZigSC30Vre5KDIK3YefI6iJ2kBvo5eJZ3P2WpMdeyjVmOLwE7gtGXH8QYo5l1KTRF3g==" saltValue="r1rnDj8jh4CoB2lzDE4Hjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="105" priority="2">
@@ -39711,7 +39822,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39733,16 +39844,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,6,1)</f>
         <v>42521</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -39753,20 +39864,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -39774,11 +39885,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -40670,11 +40781,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
+      <c r="D21" s="200">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E21" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F21" s="200"/>
       <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
+      <c r="H21" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I21" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40682,7 +40799,7 @@
       <c r="J21" s="203"/>
       <c r="K21" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="L21" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40690,16 +40807,18 @@
       </c>
       <c r="M21" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16666666666666999</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N21" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.16666666666666699</v>
       </c>
-      <c r="O21" s="208"/>
+      <c r="O21" s="208" t="s">
+        <v>181</v>
+      </c>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2895833333333502</v>
+        <v>3.5187500000000198</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40744,7 +40863,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9562500000000198</v>
+        <v>3.1854166666666899</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40789,7 +40908,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9562500000000198</v>
+        <v>3.1854166666666899</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40834,7 +40953,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9562500000000198</v>
+        <v>3.1854166666666899</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40879,7 +40998,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9562500000000198</v>
+        <v>3.1854166666666899</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40924,7 +41043,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9562500000000198</v>
+        <v>3.1854166666666899</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40969,7 +41088,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6229166666666899</v>
+        <v>2.8520833333333599</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41014,7 +41133,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4562500000000198</v>
+        <v>2.6854166666666899</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41059,7 +41178,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1229166666666899</v>
+        <v>2.3520833333333599</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41104,7 +41223,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1229166666666899</v>
+        <v>2.3520833333333599</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41149,7 +41268,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1229166666666899</v>
+        <v>2.3520833333333599</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41194,7 +41313,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1229166666666899</v>
+        <v>2.3520833333333599</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41239,7 +41358,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1229166666666899</v>
+        <v>2.3520833333333599</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41324,13 +41443,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -41356,14 +41475,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -41380,7 +41499,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>2.7027777777777775</v>
+        <v>2.931944444444444</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -41389,13 +41508,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41414,13 +41533,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -41436,22 +41555,22 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>2.1229166666666801</v>
+        <v>2.35208333333334</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>8</v>
-      </c>
-      <c r="K40" s="385" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41486,14 +41605,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -41513,14 +41632,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -41544,14 +41663,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -41571,14 +41690,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -41598,14 +41717,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -41629,14 +41748,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -41645,21 +41764,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FLGQGPkIrZFJRYfIzM5dNAg+vmhj9bs+eX+BsfoXkS85xz/DWFzyxzWRzBLXdkZU/6+8Lk0XkXSRD1REULPCKQ==" saltValue="/ZQvF5XqnLB5M3rbo0of0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="93" priority="2">
@@ -41750,16 +41869,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,7,1)</f>
         <v>42551</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -41770,20 +41889,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -41791,11 +41910,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -41885,7 +42004,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>1.78958333333335</v>
+        <v>2.01875000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41930,7 +42049,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.6229166666666801</v>
+        <v>1.85208333333334</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41975,7 +42094,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.28958333333335</v>
+        <v>1.51875000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42020,7 +42139,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.28958333333335</v>
+        <v>1.51875000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42065,7 +42184,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.28958333333335</v>
+        <v>1.51875000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42110,7 +42229,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.28958333333335</v>
+        <v>1.51875000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42155,7 +42274,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.28958333333335</v>
+        <v>1.51875000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42200,7 +42319,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.95625000000002003</v>
+        <v>1.1854166666666801</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42245,7 +42364,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78958333333334996</v>
+        <v>1.01875000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42290,7 +42409,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45625000000001997</v>
+        <v>0.68541666666668</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42335,7 +42454,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45625000000001997</v>
+        <v>0.68541666666668</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42380,7 +42499,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45625000000001997</v>
+        <v>0.68541666666668</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42425,7 +42544,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45625000000001997</v>
+        <v>0.68541666666668</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42470,7 +42589,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45625000000001997</v>
+        <v>0.68541666666668</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42515,7 +42634,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12291666666669</v>
+        <v>0.35208333333335001</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42560,7 +42679,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3749999999979999E-2</v>
+        <v>0.18541666666668</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42605,7 +42724,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.37708333333331001</v>
+        <v>-0.14791666666664999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42650,7 +42769,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.37708333333331001</v>
+        <v>-0.14791666666664999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42695,7 +42814,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.37708333333331001</v>
+        <v>-0.14791666666664999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42740,7 +42859,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.37708333333331001</v>
+        <v>-0.14791666666664999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42785,7 +42904,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.37708333333331001</v>
+        <v>-0.14791666666664999</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42830,7 +42949,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71041666666664005</v>
+        <v>-0.48124999999998003</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42875,7 +42994,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.87708333333331001</v>
+        <v>-0.64791666666665004</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42920,7 +43039,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2104166666666401</v>
+        <v>-0.98124999999997997</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42965,7 +43084,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2104166666666401</v>
+        <v>-0.98124999999997997</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43010,7 +43129,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2104166666666401</v>
+        <v>-0.98124999999997997</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43055,7 +43174,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2104166666666401</v>
+        <v>-0.98124999999997997</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43100,7 +43219,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2104166666666401</v>
+        <v>-0.98124999999997997</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43145,7 +43264,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.54374999999997</v>
+        <v>-1.3145833333333099</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43190,7 +43309,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.7104166666666401</v>
+        <v>-1.48124999999998</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43235,7 +43354,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.04374999999997</v>
+        <v>-1.8145833333333099</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -43266,7 +43385,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juni!F40</f>
-        <v>2.1229166666666801</v>
+        <v>2.35208333333334</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -43275,13 +43394,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -43307,14 +43426,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -43340,13 +43459,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43365,13 +43484,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -43387,7 +43506,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-2.04374999999999</v>
+        <v>-1.8145833333333301</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -43396,13 +43515,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43437,14 +43556,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -43464,14 +43583,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -43495,14 +43614,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -43522,14 +43641,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -43549,14 +43668,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -43580,14 +43699,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -43596,21 +43715,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nomVLiSrDW6BfAYDAAIKepzv9c2fIXYLpRACXJd2H6GVs9wfhFNHh71b99zQzqGFAVmbKlb4Q6ZmMw43Z1PLzg==" saltValue="Qh9BryrLdDjvbd7vasrV7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="83" priority="2">

--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A327E-6971-4951-B45A-D8FB2897102F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D6B962-5B21-4E57-B5C1-43F4E66B50B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="186">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t>Results: Leds multichannel diff timers and matching the physical board</t>
+  </si>
+  <si>
+    <t>No Restuls: Lots of documentation about ecat and soes</t>
+  </si>
+  <si>
+    <t>Resultis: Soldering of pcb</t>
+  </si>
+  <si>
+    <t>Results: The connectors</t>
+  </si>
+  <si>
+    <t>Results: The SPI and programming was successfully tested on the PCB</t>
   </si>
 </sst>
 </file>
@@ -7401,6 +7413,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C56183-4627-431E-8022-AEBD42E6F8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE41107B-BC68-4C55-82FF-D549FA0D8CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8625,6 +8745,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7836080F-D568-44A6-AC44-7CEE90B56F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A73BD1-894C-4886-A81F-783E00E4A38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9590,7 +9818,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-1.8145833333333301</v>
+        <v>-0.56458333333333</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9635,7 +9863,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-1.8145833333333301</v>
+        <v>-0.56458333333333</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9680,7 +9908,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8145833333333301</v>
+        <v>-0.56458333333333</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9725,7 +9953,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8145833333333301</v>
+        <v>-0.56458333333333</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9770,7 +9998,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.14791666666666</v>
+        <v>-0.89791666666666003</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9815,7 +10043,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3145833333333301</v>
+        <v>-1.0645833333333301</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9860,7 +10088,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64791666666666</v>
+        <v>-1.39791666666666</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9905,7 +10133,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64791666666666</v>
+        <v>-1.39791666666666</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9950,7 +10178,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64791666666666</v>
+        <v>-1.39791666666666</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9995,7 +10223,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64791666666666</v>
+        <v>-1.39791666666666</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10040,7 +10268,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.64791666666666</v>
+        <v>-1.39791666666666</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10085,7 +10313,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.98124999999999</v>
+        <v>-1.73124999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10130,7 +10358,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.14791666666666</v>
+        <v>-1.89791666666666</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10175,7 +10403,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48124999999999</v>
+        <v>-2.23124999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10220,7 +10448,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48124999999999</v>
+        <v>-2.23124999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10265,7 +10493,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48124999999999</v>
+        <v>-2.23124999999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10310,7 +10538,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48124999999999</v>
+        <v>-2.23124999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10355,7 +10583,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.48124999999999</v>
+        <v>-2.23124999999999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10400,7 +10628,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8145833333333199</v>
+        <v>-2.5645833333333199</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10445,7 +10673,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.98124999999999</v>
+        <v>-2.73124999999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10490,7 +10718,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3145833333333199</v>
+        <v>-3.0645833333333199</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10535,7 +10763,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3145833333333199</v>
+        <v>-3.0645833333333199</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10580,7 +10808,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3145833333333199</v>
+        <v>-3.0645833333333199</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10625,7 +10853,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3145833333333199</v>
+        <v>-3.0645833333333199</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10670,7 +10898,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.3145833333333199</v>
+        <v>-3.0645833333333199</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10715,7 +10943,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.6479166666666503</v>
+        <v>-3.3979166666666498</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10760,7 +10988,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8145833333333199</v>
+        <v>-3.5645833333333199</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10805,7 +11033,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1479166666666503</v>
+        <v>-3.8979166666666498</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10850,7 +11078,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1479166666666503</v>
+        <v>-3.8979166666666498</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10895,7 +11123,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1479166666666503</v>
+        <v>-3.8979166666666498</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10940,7 +11168,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.1479166666666503</v>
+        <v>-3.8979166666666498</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -10971,7 +11199,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-1.8145833333333301</v>
+        <v>-0.56458333333333</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -11092,7 +11320,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-5.14791666666666</v>
+        <v>-3.89791666666666</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -11541,7 +11769,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-5.14791666666666</v>
+        <v>-3.89791666666666</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11586,7 +11814,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-5.4812499999999904</v>
+        <v>-4.2312499999999904</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11631,7 +11859,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.64791666666666</v>
+        <v>-4.39791666666666</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11676,7 +11904,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9812499999999904</v>
+        <v>-4.7312499999999904</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11721,7 +11949,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9812499999999904</v>
+        <v>-4.7312499999999904</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11766,7 +11994,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9812499999999904</v>
+        <v>-4.7312499999999904</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11811,7 +12039,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9812499999999904</v>
+        <v>-4.7312499999999904</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11856,7 +12084,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.9812499999999904</v>
+        <v>-4.7312499999999904</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11901,7 +12129,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3145833333333199</v>
+        <v>-5.0645833333333199</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11946,7 +12174,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4812499999999904</v>
+        <v>-5.2312499999999904</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11991,7 +12219,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8145833333333199</v>
+        <v>-5.5645833333333199</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12036,7 +12264,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8145833333333199</v>
+        <v>-5.5645833333333199</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12081,7 +12309,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8145833333333199</v>
+        <v>-5.5645833333333199</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12126,7 +12354,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8145833333333199</v>
+        <v>-5.5645833333333199</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12171,7 +12399,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8145833333333199</v>
+        <v>-5.5645833333333199</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12216,7 +12444,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.1479166666666503</v>
+        <v>-5.8979166666666503</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12261,7 +12489,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3145833333333199</v>
+        <v>-6.0645833333333199</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12306,7 +12534,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6479166666666503</v>
+        <v>-6.3979166666666503</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12351,7 +12579,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6479166666666503</v>
+        <v>-6.3979166666666503</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12396,7 +12624,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6479166666666503</v>
+        <v>-6.3979166666666503</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12441,7 +12669,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6479166666666503</v>
+        <v>-6.3979166666666503</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12486,7 +12714,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.6479166666666503</v>
+        <v>-6.3979166666666503</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12531,7 +12759,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.9812499999999797</v>
+        <v>-6.7312499999999797</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12576,7 +12804,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1479166666666494</v>
+        <v>-6.8979166666666503</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12621,7 +12849,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4812499999999797</v>
+        <v>-7.2312499999999797</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12666,7 +12894,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4812499999999797</v>
+        <v>-7.2312499999999797</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12711,7 +12939,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4812499999999797</v>
+        <v>-7.2312499999999797</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12756,7 +12984,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4812499999999797</v>
+        <v>-7.2312499999999797</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12801,7 +13029,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4812499999999797</v>
+        <v>-7.2312499999999797</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12846,7 +13074,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.8145833333333101</v>
+        <v>-7.5645833333333101</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12922,7 +13150,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-5.14791666666666</v>
+        <v>-3.89791666666666</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -13043,7 +13271,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-8.8145833333333208</v>
+        <v>-7.5645833333333297</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -13492,7 +13720,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-8.9812499999999904</v>
+        <v>-7.7312500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13537,7 +13765,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-9.3145833333333208</v>
+        <v>-8.0645833333333297</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13582,7 +13810,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3145833333333208</v>
+        <v>-8.0645833333333297</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13627,7 +13855,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3145833333333208</v>
+        <v>-8.0645833333333297</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13672,7 +13900,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3145833333333208</v>
+        <v>-8.0645833333333297</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13717,7 +13945,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.3145833333333208</v>
+        <v>-8.0645833333333297</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13762,7 +13990,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.6479166666666494</v>
+        <v>-8.39791666666666</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13807,7 +14035,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8145833333333208</v>
+        <v>-8.5645833333333297</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13852,7 +14080,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.147916666666699</v>
+        <v>-8.89791666666666</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13897,7 +14125,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.147916666666699</v>
+        <v>-8.89791666666666</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13942,7 +14170,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.147916666666699</v>
+        <v>-8.89791666666666</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13987,7 +14215,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.147916666666699</v>
+        <v>-8.89791666666666</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14032,7 +14260,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.147916666666699</v>
+        <v>-8.89791666666666</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14077,7 +14305,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.481249999999999</v>
+        <v>-9.2312499999999904</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14122,7 +14350,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.647916666666699</v>
+        <v>-9.39791666666666</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14167,7 +14395,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.981249999999999</v>
+        <v>-9.7312499999999904</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14212,7 +14440,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.981249999999999</v>
+        <v>-9.7312499999999904</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14257,7 +14485,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.981249999999999</v>
+        <v>-9.7312499999999904</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14302,7 +14530,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.981249999999999</v>
+        <v>-9.7312499999999904</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14347,7 +14575,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.981249999999999</v>
+        <v>-9.7312499999999904</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14392,7 +14620,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.314583333333299</v>
+        <v>-10.064583333333299</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14437,7 +14665,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.481249999999999</v>
+        <v>-10.231249999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14482,7 +14710,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.814583333333299</v>
+        <v>-10.564583333333299</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14527,7 +14755,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.814583333333299</v>
+        <v>-10.564583333333299</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14572,7 +14800,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.814583333333299</v>
+        <v>-10.564583333333299</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14617,7 +14845,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.814583333333299</v>
+        <v>-10.564583333333299</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14662,7 +14890,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.814583333333299</v>
+        <v>-10.564583333333299</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14707,7 +14935,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.1479166666666</v>
+        <v>-10.8979166666666</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14752,7 +14980,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.314583333333299</v>
+        <v>-11.064583333333299</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14797,7 +15025,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6479166666666</v>
+        <v>-11.3979166666666</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14842,7 +15070,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.6479166666666</v>
+        <v>-11.3979166666666</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -14873,7 +15101,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-8.8145833333333208</v>
+        <v>-7.5645833333333297</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -14994,7 +15222,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-12.647916666666699</v>
+        <v>-11.397916666666699</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -15443,7 +15671,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-12.647916666666699</v>
+        <v>-11.397916666666699</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15488,7 +15716,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-12.647916666666699</v>
+        <v>-11.397916666666699</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15533,7 +15761,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.647916666666699</v>
+        <v>-11.397916666666699</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15578,7 +15806,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.981249999999999</v>
+        <v>-11.731249999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15623,7 +15851,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.147916666666699</v>
+        <v>-11.897916666666699</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15668,7 +15896,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.481249999999999</v>
+        <v>-12.231249999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15713,7 +15941,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.481249999999999</v>
+        <v>-12.231249999999999</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15758,7 +15986,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.481249999999999</v>
+        <v>-12.231249999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15803,7 +16031,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.481249999999999</v>
+        <v>-12.231249999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15848,7 +16076,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.481249999999999</v>
+        <v>-12.231249999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15893,7 +16121,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.814583333333299</v>
+        <v>-12.564583333333299</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15938,7 +16166,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.981249999999999</v>
+        <v>-12.731249999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15983,7 +16211,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.314583333333299</v>
+        <v>-13.064583333333299</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16028,7 +16256,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.314583333333299</v>
+        <v>-13.064583333333299</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16073,7 +16301,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.314583333333299</v>
+        <v>-13.064583333333299</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16118,7 +16346,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.314583333333299</v>
+        <v>-13.064583333333299</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16163,7 +16391,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.314583333333299</v>
+        <v>-13.064583333333299</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16208,7 +16436,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.6479166666666</v>
+        <v>-13.3979166666666</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16253,7 +16481,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.814583333333299</v>
+        <v>-13.564583333333299</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16298,7 +16526,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1479166666666</v>
+        <v>-13.8979166666666</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16343,7 +16571,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1479166666666</v>
+        <v>-13.8979166666666</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16388,7 +16616,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1479166666666</v>
+        <v>-13.8979166666666</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16433,7 +16661,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1479166666666</v>
+        <v>-13.8979166666666</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16478,7 +16706,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.1479166666666</v>
+        <v>-13.8979166666666</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16523,7 +16751,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.4812499999999</v>
+        <v>-14.2312499999999</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16568,7 +16796,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.6479166666666</v>
+        <v>-14.3979166666666</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16613,7 +16841,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9812499999999</v>
+        <v>-14.7312499999999</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16658,7 +16886,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9812499999999</v>
+        <v>-14.7312499999999</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16703,7 +16931,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9812499999999</v>
+        <v>-14.7312499999999</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16748,7 +16976,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.9812499999999</v>
+        <v>-14.7312499999999</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16824,7 +17052,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-12.647916666666699</v>
+        <v>-11.397916666666699</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -16945,7 +17173,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-15.981249999999999</v>
+        <v>-14.731249999999999</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -17394,7 +17622,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-15.981249999999999</v>
+        <v>-14.731249999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17439,7 +17667,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-16.314583333333299</v>
+        <v>-15.064583333333299</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17484,7 +17712,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.481249999999999</v>
+        <v>-15.231249999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17529,7 +17757,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.814583333333299</v>
+        <v>-15.564583333333299</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17574,7 +17802,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.814583333333299</v>
+        <v>-15.564583333333299</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17619,7 +17847,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.814583333333299</v>
+        <v>-15.564583333333299</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17664,7 +17892,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.814583333333299</v>
+        <v>-15.564583333333299</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17709,7 +17937,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.814583333333299</v>
+        <v>-15.564583333333299</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17754,7 +17982,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.1479166666666</v>
+        <v>-15.8979166666666</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17799,7 +18027,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.314583333333299</v>
+        <v>-16.064583333333299</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17844,7 +18072,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666666</v>
+        <v>-16.3979166666666</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17889,7 +18117,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666666</v>
+        <v>-16.3979166666666</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17934,7 +18162,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666666</v>
+        <v>-16.3979166666666</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17979,7 +18207,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666666</v>
+        <v>-16.3979166666666</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18024,7 +18252,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666666</v>
+        <v>-16.3979166666666</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18069,7 +18297,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.9812499999999</v>
+        <v>-16.7312499999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18114,7 +18342,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.1479166666666</v>
+        <v>-16.8979166666666</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18159,7 +18387,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4812499999999</v>
+        <v>-17.2312499999999</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18204,7 +18432,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4812499999999</v>
+        <v>-17.2312499999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18249,7 +18477,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4812499999999</v>
+        <v>-17.2312499999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18294,7 +18522,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4812499999999</v>
+        <v>-17.2312499999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18339,7 +18567,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.4812499999999</v>
+        <v>-17.2312499999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18384,7 +18612,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.8145833333332</v>
+        <v>-17.5645833333332</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18429,7 +18657,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.8979166666665</v>
+        <v>-17.6479166666665</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18474,7 +18702,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.8979166666665</v>
+        <v>-17.6479166666665</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18519,7 +18747,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.8979166666665</v>
+        <v>-17.6479166666665</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18564,7 +18792,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.8979166666665</v>
+        <v>-17.6479166666665</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18609,7 +18837,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.8979166666665</v>
+        <v>-17.6479166666665</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18654,7 +18882,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.8979166666665</v>
+        <v>-17.6479166666665</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18699,7 +18927,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.2312499999998</v>
+        <v>-17.9812499999998</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18744,7 +18972,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.314583333333101</v>
+        <v>-18.064583333333101</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -18775,7 +19003,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-15.981249999999999</v>
+        <v>-14.731249999999999</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -18896,7 +19124,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-19.314583333333299</v>
+        <v>-18.064583333333299</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -22183,9 +22411,9 @@
         <f>Juni!A22</f>
         <v>42539</v>
       </c>
-      <c r="R22" s="294" t="str">
+      <c r="R22" s="294">
         <f>IF(Juni!K22&gt;0,Juni!K22,"")</f>
-        <v/>
+        <v>0.35416666666666674</v>
       </c>
       <c r="S22" s="299" t="str">
         <f>IF(OR(Juni!C22="",Juni!J22&lt;&gt;""),UPPER(Juni!J22),"F")</f>
@@ -22335,9 +22563,9 @@
         <f>Juni!A23</f>
         <v>42540</v>
       </c>
-      <c r="R23" s="294" t="str">
+      <c r="R23" s="294">
         <f>IF(Juni!K23&gt;0,Juni!K23,"")</f>
-        <v/>
+        <v>0.35416666666666663</v>
       </c>
       <c r="S23" s="299" t="str">
         <f>IF(OR(Juni!C23="",Juni!J23&lt;&gt;""),UPPER(Juni!J23),"F")</f>
@@ -22487,9 +22715,9 @@
         <f>Juni!A24</f>
         <v>42541</v>
       </c>
-      <c r="R24" s="294" t="str">
+      <c r="R24" s="294">
         <f>IF(Juni!K24&gt;0,Juni!K24,"")</f>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
       <c r="S24" s="299" t="str">
         <f>IF(OR(Juni!C24="",Juni!J24&lt;&gt;""),UPPER(Juni!J24),"F")</f>
@@ -22943,9 +23171,9 @@
         <f>Juni!A27</f>
         <v>42544</v>
       </c>
-      <c r="R27" s="294" t="str">
+      <c r="R27" s="294">
         <f>IF(Juni!K27&gt;0,Juni!K27,"")</f>
-        <v/>
+        <v>0.375</v>
       </c>
       <c r="S27" s="299" t="str">
         <f>IF(OR(Juni!C27="",Juni!J27&lt;&gt;""),UPPER(Juni!J27),"F")</f>
@@ -24208,7 +24436,7 @@
       <c r="P36" s="318"/>
       <c r="Q36" s="398">
         <f>Juni!F38</f>
-        <v>2.931944444444444</v>
+        <v>4.1819444444444436</v>
       </c>
       <c r="R36" s="398"/>
       <c r="S36" s="317"/>
@@ -24250,7 +24478,7 @@
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>12.352083333333336</v>
+        <v>13.602083333333336</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -24289,7 +24517,7 @@
       <c r="P37" s="323"/>
       <c r="Q37" s="393">
         <f ca="1">ROUND(Q36-Q35,10)</f>
-        <v>-0.40138888890000002</v>
+        <v>0.84861111109999998</v>
       </c>
       <c r="R37" s="393"/>
       <c r="S37" s="322"/>
@@ -24331,7 +24559,7 @@
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.3145833333</v>
+        <v>-18.0645833333</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
@@ -24370,7 +24598,7 @@
       <c r="P38" s="395"/>
       <c r="Q38" s="395">
         <f>Juni!J40</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R38" s="395"/>
       <c r="S38" s="395"/>
@@ -24412,7 +24640,7 @@
       <c r="AK38" s="395"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -29189,7 +29417,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29210,7 +29438,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29237,7 +29465,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>9.6</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -33651,7 +33879,7 @@
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -35618,7 +35846,7 @@
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -37731,8 +37959,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -39820,9 +40048,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -40834,11 +41062,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
+      <c r="D22" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E22" s="200">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
-      <c r="H22" s="201"/>
+      <c r="H22" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I22" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40846,7 +41080,7 @@
       <c r="J22" s="203"/>
       <c r="K22" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666674</v>
       </c>
       <c r="L22" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40854,16 +41088,18 @@
       </c>
       <c r="M22" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="N22" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O22" s="208"/>
+      <c r="O22" s="208" t="s">
+        <v>182</v>
+      </c>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1854166666666899</v>
+        <v>3.5395833333333502</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40879,11 +41115,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
+      <c r="D23" s="200">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E23" s="200">
+        <v>0.9375</v>
+      </c>
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
-      <c r="H23" s="201"/>
+      <c r="H23" s="201">
+        <v>6.25E-2</v>
+      </c>
       <c r="I23" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -40891,7 +41133,7 @@
       <c r="J23" s="203"/>
       <c r="K23" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="L23" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40899,16 +41141,18 @@
       </c>
       <c r="M23" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.35416666666667002</v>
       </c>
       <c r="N23" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O23" s="208"/>
+      <c r="O23" s="208" t="s">
+        <v>183</v>
+      </c>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1854166666666899</v>
+        <v>3.8937500000000198</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40924,8 +41168,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
+      <c r="D24" s="200">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E24" s="200">
+        <v>0.875</v>
+      </c>
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
       <c r="H24" s="201"/>
@@ -40936,7 +41184,7 @@
       <c r="J24" s="203"/>
       <c r="K24" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="L24" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -40944,16 +41192,18 @@
       </c>
       <c r="M24" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.16666666666666999</v>
       </c>
       <c r="N24" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O24" s="208"/>
+      <c r="O24" s="208" t="s">
+        <v>184</v>
+      </c>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1854166666666899</v>
+        <v>4.0604166666666899</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40998,7 +41248,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1854166666666899</v>
+        <v>4.0604166666666899</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41043,7 +41293,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1854166666666899</v>
+        <v>4.0604166666666899</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41059,19 +41309,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
+      <c r="D27" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E27" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F27" s="200"/>
       <c r="G27" s="200"/>
-      <c r="H27" s="201"/>
+      <c r="H27" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I27" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J27" s="203"/>
       <c r="K27" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="L27" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -41079,16 +41335,18 @@
       </c>
       <c r="M27" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="N27" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O27" s="208"/>
+      <c r="O27" s="208" t="s">
+        <v>185</v>
+      </c>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8520833333333599</v>
+        <v>4.1020833333333604</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41133,7 +41391,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6854166666666899</v>
+        <v>3.9354166666666899</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41178,7 +41436,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3520833333333599</v>
+        <v>3.6020833333333599</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41223,7 +41481,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3520833333333599</v>
+        <v>3.6020833333333599</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41268,7 +41526,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3520833333333599</v>
+        <v>3.6020833333333599</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41313,7 +41571,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3520833333333599</v>
+        <v>3.6020833333333599</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41358,7 +41616,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3520833333333599</v>
+        <v>3.6020833333333599</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41499,7 +41757,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>2.931944444444444</v>
+        <v>4.1819444444444436</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -41555,14 +41813,14 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>2.35208333333334</v>
+        <v>3.60208333333334</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K40" s="382" t="s">
         <v>112</v>
@@ -42004,7 +42262,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>2.01875000000001</v>
+        <v>3.26875000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42049,7 +42307,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>1.85208333333334</v>
+        <v>3.10208333333334</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42094,7 +42352,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51875000000001</v>
+        <v>2.76875000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42139,7 +42397,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51875000000001</v>
+        <v>2.76875000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42184,7 +42442,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51875000000001</v>
+        <v>2.76875000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42229,7 +42487,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51875000000001</v>
+        <v>2.76875000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42274,7 +42532,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.51875000000001</v>
+        <v>2.76875000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42319,7 +42577,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1854166666666801</v>
+        <v>2.4354166666666801</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42364,7 +42622,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.01875000000001</v>
+        <v>2.26875000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42409,7 +42667,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68541666666668</v>
+        <v>1.9354166666666801</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42454,7 +42712,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68541666666668</v>
+        <v>1.9354166666666801</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42499,7 +42757,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68541666666668</v>
+        <v>1.9354166666666801</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42544,7 +42802,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68541666666668</v>
+        <v>1.9354166666666801</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42589,7 +42847,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68541666666668</v>
+        <v>1.9354166666666801</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42634,7 +42892,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35208333333335001</v>
+        <v>1.60208333333335</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42679,7 +42937,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18541666666668</v>
+        <v>1.4354166666666801</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42724,7 +42982,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14791666666664999</v>
+        <v>1.10208333333335</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42769,7 +43027,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14791666666664999</v>
+        <v>1.10208333333335</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42814,7 +43072,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14791666666664999</v>
+        <v>1.10208333333335</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42859,7 +43117,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14791666666664999</v>
+        <v>1.10208333333335</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42904,7 +43162,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14791666666664999</v>
+        <v>1.10208333333335</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42949,7 +43207,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.48124999999998003</v>
+        <v>0.76875000000002003</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42994,7 +43252,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.64791666666665004</v>
+        <v>0.60208333333334996</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43039,7 +43297,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98124999999997997</v>
+        <v>0.26875000000001997</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43084,7 +43342,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98124999999997997</v>
+        <v>0.26875000000001997</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43129,7 +43387,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98124999999997997</v>
+        <v>0.26875000000001997</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43174,7 +43432,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98124999999997997</v>
+        <v>0.26875000000001997</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43219,7 +43477,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.98124999999997997</v>
+        <v>0.26875000000001997</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43264,7 +43522,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.3145833333333099</v>
+        <v>-6.4583333333309997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43309,7 +43567,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.48124999999998</v>
+        <v>-0.23124999999998</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43354,7 +43612,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8145833333333099</v>
+        <v>-0.56458333333331001</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -43385,7 +43643,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juni!F40</f>
-        <v>2.35208333333334</v>
+        <v>3.60208333333334</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -43506,7 +43764,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-1.8145833333333301</v>
+        <v>-0.56458333333333</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>

--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D6B962-5B21-4E57-B5C1-43F4E66B50B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66150DCA-5928-4CD2-914C-66BABEDE672F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="188">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>Results: The SPI and programming was successfully tested on the PCB</t>
+  </si>
+  <si>
+    <t>No Results: Osciloscope</t>
+  </si>
+  <si>
+    <t>No results: Touch Sensor</t>
   </si>
 </sst>
 </file>
@@ -5084,23 +5090,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="174" fontId="12" fillId="2" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -5121,31 +5110,44 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="173" fontId="2" fillId="3" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -5165,23 +5167,27 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -7521,6 +7527,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B14D5D-C0F5-445B-9861-59DBC7B48CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8853,6 +8913,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268E5CA4-2E4F-4812-A9AE-D1986C951D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9683,16 +9797,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,8,1)</f>
         <v>42582</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -9703,20 +9817,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -9724,11 +9838,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -9818,7 +9932,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.56458333333333</v>
+        <v>-5.5555555555500003E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9863,7 +9977,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.56458333333333</v>
+        <v>-5.5555555555500003E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9908,7 +10022,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.56458333333333</v>
+        <v>-5.5555555555500003E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9953,7 +10067,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.56458333333333</v>
+        <v>-5.5555555555500003E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9998,7 +10112,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.89791666666666003</v>
+        <v>-0.33888888888888002</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10043,7 +10157,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.0645833333333301</v>
+        <v>-0.50555555555554998</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10088,7 +10202,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.39791666666666</v>
+        <v>-0.83888888888888002</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10133,7 +10247,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.39791666666666</v>
+        <v>-0.83888888888888002</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10178,7 +10292,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.39791666666666</v>
+        <v>-0.83888888888888002</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10223,7 +10337,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.39791666666666</v>
+        <v>-0.83888888888888002</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10268,7 +10382,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.39791666666666</v>
+        <v>-0.83888888888888002</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10313,7 +10427,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.73124999999999</v>
+        <v>-1.1722222222222101</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10358,7 +10472,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.89791666666666</v>
+        <v>-1.3388888888888799</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10403,7 +10517,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.23124999999999</v>
+        <v>-1.6722222222222101</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10448,7 +10562,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.23124999999999</v>
+        <v>-1.6722222222222101</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10493,7 +10607,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.23124999999999</v>
+        <v>-1.6722222222222101</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10538,7 +10652,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.23124999999999</v>
+        <v>-1.6722222222222101</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10583,7 +10697,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.23124999999999</v>
+        <v>-1.6722222222222101</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10628,7 +10742,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.5645833333333199</v>
+        <v>-2.00555555555554</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10673,7 +10787,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.73124999999999</v>
+        <v>-2.1722222222222101</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10718,7 +10832,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.0645833333333199</v>
+        <v>-2.50555555555554</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10763,7 +10877,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.0645833333333199</v>
+        <v>-2.50555555555554</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10808,7 +10922,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.0645833333333199</v>
+        <v>-2.50555555555554</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10853,7 +10967,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.0645833333333199</v>
+        <v>-2.50555555555554</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10898,7 +11012,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.0645833333333199</v>
+        <v>-2.50555555555554</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10943,7 +11057,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3979166666666498</v>
+        <v>-2.8388888888888699</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10988,7 +11102,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.5645833333333199</v>
+        <v>-3.00555555555554</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11033,7 +11147,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8979166666666498</v>
+        <v>-3.3388888888888699</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11078,7 +11192,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8979166666666498</v>
+        <v>-3.3388888888888699</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11123,7 +11237,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8979166666666498</v>
+        <v>-3.3388888888888699</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11168,7 +11282,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8979166666666498</v>
+        <v>-3.3388888888888699</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -11199,7 +11313,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-0.56458333333333</v>
+        <v>-5.5555555555500003E-3</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -11208,13 +11322,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -11240,14 +11354,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -11273,13 +11387,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11298,13 +11412,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -11320,7 +11434,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-3.89791666666666</v>
+        <v>-3.3388888888888801</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -11329,13 +11443,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11370,14 +11484,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -11397,14 +11511,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -11428,14 +11542,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -11455,14 +11569,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -11482,14 +11596,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -11513,14 +11627,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -11529,21 +11643,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HkAoB08lQnZcu3f192wHDHZ/7j0BngIzul3D/9PsKIWyl+xayA7p7vUaZD7hH7rwZOkGohOgh1523AysAnGDfg==" saltValue="sE8nUvkPIzP17sbT/37lEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="73" priority="2">
@@ -11634,16 +11748,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,9,1)</f>
         <v>42613</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -11654,20 +11768,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -11675,11 +11789,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -11769,7 +11883,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-3.89791666666666</v>
+        <v>-3.3388888888888801</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11814,7 +11928,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-4.2312499999999904</v>
+        <v>-3.6722222222222101</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11859,7 +11973,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.39791666666666</v>
+        <v>-3.8388888888888801</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11904,7 +12018,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7312499999999904</v>
+        <v>-4.1722222222222101</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11949,7 +12063,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7312499999999904</v>
+        <v>-4.1722222222222101</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11994,7 +12108,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7312499999999904</v>
+        <v>-4.1722222222222101</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12039,7 +12153,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7312499999999904</v>
+        <v>-4.1722222222222101</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12084,7 +12198,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7312499999999904</v>
+        <v>-4.1722222222222101</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12129,7 +12243,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0645833333333199</v>
+        <v>-4.5055555555555404</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12174,7 +12288,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.2312499999999904</v>
+        <v>-4.6722222222222101</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12219,7 +12333,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5645833333333199</v>
+        <v>-5.0055555555555404</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12264,7 +12378,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5645833333333199</v>
+        <v>-5.0055555555555404</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12309,7 +12423,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5645833333333199</v>
+        <v>-5.0055555555555404</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12354,7 +12468,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5645833333333199</v>
+        <v>-5.0055555555555404</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12399,7 +12513,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5645833333333199</v>
+        <v>-5.0055555555555404</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12444,7 +12558,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8979166666666503</v>
+        <v>-5.3388888888888699</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12489,7 +12603,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.0645833333333199</v>
+        <v>-5.5055555555555404</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12534,7 +12648,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3979166666666503</v>
+        <v>-5.8388888888888699</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12579,7 +12693,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3979166666666503</v>
+        <v>-5.8388888888888699</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12624,7 +12738,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3979166666666503</v>
+        <v>-5.8388888888888699</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12669,7 +12783,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3979166666666503</v>
+        <v>-5.8388888888888699</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12714,7 +12828,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3979166666666503</v>
+        <v>-5.8388888888888699</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12759,7 +12873,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.7312499999999797</v>
+        <v>-6.1722222222222003</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12804,7 +12918,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.8979166666666503</v>
+        <v>-6.3388888888888699</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12849,7 +12963,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.2312499999999797</v>
+        <v>-6.6722222222222003</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12894,7 +13008,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.2312499999999797</v>
+        <v>-6.6722222222222003</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12939,7 +13053,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.2312499999999797</v>
+        <v>-6.6722222222222003</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12984,7 +13098,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.2312499999999797</v>
+        <v>-6.6722222222222003</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13029,7 +13143,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.2312499999999797</v>
+        <v>-6.6722222222222003</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13074,7 +13188,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5645833333333101</v>
+        <v>-7.0055555555555298</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13150,7 +13264,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-3.89791666666666</v>
+        <v>-3.3388888888888801</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -13159,13 +13273,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -13191,14 +13305,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -13224,13 +13338,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13249,13 +13363,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -13271,7 +13385,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-7.5645833333333297</v>
+        <v>-7.0055555555555502</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -13280,13 +13394,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13321,14 +13435,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -13348,14 +13462,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -13379,14 +13493,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -13406,14 +13520,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -13433,14 +13547,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -13464,14 +13578,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -13480,21 +13594,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WrJf3Le3I/KufBKgvBL84XO3UYX2zuYgLjnZ1rGaHSyWTCjiP7zkaZ7RngoDe7hgFgAEe/NFD80xutKnXk714A==" saltValue="LvVU6YLRvHqT2nS3BnwoDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="63" priority="2">
@@ -13585,16 +13699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,10,1)</f>
         <v>42643</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -13605,20 +13719,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -13626,11 +13740,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -13720,7 +13834,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-7.7312500000000002</v>
+        <v>-7.1722222222222198</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13765,7 +13879,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-8.0645833333333297</v>
+        <v>-7.5055555555555502</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13810,7 +13924,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.0645833333333297</v>
+        <v>-7.5055555555555502</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13855,7 +13969,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.0645833333333297</v>
+        <v>-7.5055555555555502</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13900,7 +14014,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.0645833333333297</v>
+        <v>-7.5055555555555502</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13945,7 +14059,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.0645833333333297</v>
+        <v>-7.5055555555555502</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13990,7 +14104,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.39791666666666</v>
+        <v>-7.8388888888888797</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14035,7 +14149,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.5645833333333297</v>
+        <v>-8.0055555555555493</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14080,7 +14194,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.89791666666666</v>
+        <v>-8.3388888888888797</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14125,7 +14239,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.89791666666666</v>
+        <v>-8.3388888888888797</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14170,7 +14284,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.89791666666666</v>
+        <v>-8.3388888888888797</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14215,7 +14329,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.89791666666666</v>
+        <v>-8.3388888888888797</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14260,7 +14374,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.89791666666666</v>
+        <v>-8.3388888888888797</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14305,7 +14419,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.2312499999999904</v>
+        <v>-8.6722222222222101</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14350,7 +14464,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.39791666666666</v>
+        <v>-8.8388888888888797</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14395,7 +14509,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7312499999999904</v>
+        <v>-9.1722222222222101</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14440,7 +14554,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7312499999999904</v>
+        <v>-9.1722222222222101</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14485,7 +14599,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7312499999999904</v>
+        <v>-9.1722222222222101</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14530,7 +14644,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7312499999999904</v>
+        <v>-9.1722222222222101</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14575,7 +14689,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7312499999999904</v>
+        <v>-9.1722222222222101</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14620,7 +14734,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.064583333333299</v>
+        <v>-9.5055555555555404</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14665,7 +14779,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.231249999999999</v>
+        <v>-9.6722222222222101</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14710,7 +14824,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.564583333333299</v>
+        <v>-10.0055555555555</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14755,7 +14869,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.564583333333299</v>
+        <v>-10.0055555555555</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14800,7 +14914,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.564583333333299</v>
+        <v>-10.0055555555555</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14845,7 +14959,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.564583333333299</v>
+        <v>-10.0055555555555</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14890,7 +15004,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.564583333333299</v>
+        <v>-10.0055555555555</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14935,7 +15049,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.8979166666666</v>
+        <v>-10.3388888888888</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14980,7 +15094,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.064583333333299</v>
+        <v>-10.5055555555555</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15025,7 +15139,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.3979166666666</v>
+        <v>-10.8388888888888</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15070,7 +15184,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.3979166666666</v>
+        <v>-10.8388888888888</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -15101,7 +15215,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-7.5645833333333297</v>
+        <v>-7.0055555555555502</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -15110,13 +15224,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -15142,14 +15256,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -15175,13 +15289,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15200,13 +15314,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -15222,7 +15336,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-11.397916666666699</v>
+        <v>-10.838888888888899</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -15231,13 +15345,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15272,14 +15386,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -15299,14 +15413,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -15330,14 +15444,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -15357,14 +15471,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -15384,14 +15498,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -15415,14 +15529,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -15431,21 +15545,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RthWpkefgasVF7mUvUEwcv1PAQ5dnb7jdJEdiAtCsTcYrr2DXtkCOKlt8KBAcaZdDCRYzq33+CroGdjHatAXYA==" saltValue="gix2Bx2zL9EvbIvQixmH2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="53" priority="2">
@@ -15536,16 +15650,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,11,1)</f>
         <v>42674</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -15556,20 +15670,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -15577,11 +15691,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -15671,7 +15785,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-11.397916666666699</v>
+        <v>-10.838888888888899</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15716,7 +15830,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-11.397916666666699</v>
+        <v>-10.838888888888899</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15761,7 +15875,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.397916666666699</v>
+        <v>-10.838888888888899</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15806,7 +15920,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.731249999999999</v>
+        <v>-11.172222222222199</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15851,7 +15965,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.897916666666699</v>
+        <v>-11.338888888888899</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15896,7 +16010,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.231249999999999</v>
+        <v>-11.672222222222199</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15941,7 +16055,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.231249999999999</v>
+        <v>-11.672222222222199</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15986,7 +16100,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.231249999999999</v>
+        <v>-11.672222222222199</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16031,7 +16145,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.231249999999999</v>
+        <v>-11.672222222222199</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16076,7 +16190,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.231249999999999</v>
+        <v>-11.672222222222199</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16121,7 +16235,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.564583333333299</v>
+        <v>-12.0055555555555</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16166,7 +16280,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.731249999999999</v>
+        <v>-12.172222222222199</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16211,7 +16325,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.064583333333299</v>
+        <v>-12.5055555555555</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16256,7 +16370,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.064583333333299</v>
+        <v>-12.5055555555555</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16301,7 +16415,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.064583333333299</v>
+        <v>-12.5055555555555</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16346,7 +16460,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.064583333333299</v>
+        <v>-12.5055555555555</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16391,7 +16505,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.064583333333299</v>
+        <v>-12.5055555555555</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16436,7 +16550,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.3979166666666</v>
+        <v>-12.8388888888888</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16481,7 +16595,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.564583333333299</v>
+        <v>-13.0055555555555</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16526,7 +16640,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.8979166666666</v>
+        <v>-13.3388888888888</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16571,7 +16685,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.8979166666666</v>
+        <v>-13.3388888888888</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16616,7 +16730,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.8979166666666</v>
+        <v>-13.3388888888888</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16661,7 +16775,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.8979166666666</v>
+        <v>-13.3388888888888</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16706,7 +16820,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.8979166666666</v>
+        <v>-13.3388888888888</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16751,7 +16865,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.2312499999999</v>
+        <v>-13.6722222222221</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16796,7 +16910,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.3979166666666</v>
+        <v>-13.8388888888888</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16841,7 +16955,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.7312499999999</v>
+        <v>-14.1722222222221</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16886,7 +17000,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.7312499999999</v>
+        <v>-14.1722222222221</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16931,7 +17045,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.7312499999999</v>
+        <v>-14.1722222222221</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16976,7 +17090,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.7312499999999</v>
+        <v>-14.1722222222221</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17052,7 +17166,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-11.397916666666699</v>
+        <v>-10.838888888888899</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -17061,13 +17175,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -17093,14 +17207,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -17126,13 +17240,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17151,13 +17265,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -17173,7 +17287,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-14.731249999999999</v>
+        <v>-14.172222222222199</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -17182,13 +17296,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17223,14 +17337,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -17250,14 +17364,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -17281,14 +17395,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -17308,14 +17422,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -17335,14 +17449,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -17366,14 +17480,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -17382,21 +17496,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BSHenHTjOeCLEK/Vhdt9DN47er8vHXKxixVq0zifYQ0YqDCLyIRjWwdu26DK6EbWV62R2jSYCaEOOJZMW8350Q==" saltValue="mrWUpOtdd6VsTAymx1hVrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="43" priority="2">
@@ -17487,16 +17601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,12,1)</f>
         <v>42704</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -17507,20 +17621,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -17528,11 +17642,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -17622,7 +17736,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-14.731249999999999</v>
+        <v>-14.172222222222199</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17667,7 +17781,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-15.064583333333299</v>
+        <v>-14.5055555555555</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17712,7 +17826,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.231249999999999</v>
+        <v>-14.672222222222199</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17757,7 +17871,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.564583333333299</v>
+        <v>-15.0055555555555</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17802,7 +17916,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.564583333333299</v>
+        <v>-15.0055555555555</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17847,7 +17961,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.564583333333299</v>
+        <v>-15.0055555555555</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17892,7 +18006,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.564583333333299</v>
+        <v>-15.0055555555555</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17937,7 +18051,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.564583333333299</v>
+        <v>-15.0055555555555</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17982,7 +18096,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8979166666666</v>
+        <v>-15.3388888888888</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18027,7 +18141,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.064583333333299</v>
+        <v>-15.5055555555555</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18072,7 +18186,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.3979166666666</v>
+        <v>-15.8388888888888</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18117,7 +18231,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.3979166666666</v>
+        <v>-15.8388888888888</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18162,7 +18276,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.3979166666666</v>
+        <v>-15.8388888888888</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18207,7 +18321,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.3979166666666</v>
+        <v>-15.8388888888888</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18252,7 +18366,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.3979166666666</v>
+        <v>-15.8388888888888</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18297,7 +18411,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.7312499999999</v>
+        <v>-16.1722222222221</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18342,7 +18456,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.8979166666666</v>
+        <v>-16.3388888888888</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18387,7 +18501,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.2312499999999</v>
+        <v>-16.6722222222221</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18432,7 +18546,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.2312499999999</v>
+        <v>-16.6722222222221</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18477,7 +18591,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.2312499999999</v>
+        <v>-16.6722222222221</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18522,7 +18636,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.2312499999999</v>
+        <v>-16.6722222222221</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18567,7 +18681,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.2312499999999</v>
+        <v>-16.6722222222221</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18612,7 +18726,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.5645833333332</v>
+        <v>-17.0055555555554</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18657,7 +18771,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666665</v>
+        <v>-17.0888888888887</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18702,7 +18816,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666665</v>
+        <v>-17.0888888888887</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18747,7 +18861,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666665</v>
+        <v>-17.0888888888887</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18792,7 +18906,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666665</v>
+        <v>-17.0888888888887</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18837,7 +18951,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666665</v>
+        <v>-17.0888888888887</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18882,7 +18996,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.6479166666665</v>
+        <v>-17.0888888888887</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18927,7 +19041,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.9812499999998</v>
+        <v>-17.422222222222</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18972,7 +19086,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.064583333333101</v>
+        <v>-17.505555555555301</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -19003,7 +19117,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-14.731249999999999</v>
+        <v>-14.172222222222199</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -19012,13 +19126,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -19044,14 +19158,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -19077,13 +19191,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19102,13 +19216,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -19124,7 +19238,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-18.064583333333299</v>
+        <v>-17.5055555555555</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -19133,13 +19247,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19174,14 +19288,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -19201,14 +19315,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -19232,14 +19346,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -19259,14 +19373,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -19286,14 +19400,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -19317,14 +19431,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -19333,21 +19447,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cxvY2DkTl/qvreVavAHZQiMD66UcFjhxoXVYD73h1/l0udHUCuS5sptsDftLSlvMcY2XaWQ5B33HtmQ912mInw==" saltValue="5c5gNlRNtYb15QfXriDQfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="33" priority="2">
@@ -19451,158 +19565,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="401" t="str">
+      <c r="A1" s="390"/>
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="391" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2020</v>
       </c>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
-      <c r="N1" s="401"/>
-      <c r="O1" s="401"/>
-      <c r="P1" s="401"/>
-      <c r="Q1" s="401"/>
-      <c r="R1" s="401"/>
-      <c r="S1" s="401"/>
-      <c r="T1" s="401"/>
-      <c r="U1" s="401"/>
-      <c r="V1" s="401"/>
-      <c r="W1" s="401"/>
-      <c r="X1" s="401"/>
-      <c r="Y1" s="401"/>
-      <c r="Z1" s="401"/>
-      <c r="AA1" s="401"/>
-      <c r="AB1" s="401"/>
-      <c r="AC1" s="401"/>
-      <c r="AD1" s="401"/>
-      <c r="AE1" s="401"/>
-      <c r="AF1" s="401"/>
-      <c r="AG1" s="401"/>
-      <c r="AH1" s="401"/>
-      <c r="AI1" s="402" t="str">
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
+      <c r="N1" s="391"/>
+      <c r="O1" s="391"/>
+      <c r="P1" s="391"/>
+      <c r="Q1" s="391"/>
+      <c r="R1" s="391"/>
+      <c r="S1" s="391"/>
+      <c r="T1" s="391"/>
+      <c r="U1" s="391"/>
+      <c r="V1" s="391"/>
+      <c r="W1" s="391"/>
+      <c r="X1" s="391"/>
+      <c r="Y1" s="391"/>
+      <c r="Z1" s="391"/>
+      <c r="AA1" s="391"/>
+      <c r="AB1" s="391"/>
+      <c r="AC1" s="391"/>
+      <c r="AD1" s="391"/>
+      <c r="AE1" s="391"/>
+      <c r="AF1" s="391"/>
+      <c r="AG1" s="391"/>
+      <c r="AH1" s="391"/>
+      <c r="AI1" s="392" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
+      <c r="AJ1" s="392"/>
+      <c r="AK1" s="392"/>
+      <c r="AL1" s="392"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="400"/>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="401"/>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="401"/>
-      <c r="S2" s="401"/>
-      <c r="T2" s="401"/>
-      <c r="U2" s="401"/>
-      <c r="V2" s="401"/>
-      <c r="W2" s="401"/>
-      <c r="X2" s="401"/>
-      <c r="Y2" s="401"/>
-      <c r="Z2" s="401"/>
-      <c r="AA2" s="401"/>
-      <c r="AB2" s="401"/>
-      <c r="AC2" s="401"/>
-      <c r="AD2" s="401"/>
-      <c r="AE2" s="401"/>
-      <c r="AF2" s="401"/>
-      <c r="AG2" s="401"/>
-      <c r="AH2" s="401"/>
-      <c r="AI2" s="403" t="str">
+      <c r="A2" s="390"/>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
+      <c r="I2" s="391"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="391"/>
+      <c r="O2" s="391"/>
+      <c r="P2" s="391"/>
+      <c r="Q2" s="391"/>
+      <c r="R2" s="391"/>
+      <c r="S2" s="391"/>
+      <c r="T2" s="391"/>
+      <c r="U2" s="391"/>
+      <c r="V2" s="391"/>
+      <c r="W2" s="391"/>
+      <c r="X2" s="391"/>
+      <c r="Y2" s="391"/>
+      <c r="Z2" s="391"/>
+      <c r="AA2" s="391"/>
+      <c r="AB2" s="391"/>
+      <c r="AC2" s="391"/>
+      <c r="AD2" s="391"/>
+      <c r="AE2" s="391"/>
+      <c r="AF2" s="391"/>
+      <c r="AG2" s="391"/>
+      <c r="AH2" s="391"/>
+      <c r="AI2" s="393" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="AJ2" s="403"/>
-      <c r="AK2" s="403"/>
-      <c r="AL2" s="403"/>
+      <c r="AJ2" s="393"/>
+      <c r="AK2" s="393"/>
+      <c r="AL2" s="393"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="404" t="s">
+      <c r="B3" s="394" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="404"/>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404" t="s">
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="404"/>
-      <c r="G3" s="404"/>
-      <c r="H3" s="404" t="s">
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="404"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404" t="s">
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="394" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
-      <c r="N3" s="404" t="s">
+      <c r="L3" s="394"/>
+      <c r="M3" s="394"/>
+      <c r="N3" s="394" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="404"/>
-      <c r="P3" s="404"/>
-      <c r="Q3" s="404" t="s">
+      <c r="O3" s="394"/>
+      <c r="P3" s="394"/>
+      <c r="Q3" s="394" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="404"/>
-      <c r="S3" s="404"/>
-      <c r="T3" s="404" t="s">
+      <c r="R3" s="394"/>
+      <c r="S3" s="394"/>
+      <c r="T3" s="394" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="404"/>
-      <c r="V3" s="404"/>
-      <c r="W3" s="404" t="s">
+      <c r="U3" s="394"/>
+      <c r="V3" s="394"/>
+      <c r="W3" s="394" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="404"/>
-      <c r="Y3" s="404"/>
-      <c r="Z3" s="404" t="s">
+      <c r="X3" s="394"/>
+      <c r="Y3" s="394"/>
+      <c r="Z3" s="394" t="s">
         <v>137</v>
       </c>
-      <c r="AA3" s="404"/>
-      <c r="AB3" s="404"/>
-      <c r="AC3" s="404" t="s">
+      <c r="AA3" s="394"/>
+      <c r="AB3" s="394"/>
+      <c r="AC3" s="394" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" s="404"/>
-      <c r="AE3" s="404"/>
-      <c r="AF3" s="404" t="s">
+      <c r="AD3" s="394"/>
+      <c r="AE3" s="394"/>
+      <c r="AF3" s="394" t="s">
         <v>139</v>
       </c>
-      <c r="AG3" s="404"/>
-      <c r="AH3" s="404"/>
-      <c r="AI3" s="404" t="s">
+      <c r="AG3" s="394"/>
+      <c r="AH3" s="394"/>
+      <c r="AI3" s="394" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="404"/>
-      <c r="AK3" s="404"/>
+      <c r="AJ3" s="394"/>
+      <c r="AK3" s="394"/>
       <c r="AL3" s="282" t="s">
         <v>95</v>
       </c>
@@ -20751,9 +20865,9 @@
         <f>Juli!A11</f>
         <v>42558</v>
       </c>
-      <c r="U11" s="294" t="str">
+      <c r="U11" s="294">
         <f>IF(Juli!K11&gt;0,Juli!K11,"")</f>
-        <v/>
+        <v>0.37152777777777773</v>
       </c>
       <c r="V11" s="298" t="str">
         <f>IF(OR(Juli!C11="",Juli!J11&lt;&gt;""),UPPER(Juli!J11),"F")</f>
@@ -23779,9 +23893,9 @@
         <f>Juni!A31</f>
         <v>42548</v>
       </c>
-      <c r="R31" s="294" t="str">
+      <c r="R31" s="294">
         <f>IF(Juni!K31&gt;0,Juni!K31,"")</f>
-        <v/>
+        <v>0.18750000000000003</v>
       </c>
       <c r="S31" s="299" t="str">
         <f>IF(OR(Juni!C31="",Juni!J31&lt;&gt;""),UPPER(Juni!J31),"F")</f>
@@ -24323,77 +24437,77 @@
       <c r="A35" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="396">
+      <c r="B35" s="395">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="396"/>
+      <c r="C35" s="395"/>
       <c r="D35" s="311"/>
-      <c r="E35" s="396">
+      <c r="E35" s="395">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="396"/>
+      <c r="F35" s="395"/>
       <c r="G35" s="312"/>
-      <c r="H35" s="397">
+      <c r="H35" s="396">
         <f ca="1">März!F37</f>
         <v>0</v>
       </c>
-      <c r="I35" s="397"/>
+      <c r="I35" s="396"/>
       <c r="J35" s="313"/>
-      <c r="K35" s="396">
+      <c r="K35" s="395">
         <f ca="1">April!F37</f>
         <v>3.4999999999999991</v>
       </c>
-      <c r="L35" s="396"/>
+      <c r="L35" s="395"/>
       <c r="M35" s="312"/>
-      <c r="N35" s="397">
+      <c r="N35" s="396">
         <f ca="1">Mai!F37</f>
         <v>3.1666666666666652</v>
       </c>
-      <c r="O35" s="397"/>
+      <c r="O35" s="396"/>
       <c r="P35" s="313"/>
-      <c r="Q35" s="396">
+      <c r="Q35" s="395">
         <f ca="1">Juni!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="R35" s="396"/>
+      <c r="R35" s="395"/>
       <c r="S35" s="312"/>
-      <c r="T35" s="397">
+      <c r="T35" s="396">
         <f ca="1">Juli!F37</f>
         <v>4.1666666666666652</v>
       </c>
-      <c r="U35" s="397"/>
+      <c r="U35" s="396"/>
       <c r="V35" s="313"/>
-      <c r="W35" s="396">
+      <c r="W35" s="395">
         <f ca="1">August!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="X35" s="396"/>
+      <c r="X35" s="395"/>
       <c r="Y35" s="312"/>
-      <c r="Z35" s="397">
+      <c r="Z35" s="396">
         <f ca="1">September!F37</f>
         <v>3.6666666666666652</v>
       </c>
-      <c r="AA35" s="397"/>
+      <c r="AA35" s="396"/>
       <c r="AB35" s="313"/>
-      <c r="AC35" s="396">
+      <c r="AC35" s="395">
         <f ca="1">Oktober!F37</f>
         <v>3.8333333333333321</v>
       </c>
-      <c r="AD35" s="396"/>
+      <c r="AD35" s="395"/>
       <c r="AE35" s="312"/>
-      <c r="AF35" s="397">
+      <c r="AF35" s="396">
         <f ca="1">November!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AG35" s="397"/>
+      <c r="AG35" s="396"/>
       <c r="AH35" s="313"/>
-      <c r="AI35" s="396">
+      <c r="AI35" s="395">
         <f ca="1">Dezember!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AJ35" s="396"/>
+      <c r="AJ35" s="395"/>
       <c r="AK35" s="312"/>
       <c r="AL35" s="314">
         <f t="shared" ref="AL35:AL49" ca="1" si="0">SUM(B35:AK35)</f>
@@ -24404,243 +24518,243 @@
       <c r="A36" s="315" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="398">
+      <c r="B36" s="397">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="398"/>
+      <c r="C36" s="397"/>
       <c r="D36" s="316"/>
-      <c r="E36" s="398">
+      <c r="E36" s="397">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="398"/>
+      <c r="F36" s="397"/>
       <c r="G36" s="317"/>
-      <c r="H36" s="399">
+      <c r="H36" s="398">
         <f>März!F38</f>
         <v>0.33333333333333498</v>
       </c>
-      <c r="I36" s="399"/>
+      <c r="I36" s="398"/>
       <c r="J36" s="318"/>
-      <c r="K36" s="398">
+      <c r="K36" s="397">
         <f>April!F38</f>
         <v>4.5625000000000018</v>
       </c>
-      <c r="L36" s="398"/>
+      <c r="L36" s="397"/>
       <c r="M36" s="317"/>
-      <c r="N36" s="399">
+      <c r="N36" s="398">
         <f>Mai!F38</f>
         <v>4.5243055555555554</v>
       </c>
-      <c r="O36" s="399"/>
+      <c r="O36" s="398"/>
       <c r="P36" s="318"/>
-      <c r="Q36" s="398">
+      <c r="Q36" s="397">
         <f>Juni!F38</f>
-        <v>4.1819444444444436</v>
-      </c>
-      <c r="R36" s="398"/>
+        <v>4.3694444444444436</v>
+      </c>
+      <c r="R36" s="397"/>
       <c r="S36" s="317"/>
-      <c r="T36" s="399">
+      <c r="T36" s="398">
         <f>Juli!F38</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="399"/>
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="U36" s="398"/>
       <c r="V36" s="318"/>
-      <c r="W36" s="398">
+      <c r="W36" s="397">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="398"/>
+      <c r="X36" s="397"/>
       <c r="Y36" s="317"/>
-      <c r="Z36" s="399">
+      <c r="Z36" s="398">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="399"/>
+      <c r="AA36" s="398"/>
       <c r="AB36" s="318"/>
-      <c r="AC36" s="398">
+      <c r="AC36" s="397">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="398"/>
+      <c r="AD36" s="397"/>
       <c r="AE36" s="317"/>
-      <c r="AF36" s="399">
+      <c r="AF36" s="398">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="399"/>
+      <c r="AG36" s="398"/>
       <c r="AH36" s="318"/>
-      <c r="AI36" s="398">
+      <c r="AI36" s="397">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="398"/>
+      <c r="AJ36" s="397"/>
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>13.602083333333336</v>
+        <v>14.161111111111115</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="320" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="393">
+      <c r="B37" s="399">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="393"/>
+      <c r="C37" s="399"/>
       <c r="D37" s="321"/>
-      <c r="E37" s="393">
+      <c r="E37" s="399">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="393"/>
+      <c r="F37" s="399"/>
       <c r="G37" s="322"/>
-      <c r="H37" s="394">
+      <c r="H37" s="400">
         <f ca="1">ROUND(H36-H35,10)</f>
         <v>0.33333333329999998</v>
       </c>
-      <c r="I37" s="394"/>
+      <c r="I37" s="400"/>
       <c r="J37" s="323"/>
-      <c r="K37" s="393">
+      <c r="K37" s="399">
         <f ca="1">ROUND(K36-K35,10)</f>
         <v>1.0625</v>
       </c>
-      <c r="L37" s="393"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="322"/>
-      <c r="N37" s="394">
+      <c r="N37" s="400">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>1.3576388889</v>
       </c>
-      <c r="O37" s="394"/>
+      <c r="O37" s="400"/>
       <c r="P37" s="323"/>
-      <c r="Q37" s="393">
+      <c r="Q37" s="399">
         <f ca="1">ROUND(Q36-Q35,10)</f>
-        <v>0.84861111109999998</v>
-      </c>
-      <c r="R37" s="393"/>
+        <v>1.0361111111000001</v>
+      </c>
+      <c r="R37" s="399"/>
       <c r="S37" s="322"/>
-      <c r="T37" s="394">
+      <c r="T37" s="400">
         <f ca="1">ROUND(T36-T35,10)</f>
-        <v>-4.1666666667000003</v>
-      </c>
-      <c r="U37" s="394"/>
+        <v>-3.7951388889</v>
+      </c>
+      <c r="U37" s="400"/>
       <c r="V37" s="323"/>
-      <c r="W37" s="393">
+      <c r="W37" s="399">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="X37" s="393"/>
+      <c r="X37" s="399"/>
       <c r="Y37" s="322"/>
-      <c r="Z37" s="394">
+      <c r="Z37" s="400">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>-3.6666666666999999</v>
       </c>
-      <c r="AA37" s="394"/>
+      <c r="AA37" s="400"/>
       <c r="AB37" s="323"/>
-      <c r="AC37" s="393">
+      <c r="AC37" s="399">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>-3.8333333333000001</v>
       </c>
-      <c r="AD37" s="393"/>
+      <c r="AD37" s="399"/>
       <c r="AE37" s="322"/>
-      <c r="AF37" s="394">
+      <c r="AF37" s="400">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AG37" s="394"/>
+      <c r="AG37" s="400"/>
       <c r="AH37" s="323"/>
-      <c r="AI37" s="393">
+      <c r="AI37" s="399">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AJ37" s="393"/>
+      <c r="AJ37" s="399"/>
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.0645833333</v>
+        <v>-17.505555555499999</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="401">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="395"/>
-      <c r="D38" s="395"/>
-      <c r="E38" s="395">
+      <c r="C38" s="401"/>
+      <c r="D38" s="401"/>
+      <c r="E38" s="401">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="395"/>
-      <c r="G38" s="395"/>
-      <c r="H38" s="395">
+      <c r="F38" s="401"/>
+      <c r="G38" s="401"/>
+      <c r="H38" s="401">
         <f>März!J40</f>
         <v>0</v>
       </c>
-      <c r="I38" s="395"/>
-      <c r="J38" s="395"/>
-      <c r="K38" s="395">
+      <c r="I38" s="401"/>
+      <c r="J38" s="401"/>
+      <c r="K38" s="401">
         <f>April!J40</f>
         <v>6</v>
       </c>
-      <c r="L38" s="395"/>
-      <c r="M38" s="395"/>
-      <c r="N38" s="395">
+      <c r="L38" s="401"/>
+      <c r="M38" s="401"/>
+      <c r="N38" s="401">
         <f>Mai!J40</f>
         <v>17</v>
       </c>
-      <c r="O38" s="395"/>
-      <c r="P38" s="395"/>
-      <c r="Q38" s="395">
+      <c r="O38" s="401"/>
+      <c r="P38" s="401"/>
+      <c r="Q38" s="401">
         <f>Juni!J40</f>
-        <v>13</v>
-      </c>
-      <c r="R38" s="395"/>
-      <c r="S38" s="395"/>
-      <c r="T38" s="395">
+        <v>14</v>
+      </c>
+      <c r="R38" s="401"/>
+      <c r="S38" s="401"/>
+      <c r="T38" s="401">
         <f>Juli!J40</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="395"/>
-      <c r="V38" s="395"/>
-      <c r="W38" s="395">
+        <v>1</v>
+      </c>
+      <c r="U38" s="401"/>
+      <c r="V38" s="401"/>
+      <c r="W38" s="401">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="395"/>
-      <c r="Y38" s="395"/>
-      <c r="Z38" s="395">
+      <c r="X38" s="401"/>
+      <c r="Y38" s="401"/>
+      <c r="Z38" s="401">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="395"/>
-      <c r="AB38" s="395"/>
-      <c r="AC38" s="395">
+      <c r="AA38" s="401"/>
+      <c r="AB38" s="401"/>
+      <c r="AC38" s="401">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="395"/>
-      <c r="AE38" s="395"/>
-      <c r="AF38" s="395">
+      <c r="AD38" s="401"/>
+      <c r="AE38" s="401"/>
+      <c r="AF38" s="401">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="395"/>
-      <c r="AH38" s="395"/>
-      <c r="AI38" s="395">
+      <c r="AG38" s="401"/>
+      <c r="AH38" s="401"/>
+      <c r="AI38" s="401">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="395"/>
-      <c r="AK38" s="395"/>
+      <c r="AJ38" s="401"/>
+      <c r="AK38" s="401"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -24648,78 +24762,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B39" s="391">
+      <c r="B39" s="402">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="391"/>
-      <c r="D39" s="391"/>
-      <c r="E39" s="391">
+      <c r="C39" s="402"/>
+      <c r="D39" s="402"/>
+      <c r="E39" s="402">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F39" s="391"/>
-      <c r="G39" s="391"/>
-      <c r="H39" s="391">
+      <c r="F39" s="402"/>
+      <c r="G39" s="402"/>
+      <c r="H39" s="402">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I39" s="391"/>
-      <c r="J39" s="391"/>
-      <c r="K39" s="391">
+      <c r="I39" s="402"/>
+      <c r="J39" s="402"/>
+      <c r="K39" s="402">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L39" s="391"/>
-      <c r="M39" s="391"/>
-      <c r="N39" s="391">
+      <c r="L39" s="402"/>
+      <c r="M39" s="402"/>
+      <c r="N39" s="402">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O39" s="391"/>
-      <c r="P39" s="391"/>
-      <c r="Q39" s="391">
+      <c r="O39" s="402"/>
+      <c r="P39" s="402"/>
+      <c r="Q39" s="402">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R39" s="391"/>
-      <c r="S39" s="391"/>
-      <c r="T39" s="391">
+      <c r="R39" s="402"/>
+      <c r="S39" s="402"/>
+      <c r="T39" s="402">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U39" s="391"/>
-      <c r="V39" s="391"/>
-      <c r="W39" s="391">
+      <c r="U39" s="402"/>
+      <c r="V39" s="402"/>
+      <c r="W39" s="402">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X39" s="391"/>
-      <c r="Y39" s="391"/>
-      <c r="Z39" s="391">
+      <c r="X39" s="402"/>
+      <c r="Y39" s="402"/>
+      <c r="Z39" s="402">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="391"/>
-      <c r="AB39" s="391"/>
-      <c r="AC39" s="391">
+      <c r="AA39" s="402"/>
+      <c r="AB39" s="402"/>
+      <c r="AC39" s="402">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="391"/>
-      <c r="AE39" s="391"/>
-      <c r="AF39" s="391">
+      <c r="AD39" s="402"/>
+      <c r="AE39" s="402"/>
+      <c r="AF39" s="402">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="391"/>
-      <c r="AH39" s="391"/>
-      <c r="AI39" s="391">
+      <c r="AG39" s="402"/>
+      <c r="AH39" s="402"/>
+      <c r="AI39" s="402">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="391"/>
-      <c r="AK39" s="391"/>
+      <c r="AJ39" s="402"/>
+      <c r="AK39" s="402"/>
       <c r="AL39" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24730,78 +24844,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B40" s="391">
+      <c r="B40" s="402">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="391"/>
-      <c r="D40" s="391"/>
-      <c r="E40" s="391">
+      <c r="C40" s="402"/>
+      <c r="D40" s="402"/>
+      <c r="E40" s="402">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F40" s="391"/>
-      <c r="G40" s="391"/>
-      <c r="H40" s="391">
+      <c r="F40" s="402"/>
+      <c r="G40" s="402"/>
+      <c r="H40" s="402">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I40" s="391"/>
-      <c r="J40" s="391"/>
-      <c r="K40" s="391">
+      <c r="I40" s="402"/>
+      <c r="J40" s="402"/>
+      <c r="K40" s="402">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L40" s="391"/>
-      <c r="M40" s="391"/>
-      <c r="N40" s="391">
+      <c r="L40" s="402"/>
+      <c r="M40" s="402"/>
+      <c r="N40" s="402">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O40" s="391"/>
-      <c r="P40" s="391"/>
-      <c r="Q40" s="391">
+      <c r="O40" s="402"/>
+      <c r="P40" s="402"/>
+      <c r="Q40" s="402">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R40" s="391"/>
-      <c r="S40" s="391"/>
-      <c r="T40" s="391">
+      <c r="R40" s="402"/>
+      <c r="S40" s="402"/>
+      <c r="T40" s="402">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U40" s="391"/>
-      <c r="V40" s="391"/>
-      <c r="W40" s="391">
+      <c r="U40" s="402"/>
+      <c r="V40" s="402"/>
+      <c r="W40" s="402">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X40" s="391"/>
-      <c r="Y40" s="391"/>
-      <c r="Z40" s="391">
+      <c r="X40" s="402"/>
+      <c r="Y40" s="402"/>
+      <c r="Z40" s="402">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="391"/>
-      <c r="AB40" s="391"/>
-      <c r="AC40" s="391">
+      <c r="AA40" s="402"/>
+      <c r="AB40" s="402"/>
+      <c r="AC40" s="402">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="391"/>
-      <c r="AE40" s="391"/>
-      <c r="AF40" s="391">
+      <c r="AD40" s="402"/>
+      <c r="AE40" s="402"/>
+      <c r="AF40" s="402">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="391"/>
-      <c r="AH40" s="391"/>
-      <c r="AI40" s="391">
+      <c r="AG40" s="402"/>
+      <c r="AH40" s="402"/>
+      <c r="AI40" s="402">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="391"/>
-      <c r="AK40" s="391"/>
+      <c r="AJ40" s="402"/>
+      <c r="AK40" s="402"/>
       <c r="AL40" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24812,78 +24926,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B41" s="391">
+      <c r="B41" s="402">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C41" s="391"/>
-      <c r="D41" s="391"/>
-      <c r="E41" s="391">
+      <c r="C41" s="402"/>
+      <c r="D41" s="402"/>
+      <c r="E41" s="402">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F41" s="391"/>
-      <c r="G41" s="391"/>
-      <c r="H41" s="391">
+      <c r="F41" s="402"/>
+      <c r="G41" s="402"/>
+      <c r="H41" s="402">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I41" s="391"/>
-      <c r="J41" s="391"/>
-      <c r="K41" s="391">
+      <c r="I41" s="402"/>
+      <c r="J41" s="402"/>
+      <c r="K41" s="402">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L41" s="391"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="391">
+      <c r="L41" s="402"/>
+      <c r="M41" s="402"/>
+      <c r="N41" s="402">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O41" s="391"/>
-      <c r="P41" s="391"/>
-      <c r="Q41" s="391">
+      <c r="O41" s="402"/>
+      <c r="P41" s="402"/>
+      <c r="Q41" s="402">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R41" s="391"/>
-      <c r="S41" s="391"/>
-      <c r="T41" s="391">
+      <c r="R41" s="402"/>
+      <c r="S41" s="402"/>
+      <c r="T41" s="402">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U41" s="391"/>
-      <c r="V41" s="391"/>
-      <c r="W41" s="391">
+      <c r="U41" s="402"/>
+      <c r="V41" s="402"/>
+      <c r="W41" s="402">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X41" s="391"/>
-      <c r="Y41" s="391"/>
-      <c r="Z41" s="391">
+      <c r="X41" s="402"/>
+      <c r="Y41" s="402"/>
+      <c r="Z41" s="402">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="391"/>
-      <c r="AB41" s="391"/>
-      <c r="AC41" s="391">
+      <c r="AA41" s="402"/>
+      <c r="AB41" s="402"/>
+      <c r="AC41" s="402">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="391"/>
-      <c r="AE41" s="391"/>
-      <c r="AF41" s="391">
+      <c r="AD41" s="402"/>
+      <c r="AE41" s="402"/>
+      <c r="AF41" s="402">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="391"/>
-      <c r="AH41" s="391"/>
-      <c r="AI41" s="391">
+      <c r="AG41" s="402"/>
+      <c r="AH41" s="402"/>
+      <c r="AI41" s="402">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="391"/>
-      <c r="AK41" s="391"/>
+      <c r="AJ41" s="402"/>
+      <c r="AK41" s="402"/>
       <c r="AL41" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24894,78 +25008,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B42" s="391">
+      <c r="B42" s="402">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C42" s="391"/>
-      <c r="D42" s="391"/>
-      <c r="E42" s="391">
+      <c r="C42" s="402"/>
+      <c r="D42" s="402"/>
+      <c r="E42" s="402">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F42" s="391"/>
-      <c r="G42" s="391"/>
-      <c r="H42" s="391">
+      <c r="F42" s="402"/>
+      <c r="G42" s="402"/>
+      <c r="H42" s="402">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I42" s="391"/>
-      <c r="J42" s="391"/>
-      <c r="K42" s="391">
+      <c r="I42" s="402"/>
+      <c r="J42" s="402"/>
+      <c r="K42" s="402">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L42" s="391"/>
-      <c r="M42" s="391"/>
-      <c r="N42" s="391">
+      <c r="L42" s="402"/>
+      <c r="M42" s="402"/>
+      <c r="N42" s="402">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O42" s="391"/>
-      <c r="P42" s="391"/>
-      <c r="Q42" s="391">
+      <c r="O42" s="402"/>
+      <c r="P42" s="402"/>
+      <c r="Q42" s="402">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R42" s="391"/>
-      <c r="S42" s="391"/>
-      <c r="T42" s="391">
+      <c r="R42" s="402"/>
+      <c r="S42" s="402"/>
+      <c r="T42" s="402">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U42" s="391"/>
-      <c r="V42" s="391"/>
-      <c r="W42" s="391">
+      <c r="U42" s="402"/>
+      <c r="V42" s="402"/>
+      <c r="W42" s="402">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X42" s="391"/>
-      <c r="Y42" s="391"/>
-      <c r="Z42" s="391">
+      <c r="X42" s="402"/>
+      <c r="Y42" s="402"/>
+      <c r="Z42" s="402">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="391"/>
-      <c r="AB42" s="391"/>
-      <c r="AC42" s="391">
+      <c r="AA42" s="402"/>
+      <c r="AB42" s="402"/>
+      <c r="AC42" s="402">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="391"/>
-      <c r="AE42" s="391"/>
-      <c r="AF42" s="391">
+      <c r="AD42" s="402"/>
+      <c r="AE42" s="402"/>
+      <c r="AF42" s="402">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="391"/>
-      <c r="AH42" s="391"/>
-      <c r="AI42" s="391">
+      <c r="AG42" s="402"/>
+      <c r="AH42" s="402"/>
+      <c r="AI42" s="402">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="391"/>
-      <c r="AK42" s="391"/>
+      <c r="AJ42" s="402"/>
+      <c r="AK42" s="402"/>
       <c r="AL42" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24976,78 +25090,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B43" s="391">
+      <c r="B43" s="402">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C43" s="391"/>
-      <c r="D43" s="391"/>
-      <c r="E43" s="391">
+      <c r="C43" s="402"/>
+      <c r="D43" s="402"/>
+      <c r="E43" s="402">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F43" s="391"/>
-      <c r="G43" s="391"/>
-      <c r="H43" s="391">
+      <c r="F43" s="402"/>
+      <c r="G43" s="402"/>
+      <c r="H43" s="402">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I43" s="391"/>
-      <c r="J43" s="391"/>
-      <c r="K43" s="391">
+      <c r="I43" s="402"/>
+      <c r="J43" s="402"/>
+      <c r="K43" s="402">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L43" s="391"/>
-      <c r="M43" s="391"/>
-      <c r="N43" s="391">
+      <c r="L43" s="402"/>
+      <c r="M43" s="402"/>
+      <c r="N43" s="402">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O43" s="391"/>
-      <c r="P43" s="391"/>
-      <c r="Q43" s="391">
+      <c r="O43" s="402"/>
+      <c r="P43" s="402"/>
+      <c r="Q43" s="402">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R43" s="391"/>
-      <c r="S43" s="391"/>
-      <c r="T43" s="391">
+      <c r="R43" s="402"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="402">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U43" s="391"/>
-      <c r="V43" s="391"/>
-      <c r="W43" s="391">
+      <c r="U43" s="402"/>
+      <c r="V43" s="402"/>
+      <c r="W43" s="402">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X43" s="391"/>
-      <c r="Y43" s="391"/>
-      <c r="Z43" s="391">
+      <c r="X43" s="402"/>
+      <c r="Y43" s="402"/>
+      <c r="Z43" s="402">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="391"/>
-      <c r="AB43" s="391"/>
-      <c r="AC43" s="391">
+      <c r="AA43" s="402"/>
+      <c r="AB43" s="402"/>
+      <c r="AC43" s="402">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="391"/>
-      <c r="AE43" s="391"/>
-      <c r="AF43" s="391">
+      <c r="AD43" s="402"/>
+      <c r="AE43" s="402"/>
+      <c r="AF43" s="402">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="391"/>
-      <c r="AH43" s="391"/>
-      <c r="AI43" s="391">
+      <c r="AG43" s="402"/>
+      <c r="AH43" s="402"/>
+      <c r="AI43" s="402">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="391"/>
-      <c r="AK43" s="391"/>
+      <c r="AJ43" s="402"/>
+      <c r="AK43" s="402"/>
       <c r="AL43" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25058,78 +25172,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B44" s="391" t="str">
+      <c r="B44" s="402" t="str">
         <f>Januar!J43</f>
         <v/>
       </c>
-      <c r="C44" s="391"/>
-      <c r="D44" s="391"/>
-      <c r="E44" s="391" t="str">
+      <c r="C44" s="402"/>
+      <c r="D44" s="402"/>
+      <c r="E44" s="402" t="str">
         <f>Februar!J43</f>
         <v/>
       </c>
-      <c r="F44" s="391"/>
-      <c r="G44" s="391"/>
-      <c r="H44" s="391" t="str">
+      <c r="F44" s="402"/>
+      <c r="G44" s="402"/>
+      <c r="H44" s="402" t="str">
         <f>März!J43</f>
         <v/>
       </c>
-      <c r="I44" s="391"/>
-      <c r="J44" s="391"/>
-      <c r="K44" s="391" t="str">
+      <c r="I44" s="402"/>
+      <c r="J44" s="402"/>
+      <c r="K44" s="402" t="str">
         <f>April!J43</f>
         <v/>
       </c>
-      <c r="L44" s="391"/>
-      <c r="M44" s="391"/>
-      <c r="N44" s="391" t="str">
+      <c r="L44" s="402"/>
+      <c r="M44" s="402"/>
+      <c r="N44" s="402" t="str">
         <f>Mai!J43</f>
         <v/>
       </c>
-      <c r="O44" s="391"/>
-      <c r="P44" s="391"/>
-      <c r="Q44" s="391" t="str">
+      <c r="O44" s="402"/>
+      <c r="P44" s="402"/>
+      <c r="Q44" s="402" t="str">
         <f>Juni!J43</f>
         <v/>
       </c>
-      <c r="R44" s="391"/>
-      <c r="S44" s="391"/>
-      <c r="T44" s="391" t="str">
+      <c r="R44" s="402"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="402" t="str">
         <f>Juli!J43</f>
         <v/>
       </c>
-      <c r="U44" s="391"/>
-      <c r="V44" s="391"/>
-      <c r="W44" s="391" t="str">
+      <c r="U44" s="402"/>
+      <c r="V44" s="402"/>
+      <c r="W44" s="402" t="str">
         <f>August!J43</f>
         <v/>
       </c>
-      <c r="X44" s="391"/>
-      <c r="Y44" s="391"/>
-      <c r="Z44" s="391" t="str">
+      <c r="X44" s="402"/>
+      <c r="Y44" s="402"/>
+      <c r="Z44" s="402" t="str">
         <f>September!J43</f>
         <v/>
       </c>
-      <c r="AA44" s="391"/>
-      <c r="AB44" s="391"/>
-      <c r="AC44" s="391" t="str">
+      <c r="AA44" s="402"/>
+      <c r="AB44" s="402"/>
+      <c r="AC44" s="402" t="str">
         <f>Oktober!J43</f>
         <v/>
       </c>
-      <c r="AD44" s="391"/>
-      <c r="AE44" s="391"/>
-      <c r="AF44" s="391" t="str">
+      <c r="AD44" s="402"/>
+      <c r="AE44" s="402"/>
+      <c r="AF44" s="402" t="str">
         <f>November!J43</f>
         <v/>
       </c>
-      <c r="AG44" s="391"/>
-      <c r="AH44" s="391"/>
-      <c r="AI44" s="391" t="str">
+      <c r="AG44" s="402"/>
+      <c r="AH44" s="402"/>
+      <c r="AI44" s="402" t="str">
         <f>Dezember!J43</f>
         <v/>
       </c>
-      <c r="AJ44" s="391"/>
-      <c r="AK44" s="391"/>
+      <c r="AJ44" s="402"/>
+      <c r="AK44" s="402"/>
       <c r="AL44" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25140,78 +25254,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B45" s="391" t="str">
+      <c r="B45" s="402" t="str">
         <f>Januar!J44</f>
         <v/>
       </c>
-      <c r="C45" s="391"/>
-      <c r="D45" s="391"/>
-      <c r="E45" s="391" t="str">
+      <c r="C45" s="402"/>
+      <c r="D45" s="402"/>
+      <c r="E45" s="402" t="str">
         <f>Februar!J44</f>
         <v/>
       </c>
-      <c r="F45" s="391"/>
-      <c r="G45" s="391"/>
-      <c r="H45" s="391" t="str">
+      <c r="F45" s="402"/>
+      <c r="G45" s="402"/>
+      <c r="H45" s="402" t="str">
         <f>März!J44</f>
         <v/>
       </c>
-      <c r="I45" s="391"/>
-      <c r="J45" s="391"/>
-      <c r="K45" s="391" t="str">
+      <c r="I45" s="402"/>
+      <c r="J45" s="402"/>
+      <c r="K45" s="402" t="str">
         <f>April!J44</f>
         <v/>
       </c>
-      <c r="L45" s="391"/>
-      <c r="M45" s="391"/>
-      <c r="N45" s="391" t="str">
+      <c r="L45" s="402"/>
+      <c r="M45" s="402"/>
+      <c r="N45" s="402" t="str">
         <f>Mai!J44</f>
         <v/>
       </c>
-      <c r="O45" s="391"/>
-      <c r="P45" s="391"/>
-      <c r="Q45" s="391" t="str">
+      <c r="O45" s="402"/>
+      <c r="P45" s="402"/>
+      <c r="Q45" s="402" t="str">
         <f>Juni!J44</f>
         <v/>
       </c>
-      <c r="R45" s="391"/>
-      <c r="S45" s="391"/>
-      <c r="T45" s="391" t="str">
+      <c r="R45" s="402"/>
+      <c r="S45" s="402"/>
+      <c r="T45" s="402" t="str">
         <f>Juli!J44</f>
         <v/>
       </c>
-      <c r="U45" s="391"/>
-      <c r="V45" s="391"/>
-      <c r="W45" s="391" t="str">
+      <c r="U45" s="402"/>
+      <c r="V45" s="402"/>
+      <c r="W45" s="402" t="str">
         <f>August!J44</f>
         <v/>
       </c>
-      <c r="X45" s="391"/>
-      <c r="Y45" s="391"/>
-      <c r="Z45" s="391" t="str">
+      <c r="X45" s="402"/>
+      <c r="Y45" s="402"/>
+      <c r="Z45" s="402" t="str">
         <f>September!J44</f>
         <v/>
       </c>
-      <c r="AA45" s="391"/>
-      <c r="AB45" s="391"/>
-      <c r="AC45" s="391" t="str">
+      <c r="AA45" s="402"/>
+      <c r="AB45" s="402"/>
+      <c r="AC45" s="402" t="str">
         <f>Oktober!J44</f>
         <v/>
       </c>
-      <c r="AD45" s="391"/>
-      <c r="AE45" s="391"/>
-      <c r="AF45" s="391" t="str">
+      <c r="AD45" s="402"/>
+      <c r="AE45" s="402"/>
+      <c r="AF45" s="402" t="str">
         <f>November!J44</f>
         <v/>
       </c>
-      <c r="AG45" s="391"/>
-      <c r="AH45" s="391"/>
-      <c r="AI45" s="391" t="str">
+      <c r="AG45" s="402"/>
+      <c r="AH45" s="402"/>
+      <c r="AI45" s="402" t="str">
         <f>Dezember!J44</f>
         <v/>
       </c>
-      <c r="AJ45" s="391"/>
-      <c r="AK45" s="391"/>
+      <c r="AJ45" s="402"/>
+      <c r="AK45" s="402"/>
       <c r="AL45" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25222,78 +25336,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B46" s="391" t="str">
+      <c r="B46" s="402" t="str">
         <f>Januar!J45</f>
         <v/>
       </c>
-      <c r="C46" s="391"/>
-      <c r="D46" s="391"/>
-      <c r="E46" s="391" t="str">
+      <c r="C46" s="402"/>
+      <c r="D46" s="402"/>
+      <c r="E46" s="402" t="str">
         <f>Februar!J45</f>
         <v/>
       </c>
-      <c r="F46" s="391"/>
-      <c r="G46" s="391"/>
-      <c r="H46" s="391" t="str">
+      <c r="F46" s="402"/>
+      <c r="G46" s="402"/>
+      <c r="H46" s="402" t="str">
         <f>März!J45</f>
         <v/>
       </c>
-      <c r="I46" s="391"/>
-      <c r="J46" s="391"/>
-      <c r="K46" s="391" t="str">
+      <c r="I46" s="402"/>
+      <c r="J46" s="402"/>
+      <c r="K46" s="402" t="str">
         <f>April!J45</f>
         <v/>
       </c>
-      <c r="L46" s="391"/>
-      <c r="M46" s="391"/>
-      <c r="N46" s="391" t="str">
+      <c r="L46" s="402"/>
+      <c r="M46" s="402"/>
+      <c r="N46" s="402" t="str">
         <f>Mai!J45</f>
         <v/>
       </c>
-      <c r="O46" s="391"/>
-      <c r="P46" s="391"/>
-      <c r="Q46" s="391" t="str">
+      <c r="O46" s="402"/>
+      <c r="P46" s="402"/>
+      <c r="Q46" s="402" t="str">
         <f>Juni!J45</f>
         <v/>
       </c>
-      <c r="R46" s="391"/>
-      <c r="S46" s="391"/>
-      <c r="T46" s="391" t="str">
+      <c r="R46" s="402"/>
+      <c r="S46" s="402"/>
+      <c r="T46" s="402" t="str">
         <f>Juli!J45</f>
         <v/>
       </c>
-      <c r="U46" s="391"/>
-      <c r="V46" s="391"/>
-      <c r="W46" s="391" t="str">
+      <c r="U46" s="402"/>
+      <c r="V46" s="402"/>
+      <c r="W46" s="402" t="str">
         <f>August!J45</f>
         <v/>
       </c>
-      <c r="X46" s="391"/>
-      <c r="Y46" s="391"/>
-      <c r="Z46" s="391" t="str">
+      <c r="X46" s="402"/>
+      <c r="Y46" s="402"/>
+      <c r="Z46" s="402" t="str">
         <f>September!J45</f>
         <v/>
       </c>
-      <c r="AA46" s="391"/>
-      <c r="AB46" s="391"/>
-      <c r="AC46" s="391" t="str">
+      <c r="AA46" s="402"/>
+      <c r="AB46" s="402"/>
+      <c r="AC46" s="402" t="str">
         <f>Oktober!J45</f>
         <v/>
       </c>
-      <c r="AD46" s="391"/>
-      <c r="AE46" s="391"/>
-      <c r="AF46" s="391" t="str">
+      <c r="AD46" s="402"/>
+      <c r="AE46" s="402"/>
+      <c r="AF46" s="402" t="str">
         <f>November!J45</f>
         <v/>
       </c>
-      <c r="AG46" s="391"/>
-      <c r="AH46" s="391"/>
-      <c r="AI46" s="391" t="str">
+      <c r="AG46" s="402"/>
+      <c r="AH46" s="402"/>
+      <c r="AI46" s="402" t="str">
         <f>Dezember!J45</f>
         <v/>
       </c>
-      <c r="AJ46" s="391"/>
-      <c r="AK46" s="391"/>
+      <c r="AJ46" s="402"/>
+      <c r="AK46" s="402"/>
       <c r="AL46" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25304,78 +25418,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B47" s="391" t="str">
+      <c r="B47" s="402" t="str">
         <f>Januar!J46</f>
         <v/>
       </c>
-      <c r="C47" s="391"/>
-      <c r="D47" s="391"/>
-      <c r="E47" s="391" t="str">
+      <c r="C47" s="402"/>
+      <c r="D47" s="402"/>
+      <c r="E47" s="402" t="str">
         <f>Februar!J46</f>
         <v/>
       </c>
-      <c r="F47" s="391"/>
-      <c r="G47" s="391"/>
-      <c r="H47" s="391" t="str">
+      <c r="F47" s="402"/>
+      <c r="G47" s="402"/>
+      <c r="H47" s="402" t="str">
         <f>März!J46</f>
         <v/>
       </c>
-      <c r="I47" s="391"/>
-      <c r="J47" s="391"/>
-      <c r="K47" s="391" t="str">
+      <c r="I47" s="402"/>
+      <c r="J47" s="402"/>
+      <c r="K47" s="402" t="str">
         <f>April!J46</f>
         <v/>
       </c>
-      <c r="L47" s="391"/>
-      <c r="M47" s="391"/>
-      <c r="N47" s="391" t="str">
+      <c r="L47" s="402"/>
+      <c r="M47" s="402"/>
+      <c r="N47" s="402" t="str">
         <f>Mai!J46</f>
         <v/>
       </c>
-      <c r="O47" s="391"/>
-      <c r="P47" s="391"/>
-      <c r="Q47" s="391" t="str">
+      <c r="O47" s="402"/>
+      <c r="P47" s="402"/>
+      <c r="Q47" s="402" t="str">
         <f>Juni!J46</f>
         <v/>
       </c>
-      <c r="R47" s="391"/>
-      <c r="S47" s="391"/>
-      <c r="T47" s="391" t="str">
+      <c r="R47" s="402"/>
+      <c r="S47" s="402"/>
+      <c r="T47" s="402" t="str">
         <f>Juli!J46</f>
         <v/>
       </c>
-      <c r="U47" s="391"/>
-      <c r="V47" s="391"/>
-      <c r="W47" s="391" t="str">
+      <c r="U47" s="402"/>
+      <c r="V47" s="402"/>
+      <c r="W47" s="402" t="str">
         <f>August!J46</f>
         <v/>
       </c>
-      <c r="X47" s="391"/>
-      <c r="Y47" s="391"/>
-      <c r="Z47" s="391" t="str">
+      <c r="X47" s="402"/>
+      <c r="Y47" s="402"/>
+      <c r="Z47" s="402" t="str">
         <f>September!J46</f>
         <v/>
       </c>
-      <c r="AA47" s="391"/>
-      <c r="AB47" s="391"/>
-      <c r="AC47" s="391" t="str">
+      <c r="AA47" s="402"/>
+      <c r="AB47" s="402"/>
+      <c r="AC47" s="402" t="str">
         <f>Oktober!J46</f>
         <v/>
       </c>
-      <c r="AD47" s="391"/>
-      <c r="AE47" s="391"/>
-      <c r="AF47" s="391" t="str">
+      <c r="AD47" s="402"/>
+      <c r="AE47" s="402"/>
+      <c r="AF47" s="402" t="str">
         <f>November!J46</f>
         <v/>
       </c>
-      <c r="AG47" s="391"/>
-      <c r="AH47" s="391"/>
-      <c r="AI47" s="391" t="str">
+      <c r="AG47" s="402"/>
+      <c r="AH47" s="402"/>
+      <c r="AI47" s="402" t="str">
         <f>Dezember!J46</f>
         <v/>
       </c>
-      <c r="AJ47" s="391"/>
-      <c r="AK47" s="391"/>
+      <c r="AJ47" s="402"/>
+      <c r="AK47" s="402"/>
       <c r="AL47" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25386,78 +25500,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B48" s="392" t="str">
+      <c r="B48" s="403" t="str">
         <f>Januar!J47</f>
         <v/>
       </c>
-      <c r="C48" s="392"/>
-      <c r="D48" s="392"/>
-      <c r="E48" s="392" t="str">
+      <c r="C48" s="403"/>
+      <c r="D48" s="403"/>
+      <c r="E48" s="403" t="str">
         <f>Februar!J47</f>
         <v/>
       </c>
-      <c r="F48" s="392"/>
-      <c r="G48" s="392"/>
-      <c r="H48" s="392" t="str">
+      <c r="F48" s="403"/>
+      <c r="G48" s="403"/>
+      <c r="H48" s="403" t="str">
         <f>März!J47</f>
         <v/>
       </c>
-      <c r="I48" s="392"/>
-      <c r="J48" s="392"/>
-      <c r="K48" s="392" t="str">
+      <c r="I48" s="403"/>
+      <c r="J48" s="403"/>
+      <c r="K48" s="403" t="str">
         <f>April!J47</f>
         <v/>
       </c>
-      <c r="L48" s="392"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="392" t="str">
+      <c r="L48" s="403"/>
+      <c r="M48" s="403"/>
+      <c r="N48" s="403" t="str">
         <f>Mai!J47</f>
         <v/>
       </c>
-      <c r="O48" s="392"/>
-      <c r="P48" s="392"/>
-      <c r="Q48" s="392" t="str">
+      <c r="O48" s="403"/>
+      <c r="P48" s="403"/>
+      <c r="Q48" s="403" t="str">
         <f>Juni!J47</f>
         <v/>
       </c>
-      <c r="R48" s="392"/>
-      <c r="S48" s="392"/>
-      <c r="T48" s="392" t="str">
+      <c r="R48" s="403"/>
+      <c r="S48" s="403"/>
+      <c r="T48" s="403" t="str">
         <f>Juli!J47</f>
         <v/>
       </c>
-      <c r="U48" s="392"/>
-      <c r="V48" s="392"/>
-      <c r="W48" s="392" t="str">
+      <c r="U48" s="403"/>
+      <c r="V48" s="403"/>
+      <c r="W48" s="403" t="str">
         <f>August!J47</f>
         <v/>
       </c>
-      <c r="X48" s="392"/>
-      <c r="Y48" s="392"/>
-      <c r="Z48" s="392" t="str">
+      <c r="X48" s="403"/>
+      <c r="Y48" s="403"/>
+      <c r="Z48" s="403" t="str">
         <f>September!J47</f>
         <v/>
       </c>
-      <c r="AA48" s="392"/>
-      <c r="AB48" s="392"/>
-      <c r="AC48" s="392" t="str">
+      <c r="AA48" s="403"/>
+      <c r="AB48" s="403"/>
+      <c r="AC48" s="403" t="str">
         <f>Oktober!J47</f>
         <v/>
       </c>
-      <c r="AD48" s="392"/>
-      <c r="AE48" s="392"/>
-      <c r="AF48" s="392" t="str">
+      <c r="AD48" s="403"/>
+      <c r="AE48" s="403"/>
+      <c r="AF48" s="403" t="str">
         <f>November!J47</f>
         <v/>
       </c>
-      <c r="AG48" s="392"/>
-      <c r="AH48" s="392"/>
-      <c r="AI48" s="392" t="str">
+      <c r="AG48" s="403"/>
+      <c r="AH48" s="403"/>
+      <c r="AI48" s="403" t="str">
         <f>Dezember!J47</f>
         <v/>
       </c>
-      <c r="AJ48" s="392"/>
-      <c r="AK48" s="392"/>
+      <c r="AJ48" s="403"/>
+      <c r="AK48" s="403"/>
       <c r="AL48" s="330">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25467,78 +25581,78 @@
       <c r="A49" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="390">
+      <c r="B49" s="404">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="390"/>
-      <c r="D49" s="390"/>
-      <c r="E49" s="390">
+      <c r="C49" s="404"/>
+      <c r="D49" s="404"/>
+      <c r="E49" s="404">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F49" s="390"/>
-      <c r="G49" s="390"/>
-      <c r="H49" s="390">
+      <c r="F49" s="404"/>
+      <c r="G49" s="404"/>
+      <c r="H49" s="404">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I49" s="390"/>
-      <c r="J49" s="390"/>
-      <c r="K49" s="390">
+      <c r="I49" s="404"/>
+      <c r="J49" s="404"/>
+      <c r="K49" s="404">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L49" s="390"/>
-      <c r="M49" s="390"/>
-      <c r="N49" s="390">
+      <c r="L49" s="404"/>
+      <c r="M49" s="404"/>
+      <c r="N49" s="404">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O49" s="390"/>
-      <c r="P49" s="390"/>
-      <c r="Q49" s="390">
+      <c r="O49" s="404"/>
+      <c r="P49" s="404"/>
+      <c r="Q49" s="404">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R49" s="390"/>
-      <c r="S49" s="390"/>
-      <c r="T49" s="390">
+      <c r="R49" s="404"/>
+      <c r="S49" s="404"/>
+      <c r="T49" s="404">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U49" s="390"/>
-      <c r="V49" s="390"/>
-      <c r="W49" s="390">
+      <c r="U49" s="404"/>
+      <c r="V49" s="404"/>
+      <c r="W49" s="404">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X49" s="390"/>
-      <c r="Y49" s="390"/>
-      <c r="Z49" s="390">
+      <c r="X49" s="404"/>
+      <c r="Y49" s="404"/>
+      <c r="Z49" s="404">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="390"/>
-      <c r="AB49" s="390"/>
-      <c r="AC49" s="390">
+      <c r="AA49" s="404"/>
+      <c r="AB49" s="404"/>
+      <c r="AC49" s="404">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="390"/>
-      <c r="AE49" s="390"/>
-      <c r="AF49" s="390">
+      <c r="AD49" s="404"/>
+      <c r="AE49" s="404"/>
+      <c r="AF49" s="404">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="390"/>
-      <c r="AH49" s="390"/>
-      <c r="AI49" s="390">
+      <c r="AG49" s="404"/>
+      <c r="AH49" s="404"/>
+      <c r="AI49" s="404">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="390"/>
-      <c r="AK49" s="390"/>
+      <c r="AJ49" s="404"/>
+      <c r="AK49" s="404"/>
       <c r="AL49" s="332">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25547,22 +25661,162 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NAjAwljj5JLvGzE8LseGj02m9hGGtNOxZYyQ4RYzLUwmhLc0GdS/WayRdfnZYrqGRN4HeHSkhJxjaDM3q7ar7w==" saltValue="QdbqNTRdSMrA/zOfFCB8ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="196">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AI48:AK48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AF35:AG35"/>
     <mergeCell ref="AI35:AJ35"/>
@@ -25587,162 +25841,22 @@
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="W35:X35"/>
     <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="AI48:AK48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="23" priority="2">
@@ -29362,11 +29476,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="Q1:S1"/>
@@ -29374,6 +29483,11 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -29417,7 +29531,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29438,7 +29552,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29465,7 +29579,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>10.799999999999999</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -30048,16 +30162,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,1,1)</f>
         <v>42369</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -30068,20 +30182,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -30089,11 +30203,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
@@ -30115,10 +30229,10 @@
       <c r="G3" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="382" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="382"/>
       <c r="J3" s="178" t="s">
         <v>25</v>
       </c>
@@ -31572,13 +31686,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -31603,14 +31717,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -31635,13 +31749,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31659,13 +31773,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -31689,13 +31803,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31710,14 +31824,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -31734,14 +31848,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -31762,14 +31876,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -31786,14 +31900,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -31810,14 +31924,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -31838,14 +31952,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -31854,21 +31968,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lp/gUAhG/NxZFg3ZxNZpc/OMzuBWhvAjWYsACyturmzwEz4MrdPY4Z7bq2mhYT4TO4KC+V+re4wY95aL7XG1tQ==" saltValue="hjUq3gkEjcUTitg1OCiokA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="144" priority="2">
@@ -31951,16 +32065,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,2,1)</f>
         <v>42400</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -31971,20 +32085,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -31992,11 +32106,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -33476,13 +33590,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -33508,14 +33622,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -33541,13 +33655,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33566,13 +33680,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -33597,13 +33711,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33638,14 +33752,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -33665,14 +33779,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -33696,14 +33810,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -33723,14 +33837,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -33750,14 +33864,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -33781,14 +33895,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -33797,21 +33911,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="okIzBtHKggQ01MGGC2bszYk91StqozcmrYdftDgOilTYlvdE0Pl7X/6VKmLBwp+KgXmMJxumD3QyyxK99J0gUQ==" saltValue="ZOtWP+MiiqCmy7p7S++Ahg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="136" priority="2">
@@ -33902,16 +34016,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,3,1)</f>
         <v>42429</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -33922,20 +34036,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -33943,11 +34057,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -35443,13 +35557,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -35475,14 +35589,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -35508,13 +35622,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35533,13 +35647,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -35564,13 +35678,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35605,14 +35719,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -35632,14 +35746,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -35663,14 +35777,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -35690,14 +35804,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -35717,14 +35831,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -35748,14 +35862,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -35764,21 +35878,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8bs5maBzQkpyWCWnfl5Y0EE0IEYlqNMuKPAycQ9E2wZgEzT6ibfX2pN8bX4JzzAJkR75IpPZSDHXpEZi94/j+w==" saltValue="YxFepfb/JmJZGcAKQ4IRSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="126" priority="2">
@@ -35869,16 +35983,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,4,1)</f>
         <v>42460</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -35889,20 +36003,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -35910,11 +36024,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -37552,13 +37666,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -37584,14 +37698,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -37617,13 +37731,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37642,13 +37756,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -37673,13 +37787,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>6</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37714,14 +37828,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -37741,14 +37855,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -37772,14 +37886,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -37799,14 +37913,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -37826,14 +37940,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -37857,14 +37971,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -37873,21 +37987,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oi4D8G4bpKsjvNQAOV1IVD5oC246U1tsOknZR5CKhoaFKJim1Y4VsiD+22BHLJMb/nIlWvWONK0BmT35EEtHBw==" saltValue="4I5lsQG8NfttgzRFKQim+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="116" priority="2">
@@ -37959,9 +38073,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -37983,16 +38097,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,5,1)</f>
         <v>42490</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -38003,20 +38117,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -38024,11 +38138,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -39638,13 +39752,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -39670,14 +39784,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -39703,13 +39817,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39728,13 +39842,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -39759,13 +39873,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>17</v>
       </c>
-      <c r="K40" s="382" t="s">
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39800,14 +39914,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -39827,14 +39941,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -39858,14 +39972,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -39885,14 +39999,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -39912,14 +40026,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -39943,14 +40057,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -39959,21 +40073,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QE1OXV5P+vCQbWDCwyrZigSC30Vre5KDIK3YefI6iJ2kBvo5eJZ3P2WpMdeyjVmOLwE7gtGXH8QYo5l1KTRF3g==" saltValue="r1rnDj8jh4CoB2lzDE4Hjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="105" priority="2">
@@ -40049,8 +40163,8 @@
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -40072,16 +40186,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,6,1)</f>
         <v>42521</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -40092,20 +40206,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -40113,11 +40227,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -41497,11 +41611,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
+      <c r="D31" s="200">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E31" s="200">
+        <v>0.75</v>
+      </c>
       <c r="F31" s="200"/>
       <c r="G31" s="200"/>
-      <c r="H31" s="201"/>
+      <c r="H31" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I31" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -41509,7 +41629,7 @@
       <c r="J31" s="203"/>
       <c r="K31" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18750000000000003</v>
       </c>
       <c r="L31" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -41517,16 +41637,18 @@
       </c>
       <c r="M31" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="N31" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O31" s="208"/>
+      <c r="O31" s="208" t="s">
+        <v>186</v>
+      </c>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6020833333333599</v>
+        <v>3.7895833333333599</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41571,7 +41693,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6020833333333599</v>
+        <v>3.7895833333333599</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41616,7 +41738,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6020833333333599</v>
+        <v>3.7895833333333599</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41701,13 +41823,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -41733,14 +41855,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -41757,7 +41879,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>4.1819444444444436</v>
+        <v>4.3694444444444436</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -41766,13 +41888,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41791,13 +41913,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -41813,22 +41935,22 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>3.60208333333334</v>
+        <v>3.78958333333334</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>13</v>
-      </c>
-      <c r="K40" s="382" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41863,14 +41985,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -41890,14 +42012,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -41921,14 +42043,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -41948,14 +42070,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -41975,14 +42097,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -42006,14 +42128,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -42022,21 +42144,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FLGQGPkIrZFJRYfIzM5dNAg+vmhj9bs+eX+BsfoXkS85xz/DWFzyxzWRzBLXdkZU/6+8Lk0XkXSRD1REULPCKQ==" saltValue="/ZQvF5XqnLB5M3rbo0of0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="93" priority="2">
@@ -42103,9 +42225,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -42127,16 +42249,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="384">
+      <c r="A1" s="379">
         <f>DATE(Jahr,7,1)</f>
         <v>42551</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="384"/>
-      <c r="E1" s="384"/>
-      <c r="F1" s="384"/>
-      <c r="G1" s="384"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -42147,20 +42269,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="385" t="str">
+      <c r="O1" s="380" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="385"/>
+      <c r="P1" s="380"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="384"/>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -42168,11 +42290,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="386" t="str">
+      <c r="O2" s="381" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="386"/>
+      <c r="P2" s="381"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -42262,7 +42384,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>3.26875000000001</v>
+        <v>3.45625000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42307,7 +42429,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>3.10208333333334</v>
+        <v>3.28958333333334</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42352,7 +42474,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.76875000000001</v>
+        <v>2.95625000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42397,7 +42519,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.76875000000001</v>
+        <v>2.95625000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42442,7 +42564,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.76875000000001</v>
+        <v>2.95625000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42487,7 +42609,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.76875000000001</v>
+        <v>2.95625000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42532,7 +42654,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.76875000000001</v>
+        <v>2.95625000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42548,19 +42670,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
+      <c r="D11" s="200">
+        <v>0.40625</v>
+      </c>
+      <c r="E11" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F11" s="200"/>
       <c r="G11" s="200"/>
-      <c r="H11" s="201"/>
+      <c r="H11" s="201">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I11" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J11" s="203"/>
       <c r="K11" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="L11" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -42568,16 +42696,18 @@
       </c>
       <c r="M11" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>3.819444444444E-2</v>
       </c>
       <c r="N11" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O11" s="208"/>
+      <c r="O11" s="208" t="s">
+        <v>187</v>
+      </c>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4354166666666801</v>
+        <v>2.9944444444444498</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42622,7 +42752,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.26875000000001</v>
+        <v>2.8277777777777802</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42667,7 +42797,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9354166666666801</v>
+        <v>2.4944444444444498</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42712,7 +42842,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9354166666666801</v>
+        <v>2.4944444444444498</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42757,7 +42887,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9354166666666801</v>
+        <v>2.4944444444444498</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42802,7 +42932,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9354166666666801</v>
+        <v>2.4944444444444498</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42847,7 +42977,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9354166666666801</v>
+        <v>2.4944444444444498</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42892,7 +43022,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.60208333333335</v>
+        <v>2.1611111111111199</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42937,7 +43067,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4354166666666801</v>
+        <v>1.99444444444445</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42982,7 +43112,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.10208333333335</v>
+        <v>1.6611111111111201</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43027,7 +43157,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.10208333333335</v>
+        <v>1.6611111111111201</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43072,7 +43202,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.10208333333335</v>
+        <v>1.6611111111111201</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43117,7 +43247,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.10208333333335</v>
+        <v>1.6611111111111201</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43162,7 +43292,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.10208333333335</v>
+        <v>1.6611111111111201</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43207,7 +43337,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.76875000000002003</v>
+        <v>1.3277777777777899</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43252,7 +43382,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.60208333333334996</v>
+        <v>1.1611111111111201</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43297,7 +43427,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26875000000001997</v>
+        <v>0.82777777777779005</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43342,7 +43472,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26875000000001997</v>
+        <v>0.82777777777779005</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43387,7 +43517,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26875000000001997</v>
+        <v>0.82777777777779005</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43432,7 +43562,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26875000000001997</v>
+        <v>0.82777777777779005</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43477,7 +43607,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26875000000001997</v>
+        <v>0.82777777777779005</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43522,7 +43652,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.4583333333309997E-2</v>
+        <v>0.49444444444446001</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43567,7 +43697,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.23124999999998</v>
+        <v>0.32777777777778999</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43612,7 +43742,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.56458333333331001</v>
+        <v>-5.5555555555399996E-3</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -43643,7 +43773,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juni!F40</f>
-        <v>3.60208333333334</v>
+        <v>3.78958333333334</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -43652,13 +43782,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="388" t="s">
+      <c r="K36" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="388"/>
-      <c r="M36" s="388"/>
-      <c r="N36" s="388"/>
-      <c r="O36" s="388"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -43684,14 +43814,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="381" t="str">
+      <c r="K37" s="384" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="381"/>
-      <c r="M37" s="381"/>
-      <c r="N37" s="381"/>
-      <c r="O37" s="381"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -43708,7 +43838,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>0</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -43717,13 +43847,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="381" t="s">
+      <c r="K38" s="384" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="381"/>
-      <c r="M38" s="381"/>
-      <c r="N38" s="381"/>
-      <c r="O38" s="381"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384"/>
+      <c r="O38" s="384"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43742,13 +43872,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="384" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="381"/>
-      <c r="M39" s="381"/>
-      <c r="N39" s="381"/>
-      <c r="O39" s="381"/>
+      <c r="L39" s="384"/>
+      <c r="M39" s="384"/>
+      <c r="N39" s="384"/>
+      <c r="O39" s="384"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -43764,22 +43894,22 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.56458333333333</v>
+        <v>-5.5555555555500003E-3</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="382" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="382"/>
-      <c r="M40" s="382"/>
-      <c r="N40" s="382"/>
-      <c r="O40" s="382"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="385"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43814,14 +43944,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="383" t="str">
+      <c r="K42" s="386" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="383"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="383"/>
-      <c r="O42" s="383"/>
+      <c r="L42" s="386"/>
+      <c r="M42" s="386"/>
+      <c r="N42" s="386"/>
+      <c r="O42" s="386"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -43841,14 +43971,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="379" t="str">
+      <c r="K43" s="387" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="379"/>
-      <c r="M43" s="379"/>
-      <c r="N43" s="379"/>
-      <c r="O43" s="379"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387"/>
+      <c r="O43" s="387"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -43872,14 +44002,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="379" t="str">
+      <c r="K44" s="387" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="379"/>
-      <c r="M44" s="379"/>
-      <c r="N44" s="379"/>
-      <c r="O44" s="379"/>
+      <c r="L44" s="387"/>
+      <c r="M44" s="387"/>
+      <c r="N44" s="387"/>
+      <c r="O44" s="387"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -43899,14 +44029,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="379" t="str">
+      <c r="K45" s="387" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="379"/>
-      <c r="M45" s="379"/>
-      <c r="N45" s="379"/>
-      <c r="O45" s="379"/>
+      <c r="L45" s="387"/>
+      <c r="M45" s="387"/>
+      <c r="N45" s="387"/>
+      <c r="O45" s="387"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -43926,14 +44056,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="379" t="str">
+      <c r="K46" s="387" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="379"/>
+      <c r="L46" s="387"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="387"/>
+      <c r="O46" s="387"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -43957,14 +44087,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="380" t="str">
+      <c r="K47" s="388" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="380"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="380"/>
-      <c r="O47" s="380"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -43973,21 +44103,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nomVLiSrDW6BfAYDAAIKepzv9c2fIXYLpRACXJd2H6GVs9wfhFNHh71b99zQzqGFAVmbKlb4Q6ZmMw43Z1PLzg==" saltValue="Qh9BryrLdDjvbd7vasrV7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="83" priority="2">

--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit_Docs\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66150DCA-5928-4CD2-914C-66BABEDE672F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DFC83-03F1-4649-A542-746358147BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voreinstellungen" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="195">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -713,6 +713,27 @@
   </si>
   <si>
     <t>No results: Touch Sensor</t>
+  </si>
+  <si>
+    <t>Results: SPI on DigiAnalizer,LAN9252 Access, RWR reliable</t>
+  </si>
+  <si>
+    <t>Results: Wireshark ECAT frames</t>
+  </si>
+  <si>
+    <t>No results: USB Hub components</t>
+  </si>
+  <si>
+    <t>No results: USB HUB Final design</t>
+  </si>
+  <si>
+    <t>No Results: ECAT frames attempt</t>
+  </si>
+  <si>
+    <t>No results: Touch Sensor Final Design</t>
+  </si>
+  <si>
+    <t>Part Results: Library compiled</t>
   </si>
 </sst>
 </file>
@@ -5090,6 +5111,23 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="174" fontId="12" fillId="2" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -5110,25 +5148,48 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="173" fontId="2" fillId="3" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5148,46 +5209,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -7581,6 +7602,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FA4D4C-4967-4A42-8EA6-09E59438D1CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8967,6 +9042,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8270BC3-34C6-4265-8233-4115D967CAD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9797,16 +9926,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,8,1)</f>
         <v>42582</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -9817,20 +9946,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -9838,11 +9967,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -9932,7 +10061,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-5.5555555555500003E-3</v>
+        <v>2.2027777777777899</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9977,7 +10106,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-5.5555555555500003E-3</v>
+        <v>2.2027777777777899</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10022,7 +10151,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5555555555500003E-3</v>
+        <v>2.2027777777777899</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10067,7 +10196,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5555555555500003E-3</v>
+        <v>2.2027777777777899</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10112,7 +10241,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.33888888888888002</v>
+        <v>1.86944444444446</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10157,7 +10286,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.50555555555554998</v>
+        <v>1.7027777777777899</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10202,7 +10331,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.83888888888888002</v>
+        <v>1.36944444444446</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10247,7 +10376,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.83888888888888002</v>
+        <v>1.36944444444446</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10292,7 +10421,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.83888888888888002</v>
+        <v>1.36944444444446</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10337,7 +10466,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.83888888888888002</v>
+        <v>1.36944444444446</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10382,7 +10511,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.83888888888888002</v>
+        <v>1.36944444444446</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10427,7 +10556,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1722222222222101</v>
+        <v>1.0361111111111301</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10472,7 +10601,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.3388888888888799</v>
+        <v>0.86944444444446001</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10517,7 +10646,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6722222222222101</v>
+        <v>0.53611111111112997</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10562,7 +10691,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6722222222222101</v>
+        <v>0.53611111111112997</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10607,7 +10736,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6722222222222101</v>
+        <v>0.53611111111112997</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10652,7 +10781,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6722222222222101</v>
+        <v>0.53611111111112997</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10697,7 +10826,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6722222222222101</v>
+        <v>0.53611111111112997</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10742,7 +10871,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.00555555555554</v>
+        <v>0.20277777777780001</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10787,7 +10916,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.1722222222222101</v>
+        <v>3.6111111111130002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10832,7 +10961,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.50555555555554</v>
+        <v>-0.29722222222220002</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10877,7 +11006,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.50555555555554</v>
+        <v>-0.29722222222220002</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10922,7 +11051,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.50555555555554</v>
+        <v>-0.29722222222220002</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10967,7 +11096,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.50555555555554</v>
+        <v>-0.29722222222220002</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11012,7 +11141,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.50555555555554</v>
+        <v>-0.29722222222220002</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11057,7 +11186,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8388888888888699</v>
+        <v>-0.63055555555553</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11102,7 +11231,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.00555555555554</v>
+        <v>-0.79722222222219996</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11147,7 +11276,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3388888888888699</v>
+        <v>-1.13055555555553</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11192,7 +11321,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3388888888888699</v>
+        <v>-1.13055555555553</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11237,7 +11366,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3388888888888699</v>
+        <v>-1.13055555555553</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11282,7 +11411,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3388888888888699</v>
+        <v>-1.13055555555553</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -11313,7 +11442,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-5.5555555555500003E-3</v>
+        <v>2.2027777777777899</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -11322,13 +11451,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -11354,14 +11483,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -11387,13 +11516,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11412,13 +11541,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -11434,7 +11563,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-3.3388888888888801</v>
+        <v>-1.13055555555554</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -11443,13 +11572,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11484,14 +11613,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -11511,14 +11640,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -11542,14 +11671,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -11569,14 +11698,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -11596,14 +11725,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -11627,14 +11756,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -11643,21 +11772,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HkAoB08lQnZcu3f192wHDHZ/7j0BngIzul3D/9PsKIWyl+xayA7p7vUaZD7hH7rwZOkGohOgh1523AysAnGDfg==" saltValue="sE8nUvkPIzP17sbT/37lEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="73" priority="2">
@@ -11748,16 +11877,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,9,1)</f>
         <v>42613</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -11768,20 +11897,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -11789,11 +11918,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -11883,7 +12012,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-3.3388888888888801</v>
+        <v>-1.13055555555554</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11928,7 +12057,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-3.6722222222222101</v>
+        <v>-1.4638888888888699</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11973,7 +12102,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8388888888888801</v>
+        <v>-1.63055555555554</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12018,7 +12147,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.1722222222222101</v>
+        <v>-1.9638888888888699</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12063,7 +12192,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.1722222222222101</v>
+        <v>-1.9638888888888699</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12108,7 +12237,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.1722222222222101</v>
+        <v>-1.9638888888888699</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12153,7 +12282,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.1722222222222101</v>
+        <v>-1.9638888888888699</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12198,7 +12327,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.1722222222222101</v>
+        <v>-1.9638888888888699</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12243,7 +12372,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5055555555555404</v>
+        <v>-2.2972222222221998</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12288,7 +12417,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.6722222222222101</v>
+        <v>-2.4638888888888699</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12333,7 +12462,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0055555555555404</v>
+        <v>-2.7972222222221998</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12378,7 +12507,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0055555555555404</v>
+        <v>-2.7972222222221998</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12423,7 +12552,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0055555555555404</v>
+        <v>-2.7972222222221998</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12468,7 +12597,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0055555555555404</v>
+        <v>-2.7972222222221998</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12513,7 +12642,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0055555555555404</v>
+        <v>-2.7972222222221998</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12558,7 +12687,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3388888888888699</v>
+        <v>-3.1305555555555298</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12603,7 +12732,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5055555555555404</v>
+        <v>-3.2972222222221998</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12648,7 +12777,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8388888888888699</v>
+        <v>-3.6305555555555298</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12693,7 +12822,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8388888888888699</v>
+        <v>-3.6305555555555298</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12738,7 +12867,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8388888888888699</v>
+        <v>-3.6305555555555298</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12783,7 +12912,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8388888888888699</v>
+        <v>-3.6305555555555298</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12828,7 +12957,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8388888888888699</v>
+        <v>-3.6305555555555298</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12873,7 +13002,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1722222222222003</v>
+        <v>-3.9638888888888602</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12918,7 +13047,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3388888888888699</v>
+        <v>-4.1305555555555298</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12963,7 +13092,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6722222222222003</v>
+        <v>-4.4638888888888602</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13008,7 +13137,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6722222222222003</v>
+        <v>-4.4638888888888602</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13053,7 +13182,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6722222222222003</v>
+        <v>-4.4638888888888602</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13098,7 +13227,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6722222222222003</v>
+        <v>-4.4638888888888602</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13143,7 +13272,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6722222222222003</v>
+        <v>-4.4638888888888602</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13188,7 +13317,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0055555555555298</v>
+        <v>-4.7972222222221896</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13264,7 +13393,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-3.3388888888888801</v>
+        <v>-1.13055555555554</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -13273,13 +13402,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -13305,14 +13434,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -13338,13 +13467,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13363,13 +13492,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -13385,7 +13514,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-7.0055555555555502</v>
+        <v>-4.7972222222222003</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -13394,13 +13523,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13435,14 +13564,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -13462,14 +13591,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -13493,14 +13622,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -13520,14 +13649,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -13547,14 +13676,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -13578,14 +13707,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -13594,21 +13723,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WrJf3Le3I/KufBKgvBL84XO3UYX2zuYgLjnZ1rGaHSyWTCjiP7zkaZ7RngoDe7hgFgAEe/NFD80xutKnXk714A==" saltValue="LvVU6YLRvHqT2nS3BnwoDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="63" priority="2">
@@ -13699,16 +13828,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,10,1)</f>
         <v>42643</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -13719,20 +13848,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -13740,11 +13869,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -13834,7 +13963,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-7.1722222222222198</v>
+        <v>-4.9638888888888699</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13879,7 +14008,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-7.5055555555555502</v>
+        <v>-5.2972222222222003</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13924,7 +14053,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5055555555555502</v>
+        <v>-5.2972222222222003</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13969,7 +14098,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5055555555555502</v>
+        <v>-5.2972222222222003</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14014,7 +14143,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5055555555555502</v>
+        <v>-5.2972222222222003</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14059,7 +14188,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5055555555555502</v>
+        <v>-5.2972222222222003</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14104,7 +14233,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8388888888888797</v>
+        <v>-5.6305555555555298</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14149,7 +14278,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.0055555555555493</v>
+        <v>-5.7972222222222003</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14194,7 +14323,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.3388888888888797</v>
+        <v>-6.1305555555555298</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14239,7 +14368,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.3388888888888797</v>
+        <v>-6.1305555555555298</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14284,7 +14413,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.3388888888888797</v>
+        <v>-6.1305555555555298</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14329,7 +14458,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.3388888888888797</v>
+        <v>-6.1305555555555298</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14374,7 +14503,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.3388888888888797</v>
+        <v>-6.1305555555555298</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14419,7 +14548,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6722222222222101</v>
+        <v>-6.4638888888888602</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14464,7 +14593,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.8388888888888797</v>
+        <v>-6.6305555555555298</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14509,7 +14638,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.1722222222222101</v>
+        <v>-6.9638888888888602</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14554,7 +14683,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.1722222222222101</v>
+        <v>-6.9638888888888602</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14599,7 +14728,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.1722222222222101</v>
+        <v>-6.9638888888888602</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14644,7 +14773,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.1722222222222101</v>
+        <v>-6.9638888888888602</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14689,7 +14818,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.1722222222222101</v>
+        <v>-6.9638888888888602</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14734,7 +14863,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5055555555555404</v>
+        <v>-7.2972222222221896</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14779,7 +14908,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.6722222222222101</v>
+        <v>-7.4638888888888602</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14824,7 +14953,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.0055555555555</v>
+        <v>-7.7972222222221896</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14869,7 +14998,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.0055555555555</v>
+        <v>-7.7972222222221896</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14914,7 +15043,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.0055555555555</v>
+        <v>-7.7972222222221896</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14959,7 +15088,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.0055555555555</v>
+        <v>-7.7972222222221896</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15004,7 +15133,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.0055555555555</v>
+        <v>-7.7972222222221896</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15049,7 +15178,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.3388888888888</v>
+        <v>-8.1305555555555191</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15094,7 +15223,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.5055555555555</v>
+        <v>-8.2972222222221905</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15139,7 +15268,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.8388888888888</v>
+        <v>-8.6305555555555191</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15184,7 +15313,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.8388888888888</v>
+        <v>-8.6305555555555191</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -15215,7 +15344,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-7.0055555555555502</v>
+        <v>-4.7972222222222003</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -15224,13 +15353,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -15256,14 +15385,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -15289,13 +15418,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15314,13 +15443,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -15336,7 +15465,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-10.838888888888899</v>
+        <v>-8.6305555555555298</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -15345,13 +15474,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15386,14 +15515,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -15413,14 +15542,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -15444,14 +15573,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -15471,14 +15600,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -15498,14 +15627,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -15529,14 +15658,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -15545,21 +15674,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RthWpkefgasVF7mUvUEwcv1PAQ5dnb7jdJEdiAtCsTcYrr2DXtkCOKlt8KBAcaZdDCRYzq33+CroGdjHatAXYA==" saltValue="gix2Bx2zL9EvbIvQixmH2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="53" priority="2">
@@ -15650,16 +15779,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,11,1)</f>
         <v>42674</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -15670,20 +15799,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -15691,11 +15820,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -15785,7 +15914,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-10.838888888888899</v>
+        <v>-8.6305555555555298</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15830,7 +15959,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-10.838888888888899</v>
+        <v>-8.6305555555555298</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15875,7 +16004,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.838888888888899</v>
+        <v>-8.6305555555555298</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15920,7 +16049,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.172222222222199</v>
+        <v>-8.9638888888888602</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15965,7 +16094,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.338888888888899</v>
+        <v>-9.1305555555555298</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16010,7 +16139,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.672222222222199</v>
+        <v>-9.4638888888888602</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16055,7 +16184,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.672222222222199</v>
+        <v>-9.4638888888888602</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16100,7 +16229,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.672222222222199</v>
+        <v>-9.4638888888888602</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16145,7 +16274,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.672222222222199</v>
+        <v>-9.4638888888888602</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16190,7 +16319,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.672222222222199</v>
+        <v>-9.4638888888888602</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16235,7 +16364,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.0055555555555</v>
+        <v>-9.7972222222221905</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16280,7 +16409,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.172222222222199</v>
+        <v>-9.9638888888888602</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16325,7 +16454,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.5055555555555</v>
+        <v>-10.297222222222199</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16370,7 +16499,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.5055555555555</v>
+        <v>-10.297222222222199</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16415,7 +16544,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.5055555555555</v>
+        <v>-10.297222222222199</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16460,7 +16589,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.5055555555555</v>
+        <v>-10.297222222222199</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16505,7 +16634,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.5055555555555</v>
+        <v>-10.297222222222199</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16550,7 +16679,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8388888888888</v>
+        <v>-10.6305555555555</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16595,7 +16724,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.0055555555555</v>
+        <v>-10.797222222222199</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16640,7 +16769,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.3388888888888</v>
+        <v>-11.1305555555555</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16685,7 +16814,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.3388888888888</v>
+        <v>-11.1305555555555</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16730,7 +16859,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.3388888888888</v>
+        <v>-11.1305555555555</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16775,7 +16904,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.3388888888888</v>
+        <v>-11.1305555555555</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16820,7 +16949,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.3388888888888</v>
+        <v>-11.1305555555555</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16865,7 +16994,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.6722222222221</v>
+        <v>-11.4638888888888</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16910,7 +17039,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.8388888888888</v>
+        <v>-11.6305555555555</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16955,7 +17084,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.1722222222221</v>
+        <v>-11.9638888888888</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17000,7 +17129,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.1722222222221</v>
+        <v>-11.9638888888888</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17045,7 +17174,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.1722222222221</v>
+        <v>-11.9638888888888</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17090,7 +17219,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.1722222222221</v>
+        <v>-11.9638888888888</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17166,7 +17295,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-10.838888888888899</v>
+        <v>-8.6305555555555298</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -17175,13 +17304,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -17207,14 +17336,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -17240,13 +17369,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17265,13 +17394,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -17287,7 +17416,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-14.172222222222199</v>
+        <v>-11.963888888888899</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -17296,13 +17425,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17337,14 +17466,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -17364,14 +17493,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -17395,14 +17524,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -17422,14 +17551,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -17449,14 +17578,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -17480,14 +17609,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -17496,21 +17625,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BSHenHTjOeCLEK/Vhdt9DN47er8vHXKxixVq0zifYQ0YqDCLyIRjWwdu26DK6EbWV62R2jSYCaEOOJZMW8350Q==" saltValue="mrWUpOtdd6VsTAymx1hVrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="43" priority="2">
@@ -17601,16 +17730,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,12,1)</f>
         <v>42704</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -17621,20 +17750,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -17642,11 +17771,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -17736,7 +17865,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-14.172222222222199</v>
+        <v>-11.963888888888899</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17781,7 +17910,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-14.5055555555555</v>
+        <v>-12.297222222222199</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17826,7 +17955,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.672222222222199</v>
+        <v>-12.463888888888899</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17871,7 +18000,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.0055555555555</v>
+        <v>-12.797222222222199</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17916,7 +18045,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.0055555555555</v>
+        <v>-12.797222222222199</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17961,7 +18090,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.0055555555555</v>
+        <v>-12.797222222222199</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18006,7 +18135,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.0055555555555</v>
+        <v>-12.797222222222199</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18051,7 +18180,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.0055555555555</v>
+        <v>-12.797222222222199</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18096,7 +18225,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3388888888888</v>
+        <v>-13.1305555555555</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18141,7 +18270,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.5055555555555</v>
+        <v>-13.297222222222199</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18186,7 +18315,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8388888888888</v>
+        <v>-13.6305555555555</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18231,7 +18360,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8388888888888</v>
+        <v>-13.6305555555555</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18276,7 +18405,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8388888888888</v>
+        <v>-13.6305555555555</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18321,7 +18450,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8388888888888</v>
+        <v>-13.6305555555555</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18366,7 +18495,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8388888888888</v>
+        <v>-13.6305555555555</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18411,7 +18540,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.1722222222221</v>
+        <v>-13.9638888888888</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18456,7 +18585,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.3388888888888</v>
+        <v>-14.1305555555555</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18501,7 +18630,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.6722222222221</v>
+        <v>-14.4638888888888</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18546,7 +18675,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.6722222222221</v>
+        <v>-14.4638888888888</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18591,7 +18720,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.6722222222221</v>
+        <v>-14.4638888888888</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18636,7 +18765,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.6722222222221</v>
+        <v>-14.4638888888888</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18681,7 +18810,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.6722222222221</v>
+        <v>-14.4638888888888</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18726,7 +18855,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0055555555554</v>
+        <v>-14.7972222222221</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18771,7 +18900,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0888888888887</v>
+        <v>-14.8805555555554</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18816,7 +18945,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0888888888887</v>
+        <v>-14.8805555555554</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18861,7 +18990,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0888888888887</v>
+        <v>-14.8805555555554</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18906,7 +19035,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0888888888887</v>
+        <v>-14.8805555555554</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18951,7 +19080,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0888888888887</v>
+        <v>-14.8805555555554</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -18996,7 +19125,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.0888888888887</v>
+        <v>-14.8805555555554</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -19041,7 +19170,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.422222222222</v>
+        <v>-15.2138888888887</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -19086,7 +19215,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.505555555555301</v>
+        <v>-15.297222222222</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -19117,7 +19246,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-14.172222222222199</v>
+        <v>-11.963888888888899</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -19126,13 +19255,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -19158,14 +19287,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -19191,13 +19320,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19216,13 +19345,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -19238,7 +19367,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-17.5055555555555</v>
+        <v>-15.297222222222199</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -19247,13 +19376,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19288,14 +19417,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -19315,14 +19444,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -19346,14 +19475,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -19373,14 +19502,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -19400,14 +19529,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -19431,14 +19560,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -19447,21 +19576,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cxvY2DkTl/qvreVavAHZQiMD66UcFjhxoXVYD73h1/l0udHUCuS5sptsDftLSlvMcY2XaWQ5B33HtmQ912mInw==" saltValue="5c5gNlRNtYb15QfXriDQfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="33" priority="2">
@@ -19565,158 +19694,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="390"/>
-      <c r="B1" s="390"/>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="391" t="str">
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="401" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2020</v>
       </c>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
-      <c r="R1" s="391"/>
-      <c r="S1" s="391"/>
-      <c r="T1" s="391"/>
-      <c r="U1" s="391"/>
-      <c r="V1" s="391"/>
-      <c r="W1" s="391"/>
-      <c r="X1" s="391"/>
-      <c r="Y1" s="391"/>
-      <c r="Z1" s="391"/>
-      <c r="AA1" s="391"/>
-      <c r="AB1" s="391"/>
-      <c r="AC1" s="391"/>
-      <c r="AD1" s="391"/>
-      <c r="AE1" s="391"/>
-      <c r="AF1" s="391"/>
-      <c r="AG1" s="391"/>
-      <c r="AH1" s="391"/>
-      <c r="AI1" s="392" t="str">
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
+      <c r="N1" s="401"/>
+      <c r="O1" s="401"/>
+      <c r="P1" s="401"/>
+      <c r="Q1" s="401"/>
+      <c r="R1" s="401"/>
+      <c r="S1" s="401"/>
+      <c r="T1" s="401"/>
+      <c r="U1" s="401"/>
+      <c r="V1" s="401"/>
+      <c r="W1" s="401"/>
+      <c r="X1" s="401"/>
+      <c r="Y1" s="401"/>
+      <c r="Z1" s="401"/>
+      <c r="AA1" s="401"/>
+      <c r="AB1" s="401"/>
+      <c r="AC1" s="401"/>
+      <c r="AD1" s="401"/>
+      <c r="AE1" s="401"/>
+      <c r="AF1" s="401"/>
+      <c r="AG1" s="401"/>
+      <c r="AH1" s="401"/>
+      <c r="AI1" s="402" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="AJ1" s="392"/>
-      <c r="AK1" s="392"/>
-      <c r="AL1" s="392"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="390"/>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="391"/>
-      <c r="F2" s="391"/>
-      <c r="G2" s="391"/>
-      <c r="H2" s="391"/>
-      <c r="I2" s="391"/>
-      <c r="J2" s="391"/>
-      <c r="K2" s="391"/>
-      <c r="L2" s="391"/>
-      <c r="M2" s="391"/>
-      <c r="N2" s="391"/>
-      <c r="O2" s="391"/>
-      <c r="P2" s="391"/>
-      <c r="Q2" s="391"/>
-      <c r="R2" s="391"/>
-      <c r="S2" s="391"/>
-      <c r="T2" s="391"/>
-      <c r="U2" s="391"/>
-      <c r="V2" s="391"/>
-      <c r="W2" s="391"/>
-      <c r="X2" s="391"/>
-      <c r="Y2" s="391"/>
-      <c r="Z2" s="391"/>
-      <c r="AA2" s="391"/>
-      <c r="AB2" s="391"/>
-      <c r="AC2" s="391"/>
-      <c r="AD2" s="391"/>
-      <c r="AE2" s="391"/>
-      <c r="AF2" s="391"/>
-      <c r="AG2" s="391"/>
-      <c r="AH2" s="391"/>
-      <c r="AI2" s="393" t="str">
+      <c r="A2" s="400"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="401"/>
+      <c r="Q2" s="401"/>
+      <c r="R2" s="401"/>
+      <c r="S2" s="401"/>
+      <c r="T2" s="401"/>
+      <c r="U2" s="401"/>
+      <c r="V2" s="401"/>
+      <c r="W2" s="401"/>
+      <c r="X2" s="401"/>
+      <c r="Y2" s="401"/>
+      <c r="Z2" s="401"/>
+      <c r="AA2" s="401"/>
+      <c r="AB2" s="401"/>
+      <c r="AC2" s="401"/>
+      <c r="AD2" s="401"/>
+      <c r="AE2" s="401"/>
+      <c r="AF2" s="401"/>
+      <c r="AG2" s="401"/>
+      <c r="AH2" s="401"/>
+      <c r="AI2" s="403" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="AJ2" s="393"/>
-      <c r="AK2" s="393"/>
-      <c r="AL2" s="393"/>
+      <c r="AJ2" s="403"/>
+      <c r="AK2" s="403"/>
+      <c r="AL2" s="403"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="394" t="s">
+      <c r="B3" s="404" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394" t="s">
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394" t="s">
+      <c r="F3" s="404"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="404" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394" t="s">
+      <c r="I3" s="404"/>
+      <c r="J3" s="404"/>
+      <c r="K3" s="404" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394" t="s">
+      <c r="L3" s="404"/>
+      <c r="M3" s="404"/>
+      <c r="N3" s="404" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="394" t="s">
+      <c r="O3" s="404"/>
+      <c r="P3" s="404"/>
+      <c r="Q3" s="404" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="394"/>
-      <c r="S3" s="394"/>
-      <c r="T3" s="394" t="s">
+      <c r="R3" s="404"/>
+      <c r="S3" s="404"/>
+      <c r="T3" s="404" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="394"/>
-      <c r="V3" s="394"/>
-      <c r="W3" s="394" t="s">
+      <c r="U3" s="404"/>
+      <c r="V3" s="404"/>
+      <c r="W3" s="404" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="394"/>
-      <c r="Y3" s="394"/>
-      <c r="Z3" s="394" t="s">
+      <c r="X3" s="404"/>
+      <c r="Y3" s="404"/>
+      <c r="Z3" s="404" t="s">
         <v>137</v>
       </c>
-      <c r="AA3" s="394"/>
-      <c r="AB3" s="394"/>
-      <c r="AC3" s="394" t="s">
+      <c r="AA3" s="404"/>
+      <c r="AB3" s="404"/>
+      <c r="AC3" s="404" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" s="394"/>
-      <c r="AE3" s="394"/>
-      <c r="AF3" s="394" t="s">
+      <c r="AD3" s="404"/>
+      <c r="AE3" s="404"/>
+      <c r="AF3" s="404" t="s">
         <v>139</v>
       </c>
-      <c r="AG3" s="394"/>
-      <c r="AH3" s="394"/>
-      <c r="AI3" s="394" t="s">
+      <c r="AG3" s="404"/>
+      <c r="AH3" s="404"/>
+      <c r="AI3" s="404" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="394"/>
-      <c r="AK3" s="394"/>
+      <c r="AJ3" s="404"/>
+      <c r="AK3" s="404"/>
       <c r="AL3" s="282" t="s">
         <v>95</v>
       </c>
@@ -21017,9 +21146,9 @@
         <f>Juli!A12</f>
         <v>42559</v>
       </c>
-      <c r="U12" s="294" t="str">
+      <c r="U12" s="294">
         <f>IF(Juli!K12&gt;0,Juli!K12,"")</f>
-        <v/>
+        <v>0.2986111111111111</v>
       </c>
       <c r="V12" s="298" t="str">
         <f>IF(OR(Juli!C12="",Juli!J12&lt;&gt;""),UPPER(Juli!J12),"F")</f>
@@ -21169,9 +21298,9 @@
         <f>Juli!A13</f>
         <v>42560</v>
       </c>
-      <c r="U13" s="294" t="str">
+      <c r="U13" s="294">
         <f>IF(Juli!K13&gt;0,Juli!K13,"")</f>
-        <v/>
+        <v>0.34027777777777779</v>
       </c>
       <c r="V13" s="298" t="str">
         <f>IF(OR(Juli!C13="",Juli!J13&lt;&gt;""),UPPER(Juli!J13),"F")</f>
@@ -21929,9 +22058,9 @@
         <f>Juli!A18</f>
         <v>42565</v>
       </c>
-      <c r="U18" s="294" t="str">
+      <c r="U18" s="294">
         <f>IF(Juli!K18&gt;0,Juli!K18,"")</f>
-        <v/>
+        <v>0.39583333333333331</v>
       </c>
       <c r="V18" s="298" t="str">
         <f>IF(OR(Juli!C18="",Juli!J18&lt;&gt;""),UPPER(Juli!J18),"F")</f>
@@ -22081,9 +22210,9 @@
         <f>Juli!A19</f>
         <v>42566</v>
       </c>
-      <c r="U19" s="294" t="str">
+      <c r="U19" s="294">
         <f>IF(Juli!K19&gt;0,Juli!K19,"")</f>
-        <v/>
+        <v>0.24999999999999992</v>
       </c>
       <c r="V19" s="298" t="str">
         <f>IF(OR(Juli!C19="",Juli!J19&lt;&gt;""),UPPER(Juli!J19),"F")</f>
@@ -22233,9 +22362,9 @@
         <f>Juli!A20</f>
         <v>42567</v>
       </c>
-      <c r="U20" s="294" t="str">
+      <c r="U20" s="294">
         <f>IF(Juli!K20&gt;0,Juli!K20,"")</f>
-        <v/>
+        <v>0.35416666666666674</v>
       </c>
       <c r="V20" s="298" t="str">
         <f>IF(OR(Juli!C20="",Juli!J20&lt;&gt;""),UPPER(Juli!J20),"F")</f>
@@ -22537,9 +22666,9 @@
         <f>Juli!A22</f>
         <v>42569</v>
       </c>
-      <c r="U22" s="294" t="str">
+      <c r="U22" s="294">
         <f>IF(Juli!K22&gt;0,Juli!K22,"")</f>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
       <c r="V22" s="298" t="str">
         <f>IF(OR(Juli!C22="",Juli!J22&lt;&gt;""),UPPER(Juli!J22),"F")</f>
@@ -22993,9 +23122,9 @@
         <f>Juli!A25</f>
         <v>42572</v>
       </c>
-      <c r="U25" s="294" t="str">
+      <c r="U25" s="294">
         <f>IF(Juli!K25&gt;0,Juli!K25,"")</f>
-        <v/>
+        <v>0.40277777777777779</v>
       </c>
       <c r="V25" s="298" t="str">
         <f>IF(OR(Juli!C25="",Juli!J25&lt;&gt;""),UPPER(Juli!J25),"F")</f>
@@ -24437,77 +24566,77 @@
       <c r="A35" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="395">
+      <c r="B35" s="396">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="395"/>
+      <c r="C35" s="396"/>
       <c r="D35" s="311"/>
-      <c r="E35" s="395">
+      <c r="E35" s="396">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="395"/>
+      <c r="F35" s="396"/>
       <c r="G35" s="312"/>
-      <c r="H35" s="396">
+      <c r="H35" s="397">
         <f ca="1">März!F37</f>
         <v>0</v>
       </c>
-      <c r="I35" s="396"/>
+      <c r="I35" s="397"/>
       <c r="J35" s="313"/>
-      <c r="K35" s="395">
+      <c r="K35" s="396">
         <f ca="1">April!F37</f>
         <v>3.4999999999999991</v>
       </c>
-      <c r="L35" s="395"/>
+      <c r="L35" s="396"/>
       <c r="M35" s="312"/>
-      <c r="N35" s="396">
+      <c r="N35" s="397">
         <f ca="1">Mai!F37</f>
         <v>3.1666666666666652</v>
       </c>
-      <c r="O35" s="396"/>
+      <c r="O35" s="397"/>
       <c r="P35" s="313"/>
-      <c r="Q35" s="395">
+      <c r="Q35" s="396">
         <f ca="1">Juni!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="R35" s="395"/>
+      <c r="R35" s="396"/>
       <c r="S35" s="312"/>
-      <c r="T35" s="396">
+      <c r="T35" s="397">
         <f ca="1">Juli!F37</f>
         <v>4.1666666666666652</v>
       </c>
-      <c r="U35" s="396"/>
+      <c r="U35" s="397"/>
       <c r="V35" s="313"/>
-      <c r="W35" s="395">
+      <c r="W35" s="396">
         <f ca="1">August!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="X35" s="395"/>
+      <c r="X35" s="396"/>
       <c r="Y35" s="312"/>
-      <c r="Z35" s="396">
+      <c r="Z35" s="397">
         <f ca="1">September!F37</f>
         <v>3.6666666666666652</v>
       </c>
-      <c r="AA35" s="396"/>
+      <c r="AA35" s="397"/>
       <c r="AB35" s="313"/>
-      <c r="AC35" s="395">
+      <c r="AC35" s="396">
         <f ca="1">Oktober!F37</f>
         <v>3.8333333333333321</v>
       </c>
-      <c r="AD35" s="395"/>
+      <c r="AD35" s="396"/>
       <c r="AE35" s="312"/>
-      <c r="AF35" s="396">
+      <c r="AF35" s="397">
         <f ca="1">November!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AG35" s="396"/>
+      <c r="AG35" s="397"/>
       <c r="AH35" s="313"/>
-      <c r="AI35" s="395">
+      <c r="AI35" s="396">
         <f ca="1">Dezember!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AJ35" s="395"/>
+      <c r="AJ35" s="396"/>
       <c r="AK35" s="312"/>
       <c r="AL35" s="314">
         <f t="shared" ref="AL35:AL49" ca="1" si="0">SUM(B35:AK35)</f>
@@ -24518,243 +24647,243 @@
       <c r="A36" s="315" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="397">
+      <c r="B36" s="398">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="397"/>
+      <c r="C36" s="398"/>
       <c r="D36" s="316"/>
-      <c r="E36" s="397">
+      <c r="E36" s="398">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="397"/>
+      <c r="F36" s="398"/>
       <c r="G36" s="317"/>
-      <c r="H36" s="398">
+      <c r="H36" s="399">
         <f>März!F38</f>
         <v>0.33333333333333498</v>
       </c>
-      <c r="I36" s="398"/>
+      <c r="I36" s="399"/>
       <c r="J36" s="318"/>
-      <c r="K36" s="397">
+      <c r="K36" s="398">
         <f>April!F38</f>
         <v>4.5625000000000018</v>
       </c>
-      <c r="L36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="317"/>
-      <c r="N36" s="398">
+      <c r="N36" s="399">
         <f>Mai!F38</f>
         <v>4.5243055555555554</v>
       </c>
-      <c r="O36" s="398"/>
+      <c r="O36" s="399"/>
       <c r="P36" s="318"/>
-      <c r="Q36" s="397">
+      <c r="Q36" s="398">
         <f>Juni!F38</f>
         <v>4.3694444444444436</v>
       </c>
-      <c r="R36" s="397"/>
+      <c r="R36" s="398"/>
       <c r="S36" s="317"/>
-      <c r="T36" s="398">
+      <c r="T36" s="399">
         <f>Juli!F38</f>
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="U36" s="398"/>
+        <v>2.5798611111111107</v>
+      </c>
+      <c r="U36" s="399"/>
       <c r="V36" s="318"/>
-      <c r="W36" s="397">
+      <c r="W36" s="398">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="397"/>
+      <c r="X36" s="398"/>
       <c r="Y36" s="317"/>
-      <c r="Z36" s="398">
+      <c r="Z36" s="399">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="398"/>
+      <c r="AA36" s="399"/>
       <c r="AB36" s="318"/>
-      <c r="AC36" s="397">
+      <c r="AC36" s="398">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="397"/>
+      <c r="AD36" s="398"/>
       <c r="AE36" s="317"/>
-      <c r="AF36" s="398">
+      <c r="AF36" s="399">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="398"/>
+      <c r="AG36" s="399"/>
       <c r="AH36" s="318"/>
-      <c r="AI36" s="397">
+      <c r="AI36" s="398">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="397"/>
+      <c r="AJ36" s="398"/>
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>14.161111111111115</v>
+        <v>16.369444444444447</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="320" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="399">
+      <c r="B37" s="393">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="399"/>
+      <c r="C37" s="393"/>
       <c r="D37" s="321"/>
-      <c r="E37" s="399">
+      <c r="E37" s="393">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="399"/>
+      <c r="F37" s="393"/>
       <c r="G37" s="322"/>
-      <c r="H37" s="400">
+      <c r="H37" s="394">
         <f ca="1">ROUND(H36-H35,10)</f>
         <v>0.33333333329999998</v>
       </c>
-      <c r="I37" s="400"/>
+      <c r="I37" s="394"/>
       <c r="J37" s="323"/>
-      <c r="K37" s="399">
+      <c r="K37" s="393">
         <f ca="1">ROUND(K36-K35,10)</f>
         <v>1.0625</v>
       </c>
-      <c r="L37" s="399"/>
+      <c r="L37" s="393"/>
       <c r="M37" s="322"/>
-      <c r="N37" s="400">
+      <c r="N37" s="394">
         <f ca="1">ROUND(N36-N35,10)</f>
         <v>1.3576388889</v>
       </c>
-      <c r="O37" s="400"/>
+      <c r="O37" s="394"/>
       <c r="P37" s="323"/>
-      <c r="Q37" s="399">
+      <c r="Q37" s="393">
         <f ca="1">ROUND(Q36-Q35,10)</f>
         <v>1.0361111111000001</v>
       </c>
-      <c r="R37" s="399"/>
+      <c r="R37" s="393"/>
       <c r="S37" s="322"/>
-      <c r="T37" s="400">
+      <c r="T37" s="394">
         <f ca="1">ROUND(T36-T35,10)</f>
-        <v>-3.7951388889</v>
-      </c>
-      <c r="U37" s="400"/>
+        <v>-1.5868055556</v>
+      </c>
+      <c r="U37" s="394"/>
       <c r="V37" s="323"/>
-      <c r="W37" s="399">
+      <c r="W37" s="393">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="X37" s="399"/>
+      <c r="X37" s="393"/>
       <c r="Y37" s="322"/>
-      <c r="Z37" s="400">
+      <c r="Z37" s="394">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>-3.6666666666999999</v>
       </c>
-      <c r="AA37" s="400"/>
+      <c r="AA37" s="394"/>
       <c r="AB37" s="323"/>
-      <c r="AC37" s="399">
+      <c r="AC37" s="393">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>-3.8333333333000001</v>
       </c>
-      <c r="AD37" s="399"/>
+      <c r="AD37" s="393"/>
       <c r="AE37" s="322"/>
-      <c r="AF37" s="400">
+      <c r="AF37" s="394">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AG37" s="400"/>
+      <c r="AG37" s="394"/>
       <c r="AH37" s="323"/>
-      <c r="AI37" s="399">
+      <c r="AI37" s="393">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AJ37" s="399"/>
+      <c r="AJ37" s="393"/>
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.505555555499999</v>
+        <v>-15.2972222222</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="401">
+      <c r="B38" s="395">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="401"/>
-      <c r="D38" s="401"/>
-      <c r="E38" s="401">
+      <c r="C38" s="395"/>
+      <c r="D38" s="395"/>
+      <c r="E38" s="395">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="401"/>
-      <c r="G38" s="401"/>
-      <c r="H38" s="401">
+      <c r="F38" s="395"/>
+      <c r="G38" s="395"/>
+      <c r="H38" s="395">
         <f>März!J40</f>
         <v>0</v>
       </c>
-      <c r="I38" s="401"/>
-      <c r="J38" s="401"/>
-      <c r="K38" s="401">
+      <c r="I38" s="395"/>
+      <c r="J38" s="395"/>
+      <c r="K38" s="395">
         <f>April!J40</f>
         <v>6</v>
       </c>
-      <c r="L38" s="401"/>
-      <c r="M38" s="401"/>
-      <c r="N38" s="401">
+      <c r="L38" s="395"/>
+      <c r="M38" s="395"/>
+      <c r="N38" s="395">
         <f>Mai!J40</f>
         <v>17</v>
       </c>
-      <c r="O38" s="401"/>
-      <c r="P38" s="401"/>
-      <c r="Q38" s="401">
+      <c r="O38" s="395"/>
+      <c r="P38" s="395"/>
+      <c r="Q38" s="395">
         <f>Juni!J40</f>
         <v>14</v>
       </c>
-      <c r="R38" s="401"/>
-      <c r="S38" s="401"/>
-      <c r="T38" s="401">
+      <c r="R38" s="395"/>
+      <c r="S38" s="395"/>
+      <c r="T38" s="395">
         <f>Juli!J40</f>
-        <v>1</v>
-      </c>
-      <c r="U38" s="401"/>
-      <c r="V38" s="401"/>
-      <c r="W38" s="401">
+        <v>8</v>
+      </c>
+      <c r="U38" s="395"/>
+      <c r="V38" s="395"/>
+      <c r="W38" s="395">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="401"/>
-      <c r="Y38" s="401"/>
-      <c r="Z38" s="401">
+      <c r="X38" s="395"/>
+      <c r="Y38" s="395"/>
+      <c r="Z38" s="395">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="401"/>
-      <c r="AB38" s="401"/>
-      <c r="AC38" s="401">
+      <c r="AA38" s="395"/>
+      <c r="AB38" s="395"/>
+      <c r="AC38" s="395">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="401"/>
-      <c r="AE38" s="401"/>
-      <c r="AF38" s="401">
+      <c r="AD38" s="395"/>
+      <c r="AE38" s="395"/>
+      <c r="AF38" s="395">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="401"/>
-      <c r="AH38" s="401"/>
-      <c r="AI38" s="401">
+      <c r="AG38" s="395"/>
+      <c r="AH38" s="395"/>
+      <c r="AI38" s="395">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="401"/>
-      <c r="AK38" s="401"/>
+      <c r="AJ38" s="395"/>
+      <c r="AK38" s="395"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -24762,78 +24891,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B39" s="402">
+      <c r="B39" s="391">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="402"/>
-      <c r="D39" s="402"/>
-      <c r="E39" s="402">
+      <c r="C39" s="391"/>
+      <c r="D39" s="391"/>
+      <c r="E39" s="391">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F39" s="402"/>
-      <c r="G39" s="402"/>
-      <c r="H39" s="402">
+      <c r="F39" s="391"/>
+      <c r="G39" s="391"/>
+      <c r="H39" s="391">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I39" s="402"/>
-      <c r="J39" s="402"/>
-      <c r="K39" s="402">
+      <c r="I39" s="391"/>
+      <c r="J39" s="391"/>
+      <c r="K39" s="391">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L39" s="402"/>
-      <c r="M39" s="402"/>
-      <c r="N39" s="402">
+      <c r="L39" s="391"/>
+      <c r="M39" s="391"/>
+      <c r="N39" s="391">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O39" s="402"/>
-      <c r="P39" s="402"/>
-      <c r="Q39" s="402">
+      <c r="O39" s="391"/>
+      <c r="P39" s="391"/>
+      <c r="Q39" s="391">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R39" s="402"/>
-      <c r="S39" s="402"/>
-      <c r="T39" s="402">
+      <c r="R39" s="391"/>
+      <c r="S39" s="391"/>
+      <c r="T39" s="391">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U39" s="402"/>
-      <c r="V39" s="402"/>
-      <c r="W39" s="402">
+      <c r="U39" s="391"/>
+      <c r="V39" s="391"/>
+      <c r="W39" s="391">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X39" s="402"/>
-      <c r="Y39" s="402"/>
-      <c r="Z39" s="402">
+      <c r="X39" s="391"/>
+      <c r="Y39" s="391"/>
+      <c r="Z39" s="391">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="402"/>
-      <c r="AB39" s="402"/>
-      <c r="AC39" s="402">
+      <c r="AA39" s="391"/>
+      <c r="AB39" s="391"/>
+      <c r="AC39" s="391">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="402"/>
-      <c r="AE39" s="402"/>
-      <c r="AF39" s="402">
+      <c r="AD39" s="391"/>
+      <c r="AE39" s="391"/>
+      <c r="AF39" s="391">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="402"/>
-      <c r="AH39" s="402"/>
-      <c r="AI39" s="402">
+      <c r="AG39" s="391"/>
+      <c r="AH39" s="391"/>
+      <c r="AI39" s="391">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="402"/>
-      <c r="AK39" s="402"/>
+      <c r="AJ39" s="391"/>
+      <c r="AK39" s="391"/>
       <c r="AL39" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24844,78 +24973,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B40" s="402">
+      <c r="B40" s="391">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="402"/>
-      <c r="D40" s="402"/>
-      <c r="E40" s="402">
+      <c r="C40" s="391"/>
+      <c r="D40" s="391"/>
+      <c r="E40" s="391">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F40" s="402"/>
-      <c r="G40" s="402"/>
-      <c r="H40" s="402">
+      <c r="F40" s="391"/>
+      <c r="G40" s="391"/>
+      <c r="H40" s="391">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I40" s="402"/>
-      <c r="J40" s="402"/>
-      <c r="K40" s="402">
+      <c r="I40" s="391"/>
+      <c r="J40" s="391"/>
+      <c r="K40" s="391">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L40" s="402"/>
-      <c r="M40" s="402"/>
-      <c r="N40" s="402">
+      <c r="L40" s="391"/>
+      <c r="M40" s="391"/>
+      <c r="N40" s="391">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O40" s="402"/>
-      <c r="P40" s="402"/>
-      <c r="Q40" s="402">
+      <c r="O40" s="391"/>
+      <c r="P40" s="391"/>
+      <c r="Q40" s="391">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R40" s="402"/>
-      <c r="S40" s="402"/>
-      <c r="T40" s="402">
+      <c r="R40" s="391"/>
+      <c r="S40" s="391"/>
+      <c r="T40" s="391">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U40" s="402"/>
-      <c r="V40" s="402"/>
-      <c r="W40" s="402">
+      <c r="U40" s="391"/>
+      <c r="V40" s="391"/>
+      <c r="W40" s="391">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X40" s="402"/>
-      <c r="Y40" s="402"/>
-      <c r="Z40" s="402">
+      <c r="X40" s="391"/>
+      <c r="Y40" s="391"/>
+      <c r="Z40" s="391">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="402"/>
-      <c r="AB40" s="402"/>
-      <c r="AC40" s="402">
+      <c r="AA40" s="391"/>
+      <c r="AB40" s="391"/>
+      <c r="AC40" s="391">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="402"/>
-      <c r="AE40" s="402"/>
-      <c r="AF40" s="402">
+      <c r="AD40" s="391"/>
+      <c r="AE40" s="391"/>
+      <c r="AF40" s="391">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="402"/>
-      <c r="AH40" s="402"/>
-      <c r="AI40" s="402">
+      <c r="AG40" s="391"/>
+      <c r="AH40" s="391"/>
+      <c r="AI40" s="391">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="402"/>
-      <c r="AK40" s="402"/>
+      <c r="AJ40" s="391"/>
+      <c r="AK40" s="391"/>
       <c r="AL40" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24926,78 +25055,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B41" s="402">
+      <c r="B41" s="391">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C41" s="402"/>
-      <c r="D41" s="402"/>
-      <c r="E41" s="402">
+      <c r="C41" s="391"/>
+      <c r="D41" s="391"/>
+      <c r="E41" s="391">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F41" s="402"/>
-      <c r="G41" s="402"/>
-      <c r="H41" s="402">
+      <c r="F41" s="391"/>
+      <c r="G41" s="391"/>
+      <c r="H41" s="391">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="402"/>
-      <c r="K41" s="402">
+      <c r="I41" s="391"/>
+      <c r="J41" s="391"/>
+      <c r="K41" s="391">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L41" s="402"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="402">
+      <c r="L41" s="391"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="391">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O41" s="402"/>
-      <c r="P41" s="402"/>
-      <c r="Q41" s="402">
+      <c r="O41" s="391"/>
+      <c r="P41" s="391"/>
+      <c r="Q41" s="391">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R41" s="402"/>
-      <c r="S41" s="402"/>
-      <c r="T41" s="402">
+      <c r="R41" s="391"/>
+      <c r="S41" s="391"/>
+      <c r="T41" s="391">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U41" s="402"/>
-      <c r="V41" s="402"/>
-      <c r="W41" s="402">
+      <c r="U41" s="391"/>
+      <c r="V41" s="391"/>
+      <c r="W41" s="391">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X41" s="402"/>
-      <c r="Y41" s="402"/>
-      <c r="Z41" s="402">
+      <c r="X41" s="391"/>
+      <c r="Y41" s="391"/>
+      <c r="Z41" s="391">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="402"/>
-      <c r="AB41" s="402"/>
-      <c r="AC41" s="402">
+      <c r="AA41" s="391"/>
+      <c r="AB41" s="391"/>
+      <c r="AC41" s="391">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="402"/>
-      <c r="AE41" s="402"/>
-      <c r="AF41" s="402">
+      <c r="AD41" s="391"/>
+      <c r="AE41" s="391"/>
+      <c r="AF41" s="391">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="402"/>
-      <c r="AH41" s="402"/>
-      <c r="AI41" s="402">
+      <c r="AG41" s="391"/>
+      <c r="AH41" s="391"/>
+      <c r="AI41" s="391">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="402"/>
-      <c r="AK41" s="402"/>
+      <c r="AJ41" s="391"/>
+      <c r="AK41" s="391"/>
       <c r="AL41" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25008,78 +25137,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B42" s="402">
+      <c r="B42" s="391">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C42" s="402"/>
-      <c r="D42" s="402"/>
-      <c r="E42" s="402">
+      <c r="C42" s="391"/>
+      <c r="D42" s="391"/>
+      <c r="E42" s="391">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F42" s="402"/>
-      <c r="G42" s="402"/>
-      <c r="H42" s="402">
+      <c r="F42" s="391"/>
+      <c r="G42" s="391"/>
+      <c r="H42" s="391">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I42" s="402"/>
-      <c r="J42" s="402"/>
-      <c r="K42" s="402">
+      <c r="I42" s="391"/>
+      <c r="J42" s="391"/>
+      <c r="K42" s="391">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L42" s="402"/>
-      <c r="M42" s="402"/>
-      <c r="N42" s="402">
+      <c r="L42" s="391"/>
+      <c r="M42" s="391"/>
+      <c r="N42" s="391">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O42" s="402"/>
-      <c r="P42" s="402"/>
-      <c r="Q42" s="402">
+      <c r="O42" s="391"/>
+      <c r="P42" s="391"/>
+      <c r="Q42" s="391">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R42" s="402"/>
-      <c r="S42" s="402"/>
-      <c r="T42" s="402">
+      <c r="R42" s="391"/>
+      <c r="S42" s="391"/>
+      <c r="T42" s="391">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U42" s="402"/>
-      <c r="V42" s="402"/>
-      <c r="W42" s="402">
+      <c r="U42" s="391"/>
+      <c r="V42" s="391"/>
+      <c r="W42" s="391">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X42" s="402"/>
-      <c r="Y42" s="402"/>
-      <c r="Z42" s="402">
+      <c r="X42" s="391"/>
+      <c r="Y42" s="391"/>
+      <c r="Z42" s="391">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="402"/>
-      <c r="AB42" s="402"/>
-      <c r="AC42" s="402">
+      <c r="AA42" s="391"/>
+      <c r="AB42" s="391"/>
+      <c r="AC42" s="391">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="402"/>
-      <c r="AE42" s="402"/>
-      <c r="AF42" s="402">
+      <c r="AD42" s="391"/>
+      <c r="AE42" s="391"/>
+      <c r="AF42" s="391">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="402"/>
-      <c r="AH42" s="402"/>
-      <c r="AI42" s="402">
+      <c r="AG42" s="391"/>
+      <c r="AH42" s="391"/>
+      <c r="AI42" s="391">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="402"/>
-      <c r="AK42" s="402"/>
+      <c r="AJ42" s="391"/>
+      <c r="AK42" s="391"/>
       <c r="AL42" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25090,78 +25219,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B43" s="402">
+      <c r="B43" s="391">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C43" s="402"/>
-      <c r="D43" s="402"/>
-      <c r="E43" s="402">
+      <c r="C43" s="391"/>
+      <c r="D43" s="391"/>
+      <c r="E43" s="391">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F43" s="402"/>
-      <c r="G43" s="402"/>
-      <c r="H43" s="402">
+      <c r="F43" s="391"/>
+      <c r="G43" s="391"/>
+      <c r="H43" s="391">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I43" s="402"/>
-      <c r="J43" s="402"/>
-      <c r="K43" s="402">
+      <c r="I43" s="391"/>
+      <c r="J43" s="391"/>
+      <c r="K43" s="391">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L43" s="402"/>
-      <c r="M43" s="402"/>
-      <c r="N43" s="402">
+      <c r="L43" s="391"/>
+      <c r="M43" s="391"/>
+      <c r="N43" s="391">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O43" s="402"/>
-      <c r="P43" s="402"/>
-      <c r="Q43" s="402">
+      <c r="O43" s="391"/>
+      <c r="P43" s="391"/>
+      <c r="Q43" s="391">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R43" s="402"/>
-      <c r="S43" s="402"/>
-      <c r="T43" s="402">
+      <c r="R43" s="391"/>
+      <c r="S43" s="391"/>
+      <c r="T43" s="391">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U43" s="402"/>
-      <c r="V43" s="402"/>
-      <c r="W43" s="402">
+      <c r="U43" s="391"/>
+      <c r="V43" s="391"/>
+      <c r="W43" s="391">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X43" s="402"/>
-      <c r="Y43" s="402"/>
-      <c r="Z43" s="402">
+      <c r="X43" s="391"/>
+      <c r="Y43" s="391"/>
+      <c r="Z43" s="391">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="402"/>
-      <c r="AB43" s="402"/>
-      <c r="AC43" s="402">
+      <c r="AA43" s="391"/>
+      <c r="AB43" s="391"/>
+      <c r="AC43" s="391">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="402"/>
-      <c r="AE43" s="402"/>
-      <c r="AF43" s="402">
+      <c r="AD43" s="391"/>
+      <c r="AE43" s="391"/>
+      <c r="AF43" s="391">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="402"/>
-      <c r="AH43" s="402"/>
-      <c r="AI43" s="402">
+      <c r="AG43" s="391"/>
+      <c r="AH43" s="391"/>
+      <c r="AI43" s="391">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="402"/>
-      <c r="AK43" s="402"/>
+      <c r="AJ43" s="391"/>
+      <c r="AK43" s="391"/>
       <c r="AL43" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25172,78 +25301,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B44" s="402" t="str">
+      <c r="B44" s="391" t="str">
         <f>Januar!J43</f>
         <v/>
       </c>
-      <c r="C44" s="402"/>
-      <c r="D44" s="402"/>
-      <c r="E44" s="402" t="str">
+      <c r="C44" s="391"/>
+      <c r="D44" s="391"/>
+      <c r="E44" s="391" t="str">
         <f>Februar!J43</f>
         <v/>
       </c>
-      <c r="F44" s="402"/>
-      <c r="G44" s="402"/>
-      <c r="H44" s="402" t="str">
+      <c r="F44" s="391"/>
+      <c r="G44" s="391"/>
+      <c r="H44" s="391" t="str">
         <f>März!J43</f>
         <v/>
       </c>
-      <c r="I44" s="402"/>
-      <c r="J44" s="402"/>
-      <c r="K44" s="402" t="str">
+      <c r="I44" s="391"/>
+      <c r="J44" s="391"/>
+      <c r="K44" s="391" t="str">
         <f>April!J43</f>
         <v/>
       </c>
-      <c r="L44" s="402"/>
-      <c r="M44" s="402"/>
-      <c r="N44" s="402" t="str">
+      <c r="L44" s="391"/>
+      <c r="M44" s="391"/>
+      <c r="N44" s="391" t="str">
         <f>Mai!J43</f>
         <v/>
       </c>
-      <c r="O44" s="402"/>
-      <c r="P44" s="402"/>
-      <c r="Q44" s="402" t="str">
+      <c r="O44" s="391"/>
+      <c r="P44" s="391"/>
+      <c r="Q44" s="391" t="str">
         <f>Juni!J43</f>
         <v/>
       </c>
-      <c r="R44" s="402"/>
-      <c r="S44" s="402"/>
-      <c r="T44" s="402" t="str">
+      <c r="R44" s="391"/>
+      <c r="S44" s="391"/>
+      <c r="T44" s="391" t="str">
         <f>Juli!J43</f>
         <v/>
       </c>
-      <c r="U44" s="402"/>
-      <c r="V44" s="402"/>
-      <c r="W44" s="402" t="str">
+      <c r="U44" s="391"/>
+      <c r="V44" s="391"/>
+      <c r="W44" s="391" t="str">
         <f>August!J43</f>
         <v/>
       </c>
-      <c r="X44" s="402"/>
-      <c r="Y44" s="402"/>
-      <c r="Z44" s="402" t="str">
+      <c r="X44" s="391"/>
+      <c r="Y44" s="391"/>
+      <c r="Z44" s="391" t="str">
         <f>September!J43</f>
         <v/>
       </c>
-      <c r="AA44" s="402"/>
-      <c r="AB44" s="402"/>
-      <c r="AC44" s="402" t="str">
+      <c r="AA44" s="391"/>
+      <c r="AB44" s="391"/>
+      <c r="AC44" s="391" t="str">
         <f>Oktober!J43</f>
         <v/>
       </c>
-      <c r="AD44" s="402"/>
-      <c r="AE44" s="402"/>
-      <c r="AF44" s="402" t="str">
+      <c r="AD44" s="391"/>
+      <c r="AE44" s="391"/>
+      <c r="AF44" s="391" t="str">
         <f>November!J43</f>
         <v/>
       </c>
-      <c r="AG44" s="402"/>
-      <c r="AH44" s="402"/>
-      <c r="AI44" s="402" t="str">
+      <c r="AG44" s="391"/>
+      <c r="AH44" s="391"/>
+      <c r="AI44" s="391" t="str">
         <f>Dezember!J43</f>
         <v/>
       </c>
-      <c r="AJ44" s="402"/>
-      <c r="AK44" s="402"/>
+      <c r="AJ44" s="391"/>
+      <c r="AK44" s="391"/>
       <c r="AL44" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25254,78 +25383,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B45" s="402" t="str">
+      <c r="B45" s="391" t="str">
         <f>Januar!J44</f>
         <v/>
       </c>
-      <c r="C45" s="402"/>
-      <c r="D45" s="402"/>
-      <c r="E45" s="402" t="str">
+      <c r="C45" s="391"/>
+      <c r="D45" s="391"/>
+      <c r="E45" s="391" t="str">
         <f>Februar!J44</f>
         <v/>
       </c>
-      <c r="F45" s="402"/>
-      <c r="G45" s="402"/>
-      <c r="H45" s="402" t="str">
+      <c r="F45" s="391"/>
+      <c r="G45" s="391"/>
+      <c r="H45" s="391" t="str">
         <f>März!J44</f>
         <v/>
       </c>
-      <c r="I45" s="402"/>
-      <c r="J45" s="402"/>
-      <c r="K45" s="402" t="str">
+      <c r="I45" s="391"/>
+      <c r="J45" s="391"/>
+      <c r="K45" s="391" t="str">
         <f>April!J44</f>
         <v/>
       </c>
-      <c r="L45" s="402"/>
-      <c r="M45" s="402"/>
-      <c r="N45" s="402" t="str">
+      <c r="L45" s="391"/>
+      <c r="M45" s="391"/>
+      <c r="N45" s="391" t="str">
         <f>Mai!J44</f>
         <v/>
       </c>
-      <c r="O45" s="402"/>
-      <c r="P45" s="402"/>
-      <c r="Q45" s="402" t="str">
+      <c r="O45" s="391"/>
+      <c r="P45" s="391"/>
+      <c r="Q45" s="391" t="str">
         <f>Juni!J44</f>
         <v/>
       </c>
-      <c r="R45" s="402"/>
-      <c r="S45" s="402"/>
-      <c r="T45" s="402" t="str">
+      <c r="R45" s="391"/>
+      <c r="S45" s="391"/>
+      <c r="T45" s="391" t="str">
         <f>Juli!J44</f>
         <v/>
       </c>
-      <c r="U45" s="402"/>
-      <c r="V45" s="402"/>
-      <c r="W45" s="402" t="str">
+      <c r="U45" s="391"/>
+      <c r="V45" s="391"/>
+      <c r="W45" s="391" t="str">
         <f>August!J44</f>
         <v/>
       </c>
-      <c r="X45" s="402"/>
-      <c r="Y45" s="402"/>
-      <c r="Z45" s="402" t="str">
+      <c r="X45" s="391"/>
+      <c r="Y45" s="391"/>
+      <c r="Z45" s="391" t="str">
         <f>September!J44</f>
         <v/>
       </c>
-      <c r="AA45" s="402"/>
-      <c r="AB45" s="402"/>
-      <c r="AC45" s="402" t="str">
+      <c r="AA45" s="391"/>
+      <c r="AB45" s="391"/>
+      <c r="AC45" s="391" t="str">
         <f>Oktober!J44</f>
         <v/>
       </c>
-      <c r="AD45" s="402"/>
-      <c r="AE45" s="402"/>
-      <c r="AF45" s="402" t="str">
+      <c r="AD45" s="391"/>
+      <c r="AE45" s="391"/>
+      <c r="AF45" s="391" t="str">
         <f>November!J44</f>
         <v/>
       </c>
-      <c r="AG45" s="402"/>
-      <c r="AH45" s="402"/>
-      <c r="AI45" s="402" t="str">
+      <c r="AG45" s="391"/>
+      <c r="AH45" s="391"/>
+      <c r="AI45" s="391" t="str">
         <f>Dezember!J44</f>
         <v/>
       </c>
-      <c r="AJ45" s="402"/>
-      <c r="AK45" s="402"/>
+      <c r="AJ45" s="391"/>
+      <c r="AK45" s="391"/>
       <c r="AL45" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25336,78 +25465,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B46" s="402" t="str">
+      <c r="B46" s="391" t="str">
         <f>Januar!J45</f>
         <v/>
       </c>
-      <c r="C46" s="402"/>
-      <c r="D46" s="402"/>
-      <c r="E46" s="402" t="str">
+      <c r="C46" s="391"/>
+      <c r="D46" s="391"/>
+      <c r="E46" s="391" t="str">
         <f>Februar!J45</f>
         <v/>
       </c>
-      <c r="F46" s="402"/>
-      <c r="G46" s="402"/>
-      <c r="H46" s="402" t="str">
+      <c r="F46" s="391"/>
+      <c r="G46" s="391"/>
+      <c r="H46" s="391" t="str">
         <f>März!J45</f>
         <v/>
       </c>
-      <c r="I46" s="402"/>
-      <c r="J46" s="402"/>
-      <c r="K46" s="402" t="str">
+      <c r="I46" s="391"/>
+      <c r="J46" s="391"/>
+      <c r="K46" s="391" t="str">
         <f>April!J45</f>
         <v/>
       </c>
-      <c r="L46" s="402"/>
-      <c r="M46" s="402"/>
-      <c r="N46" s="402" t="str">
+      <c r="L46" s="391"/>
+      <c r="M46" s="391"/>
+      <c r="N46" s="391" t="str">
         <f>Mai!J45</f>
         <v/>
       </c>
-      <c r="O46" s="402"/>
-      <c r="P46" s="402"/>
-      <c r="Q46" s="402" t="str">
+      <c r="O46" s="391"/>
+      <c r="P46" s="391"/>
+      <c r="Q46" s="391" t="str">
         <f>Juni!J45</f>
         <v/>
       </c>
-      <c r="R46" s="402"/>
-      <c r="S46" s="402"/>
-      <c r="T46" s="402" t="str">
+      <c r="R46" s="391"/>
+      <c r="S46" s="391"/>
+      <c r="T46" s="391" t="str">
         <f>Juli!J45</f>
         <v/>
       </c>
-      <c r="U46" s="402"/>
-      <c r="V46" s="402"/>
-      <c r="W46" s="402" t="str">
+      <c r="U46" s="391"/>
+      <c r="V46" s="391"/>
+      <c r="W46" s="391" t="str">
         <f>August!J45</f>
         <v/>
       </c>
-      <c r="X46" s="402"/>
-      <c r="Y46" s="402"/>
-      <c r="Z46" s="402" t="str">
+      <c r="X46" s="391"/>
+      <c r="Y46" s="391"/>
+      <c r="Z46" s="391" t="str">
         <f>September!J45</f>
         <v/>
       </c>
-      <c r="AA46" s="402"/>
-      <c r="AB46" s="402"/>
-      <c r="AC46" s="402" t="str">
+      <c r="AA46" s="391"/>
+      <c r="AB46" s="391"/>
+      <c r="AC46" s="391" t="str">
         <f>Oktober!J45</f>
         <v/>
       </c>
-      <c r="AD46" s="402"/>
-      <c r="AE46" s="402"/>
-      <c r="AF46" s="402" t="str">
+      <c r="AD46" s="391"/>
+      <c r="AE46" s="391"/>
+      <c r="AF46" s="391" t="str">
         <f>November!J45</f>
         <v/>
       </c>
-      <c r="AG46" s="402"/>
-      <c r="AH46" s="402"/>
-      <c r="AI46" s="402" t="str">
+      <c r="AG46" s="391"/>
+      <c r="AH46" s="391"/>
+      <c r="AI46" s="391" t="str">
         <f>Dezember!J45</f>
         <v/>
       </c>
-      <c r="AJ46" s="402"/>
-      <c r="AK46" s="402"/>
+      <c r="AJ46" s="391"/>
+      <c r="AK46" s="391"/>
       <c r="AL46" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25418,78 +25547,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B47" s="402" t="str">
+      <c r="B47" s="391" t="str">
         <f>Januar!J46</f>
         <v/>
       </c>
-      <c r="C47" s="402"/>
-      <c r="D47" s="402"/>
-      <c r="E47" s="402" t="str">
+      <c r="C47" s="391"/>
+      <c r="D47" s="391"/>
+      <c r="E47" s="391" t="str">
         <f>Februar!J46</f>
         <v/>
       </c>
-      <c r="F47" s="402"/>
-      <c r="G47" s="402"/>
-      <c r="H47" s="402" t="str">
+      <c r="F47" s="391"/>
+      <c r="G47" s="391"/>
+      <c r="H47" s="391" t="str">
         <f>März!J46</f>
         <v/>
       </c>
-      <c r="I47" s="402"/>
-      <c r="J47" s="402"/>
-      <c r="K47" s="402" t="str">
+      <c r="I47" s="391"/>
+      <c r="J47" s="391"/>
+      <c r="K47" s="391" t="str">
         <f>April!J46</f>
         <v/>
       </c>
-      <c r="L47" s="402"/>
-      <c r="M47" s="402"/>
-      <c r="N47" s="402" t="str">
+      <c r="L47" s="391"/>
+      <c r="M47" s="391"/>
+      <c r="N47" s="391" t="str">
         <f>Mai!J46</f>
         <v/>
       </c>
-      <c r="O47" s="402"/>
-      <c r="P47" s="402"/>
-      <c r="Q47" s="402" t="str">
+      <c r="O47" s="391"/>
+      <c r="P47" s="391"/>
+      <c r="Q47" s="391" t="str">
         <f>Juni!J46</f>
         <v/>
       </c>
-      <c r="R47" s="402"/>
-      <c r="S47" s="402"/>
-      <c r="T47" s="402" t="str">
+      <c r="R47" s="391"/>
+      <c r="S47" s="391"/>
+      <c r="T47" s="391" t="str">
         <f>Juli!J46</f>
         <v/>
       </c>
-      <c r="U47" s="402"/>
-      <c r="V47" s="402"/>
-      <c r="W47" s="402" t="str">
+      <c r="U47" s="391"/>
+      <c r="V47" s="391"/>
+      <c r="W47" s="391" t="str">
         <f>August!J46</f>
         <v/>
       </c>
-      <c r="X47" s="402"/>
-      <c r="Y47" s="402"/>
-      <c r="Z47" s="402" t="str">
+      <c r="X47" s="391"/>
+      <c r="Y47" s="391"/>
+      <c r="Z47" s="391" t="str">
         <f>September!J46</f>
         <v/>
       </c>
-      <c r="AA47" s="402"/>
-      <c r="AB47" s="402"/>
-      <c r="AC47" s="402" t="str">
+      <c r="AA47" s="391"/>
+      <c r="AB47" s="391"/>
+      <c r="AC47" s="391" t="str">
         <f>Oktober!J46</f>
         <v/>
       </c>
-      <c r="AD47" s="402"/>
-      <c r="AE47" s="402"/>
-      <c r="AF47" s="402" t="str">
+      <c r="AD47" s="391"/>
+      <c r="AE47" s="391"/>
+      <c r="AF47" s="391" t="str">
         <f>November!J46</f>
         <v/>
       </c>
-      <c r="AG47" s="402"/>
-      <c r="AH47" s="402"/>
-      <c r="AI47" s="402" t="str">
+      <c r="AG47" s="391"/>
+      <c r="AH47" s="391"/>
+      <c r="AI47" s="391" t="str">
         <f>Dezember!J46</f>
         <v/>
       </c>
-      <c r="AJ47" s="402"/>
-      <c r="AK47" s="402"/>
+      <c r="AJ47" s="391"/>
+      <c r="AK47" s="391"/>
       <c r="AL47" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25500,78 +25629,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B48" s="403" t="str">
+      <c r="B48" s="392" t="str">
         <f>Januar!J47</f>
         <v/>
       </c>
-      <c r="C48" s="403"/>
-      <c r="D48" s="403"/>
-      <c r="E48" s="403" t="str">
+      <c r="C48" s="392"/>
+      <c r="D48" s="392"/>
+      <c r="E48" s="392" t="str">
         <f>Februar!J47</f>
         <v/>
       </c>
-      <c r="F48" s="403"/>
-      <c r="G48" s="403"/>
-      <c r="H48" s="403" t="str">
+      <c r="F48" s="392"/>
+      <c r="G48" s="392"/>
+      <c r="H48" s="392" t="str">
         <f>März!J47</f>
         <v/>
       </c>
-      <c r="I48" s="403"/>
-      <c r="J48" s="403"/>
-      <c r="K48" s="403" t="str">
+      <c r="I48" s="392"/>
+      <c r="J48" s="392"/>
+      <c r="K48" s="392" t="str">
         <f>April!J47</f>
         <v/>
       </c>
-      <c r="L48" s="403"/>
-      <c r="M48" s="403"/>
-      <c r="N48" s="403" t="str">
+      <c r="L48" s="392"/>
+      <c r="M48" s="392"/>
+      <c r="N48" s="392" t="str">
         <f>Mai!J47</f>
         <v/>
       </c>
-      <c r="O48" s="403"/>
-      <c r="P48" s="403"/>
-      <c r="Q48" s="403" t="str">
+      <c r="O48" s="392"/>
+      <c r="P48" s="392"/>
+      <c r="Q48" s="392" t="str">
         <f>Juni!J47</f>
         <v/>
       </c>
-      <c r="R48" s="403"/>
-      <c r="S48" s="403"/>
-      <c r="T48" s="403" t="str">
+      <c r="R48" s="392"/>
+      <c r="S48" s="392"/>
+      <c r="T48" s="392" t="str">
         <f>Juli!J47</f>
         <v/>
       </c>
-      <c r="U48" s="403"/>
-      <c r="V48" s="403"/>
-      <c r="W48" s="403" t="str">
+      <c r="U48" s="392"/>
+      <c r="V48" s="392"/>
+      <c r="W48" s="392" t="str">
         <f>August!J47</f>
         <v/>
       </c>
-      <c r="X48" s="403"/>
-      <c r="Y48" s="403"/>
-      <c r="Z48" s="403" t="str">
+      <c r="X48" s="392"/>
+      <c r="Y48" s="392"/>
+      <c r="Z48" s="392" t="str">
         <f>September!J47</f>
         <v/>
       </c>
-      <c r="AA48" s="403"/>
-      <c r="AB48" s="403"/>
-      <c r="AC48" s="403" t="str">
+      <c r="AA48" s="392"/>
+      <c r="AB48" s="392"/>
+      <c r="AC48" s="392" t="str">
         <f>Oktober!J47</f>
         <v/>
       </c>
-      <c r="AD48" s="403"/>
-      <c r="AE48" s="403"/>
-      <c r="AF48" s="403" t="str">
+      <c r="AD48" s="392"/>
+      <c r="AE48" s="392"/>
+      <c r="AF48" s="392" t="str">
         <f>November!J47</f>
         <v/>
       </c>
-      <c r="AG48" s="403"/>
-      <c r="AH48" s="403"/>
-      <c r="AI48" s="403" t="str">
+      <c r="AG48" s="392"/>
+      <c r="AH48" s="392"/>
+      <c r="AI48" s="392" t="str">
         <f>Dezember!J47</f>
         <v/>
       </c>
-      <c r="AJ48" s="403"/>
-      <c r="AK48" s="403"/>
+      <c r="AJ48" s="392"/>
+      <c r="AK48" s="392"/>
       <c r="AL48" s="330">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25581,78 +25710,78 @@
       <c r="A49" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="404">
+      <c r="B49" s="390">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="404"/>
-      <c r="D49" s="404"/>
-      <c r="E49" s="404">
+      <c r="C49" s="390"/>
+      <c r="D49" s="390"/>
+      <c r="E49" s="390">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F49" s="404"/>
-      <c r="G49" s="404"/>
-      <c r="H49" s="404">
+      <c r="F49" s="390"/>
+      <c r="G49" s="390"/>
+      <c r="H49" s="390">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I49" s="404"/>
-      <c r="J49" s="404"/>
-      <c r="K49" s="404">
+      <c r="I49" s="390"/>
+      <c r="J49" s="390"/>
+      <c r="K49" s="390">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L49" s="404"/>
-      <c r="M49" s="404"/>
-      <c r="N49" s="404">
+      <c r="L49" s="390"/>
+      <c r="M49" s="390"/>
+      <c r="N49" s="390">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O49" s="404"/>
-      <c r="P49" s="404"/>
-      <c r="Q49" s="404">
+      <c r="O49" s="390"/>
+      <c r="P49" s="390"/>
+      <c r="Q49" s="390">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R49" s="404"/>
-      <c r="S49" s="404"/>
-      <c r="T49" s="404">
+      <c r="R49" s="390"/>
+      <c r="S49" s="390"/>
+      <c r="T49" s="390">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U49" s="404"/>
-      <c r="V49" s="404"/>
-      <c r="W49" s="404">
+      <c r="U49" s="390"/>
+      <c r="V49" s="390"/>
+      <c r="W49" s="390">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X49" s="404"/>
-      <c r="Y49" s="404"/>
-      <c r="Z49" s="404">
+      <c r="X49" s="390"/>
+      <c r="Y49" s="390"/>
+      <c r="Z49" s="390">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="404"/>
-      <c r="AB49" s="404"/>
-      <c r="AC49" s="404">
+      <c r="AA49" s="390"/>
+      <c r="AB49" s="390"/>
+      <c r="AC49" s="390">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="404"/>
-      <c r="AE49" s="404"/>
-      <c r="AF49" s="404">
+      <c r="AD49" s="390"/>
+      <c r="AE49" s="390"/>
+      <c r="AF49" s="390">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="404"/>
-      <c r="AH49" s="404"/>
-      <c r="AI49" s="404">
+      <c r="AG49" s="390"/>
+      <c r="AH49" s="390"/>
+      <c r="AI49" s="390">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="404"/>
-      <c r="AK49" s="404"/>
+      <c r="AJ49" s="390"/>
+      <c r="AK49" s="390"/>
       <c r="AL49" s="332">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25661,18 +25790,166 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NAjAwljj5JLvGzE8LseGj02m9hGGtNOxZYyQ4RYzLUwmhLc0GdS/WayRdfnZYrqGRN4HeHSkhJxjaDM3q7ar7w==" saltValue="QdbqNTRdSMrA/zOfFCB8ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="196">
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="AC47:AE47"/>
     <mergeCell ref="AF47:AH47"/>
     <mergeCell ref="AI47:AK47"/>
@@ -25697,166 +25974,18 @@
     <mergeCell ref="T47:V47"/>
     <mergeCell ref="W47:Y47"/>
     <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
     <cfRule type="expression" dxfId="23" priority="2">
@@ -29476,6 +29605,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="Q1:S1"/>
@@ -29483,11 +29617,6 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -29531,7 +29660,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29552,7 +29681,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -29579,7 +29708,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -30162,16 +30291,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,1,1)</f>
         <v>42369</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -30182,20 +30311,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -30203,11 +30332,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
@@ -30229,10 +30358,10 @@
       <c r="G3" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="382" t="s">
+      <c r="H3" s="387" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="382"/>
+      <c r="I3" s="387"/>
       <c r="J3" s="178" t="s">
         <v>25</v>
       </c>
@@ -31686,13 +31815,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -31717,14 +31846,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -31749,13 +31878,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31773,13 +31902,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -31803,13 +31932,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31824,14 +31953,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -31848,14 +31977,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -31876,14 +32005,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -31900,14 +32029,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -31924,14 +32053,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -31952,14 +32081,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -31968,21 +32097,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lp/gUAhG/NxZFg3ZxNZpc/OMzuBWhvAjWYsACyturmzwEz4MrdPY4Z7bq2mhYT4TO4KC+V+re4wY95aL7XG1tQ==" saltValue="hjUq3gkEjcUTitg1OCiokA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="144" priority="2">
@@ -32065,16 +32194,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,2,1)</f>
         <v>42400</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -32085,20 +32214,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -32106,11 +32235,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -33590,13 +33719,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -33622,14 +33751,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -33655,13 +33784,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33680,13 +33809,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -33711,13 +33840,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33752,14 +33881,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -33779,14 +33908,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -33810,14 +33939,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -33837,14 +33966,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -33864,14 +33993,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -33895,14 +34024,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -33911,21 +34040,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="okIzBtHKggQ01MGGC2bszYk91StqozcmrYdftDgOilTYlvdE0Pl7X/6VKmLBwp+KgXmMJxumD3QyyxK99J0gUQ==" saltValue="ZOtWP+MiiqCmy7p7S++Ahg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="136" priority="2">
@@ -34016,16 +34145,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,3,1)</f>
         <v>42429</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -34036,20 +34165,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -34057,11 +34186,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -35557,13 +35686,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -35589,14 +35718,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -35622,13 +35751,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35647,13 +35776,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -35678,13 +35807,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35719,14 +35848,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -35746,14 +35875,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -35777,14 +35906,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -35804,14 +35933,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -35831,14 +35960,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -35862,14 +35991,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -35878,21 +36007,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8bs5maBzQkpyWCWnfl5Y0EE0IEYlqNMuKPAycQ9E2wZgEzT6ibfX2pN8bX4JzzAJkR75IpPZSDHXpEZi94/j+w==" saltValue="YxFepfb/JmJZGcAKQ4IRSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="126" priority="2">
@@ -35983,16 +36112,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,4,1)</f>
         <v>42460</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -36003,20 +36132,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -36024,11 +36153,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -37666,13 +37795,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -37698,14 +37827,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -37731,13 +37860,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37756,13 +37885,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -37787,13 +37916,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>6</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37828,14 +37957,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -37855,14 +37984,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -37886,14 +38015,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -37913,14 +38042,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -37940,14 +38069,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -37971,14 +38100,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -37987,21 +38116,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oi4D8G4bpKsjvNQAOV1IVD5oC246U1tsOknZR5CKhoaFKJim1Y4VsiD+22BHLJMb/nIlWvWONK0BmT35EEtHBw==" saltValue="4I5lsQG8NfttgzRFKQim+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="116" priority="2">
@@ -38097,16 +38226,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,5,1)</f>
         <v>42490</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -38117,20 +38246,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -38138,11 +38267,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -39752,13 +39881,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -39784,14 +39913,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -39817,13 +39946,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39842,13 +39971,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -39873,13 +40002,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>17</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39914,14 +40043,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -39941,14 +40070,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -39972,14 +40101,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -39999,14 +40128,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -40026,14 +40155,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -40057,14 +40186,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -40073,21 +40202,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QE1OXV5P+vCQbWDCwyrZigSC30Vre5KDIK3YefI6iJ2kBvo5eJZ3P2WpMdeyjVmOLwE7gtGXH8QYo5l1KTRF3g==" saltValue="r1rnDj8jh4CoB2lzDE4Hjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="105" priority="2">
@@ -40186,16 +40315,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,6,1)</f>
         <v>42521</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -40206,20 +40335,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -40227,11 +40356,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -41823,13 +41952,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -41855,14 +41984,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -41888,13 +42017,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41913,13 +42042,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -41944,13 +42073,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>14</v>
       </c>
-      <c r="K40" s="385" t="s">
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41985,14 +42114,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -42012,14 +42141,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -42043,14 +42172,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -42070,14 +42199,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -42097,14 +42226,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -42128,14 +42257,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -42144,21 +42273,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FLGQGPkIrZFJRYfIzM5dNAg+vmhj9bs+eX+BsfoXkS85xz/DWFzyxzWRzBLXdkZU/6+8Lk0XkXSRD1REULPCKQ==" saltValue="/ZQvF5XqnLB5M3rbo0of0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="93" priority="2">
@@ -42227,7 +42356,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -42249,16 +42378,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="379">
+      <c r="A1" s="384">
         <f>DATE(Jahr,7,1)</f>
         <v>42551</v>
       </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -42269,20 +42398,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="380" t="str">
+      <c r="O1" s="385" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="380"/>
+      <c r="P1" s="385"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="A2" s="384"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -42290,11 +42419,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="381" t="str">
+      <c r="O2" s="386" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="381"/>
+      <c r="P2" s="386"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -42723,19 +42852,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
+      <c r="D12" s="200">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E12" s="200">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F12" s="200"/>
       <c r="G12" s="200"/>
-      <c r="H12" s="201"/>
+      <c r="H12" s="201">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I12" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J12" s="203"/>
       <c r="K12" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="L12" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -42743,16 +42878,18 @@
       </c>
       <c r="M12" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16666666666666999</v>
+        <v>0.13194444444444001</v>
       </c>
       <c r="N12" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.16666666666666699</v>
       </c>
-      <c r="O12" s="208"/>
+      <c r="O12" s="208" t="s">
+        <v>193</v>
+      </c>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8277777777777802</v>
+        <v>3.12638888888889</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42768,19 +42905,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
+      <c r="D13" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13" s="200">
+        <v>0.75</v>
+      </c>
       <c r="F13" s="200"/>
       <c r="G13" s="200"/>
-      <c r="H13" s="201"/>
+      <c r="H13" s="201">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I13" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J13" s="203"/>
       <c r="K13" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.34027777777777779</v>
       </c>
       <c r="L13" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -42788,16 +42931,18 @@
       </c>
       <c r="M13" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>6.9444444444399997E-3</v>
       </c>
       <c r="N13" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O13" s="208"/>
+      <c r="O13" s="208" t="s">
+        <v>190</v>
+      </c>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4944444444444498</v>
+        <v>3.1333333333333302</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42842,7 +42987,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4944444444444498</v>
+        <v>3.1333333333333302</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42887,7 +43032,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4944444444444498</v>
+        <v>3.1333333333333302</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42932,7 +43077,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4944444444444498</v>
+        <v>3.1333333333333302</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42977,7 +43122,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4944444444444498</v>
+        <v>3.1333333333333302</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42993,19 +43138,23 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
+      <c r="D18" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E18" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F18" s="200"/>
       <c r="G18" s="200"/>
       <c r="H18" s="201"/>
       <c r="I18" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J18" s="203"/>
       <c r="K18" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="L18" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -43013,16 +43162,18 @@
       </c>
       <c r="M18" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N18" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O18" s="208"/>
+      <c r="O18" s="208" t="s">
+        <v>191</v>
+      </c>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1611111111111199</v>
+        <v>3.1958333333333302</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43038,11 +43189,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
+      <c r="D19" s="200">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E19" s="200">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F19" s="200"/>
       <c r="G19" s="200"/>
-      <c r="H19" s="201"/>
+      <c r="H19" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I19" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -43050,7 +43207,7 @@
       <c r="J19" s="203"/>
       <c r="K19" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.24999999999999992</v>
       </c>
       <c r="L19" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -43058,16 +43215,18 @@
       </c>
       <c r="M19" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16666666666666999</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="N19" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.16666666666666699</v>
       </c>
-      <c r="O19" s="208"/>
+      <c r="O19" s="208" t="s">
+        <v>194</v>
+      </c>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.99444444444445</v>
+        <v>3.2791666666666601</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43083,11 +43242,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
+      <c r="D20" s="200">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E20" s="200">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F20" s="200"/>
       <c r="G20" s="200"/>
-      <c r="H20" s="201"/>
+      <c r="H20" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I20" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -43095,7 +43260,7 @@
       <c r="J20" s="203"/>
       <c r="K20" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.35416666666666674</v>
       </c>
       <c r="L20" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -43103,16 +43268,18 @@
       </c>
       <c r="M20" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="N20" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O20" s="208"/>
+      <c r="O20" s="208" t="s">
+        <v>192</v>
+      </c>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6611111111111201</v>
+        <v>3.2999999999999901</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43157,7 +43324,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6611111111111201</v>
+        <v>3.2999999999999901</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43173,8 +43340,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
+      <c r="D22" s="200">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E22" s="200">
+        <v>0.75</v>
+      </c>
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
       <c r="H22" s="201"/>
@@ -43185,7 +43356,7 @@
       <c r="J22" s="203"/>
       <c r="K22" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="L22" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -43193,16 +43364,18 @@
       </c>
       <c r="M22" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.16666666666666999</v>
       </c>
       <c r="N22" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O22" s="208"/>
+      <c r="O22" s="208" t="s">
+        <v>189</v>
+      </c>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6611111111111201</v>
+        <v>3.4666666666666601</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43247,7 +43420,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6611111111111201</v>
+        <v>3.4666666666666601</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43292,7 +43465,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6611111111111201</v>
+        <v>3.4666666666666601</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43308,11 +43481,21 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
+      <c r="D25" s="200">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E25" s="200">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F25" s="200">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G25" s="200">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H25" s="201">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I25" s="202" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -43320,7 +43503,7 @@
       <c r="J25" s="203"/>
       <c r="K25" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.40277777777777779</v>
       </c>
       <c r="L25" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -43328,16 +43511,18 @@
       </c>
       <c r="M25" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>6.9444444444440007E-2</v>
       </c>
       <c r="N25" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O25" s="208"/>
+      <c r="O25" s="208" t="s">
+        <v>188</v>
+      </c>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3277777777777899</v>
+        <v>3.5361111111110999</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43382,7 +43567,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1611111111111201</v>
+        <v>3.3694444444444298</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43427,7 +43612,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82777777777779005</v>
+        <v>3.0361111111110999</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43472,7 +43657,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82777777777779005</v>
+        <v>3.0361111111110999</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43517,7 +43702,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82777777777779005</v>
+        <v>3.0361111111110999</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43562,7 +43747,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82777777777779005</v>
+        <v>3.0361111111110999</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43607,7 +43792,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82777777777779005</v>
+        <v>3.0361111111110999</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43652,7 +43837,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49444444444446001</v>
+        <v>2.70277777777777</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43697,7 +43882,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32777777777778999</v>
+        <v>2.5361111111110999</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -43742,7 +43927,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.5555555555399996E-3</v>
+        <v>2.20277777777777</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -43782,13 +43967,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="383" t="s">
+      <c r="K36" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="383"/>
-      <c r="M36" s="383"/>
-      <c r="N36" s="383"/>
-      <c r="O36" s="383"/>
+      <c r="L36" s="388"/>
+      <c r="M36" s="388"/>
+      <c r="N36" s="388"/>
+      <c r="O36" s="388"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -43814,14 +43999,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="384" t="str">
+      <c r="K37" s="381" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="384"/>
-      <c r="M37" s="384"/>
-      <c r="N37" s="384"/>
-      <c r="O37" s="384"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -43838,7 +44023,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>0.37152777777777773</v>
+        <v>2.5798611111111107</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -43847,13 +44032,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="384" t="s">
+      <c r="K38" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="384"/>
-      <c r="M38" s="384"/>
-      <c r="N38" s="384"/>
-      <c r="O38" s="384"/>
+      <c r="L38" s="381"/>
+      <c r="M38" s="381"/>
+      <c r="N38" s="381"/>
+      <c r="O38" s="381"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43872,13 +44057,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="384" t="s">
+      <c r="K39" s="381" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="384"/>
-      <c r="M39" s="384"/>
-      <c r="N39" s="384"/>
-      <c r="O39" s="384"/>
+      <c r="L39" s="381"/>
+      <c r="M39" s="381"/>
+      <c r="N39" s="381"/>
+      <c r="O39" s="381"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -43894,22 +44079,22 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-5.5555555555500003E-3</v>
+        <v>2.2027777777777899</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="385" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="382" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="385"/>
-      <c r="M40" s="385"/>
-      <c r="N40" s="385"/>
-      <c r="O40" s="385"/>
+      <c r="L40" s="382"/>
+      <c r="M40" s="382"/>
+      <c r="N40" s="382"/>
+      <c r="O40" s="382"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43944,14 +44129,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="386" t="str">
+      <c r="K42" s="383" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="386"/>
-      <c r="M42" s="386"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="386"/>
+      <c r="L42" s="383"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="383"/>
+      <c r="O42" s="383"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -43971,14 +44156,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="387" t="str">
+      <c r="K43" s="379" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387"/>
-      <c r="O43" s="387"/>
+      <c r="L43" s="379"/>
+      <c r="M43" s="379"/>
+      <c r="N43" s="379"/>
+      <c r="O43" s="379"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -44002,14 +44187,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="387" t="str">
+      <c r="K44" s="379" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="387"/>
-      <c r="M44" s="387"/>
-      <c r="N44" s="387"/>
-      <c r="O44" s="387"/>
+      <c r="L44" s="379"/>
+      <c r="M44" s="379"/>
+      <c r="N44" s="379"/>
+      <c r="O44" s="379"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -44029,14 +44214,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="387" t="str">
+      <c r="K45" s="379" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="387"/>
-      <c r="M45" s="387"/>
-      <c r="N45" s="387"/>
-      <c r="O45" s="387"/>
+      <c r="L45" s="379"/>
+      <c r="M45" s="379"/>
+      <c r="N45" s="379"/>
+      <c r="O45" s="379"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -44056,14 +44241,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="387" t="str">
+      <c r="K46" s="379" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="387"/>
-      <c r="M46" s="387"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
+      <c r="L46" s="379"/>
+      <c r="M46" s="379"/>
+      <c r="N46" s="379"/>
+      <c r="O46" s="379"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -44087,14 +44272,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="388" t="str">
+      <c r="K47" s="380" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
+      <c r="L47" s="380"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="380"/>
+      <c r="O47" s="380"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -44103,21 +44288,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nomVLiSrDW6BfAYDAAIKepzv9c2fIXYLpRACXJd2H6GVs9wfhFNHh71b99zQzqGFAVmbKlb4Q6ZmMw43Z1PLzg==" saltValue="Qh9BryrLdDjvbd7vasrV7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="K43:O43"/>
     <mergeCell ref="K44:O44"/>
     <mergeCell ref="K45:O45"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K36:O36"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
     <cfRule type="expression" dxfId="83" priority="2">
